--- a/Project estimation.xlsx
+++ b/Project estimation.xlsx
@@ -13,14 +13,14 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'PROJECT PLAN'!$A$7:$H$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'PROJECT PLAN'!$A$7:$H$59</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="134">
   <si>
     <t>STT</t>
   </si>
@@ -388,9 +388,6 @@
     <t>Test toàn bộ chức năng, giao diện website</t>
   </si>
   <si>
-    <t>Thiết lập vận chuyển</t>
-  </si>
-  <si>
     <t>Tối ưu website</t>
   </si>
   <si>
@@ -403,9 +400,6 @@
     <t>Test và sửa lỗi các chức năng</t>
   </si>
   <si>
-    <t>Thiết lập chức năng chọn hình thức và đơn vị vân chuyển</t>
-  </si>
-  <si>
     <t>Tối ưu tốc độ website</t>
   </si>
   <si>
@@ -419,6 +413,15 @@
   </si>
   <si>
     <t>Tổng</t>
+  </si>
+  <si>
+    <t>Tài khoản cá nhân</t>
+  </si>
+  <si>
+    <t>Thiết kế chức năng tài khoản cá nhân</t>
+  </si>
+  <si>
+    <t>Test tài khoản cá nhân</t>
   </si>
 </sst>
 </file>
@@ -859,19 +862,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -922,67 +913,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1037,12 +968,82 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1266,3101 +1267,3101 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7" style="99" customWidth="1"/>
-    <col min="2" max="2" width="92.5703125" style="116" customWidth="1"/>
-    <col min="3" max="16384" width="14.42578125" style="99"/>
+    <col min="1" max="1" width="7" style="73" customWidth="1"/>
+    <col min="2" max="2" width="92.5703125" style="90" customWidth="1"/>
+    <col min="3" max="16384" width="14.42578125" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12.75">
-      <c r="B1" s="100"/>
+      <c r="B1" s="74"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="103" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="103" t="s">
+      <c r="E2" s="77" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="104"/>
-      <c r="B3" s="105" t="s">
+      <c r="A3" s="78"/>
+      <c r="B3" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="107">
+      <c r="D3" s="81">
         <v>44284</v>
       </c>
-      <c r="E3" s="108">
+      <c r="E3" s="82">
         <v>44318</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="109">
+      <c r="A4" s="83">
         <v>1</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="108">
+      <c r="D4" s="82">
         <v>44284</v>
       </c>
-      <c r="E4" s="108">
+      <c r="E4" s="82">
         <v>44290</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A5" s="104">
+      <c r="A5" s="78">
         <v>2</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="113">
+      <c r="D5" s="87">
         <v>44291</v>
       </c>
-      <c r="E5" s="114">
+      <c r="E5" s="88">
         <v>44297</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A6" s="109">
+      <c r="A6" s="83">
         <v>3</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="108">
+      <c r="D6" s="82">
         <v>44298</v>
       </c>
-      <c r="E6" s="108">
+      <c r="E6" s="82">
         <v>44304</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A7" s="104">
+      <c r="A7" s="78">
         <v>4</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="113">
+      <c r="D7" s="87">
         <v>44305</v>
       </c>
-      <c r="E7" s="113">
+      <c r="E7" s="87">
         <v>44311</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="109">
+      <c r="A8" s="83">
         <v>5</v>
       </c>
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="111" t="s">
+      <c r="C8" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="108">
+      <c r="D8" s="82">
         <v>44312</v>
       </c>
-      <c r="E8" s="108">
+      <c r="E8" s="82">
         <v>44318</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75">
-      <c r="B9" s="100"/>
+      <c r="B9" s="74"/>
     </row>
     <row r="10" spans="1:5" ht="12.75">
-      <c r="B10" s="100"/>
+      <c r="B10" s="74"/>
     </row>
     <row r="11" spans="1:5" ht="12.75">
-      <c r="B11" s="100"/>
+      <c r="B11" s="74"/>
     </row>
     <row r="12" spans="1:5" ht="12.75">
-      <c r="B12" s="100"/>
+      <c r="B12" s="74"/>
     </row>
     <row r="13" spans="1:5" ht="12.75">
-      <c r="B13" s="100"/>
+      <c r="B13" s="74"/>
     </row>
     <row r="14" spans="1:5" ht="12.75">
-      <c r="B14" s="100"/>
+      <c r="B14" s="74"/>
     </row>
     <row r="15" spans="1:5" ht="12.75">
-      <c r="B15" s="100"/>
+      <c r="B15" s="74"/>
     </row>
     <row r="16" spans="1:5" ht="12.75">
-      <c r="B16" s="100"/>
+      <c r="B16" s="74"/>
     </row>
     <row r="17" spans="2:2" ht="12.75">
-      <c r="B17" s="100"/>
+      <c r="B17" s="74"/>
     </row>
     <row r="18" spans="2:2" ht="12.75">
-      <c r="B18" s="100"/>
+      <c r="B18" s="74"/>
     </row>
     <row r="19" spans="2:2" ht="12.75">
-      <c r="B19" s="100"/>
+      <c r="B19" s="74"/>
     </row>
     <row r="20" spans="2:2" ht="12.75">
-      <c r="B20" s="100"/>
+      <c r="B20" s="74"/>
     </row>
     <row r="21" spans="2:2" ht="12.75">
-      <c r="B21" s="100"/>
+      <c r="B21" s="74"/>
     </row>
     <row r="22" spans="2:2" ht="12.75">
-      <c r="B22" s="100"/>
+      <c r="B22" s="74"/>
     </row>
     <row r="23" spans="2:2" ht="12.75">
-      <c r="B23" s="100"/>
+      <c r="B23" s="74"/>
     </row>
     <row r="24" spans="2:2" ht="12.75">
-      <c r="B24" s="100"/>
+      <c r="B24" s="74"/>
     </row>
     <row r="25" spans="2:2" ht="12.75">
-      <c r="B25" s="100"/>
+      <c r="B25" s="74"/>
     </row>
     <row r="26" spans="2:2" ht="12.75">
-      <c r="B26" s="100"/>
+      <c r="B26" s="74"/>
     </row>
     <row r="27" spans="2:2" ht="12.75">
-      <c r="B27" s="100"/>
+      <c r="B27" s="74"/>
     </row>
     <row r="28" spans="2:2" ht="12.75">
-      <c r="B28" s="100"/>
+      <c r="B28" s="74"/>
     </row>
     <row r="29" spans="2:2" ht="12.75">
-      <c r="B29" s="100"/>
+      <c r="B29" s="74"/>
     </row>
     <row r="30" spans="2:2" ht="12.75">
-      <c r="B30" s="100"/>
+      <c r="B30" s="74"/>
     </row>
     <row r="31" spans="2:2" ht="12.75">
-      <c r="B31" s="100"/>
+      <c r="B31" s="74"/>
     </row>
     <row r="32" spans="2:2" ht="12.75">
-      <c r="B32" s="100"/>
+      <c r="B32" s="74"/>
     </row>
     <row r="33" spans="2:2" ht="12.75">
-      <c r="B33" s="100"/>
+      <c r="B33" s="74"/>
     </row>
     <row r="34" spans="2:2" ht="12.75">
-      <c r="B34" s="100"/>
+      <c r="B34" s="74"/>
     </row>
     <row r="35" spans="2:2" ht="12.75">
-      <c r="B35" s="100"/>
+      <c r="B35" s="74"/>
     </row>
     <row r="36" spans="2:2" ht="12.75">
-      <c r="B36" s="100"/>
+      <c r="B36" s="74"/>
     </row>
     <row r="37" spans="2:2" ht="12.75">
-      <c r="B37" s="100"/>
+      <c r="B37" s="74"/>
     </row>
     <row r="38" spans="2:2" ht="12.75">
-      <c r="B38" s="100"/>
+      <c r="B38" s="74"/>
     </row>
     <row r="39" spans="2:2" ht="12.75">
-      <c r="B39" s="100"/>
+      <c r="B39" s="74"/>
     </row>
     <row r="40" spans="2:2" ht="12.75">
-      <c r="B40" s="100"/>
+      <c r="B40" s="74"/>
     </row>
     <row r="41" spans="2:2" ht="12.75">
-      <c r="B41" s="100"/>
+      <c r="B41" s="74"/>
     </row>
     <row r="42" spans="2:2" ht="12.75">
-      <c r="B42" s="100"/>
+      <c r="B42" s="74"/>
     </row>
     <row r="43" spans="2:2" ht="12.75">
-      <c r="B43" s="100"/>
+      <c r="B43" s="74"/>
     </row>
     <row r="44" spans="2:2" ht="12.75">
-      <c r="B44" s="100"/>
+      <c r="B44" s="74"/>
     </row>
     <row r="45" spans="2:2" ht="12.75">
-      <c r="B45" s="100"/>
+      <c r="B45" s="74"/>
     </row>
     <row r="46" spans="2:2" ht="12.75">
-      <c r="B46" s="100"/>
+      <c r="B46" s="74"/>
     </row>
     <row r="47" spans="2:2" ht="12.75">
-      <c r="B47" s="100"/>
+      <c r="B47" s="74"/>
     </row>
     <row r="48" spans="2:2" ht="12.75">
-      <c r="B48" s="100"/>
+      <c r="B48" s="74"/>
     </row>
     <row r="49" spans="2:2" ht="12.75">
-      <c r="B49" s="100"/>
+      <c r="B49" s="74"/>
     </row>
     <row r="50" spans="2:2" ht="12.75">
-      <c r="B50" s="100"/>
+      <c r="B50" s="74"/>
     </row>
     <row r="51" spans="2:2" ht="12.75">
-      <c r="B51" s="100"/>
+      <c r="B51" s="74"/>
     </row>
     <row r="52" spans="2:2" ht="12.75">
-      <c r="B52" s="100"/>
+      <c r="B52" s="74"/>
     </row>
     <row r="53" spans="2:2" ht="12.75">
-      <c r="B53" s="100"/>
+      <c r="B53" s="74"/>
     </row>
     <row r="54" spans="2:2" ht="12.75">
-      <c r="B54" s="100"/>
+      <c r="B54" s="74"/>
     </row>
     <row r="55" spans="2:2" ht="12.75">
-      <c r="B55" s="100"/>
+      <c r="B55" s="74"/>
     </row>
     <row r="56" spans="2:2" ht="12.75">
-      <c r="B56" s="100"/>
+      <c r="B56" s="74"/>
     </row>
     <row r="57" spans="2:2" ht="12.75">
-      <c r="B57" s="100"/>
+      <c r="B57" s="74"/>
     </row>
     <row r="58" spans="2:2" ht="12.75">
-      <c r="B58" s="100"/>
+      <c r="B58" s="74"/>
     </row>
     <row r="59" spans="2:2" ht="12.75">
-      <c r="B59" s="100"/>
+      <c r="B59" s="74"/>
     </row>
     <row r="60" spans="2:2" ht="12.75">
-      <c r="B60" s="100"/>
+      <c r="B60" s="74"/>
     </row>
     <row r="61" spans="2:2" ht="12.75">
-      <c r="B61" s="100"/>
+      <c r="B61" s="74"/>
     </row>
     <row r="62" spans="2:2" ht="12.75">
-      <c r="B62" s="100"/>
+      <c r="B62" s="74"/>
     </row>
     <row r="63" spans="2:2" ht="12.75">
-      <c r="B63" s="100"/>
+      <c r="B63" s="74"/>
     </row>
     <row r="64" spans="2:2" ht="12.75">
-      <c r="B64" s="100"/>
+      <c r="B64" s="74"/>
     </row>
     <row r="65" spans="2:2" ht="12.75">
-      <c r="B65" s="100"/>
+      <c r="B65" s="74"/>
     </row>
     <row r="66" spans="2:2" ht="12.75">
-      <c r="B66" s="100"/>
+      <c r="B66" s="74"/>
     </row>
     <row r="67" spans="2:2" ht="12.75">
-      <c r="B67" s="100"/>
+      <c r="B67" s="74"/>
     </row>
     <row r="68" spans="2:2" ht="12.75">
-      <c r="B68" s="100"/>
+      <c r="B68" s="74"/>
     </row>
     <row r="69" spans="2:2" ht="12.75">
-      <c r="B69" s="100"/>
+      <c r="B69" s="74"/>
     </row>
     <row r="70" spans="2:2" ht="12.75">
-      <c r="B70" s="100"/>
+      <c r="B70" s="74"/>
     </row>
     <row r="71" spans="2:2" ht="12.75">
-      <c r="B71" s="100"/>
+      <c r="B71" s="74"/>
     </row>
     <row r="72" spans="2:2" ht="12.75">
-      <c r="B72" s="100"/>
+      <c r="B72" s="74"/>
     </row>
     <row r="73" spans="2:2" ht="12.75">
-      <c r="B73" s="100"/>
+      <c r="B73" s="74"/>
     </row>
     <row r="74" spans="2:2" ht="12.75">
-      <c r="B74" s="100"/>
+      <c r="B74" s="74"/>
     </row>
     <row r="75" spans="2:2" ht="12.75">
-      <c r="B75" s="100"/>
+      <c r="B75" s="74"/>
     </row>
     <row r="76" spans="2:2" ht="12.75">
-      <c r="B76" s="100"/>
+      <c r="B76" s="74"/>
     </row>
     <row r="77" spans="2:2" ht="12.75">
-      <c r="B77" s="100"/>
+      <c r="B77" s="74"/>
     </row>
     <row r="78" spans="2:2" ht="12.75">
-      <c r="B78" s="100"/>
+      <c r="B78" s="74"/>
     </row>
     <row r="79" spans="2:2" ht="12.75">
-      <c r="B79" s="100"/>
+      <c r="B79" s="74"/>
     </row>
     <row r="80" spans="2:2" ht="12.75">
-      <c r="B80" s="100"/>
+      <c r="B80" s="74"/>
     </row>
     <row r="81" spans="2:2" ht="12.75">
-      <c r="B81" s="100"/>
+      <c r="B81" s="74"/>
     </row>
     <row r="82" spans="2:2" ht="12.75">
-      <c r="B82" s="100"/>
+      <c r="B82" s="74"/>
     </row>
     <row r="83" spans="2:2" ht="12.75">
-      <c r="B83" s="100"/>
+      <c r="B83" s="74"/>
     </row>
     <row r="84" spans="2:2" ht="12.75">
-      <c r="B84" s="100"/>
+      <c r="B84" s="74"/>
     </row>
     <row r="85" spans="2:2" ht="12.75">
-      <c r="B85" s="100"/>
+      <c r="B85" s="74"/>
     </row>
     <row r="86" spans="2:2" ht="12.75">
-      <c r="B86" s="100"/>
+      <c r="B86" s="74"/>
     </row>
     <row r="87" spans="2:2" ht="12.75">
-      <c r="B87" s="100"/>
+      <c r="B87" s="74"/>
     </row>
     <row r="88" spans="2:2" ht="12.75">
-      <c r="B88" s="100"/>
+      <c r="B88" s="74"/>
     </row>
     <row r="89" spans="2:2" ht="12.75">
-      <c r="B89" s="100"/>
+      <c r="B89" s="74"/>
     </row>
     <row r="90" spans="2:2" ht="12.75">
-      <c r="B90" s="100"/>
+      <c r="B90" s="74"/>
     </row>
     <row r="91" spans="2:2" ht="12.75">
-      <c r="B91" s="100"/>
+      <c r="B91" s="74"/>
     </row>
     <row r="92" spans="2:2" ht="12.75">
-      <c r="B92" s="100"/>
+      <c r="B92" s="74"/>
     </row>
     <row r="93" spans="2:2" ht="12.75">
-      <c r="B93" s="100"/>
+      <c r="B93" s="74"/>
     </row>
     <row r="94" spans="2:2" ht="12.75">
-      <c r="B94" s="100"/>
+      <c r="B94" s="74"/>
     </row>
     <row r="95" spans="2:2" ht="12.75">
-      <c r="B95" s="100"/>
+      <c r="B95" s="74"/>
     </row>
     <row r="96" spans="2:2" ht="12.75">
-      <c r="B96" s="100"/>
+      <c r="B96" s="74"/>
     </row>
     <row r="97" spans="2:2" ht="12.75">
-      <c r="B97" s="100"/>
+      <c r="B97" s="74"/>
     </row>
     <row r="98" spans="2:2" ht="12.75">
-      <c r="B98" s="100"/>
+      <c r="B98" s="74"/>
     </row>
     <row r="99" spans="2:2" ht="12.75">
-      <c r="B99" s="100"/>
+      <c r="B99" s="74"/>
     </row>
     <row r="100" spans="2:2" ht="12.75">
-      <c r="B100" s="100"/>
+      <c r="B100" s="74"/>
     </row>
     <row r="101" spans="2:2" ht="12.75">
-      <c r="B101" s="100"/>
+      <c r="B101" s="74"/>
     </row>
     <row r="102" spans="2:2" ht="12.75">
-      <c r="B102" s="100"/>
+      <c r="B102" s="74"/>
     </row>
     <row r="103" spans="2:2" ht="12.75">
-      <c r="B103" s="100"/>
+      <c r="B103" s="74"/>
     </row>
     <row r="104" spans="2:2" ht="12.75">
-      <c r="B104" s="100"/>
+      <c r="B104" s="74"/>
     </row>
     <row r="105" spans="2:2" ht="12.75">
-      <c r="B105" s="100"/>
+      <c r="B105" s="74"/>
     </row>
     <row r="106" spans="2:2" ht="12.75">
-      <c r="B106" s="100"/>
+      <c r="B106" s="74"/>
     </row>
     <row r="107" spans="2:2" ht="12.75">
-      <c r="B107" s="100"/>
+      <c r="B107" s="74"/>
     </row>
     <row r="108" spans="2:2" ht="12.75">
-      <c r="B108" s="100"/>
+      <c r="B108" s="74"/>
     </row>
     <row r="109" spans="2:2" ht="12.75">
-      <c r="B109" s="100"/>
+      <c r="B109" s="74"/>
     </row>
     <row r="110" spans="2:2" ht="12.75">
-      <c r="B110" s="100"/>
+      <c r="B110" s="74"/>
     </row>
     <row r="111" spans="2:2" ht="12.75">
-      <c r="B111" s="100"/>
+      <c r="B111" s="74"/>
     </row>
     <row r="112" spans="2:2" ht="12.75">
-      <c r="B112" s="100"/>
+      <c r="B112" s="74"/>
     </row>
     <row r="113" spans="2:2" ht="12.75">
-      <c r="B113" s="100"/>
+      <c r="B113" s="74"/>
     </row>
     <row r="114" spans="2:2" ht="12.75">
-      <c r="B114" s="100"/>
+      <c r="B114" s="74"/>
     </row>
     <row r="115" spans="2:2" ht="12.75">
-      <c r="B115" s="100"/>
+      <c r="B115" s="74"/>
     </row>
     <row r="116" spans="2:2" ht="12.75">
-      <c r="B116" s="100"/>
+      <c r="B116" s="74"/>
     </row>
     <row r="117" spans="2:2" ht="12.75">
-      <c r="B117" s="100"/>
+      <c r="B117" s="74"/>
     </row>
     <row r="118" spans="2:2" ht="12.75">
-      <c r="B118" s="100"/>
+      <c r="B118" s="74"/>
     </row>
     <row r="119" spans="2:2" ht="12.75">
-      <c r="B119" s="100"/>
+      <c r="B119" s="74"/>
     </row>
     <row r="120" spans="2:2" ht="12.75">
-      <c r="B120" s="100"/>
+      <c r="B120" s="74"/>
     </row>
     <row r="121" spans="2:2" ht="12.75">
-      <c r="B121" s="100"/>
+      <c r="B121" s="74"/>
     </row>
     <row r="122" spans="2:2" ht="12.75">
-      <c r="B122" s="100"/>
+      <c r="B122" s="74"/>
     </row>
     <row r="123" spans="2:2" ht="12.75">
-      <c r="B123" s="100"/>
+      <c r="B123" s="74"/>
     </row>
     <row r="124" spans="2:2" ht="12.75">
-      <c r="B124" s="100"/>
+      <c r="B124" s="74"/>
     </row>
     <row r="125" spans="2:2" ht="12.75">
-      <c r="B125" s="100"/>
+      <c r="B125" s="74"/>
     </row>
     <row r="126" spans="2:2" ht="12.75">
-      <c r="B126" s="100"/>
+      <c r="B126" s="74"/>
     </row>
     <row r="127" spans="2:2" ht="12.75">
-      <c r="B127" s="100"/>
+      <c r="B127" s="74"/>
     </row>
     <row r="128" spans="2:2" ht="12.75">
-      <c r="B128" s="100"/>
+      <c r="B128" s="74"/>
     </row>
     <row r="129" spans="2:2" ht="12.75">
-      <c r="B129" s="100"/>
+      <c r="B129" s="74"/>
     </row>
     <row r="130" spans="2:2" ht="12.75">
-      <c r="B130" s="100"/>
+      <c r="B130" s="74"/>
     </row>
     <row r="131" spans="2:2" ht="12.75">
-      <c r="B131" s="100"/>
+      <c r="B131" s="74"/>
     </row>
     <row r="132" spans="2:2" ht="12.75">
-      <c r="B132" s="100"/>
+      <c r="B132" s="74"/>
     </row>
     <row r="133" spans="2:2" ht="12.75">
-      <c r="B133" s="100"/>
+      <c r="B133" s="74"/>
     </row>
     <row r="134" spans="2:2" ht="12.75">
-      <c r="B134" s="100"/>
+      <c r="B134" s="74"/>
     </row>
     <row r="135" spans="2:2" ht="12.75">
-      <c r="B135" s="100"/>
+      <c r="B135" s="74"/>
     </row>
     <row r="136" spans="2:2" ht="12.75">
-      <c r="B136" s="100"/>
+      <c r="B136" s="74"/>
     </row>
     <row r="137" spans="2:2" ht="12.75">
-      <c r="B137" s="100"/>
+      <c r="B137" s="74"/>
     </row>
     <row r="138" spans="2:2" ht="12.75">
-      <c r="B138" s="100"/>
+      <c r="B138" s="74"/>
     </row>
     <row r="139" spans="2:2" ht="12.75">
-      <c r="B139" s="100"/>
+      <c r="B139" s="74"/>
     </row>
     <row r="140" spans="2:2" ht="12.75">
-      <c r="B140" s="100"/>
+      <c r="B140" s="74"/>
     </row>
     <row r="141" spans="2:2" ht="12.75">
-      <c r="B141" s="100"/>
+      <c r="B141" s="74"/>
     </row>
     <row r="142" spans="2:2" ht="12.75">
-      <c r="B142" s="100"/>
+      <c r="B142" s="74"/>
     </row>
     <row r="143" spans="2:2" ht="12.75">
-      <c r="B143" s="100"/>
+      <c r="B143" s="74"/>
     </row>
     <row r="144" spans="2:2" ht="12.75">
-      <c r="B144" s="100"/>
+      <c r="B144" s="74"/>
     </row>
     <row r="145" spans="2:2" ht="12.75">
-      <c r="B145" s="100"/>
+      <c r="B145" s="74"/>
     </row>
     <row r="146" spans="2:2" ht="12.75">
-      <c r="B146" s="100"/>
+      <c r="B146" s="74"/>
     </row>
     <row r="147" spans="2:2" ht="12.75">
-      <c r="B147" s="100"/>
+      <c r="B147" s="74"/>
     </row>
     <row r="148" spans="2:2" ht="12.75">
-      <c r="B148" s="100"/>
+      <c r="B148" s="74"/>
     </row>
     <row r="149" spans="2:2" ht="12.75">
-      <c r="B149" s="100"/>
+      <c r="B149" s="74"/>
     </row>
     <row r="150" spans="2:2" ht="12.75">
-      <c r="B150" s="100"/>
+      <c r="B150" s="74"/>
     </row>
     <row r="151" spans="2:2" ht="12.75">
-      <c r="B151" s="100"/>
+      <c r="B151" s="74"/>
     </row>
     <row r="152" spans="2:2" ht="12.75">
-      <c r="B152" s="100"/>
+      <c r="B152" s="74"/>
     </row>
     <row r="153" spans="2:2" ht="12.75">
-      <c r="B153" s="100"/>
+      <c r="B153" s="74"/>
     </row>
     <row r="154" spans="2:2" ht="12.75">
-      <c r="B154" s="100"/>
+      <c r="B154" s="74"/>
     </row>
     <row r="155" spans="2:2" ht="12.75">
-      <c r="B155" s="100"/>
+      <c r="B155" s="74"/>
     </row>
     <row r="156" spans="2:2" ht="12.75">
-      <c r="B156" s="100"/>
+      <c r="B156" s="74"/>
     </row>
     <row r="157" spans="2:2" ht="12.75">
-      <c r="B157" s="100"/>
+      <c r="B157" s="74"/>
     </row>
     <row r="158" spans="2:2" ht="12.75">
-      <c r="B158" s="100"/>
+      <c r="B158" s="74"/>
     </row>
     <row r="159" spans="2:2" ht="12.75">
-      <c r="B159" s="100"/>
+      <c r="B159" s="74"/>
     </row>
     <row r="160" spans="2:2" ht="12.75">
-      <c r="B160" s="100"/>
+      <c r="B160" s="74"/>
     </row>
     <row r="161" spans="2:2" ht="12.75">
-      <c r="B161" s="100"/>
+      <c r="B161" s="74"/>
     </row>
     <row r="162" spans="2:2" ht="12.75">
-      <c r="B162" s="100"/>
+      <c r="B162" s="74"/>
     </row>
     <row r="163" spans="2:2" ht="12.75">
-      <c r="B163" s="100"/>
+      <c r="B163" s="74"/>
     </row>
     <row r="164" spans="2:2" ht="12.75">
-      <c r="B164" s="100"/>
+      <c r="B164" s="74"/>
     </row>
     <row r="165" spans="2:2" ht="12.75">
-      <c r="B165" s="100"/>
+      <c r="B165" s="74"/>
     </row>
     <row r="166" spans="2:2" ht="12.75">
-      <c r="B166" s="100"/>
+      <c r="B166" s="74"/>
     </row>
     <row r="167" spans="2:2" ht="12.75">
-      <c r="B167" s="100"/>
+      <c r="B167" s="74"/>
     </row>
     <row r="168" spans="2:2" ht="12.75">
-      <c r="B168" s="100"/>
+      <c r="B168" s="74"/>
     </row>
     <row r="169" spans="2:2" ht="12.75">
-      <c r="B169" s="100"/>
+      <c r="B169" s="74"/>
     </row>
     <row r="170" spans="2:2" ht="12.75">
-      <c r="B170" s="100"/>
+      <c r="B170" s="74"/>
     </row>
     <row r="171" spans="2:2" ht="12.75">
-      <c r="B171" s="100"/>
+      <c r="B171" s="74"/>
     </row>
     <row r="172" spans="2:2" ht="12.75">
-      <c r="B172" s="100"/>
+      <c r="B172" s="74"/>
     </row>
     <row r="173" spans="2:2" ht="12.75">
-      <c r="B173" s="100"/>
+      <c r="B173" s="74"/>
     </row>
     <row r="174" spans="2:2" ht="12.75">
-      <c r="B174" s="100"/>
+      <c r="B174" s="74"/>
     </row>
     <row r="175" spans="2:2" ht="12.75">
-      <c r="B175" s="100"/>
+      <c r="B175" s="74"/>
     </row>
     <row r="176" spans="2:2" ht="12.75">
-      <c r="B176" s="100"/>
+      <c r="B176" s="74"/>
     </row>
     <row r="177" spans="2:2" ht="12.75">
-      <c r="B177" s="100"/>
+      <c r="B177" s="74"/>
     </row>
     <row r="178" spans="2:2" ht="12.75">
-      <c r="B178" s="100"/>
+      <c r="B178" s="74"/>
     </row>
     <row r="179" spans="2:2" ht="12.75">
-      <c r="B179" s="100"/>
+      <c r="B179" s="74"/>
     </row>
     <row r="180" spans="2:2" ht="12.75">
-      <c r="B180" s="100"/>
+      <c r="B180" s="74"/>
     </row>
     <row r="181" spans="2:2" ht="12.75">
-      <c r="B181" s="100"/>
+      <c r="B181" s="74"/>
     </row>
     <row r="182" spans="2:2" ht="12.75">
-      <c r="B182" s="100"/>
+      <c r="B182" s="74"/>
     </row>
     <row r="183" spans="2:2" ht="12.75">
-      <c r="B183" s="100"/>
+      <c r="B183" s="74"/>
     </row>
     <row r="184" spans="2:2" ht="12.75">
-      <c r="B184" s="100"/>
+      <c r="B184" s="74"/>
     </row>
     <row r="185" spans="2:2" ht="12.75">
-      <c r="B185" s="100"/>
+      <c r="B185" s="74"/>
     </row>
     <row r="186" spans="2:2" ht="12.75">
-      <c r="B186" s="100"/>
+      <c r="B186" s="74"/>
     </row>
     <row r="187" spans="2:2" ht="12.75">
-      <c r="B187" s="100"/>
+      <c r="B187" s="74"/>
     </row>
     <row r="188" spans="2:2" ht="12.75">
-      <c r="B188" s="100"/>
+      <c r="B188" s="74"/>
     </row>
     <row r="189" spans="2:2" ht="12.75">
-      <c r="B189" s="100"/>
+      <c r="B189" s="74"/>
     </row>
     <row r="190" spans="2:2" ht="12.75">
-      <c r="B190" s="100"/>
+      <c r="B190" s="74"/>
     </row>
     <row r="191" spans="2:2" ht="12.75">
-      <c r="B191" s="100"/>
+      <c r="B191" s="74"/>
     </row>
     <row r="192" spans="2:2" ht="12.75">
-      <c r="B192" s="100"/>
+      <c r="B192" s="74"/>
     </row>
     <row r="193" spans="2:2" ht="12.75">
-      <c r="B193" s="100"/>
+      <c r="B193" s="74"/>
     </row>
     <row r="194" spans="2:2" ht="12.75">
-      <c r="B194" s="100"/>
+      <c r="B194" s="74"/>
     </row>
     <row r="195" spans="2:2" ht="12.75">
-      <c r="B195" s="100"/>
+      <c r="B195" s="74"/>
     </row>
     <row r="196" spans="2:2" ht="12.75">
-      <c r="B196" s="100"/>
+      <c r="B196" s="74"/>
     </row>
     <row r="197" spans="2:2" ht="12.75">
-      <c r="B197" s="100"/>
+      <c r="B197" s="74"/>
     </row>
     <row r="198" spans="2:2" ht="12.75">
-      <c r="B198" s="100"/>
+      <c r="B198" s="74"/>
     </row>
     <row r="199" spans="2:2" ht="12.75">
-      <c r="B199" s="100"/>
+      <c r="B199" s="74"/>
     </row>
     <row r="200" spans="2:2" ht="12.75">
-      <c r="B200" s="100"/>
+      <c r="B200" s="74"/>
     </row>
     <row r="201" spans="2:2" ht="12.75">
-      <c r="B201" s="100"/>
+      <c r="B201" s="74"/>
     </row>
     <row r="202" spans="2:2" ht="12.75">
-      <c r="B202" s="100"/>
+      <c r="B202" s="74"/>
     </row>
     <row r="203" spans="2:2" ht="12.75">
-      <c r="B203" s="100"/>
+      <c r="B203" s="74"/>
     </row>
     <row r="204" spans="2:2" ht="12.75">
-      <c r="B204" s="100"/>
+      <c r="B204" s="74"/>
     </row>
     <row r="205" spans="2:2" ht="12.75">
-      <c r="B205" s="100"/>
+      <c r="B205" s="74"/>
     </row>
     <row r="206" spans="2:2" ht="12.75">
-      <c r="B206" s="100"/>
+      <c r="B206" s="74"/>
     </row>
     <row r="207" spans="2:2" ht="12.75">
-      <c r="B207" s="100"/>
+      <c r="B207" s="74"/>
     </row>
     <row r="208" spans="2:2" ht="12.75">
-      <c r="B208" s="100"/>
+      <c r="B208" s="74"/>
     </row>
     <row r="209" spans="2:2" ht="12.75">
-      <c r="B209" s="100"/>
+      <c r="B209" s="74"/>
     </row>
     <row r="210" spans="2:2" ht="12.75">
-      <c r="B210" s="100"/>
+      <c r="B210" s="74"/>
     </row>
     <row r="211" spans="2:2" ht="12.75">
-      <c r="B211" s="100"/>
+      <c r="B211" s="74"/>
     </row>
     <row r="212" spans="2:2" ht="12.75">
-      <c r="B212" s="100"/>
+      <c r="B212" s="74"/>
     </row>
     <row r="213" spans="2:2" ht="12.75">
-      <c r="B213" s="100"/>
+      <c r="B213" s="74"/>
     </row>
     <row r="214" spans="2:2" ht="12.75">
-      <c r="B214" s="100"/>
+      <c r="B214" s="74"/>
     </row>
     <row r="215" spans="2:2" ht="12.75">
-      <c r="B215" s="100"/>
+      <c r="B215" s="74"/>
     </row>
     <row r="216" spans="2:2" ht="12.75">
-      <c r="B216" s="100"/>
+      <c r="B216" s="74"/>
     </row>
     <row r="217" spans="2:2" ht="12.75">
-      <c r="B217" s="100"/>
+      <c r="B217" s="74"/>
     </row>
     <row r="218" spans="2:2" ht="12.75">
-      <c r="B218" s="100"/>
+      <c r="B218" s="74"/>
     </row>
     <row r="219" spans="2:2" ht="12.75">
-      <c r="B219" s="100"/>
+      <c r="B219" s="74"/>
     </row>
     <row r="220" spans="2:2" ht="12.75">
-      <c r="B220" s="100"/>
+      <c r="B220" s="74"/>
     </row>
     <row r="221" spans="2:2" ht="12.75">
-      <c r="B221" s="100"/>
+      <c r="B221" s="74"/>
     </row>
     <row r="222" spans="2:2" ht="12.75">
-      <c r="B222" s="100"/>
+      <c r="B222" s="74"/>
     </row>
     <row r="223" spans="2:2" ht="12.75">
-      <c r="B223" s="100"/>
+      <c r="B223" s="74"/>
     </row>
     <row r="224" spans="2:2" ht="12.75">
-      <c r="B224" s="100"/>
+      <c r="B224" s="74"/>
     </row>
     <row r="225" spans="2:2" ht="12.75">
-      <c r="B225" s="100"/>
+      <c r="B225" s="74"/>
     </row>
     <row r="226" spans="2:2" ht="12.75">
-      <c r="B226" s="100"/>
+      <c r="B226" s="74"/>
     </row>
     <row r="227" spans="2:2" ht="12.75">
-      <c r="B227" s="100"/>
+      <c r="B227" s="74"/>
     </row>
     <row r="228" spans="2:2" ht="12.75">
-      <c r="B228" s="100"/>
+      <c r="B228" s="74"/>
     </row>
     <row r="229" spans="2:2" ht="12.75">
-      <c r="B229" s="100"/>
+      <c r="B229" s="74"/>
     </row>
     <row r="230" spans="2:2" ht="12.75">
-      <c r="B230" s="100"/>
+      <c r="B230" s="74"/>
     </row>
     <row r="231" spans="2:2" ht="12.75">
-      <c r="B231" s="100"/>
+      <c r="B231" s="74"/>
     </row>
     <row r="232" spans="2:2" ht="12.75">
-      <c r="B232" s="100"/>
+      <c r="B232" s="74"/>
     </row>
     <row r="233" spans="2:2" ht="12.75">
-      <c r="B233" s="100"/>
+      <c r="B233" s="74"/>
     </row>
     <row r="234" spans="2:2" ht="12.75">
-      <c r="B234" s="100"/>
+      <c r="B234" s="74"/>
     </row>
     <row r="235" spans="2:2" ht="12.75">
-      <c r="B235" s="100"/>
+      <c r="B235" s="74"/>
     </row>
     <row r="236" spans="2:2" ht="12.75">
-      <c r="B236" s="100"/>
+      <c r="B236" s="74"/>
     </row>
     <row r="237" spans="2:2" ht="12.75">
-      <c r="B237" s="100"/>
+      <c r="B237" s="74"/>
     </row>
     <row r="238" spans="2:2" ht="12.75">
-      <c r="B238" s="100"/>
+      <c r="B238" s="74"/>
     </row>
     <row r="239" spans="2:2" ht="12.75">
-      <c r="B239" s="100"/>
+      <c r="B239" s="74"/>
     </row>
     <row r="240" spans="2:2" ht="12.75">
-      <c r="B240" s="100"/>
+      <c r="B240" s="74"/>
     </row>
     <row r="241" spans="2:2" ht="12.75">
-      <c r="B241" s="100"/>
+      <c r="B241" s="74"/>
     </row>
     <row r="242" spans="2:2" ht="12.75">
-      <c r="B242" s="100"/>
+      <c r="B242" s="74"/>
     </row>
     <row r="243" spans="2:2" ht="12.75">
-      <c r="B243" s="100"/>
+      <c r="B243" s="74"/>
     </row>
     <row r="244" spans="2:2" ht="12.75">
-      <c r="B244" s="100"/>
+      <c r="B244" s="74"/>
     </row>
     <row r="245" spans="2:2" ht="12.75">
-      <c r="B245" s="100"/>
+      <c r="B245" s="74"/>
     </row>
     <row r="246" spans="2:2" ht="12.75">
-      <c r="B246" s="100"/>
+      <c r="B246" s="74"/>
     </row>
     <row r="247" spans="2:2" ht="12.75">
-      <c r="B247" s="100"/>
+      <c r="B247" s="74"/>
     </row>
     <row r="248" spans="2:2" ht="12.75">
-      <c r="B248" s="100"/>
+      <c r="B248" s="74"/>
     </row>
     <row r="249" spans="2:2" ht="12.75">
-      <c r="B249" s="100"/>
+      <c r="B249" s="74"/>
     </row>
     <row r="250" spans="2:2" ht="12.75">
-      <c r="B250" s="100"/>
+      <c r="B250" s="74"/>
     </row>
     <row r="251" spans="2:2" ht="12.75">
-      <c r="B251" s="100"/>
+      <c r="B251" s="74"/>
     </row>
     <row r="252" spans="2:2" ht="12.75">
-      <c r="B252" s="100"/>
+      <c r="B252" s="74"/>
     </row>
     <row r="253" spans="2:2" ht="12.75">
-      <c r="B253" s="100"/>
+      <c r="B253" s="74"/>
     </row>
     <row r="254" spans="2:2" ht="12.75">
-      <c r="B254" s="100"/>
+      <c r="B254" s="74"/>
     </row>
     <row r="255" spans="2:2" ht="12.75">
-      <c r="B255" s="100"/>
+      <c r="B255" s="74"/>
     </row>
     <row r="256" spans="2:2" ht="12.75">
-      <c r="B256" s="100"/>
+      <c r="B256" s="74"/>
     </row>
     <row r="257" spans="2:2" ht="12.75">
-      <c r="B257" s="100"/>
+      <c r="B257" s="74"/>
     </row>
     <row r="258" spans="2:2" ht="12.75">
-      <c r="B258" s="100"/>
+      <c r="B258" s="74"/>
     </row>
     <row r="259" spans="2:2" ht="12.75">
-      <c r="B259" s="100"/>
+      <c r="B259" s="74"/>
     </row>
     <row r="260" spans="2:2" ht="12.75">
-      <c r="B260" s="100"/>
+      <c r="B260" s="74"/>
     </row>
     <row r="261" spans="2:2" ht="12.75">
-      <c r="B261" s="100"/>
+      <c r="B261" s="74"/>
     </row>
     <row r="262" spans="2:2" ht="12.75">
-      <c r="B262" s="100"/>
+      <c r="B262" s="74"/>
     </row>
     <row r="263" spans="2:2" ht="12.75">
-      <c r="B263" s="100"/>
+      <c r="B263" s="74"/>
     </row>
     <row r="264" spans="2:2" ht="12.75">
-      <c r="B264" s="100"/>
+      <c r="B264" s="74"/>
     </row>
     <row r="265" spans="2:2" ht="12.75">
-      <c r="B265" s="100"/>
+      <c r="B265" s="74"/>
     </row>
     <row r="266" spans="2:2" ht="12.75">
-      <c r="B266" s="100"/>
+      <c r="B266" s="74"/>
     </row>
     <row r="267" spans="2:2" ht="12.75">
-      <c r="B267" s="100"/>
+      <c r="B267" s="74"/>
     </row>
     <row r="268" spans="2:2" ht="12.75">
-      <c r="B268" s="100"/>
+      <c r="B268" s="74"/>
     </row>
     <row r="269" spans="2:2" ht="12.75">
-      <c r="B269" s="100"/>
+      <c r="B269" s="74"/>
     </row>
     <row r="270" spans="2:2" ht="12.75">
-      <c r="B270" s="100"/>
+      <c r="B270" s="74"/>
     </row>
     <row r="271" spans="2:2" ht="12.75">
-      <c r="B271" s="100"/>
+      <c r="B271" s="74"/>
     </row>
     <row r="272" spans="2:2" ht="12.75">
-      <c r="B272" s="100"/>
+      <c r="B272" s="74"/>
     </row>
     <row r="273" spans="2:2" ht="12.75">
-      <c r="B273" s="100"/>
+      <c r="B273" s="74"/>
     </row>
     <row r="274" spans="2:2" ht="12.75">
-      <c r="B274" s="100"/>
+      <c r="B274" s="74"/>
     </row>
     <row r="275" spans="2:2" ht="12.75">
-      <c r="B275" s="100"/>
+      <c r="B275" s="74"/>
     </row>
     <row r="276" spans="2:2" ht="12.75">
-      <c r="B276" s="100"/>
+      <c r="B276" s="74"/>
     </row>
     <row r="277" spans="2:2" ht="12.75">
-      <c r="B277" s="100"/>
+      <c r="B277" s="74"/>
     </row>
     <row r="278" spans="2:2" ht="12.75">
-      <c r="B278" s="100"/>
+      <c r="B278" s="74"/>
     </row>
     <row r="279" spans="2:2" ht="12.75">
-      <c r="B279" s="100"/>
+      <c r="B279" s="74"/>
     </row>
     <row r="280" spans="2:2" ht="12.75">
-      <c r="B280" s="100"/>
+      <c r="B280" s="74"/>
     </row>
     <row r="281" spans="2:2" ht="12.75">
-      <c r="B281" s="100"/>
+      <c r="B281" s="74"/>
     </row>
     <row r="282" spans="2:2" ht="12.75">
-      <c r="B282" s="100"/>
+      <c r="B282" s="74"/>
     </row>
     <row r="283" spans="2:2" ht="12.75">
-      <c r="B283" s="100"/>
+      <c r="B283" s="74"/>
     </row>
     <row r="284" spans="2:2" ht="12.75">
-      <c r="B284" s="100"/>
+      <c r="B284" s="74"/>
     </row>
     <row r="285" spans="2:2" ht="12.75">
-      <c r="B285" s="100"/>
+      <c r="B285" s="74"/>
     </row>
     <row r="286" spans="2:2" ht="12.75">
-      <c r="B286" s="100"/>
+      <c r="B286" s="74"/>
     </row>
     <row r="287" spans="2:2" ht="12.75">
-      <c r="B287" s="100"/>
+      <c r="B287" s="74"/>
     </row>
     <row r="288" spans="2:2" ht="12.75">
-      <c r="B288" s="100"/>
+      <c r="B288" s="74"/>
     </row>
     <row r="289" spans="2:2" ht="12.75">
-      <c r="B289" s="100"/>
+      <c r="B289" s="74"/>
     </row>
     <row r="290" spans="2:2" ht="12.75">
-      <c r="B290" s="100"/>
+      <c r="B290" s="74"/>
     </row>
     <row r="291" spans="2:2" ht="12.75">
-      <c r="B291" s="100"/>
+      <c r="B291" s="74"/>
     </row>
     <row r="292" spans="2:2" ht="12.75">
-      <c r="B292" s="100"/>
+      <c r="B292" s="74"/>
     </row>
     <row r="293" spans="2:2" ht="12.75">
-      <c r="B293" s="100"/>
+      <c r="B293" s="74"/>
     </row>
     <row r="294" spans="2:2" ht="12.75">
-      <c r="B294" s="100"/>
+      <c r="B294" s="74"/>
     </row>
     <row r="295" spans="2:2" ht="12.75">
-      <c r="B295" s="100"/>
+      <c r="B295" s="74"/>
     </row>
     <row r="296" spans="2:2" ht="12.75">
-      <c r="B296" s="100"/>
+      <c r="B296" s="74"/>
     </row>
     <row r="297" spans="2:2" ht="12.75">
-      <c r="B297" s="100"/>
+      <c r="B297" s="74"/>
     </row>
     <row r="298" spans="2:2" ht="12.75">
-      <c r="B298" s="100"/>
+      <c r="B298" s="74"/>
     </row>
     <row r="299" spans="2:2" ht="12.75">
-      <c r="B299" s="100"/>
+      <c r="B299" s="74"/>
     </row>
     <row r="300" spans="2:2" ht="12.75">
-      <c r="B300" s="100"/>
+      <c r="B300" s="74"/>
     </row>
     <row r="301" spans="2:2" ht="12.75">
-      <c r="B301" s="100"/>
+      <c r="B301" s="74"/>
     </row>
     <row r="302" spans="2:2" ht="12.75">
-      <c r="B302" s="100"/>
+      <c r="B302" s="74"/>
     </row>
     <row r="303" spans="2:2" ht="12.75">
-      <c r="B303" s="100"/>
+      <c r="B303" s="74"/>
     </row>
     <row r="304" spans="2:2" ht="12.75">
-      <c r="B304" s="100"/>
+      <c r="B304" s="74"/>
     </row>
     <row r="305" spans="2:2" ht="12.75">
-      <c r="B305" s="100"/>
+      <c r="B305" s="74"/>
     </row>
     <row r="306" spans="2:2" ht="12.75">
-      <c r="B306" s="100"/>
+      <c r="B306" s="74"/>
     </row>
     <row r="307" spans="2:2" ht="12.75">
-      <c r="B307" s="100"/>
+      <c r="B307" s="74"/>
     </row>
     <row r="308" spans="2:2" ht="12.75">
-      <c r="B308" s="100"/>
+      <c r="B308" s="74"/>
     </row>
     <row r="309" spans="2:2" ht="12.75">
-      <c r="B309" s="100"/>
+      <c r="B309" s="74"/>
     </row>
     <row r="310" spans="2:2" ht="12.75">
-      <c r="B310" s="100"/>
+      <c r="B310" s="74"/>
     </row>
     <row r="311" spans="2:2" ht="12.75">
-      <c r="B311" s="100"/>
+      <c r="B311" s="74"/>
     </row>
     <row r="312" spans="2:2" ht="12.75">
-      <c r="B312" s="100"/>
+      <c r="B312" s="74"/>
     </row>
     <row r="313" spans="2:2" ht="12.75">
-      <c r="B313" s="100"/>
+      <c r="B313" s="74"/>
     </row>
     <row r="314" spans="2:2" ht="12.75">
-      <c r="B314" s="100"/>
+      <c r="B314" s="74"/>
     </row>
     <row r="315" spans="2:2" ht="12.75">
-      <c r="B315" s="100"/>
+      <c r="B315" s="74"/>
     </row>
     <row r="316" spans="2:2" ht="12.75">
-      <c r="B316" s="100"/>
+      <c r="B316" s="74"/>
     </row>
     <row r="317" spans="2:2" ht="12.75">
-      <c r="B317" s="100"/>
+      <c r="B317" s="74"/>
     </row>
     <row r="318" spans="2:2" ht="12.75">
-      <c r="B318" s="100"/>
+      <c r="B318" s="74"/>
     </row>
     <row r="319" spans="2:2" ht="12.75">
-      <c r="B319" s="100"/>
+      <c r="B319" s="74"/>
     </row>
     <row r="320" spans="2:2" ht="12.75">
-      <c r="B320" s="100"/>
+      <c r="B320" s="74"/>
     </row>
     <row r="321" spans="2:2" ht="12.75">
-      <c r="B321" s="100"/>
+      <c r="B321" s="74"/>
     </row>
     <row r="322" spans="2:2" ht="12.75">
-      <c r="B322" s="100"/>
+      <c r="B322" s="74"/>
     </row>
     <row r="323" spans="2:2" ht="12.75">
-      <c r="B323" s="100"/>
+      <c r="B323" s="74"/>
     </row>
     <row r="324" spans="2:2" ht="12.75">
-      <c r="B324" s="100"/>
+      <c r="B324" s="74"/>
     </row>
     <row r="325" spans="2:2" ht="12.75">
-      <c r="B325" s="100"/>
+      <c r="B325" s="74"/>
     </row>
     <row r="326" spans="2:2" ht="12.75">
-      <c r="B326" s="100"/>
+      <c r="B326" s="74"/>
     </row>
     <row r="327" spans="2:2" ht="12.75">
-      <c r="B327" s="100"/>
+      <c r="B327" s="74"/>
     </row>
     <row r="328" spans="2:2" ht="12.75">
-      <c r="B328" s="100"/>
+      <c r="B328" s="74"/>
     </row>
     <row r="329" spans="2:2" ht="12.75">
-      <c r="B329" s="100"/>
+      <c r="B329" s="74"/>
     </row>
     <row r="330" spans="2:2" ht="12.75">
-      <c r="B330" s="100"/>
+      <c r="B330" s="74"/>
     </row>
     <row r="331" spans="2:2" ht="12.75">
-      <c r="B331" s="100"/>
+      <c r="B331" s="74"/>
     </row>
     <row r="332" spans="2:2" ht="12.75">
-      <c r="B332" s="100"/>
+      <c r="B332" s="74"/>
     </row>
     <row r="333" spans="2:2" ht="12.75">
-      <c r="B333" s="100"/>
+      <c r="B333" s="74"/>
     </row>
     <row r="334" spans="2:2" ht="12.75">
-      <c r="B334" s="100"/>
+      <c r="B334" s="74"/>
     </row>
     <row r="335" spans="2:2" ht="12.75">
-      <c r="B335" s="100"/>
+      <c r="B335" s="74"/>
     </row>
     <row r="336" spans="2:2" ht="12.75">
-      <c r="B336" s="100"/>
+      <c r="B336" s="74"/>
     </row>
     <row r="337" spans="2:2" ht="12.75">
-      <c r="B337" s="100"/>
+      <c r="B337" s="74"/>
     </row>
     <row r="338" spans="2:2" ht="12.75">
-      <c r="B338" s="100"/>
+      <c r="B338" s="74"/>
     </row>
     <row r="339" spans="2:2" ht="12.75">
-      <c r="B339" s="100"/>
+      <c r="B339" s="74"/>
     </row>
     <row r="340" spans="2:2" ht="12.75">
-      <c r="B340" s="100"/>
+      <c r="B340" s="74"/>
     </row>
     <row r="341" spans="2:2" ht="12.75">
-      <c r="B341" s="100"/>
+      <c r="B341" s="74"/>
     </row>
     <row r="342" spans="2:2" ht="12.75">
-      <c r="B342" s="100"/>
+      <c r="B342" s="74"/>
     </row>
     <row r="343" spans="2:2" ht="12.75">
-      <c r="B343" s="100"/>
+      <c r="B343" s="74"/>
     </row>
     <row r="344" spans="2:2" ht="12.75">
-      <c r="B344" s="100"/>
+      <c r="B344" s="74"/>
     </row>
     <row r="345" spans="2:2" ht="12.75">
-      <c r="B345" s="100"/>
+      <c r="B345" s="74"/>
     </row>
     <row r="346" spans="2:2" ht="12.75">
-      <c r="B346" s="100"/>
+      <c r="B346" s="74"/>
     </row>
     <row r="347" spans="2:2" ht="12.75">
-      <c r="B347" s="100"/>
+      <c r="B347" s="74"/>
     </row>
     <row r="348" spans="2:2" ht="12.75">
-      <c r="B348" s="100"/>
+      <c r="B348" s="74"/>
     </row>
     <row r="349" spans="2:2" ht="12.75">
-      <c r="B349" s="100"/>
+      <c r="B349" s="74"/>
     </row>
     <row r="350" spans="2:2" ht="12.75">
-      <c r="B350" s="100"/>
+      <c r="B350" s="74"/>
     </row>
     <row r="351" spans="2:2" ht="12.75">
-      <c r="B351" s="100"/>
+      <c r="B351" s="74"/>
     </row>
     <row r="352" spans="2:2" ht="12.75">
-      <c r="B352" s="100"/>
+      <c r="B352" s="74"/>
     </row>
     <row r="353" spans="2:2" ht="12.75">
-      <c r="B353" s="100"/>
+      <c r="B353" s="74"/>
     </row>
     <row r="354" spans="2:2" ht="12.75">
-      <c r="B354" s="100"/>
+      <c r="B354" s="74"/>
     </row>
     <row r="355" spans="2:2" ht="12.75">
-      <c r="B355" s="100"/>
+      <c r="B355" s="74"/>
     </row>
     <row r="356" spans="2:2" ht="12.75">
-      <c r="B356" s="100"/>
+      <c r="B356" s="74"/>
     </row>
     <row r="357" spans="2:2" ht="12.75">
-      <c r="B357" s="100"/>
+      <c r="B357" s="74"/>
     </row>
     <row r="358" spans="2:2" ht="12.75">
-      <c r="B358" s="100"/>
+      <c r="B358" s="74"/>
     </row>
     <row r="359" spans="2:2" ht="12.75">
-      <c r="B359" s="100"/>
+      <c r="B359" s="74"/>
     </row>
     <row r="360" spans="2:2" ht="12.75">
-      <c r="B360" s="100"/>
+      <c r="B360" s="74"/>
     </row>
     <row r="361" spans="2:2" ht="12.75">
-      <c r="B361" s="100"/>
+      <c r="B361" s="74"/>
     </row>
     <row r="362" spans="2:2" ht="12.75">
-      <c r="B362" s="100"/>
+      <c r="B362" s="74"/>
     </row>
     <row r="363" spans="2:2" ht="12.75">
-      <c r="B363" s="100"/>
+      <c r="B363" s="74"/>
     </row>
     <row r="364" spans="2:2" ht="12.75">
-      <c r="B364" s="100"/>
+      <c r="B364" s="74"/>
     </row>
     <row r="365" spans="2:2" ht="12.75">
-      <c r="B365" s="100"/>
+      <c r="B365" s="74"/>
     </row>
     <row r="366" spans="2:2" ht="12.75">
-      <c r="B366" s="100"/>
+      <c r="B366" s="74"/>
     </row>
     <row r="367" spans="2:2" ht="12.75">
-      <c r="B367" s="100"/>
+      <c r="B367" s="74"/>
     </row>
     <row r="368" spans="2:2" ht="12.75">
-      <c r="B368" s="100"/>
+      <c r="B368" s="74"/>
     </row>
     <row r="369" spans="2:2" ht="12.75">
-      <c r="B369" s="100"/>
+      <c r="B369" s="74"/>
     </row>
     <row r="370" spans="2:2" ht="12.75">
-      <c r="B370" s="100"/>
+      <c r="B370" s="74"/>
     </row>
     <row r="371" spans="2:2" ht="12.75">
-      <c r="B371" s="100"/>
+      <c r="B371" s="74"/>
     </row>
     <row r="372" spans="2:2" ht="12.75">
-      <c r="B372" s="100"/>
+      <c r="B372" s="74"/>
     </row>
     <row r="373" spans="2:2" ht="12.75">
-      <c r="B373" s="100"/>
+      <c r="B373" s="74"/>
     </row>
     <row r="374" spans="2:2" ht="12.75">
-      <c r="B374" s="100"/>
+      <c r="B374" s="74"/>
     </row>
     <row r="375" spans="2:2" ht="12.75">
-      <c r="B375" s="100"/>
+      <c r="B375" s="74"/>
     </row>
     <row r="376" spans="2:2" ht="12.75">
-      <c r="B376" s="100"/>
+      <c r="B376" s="74"/>
     </row>
     <row r="377" spans="2:2" ht="12.75">
-      <c r="B377" s="100"/>
+      <c r="B377" s="74"/>
     </row>
     <row r="378" spans="2:2" ht="12.75">
-      <c r="B378" s="100"/>
+      <c r="B378" s="74"/>
     </row>
     <row r="379" spans="2:2" ht="12.75">
-      <c r="B379" s="100"/>
+      <c r="B379" s="74"/>
     </row>
     <row r="380" spans="2:2" ht="12.75">
-      <c r="B380" s="100"/>
+      <c r="B380" s="74"/>
     </row>
     <row r="381" spans="2:2" ht="12.75">
-      <c r="B381" s="100"/>
+      <c r="B381" s="74"/>
     </row>
     <row r="382" spans="2:2" ht="12.75">
-      <c r="B382" s="100"/>
+      <c r="B382" s="74"/>
     </row>
     <row r="383" spans="2:2" ht="12.75">
-      <c r="B383" s="100"/>
+      <c r="B383" s="74"/>
     </row>
     <row r="384" spans="2:2" ht="12.75">
-      <c r="B384" s="100"/>
+      <c r="B384" s="74"/>
     </row>
     <row r="385" spans="2:2" ht="12.75">
-      <c r="B385" s="100"/>
+      <c r="B385" s="74"/>
     </row>
     <row r="386" spans="2:2" ht="12.75">
-      <c r="B386" s="100"/>
+      <c r="B386" s="74"/>
     </row>
     <row r="387" spans="2:2" ht="12.75">
-      <c r="B387" s="100"/>
+      <c r="B387" s="74"/>
     </row>
     <row r="388" spans="2:2" ht="12.75">
-      <c r="B388" s="100"/>
+      <c r="B388" s="74"/>
     </row>
     <row r="389" spans="2:2" ht="12.75">
-      <c r="B389" s="100"/>
+      <c r="B389" s="74"/>
     </row>
     <row r="390" spans="2:2" ht="12.75">
-      <c r="B390" s="100"/>
+      <c r="B390" s="74"/>
     </row>
     <row r="391" spans="2:2" ht="12.75">
-      <c r="B391" s="100"/>
+      <c r="B391" s="74"/>
     </row>
     <row r="392" spans="2:2" ht="12.75">
-      <c r="B392" s="100"/>
+      <c r="B392" s="74"/>
     </row>
     <row r="393" spans="2:2" ht="12.75">
-      <c r="B393" s="100"/>
+      <c r="B393" s="74"/>
     </row>
     <row r="394" spans="2:2" ht="12.75">
-      <c r="B394" s="100"/>
+      <c r="B394" s="74"/>
     </row>
     <row r="395" spans="2:2" ht="12.75">
-      <c r="B395" s="100"/>
+      <c r="B395" s="74"/>
     </row>
     <row r="396" spans="2:2" ht="12.75">
-      <c r="B396" s="100"/>
+      <c r="B396" s="74"/>
     </row>
     <row r="397" spans="2:2" ht="12.75">
-      <c r="B397" s="100"/>
+      <c r="B397" s="74"/>
     </row>
     <row r="398" spans="2:2" ht="12.75">
-      <c r="B398" s="100"/>
+      <c r="B398" s="74"/>
     </row>
     <row r="399" spans="2:2" ht="12.75">
-      <c r="B399" s="100"/>
+      <c r="B399" s="74"/>
     </row>
     <row r="400" spans="2:2" ht="12.75">
-      <c r="B400" s="100"/>
+      <c r="B400" s="74"/>
     </row>
     <row r="401" spans="2:2" ht="12.75">
-      <c r="B401" s="100"/>
+      <c r="B401" s="74"/>
     </row>
     <row r="402" spans="2:2" ht="12.75">
-      <c r="B402" s="100"/>
+      <c r="B402" s="74"/>
     </row>
     <row r="403" spans="2:2" ht="12.75">
-      <c r="B403" s="100"/>
+      <c r="B403" s="74"/>
     </row>
     <row r="404" spans="2:2" ht="12.75">
-      <c r="B404" s="100"/>
+      <c r="B404" s="74"/>
     </row>
     <row r="405" spans="2:2" ht="12.75">
-      <c r="B405" s="100"/>
+      <c r="B405" s="74"/>
     </row>
     <row r="406" spans="2:2" ht="12.75">
-      <c r="B406" s="100"/>
+      <c r="B406" s="74"/>
     </row>
     <row r="407" spans="2:2" ht="12.75">
-      <c r="B407" s="100"/>
+      <c r="B407" s="74"/>
     </row>
     <row r="408" spans="2:2" ht="12.75">
-      <c r="B408" s="100"/>
+      <c r="B408" s="74"/>
     </row>
     <row r="409" spans="2:2" ht="12.75">
-      <c r="B409" s="100"/>
+      <c r="B409" s="74"/>
     </row>
     <row r="410" spans="2:2" ht="12.75">
-      <c r="B410" s="100"/>
+      <c r="B410" s="74"/>
     </row>
     <row r="411" spans="2:2" ht="12.75">
-      <c r="B411" s="100"/>
+      <c r="B411" s="74"/>
     </row>
     <row r="412" spans="2:2" ht="12.75">
-      <c r="B412" s="100"/>
+      <c r="B412" s="74"/>
     </row>
     <row r="413" spans="2:2" ht="12.75">
-      <c r="B413" s="100"/>
+      <c r="B413" s="74"/>
     </row>
     <row r="414" spans="2:2" ht="12.75">
-      <c r="B414" s="100"/>
+      <c r="B414" s="74"/>
     </row>
     <row r="415" spans="2:2" ht="12.75">
-      <c r="B415" s="100"/>
+      <c r="B415" s="74"/>
     </row>
     <row r="416" spans="2:2" ht="12.75">
-      <c r="B416" s="100"/>
+      <c r="B416" s="74"/>
     </row>
     <row r="417" spans="2:2" ht="12.75">
-      <c r="B417" s="100"/>
+      <c r="B417" s="74"/>
     </row>
     <row r="418" spans="2:2" ht="12.75">
-      <c r="B418" s="100"/>
+      <c r="B418" s="74"/>
     </row>
     <row r="419" spans="2:2" ht="12.75">
-      <c r="B419" s="100"/>
+      <c r="B419" s="74"/>
     </row>
     <row r="420" spans="2:2" ht="12.75">
-      <c r="B420" s="100"/>
+      <c r="B420" s="74"/>
     </row>
     <row r="421" spans="2:2" ht="12.75">
-      <c r="B421" s="100"/>
+      <c r="B421" s="74"/>
     </row>
     <row r="422" spans="2:2" ht="12.75">
-      <c r="B422" s="100"/>
+      <c r="B422" s="74"/>
     </row>
     <row r="423" spans="2:2" ht="12.75">
-      <c r="B423" s="100"/>
+      <c r="B423" s="74"/>
     </row>
     <row r="424" spans="2:2" ht="12.75">
-      <c r="B424" s="100"/>
+      <c r="B424" s="74"/>
     </row>
     <row r="425" spans="2:2" ht="12.75">
-      <c r="B425" s="100"/>
+      <c r="B425" s="74"/>
     </row>
     <row r="426" spans="2:2" ht="12.75">
-      <c r="B426" s="100"/>
+      <c r="B426" s="74"/>
     </row>
     <row r="427" spans="2:2" ht="12.75">
-      <c r="B427" s="100"/>
+      <c r="B427" s="74"/>
     </row>
     <row r="428" spans="2:2" ht="12.75">
-      <c r="B428" s="100"/>
+      <c r="B428" s="74"/>
     </row>
     <row r="429" spans="2:2" ht="12.75">
-      <c r="B429" s="100"/>
+      <c r="B429" s="74"/>
     </row>
     <row r="430" spans="2:2" ht="12.75">
-      <c r="B430" s="100"/>
+      <c r="B430" s="74"/>
     </row>
     <row r="431" spans="2:2" ht="12.75">
-      <c r="B431" s="100"/>
+      <c r="B431" s="74"/>
     </row>
     <row r="432" spans="2:2" ht="12.75">
-      <c r="B432" s="100"/>
+      <c r="B432" s="74"/>
     </row>
     <row r="433" spans="2:2" ht="12.75">
-      <c r="B433" s="100"/>
+      <c r="B433" s="74"/>
     </row>
     <row r="434" spans="2:2" ht="12.75">
-      <c r="B434" s="100"/>
+      <c r="B434" s="74"/>
     </row>
     <row r="435" spans="2:2" ht="12.75">
-      <c r="B435" s="100"/>
+      <c r="B435" s="74"/>
     </row>
     <row r="436" spans="2:2" ht="12.75">
-      <c r="B436" s="100"/>
+      <c r="B436" s="74"/>
     </row>
     <row r="437" spans="2:2" ht="12.75">
-      <c r="B437" s="100"/>
+      <c r="B437" s="74"/>
     </row>
     <row r="438" spans="2:2" ht="12.75">
-      <c r="B438" s="100"/>
+      <c r="B438" s="74"/>
     </row>
     <row r="439" spans="2:2" ht="12.75">
-      <c r="B439" s="100"/>
+      <c r="B439" s="74"/>
     </row>
     <row r="440" spans="2:2" ht="12.75">
-      <c r="B440" s="100"/>
+      <c r="B440" s="74"/>
     </row>
     <row r="441" spans="2:2" ht="12.75">
-      <c r="B441" s="100"/>
+      <c r="B441" s="74"/>
     </row>
     <row r="442" spans="2:2" ht="12.75">
-      <c r="B442" s="100"/>
+      <c r="B442" s="74"/>
     </row>
     <row r="443" spans="2:2" ht="12.75">
-      <c r="B443" s="100"/>
+      <c r="B443" s="74"/>
     </row>
     <row r="444" spans="2:2" ht="12.75">
-      <c r="B444" s="100"/>
+      <c r="B444" s="74"/>
     </row>
     <row r="445" spans="2:2" ht="12.75">
-      <c r="B445" s="100"/>
+      <c r="B445" s="74"/>
     </row>
     <row r="446" spans="2:2" ht="12.75">
-      <c r="B446" s="100"/>
+      <c r="B446" s="74"/>
     </row>
     <row r="447" spans="2:2" ht="12.75">
-      <c r="B447" s="100"/>
+      <c r="B447" s="74"/>
     </row>
     <row r="448" spans="2:2" ht="12.75">
-      <c r="B448" s="100"/>
+      <c r="B448" s="74"/>
     </row>
     <row r="449" spans="2:2" ht="12.75">
-      <c r="B449" s="100"/>
+      <c r="B449" s="74"/>
     </row>
     <row r="450" spans="2:2" ht="12.75">
-      <c r="B450" s="100"/>
+      <c r="B450" s="74"/>
     </row>
     <row r="451" spans="2:2" ht="12.75">
-      <c r="B451" s="100"/>
+      <c r="B451" s="74"/>
     </row>
     <row r="452" spans="2:2" ht="12.75">
-      <c r="B452" s="100"/>
+      <c r="B452" s="74"/>
     </row>
     <row r="453" spans="2:2" ht="12.75">
-      <c r="B453" s="100"/>
+      <c r="B453" s="74"/>
     </row>
     <row r="454" spans="2:2" ht="12.75">
-      <c r="B454" s="100"/>
+      <c r="B454" s="74"/>
     </row>
     <row r="455" spans="2:2" ht="12.75">
-      <c r="B455" s="100"/>
+      <c r="B455" s="74"/>
     </row>
     <row r="456" spans="2:2" ht="12.75">
-      <c r="B456" s="100"/>
+      <c r="B456" s="74"/>
     </row>
     <row r="457" spans="2:2" ht="12.75">
-      <c r="B457" s="100"/>
+      <c r="B457" s="74"/>
     </row>
     <row r="458" spans="2:2" ht="12.75">
-      <c r="B458" s="100"/>
+      <c r="B458" s="74"/>
     </row>
     <row r="459" spans="2:2" ht="12.75">
-      <c r="B459" s="100"/>
+      <c r="B459" s="74"/>
     </row>
     <row r="460" spans="2:2" ht="12.75">
-      <c r="B460" s="100"/>
+      <c r="B460" s="74"/>
     </row>
     <row r="461" spans="2:2" ht="12.75">
-      <c r="B461" s="100"/>
+      <c r="B461" s="74"/>
     </row>
     <row r="462" spans="2:2" ht="12.75">
-      <c r="B462" s="100"/>
+      <c r="B462" s="74"/>
     </row>
     <row r="463" spans="2:2" ht="12.75">
-      <c r="B463" s="100"/>
+      <c r="B463" s="74"/>
     </row>
     <row r="464" spans="2:2" ht="12.75">
-      <c r="B464" s="100"/>
+      <c r="B464" s="74"/>
     </row>
     <row r="465" spans="2:2" ht="12.75">
-      <c r="B465" s="100"/>
+      <c r="B465" s="74"/>
     </row>
     <row r="466" spans="2:2" ht="12.75">
-      <c r="B466" s="100"/>
+      <c r="B466" s="74"/>
     </row>
     <row r="467" spans="2:2" ht="12.75">
-      <c r="B467" s="100"/>
+      <c r="B467" s="74"/>
     </row>
     <row r="468" spans="2:2" ht="12.75">
-      <c r="B468" s="100"/>
+      <c r="B468" s="74"/>
     </row>
     <row r="469" spans="2:2" ht="12.75">
-      <c r="B469" s="100"/>
+      <c r="B469" s="74"/>
     </row>
     <row r="470" spans="2:2" ht="12.75">
-      <c r="B470" s="100"/>
+      <c r="B470" s="74"/>
     </row>
     <row r="471" spans="2:2" ht="12.75">
-      <c r="B471" s="100"/>
+      <c r="B471" s="74"/>
     </row>
     <row r="472" spans="2:2" ht="12.75">
-      <c r="B472" s="100"/>
+      <c r="B472" s="74"/>
     </row>
     <row r="473" spans="2:2" ht="12.75">
-      <c r="B473" s="100"/>
+      <c r="B473" s="74"/>
     </row>
     <row r="474" spans="2:2" ht="12.75">
-      <c r="B474" s="100"/>
+      <c r="B474" s="74"/>
     </row>
     <row r="475" spans="2:2" ht="12.75">
-      <c r="B475" s="100"/>
+      <c r="B475" s="74"/>
     </row>
     <row r="476" spans="2:2" ht="12.75">
-      <c r="B476" s="100"/>
+      <c r="B476" s="74"/>
     </row>
     <row r="477" spans="2:2" ht="12.75">
-      <c r="B477" s="100"/>
+      <c r="B477" s="74"/>
     </row>
     <row r="478" spans="2:2" ht="12.75">
-      <c r="B478" s="100"/>
+      <c r="B478" s="74"/>
     </row>
     <row r="479" spans="2:2" ht="12.75">
-      <c r="B479" s="100"/>
+      <c r="B479" s="74"/>
     </row>
     <row r="480" spans="2:2" ht="12.75">
-      <c r="B480" s="100"/>
+      <c r="B480" s="74"/>
     </row>
     <row r="481" spans="2:2" ht="12.75">
-      <c r="B481" s="100"/>
+      <c r="B481" s="74"/>
     </row>
     <row r="482" spans="2:2" ht="12.75">
-      <c r="B482" s="100"/>
+      <c r="B482" s="74"/>
     </row>
     <row r="483" spans="2:2" ht="12.75">
-      <c r="B483" s="100"/>
+      <c r="B483" s="74"/>
     </row>
     <row r="484" spans="2:2" ht="12.75">
-      <c r="B484" s="100"/>
+      <c r="B484" s="74"/>
     </row>
     <row r="485" spans="2:2" ht="12.75">
-      <c r="B485" s="100"/>
+      <c r="B485" s="74"/>
     </row>
     <row r="486" spans="2:2" ht="12.75">
-      <c r="B486" s="100"/>
+      <c r="B486" s="74"/>
     </row>
     <row r="487" spans="2:2" ht="12.75">
-      <c r="B487" s="100"/>
+      <c r="B487" s="74"/>
     </row>
     <row r="488" spans="2:2" ht="12.75">
-      <c r="B488" s="100"/>
+      <c r="B488" s="74"/>
     </row>
     <row r="489" spans="2:2" ht="12.75">
-      <c r="B489" s="100"/>
+      <c r="B489" s="74"/>
     </row>
     <row r="490" spans="2:2" ht="12.75">
-      <c r="B490" s="100"/>
+      <c r="B490" s="74"/>
     </row>
     <row r="491" spans="2:2" ht="12.75">
-      <c r="B491" s="100"/>
+      <c r="B491" s="74"/>
     </row>
     <row r="492" spans="2:2" ht="12.75">
-      <c r="B492" s="100"/>
+      <c r="B492" s="74"/>
     </row>
     <row r="493" spans="2:2" ht="12.75">
-      <c r="B493" s="100"/>
+      <c r="B493" s="74"/>
     </row>
     <row r="494" spans="2:2" ht="12.75">
-      <c r="B494" s="100"/>
+      <c r="B494" s="74"/>
     </row>
     <row r="495" spans="2:2" ht="12.75">
-      <c r="B495" s="100"/>
+      <c r="B495" s="74"/>
     </row>
     <row r="496" spans="2:2" ht="12.75">
-      <c r="B496" s="100"/>
+      <c r="B496" s="74"/>
     </row>
     <row r="497" spans="2:2" ht="12.75">
-      <c r="B497" s="100"/>
+      <c r="B497" s="74"/>
     </row>
     <row r="498" spans="2:2" ht="12.75">
-      <c r="B498" s="100"/>
+      <c r="B498" s="74"/>
     </row>
     <row r="499" spans="2:2" ht="12.75">
-      <c r="B499" s="100"/>
+      <c r="B499" s="74"/>
     </row>
     <row r="500" spans="2:2" ht="12.75">
-      <c r="B500" s="100"/>
+      <c r="B500" s="74"/>
     </row>
     <row r="501" spans="2:2" ht="12.75">
-      <c r="B501" s="100"/>
+      <c r="B501" s="74"/>
     </row>
     <row r="502" spans="2:2" ht="12.75">
-      <c r="B502" s="100"/>
+      <c r="B502" s="74"/>
     </row>
     <row r="503" spans="2:2" ht="12.75">
-      <c r="B503" s="100"/>
+      <c r="B503" s="74"/>
     </row>
     <row r="504" spans="2:2" ht="12.75">
-      <c r="B504" s="100"/>
+      <c r="B504" s="74"/>
     </row>
     <row r="505" spans="2:2" ht="12.75">
-      <c r="B505" s="100"/>
+      <c r="B505" s="74"/>
     </row>
     <row r="506" spans="2:2" ht="12.75">
-      <c r="B506" s="100"/>
+      <c r="B506" s="74"/>
     </row>
     <row r="507" spans="2:2" ht="12.75">
-      <c r="B507" s="100"/>
+      <c r="B507" s="74"/>
     </row>
     <row r="508" spans="2:2" ht="12.75">
-      <c r="B508" s="100"/>
+      <c r="B508" s="74"/>
     </row>
     <row r="509" spans="2:2" ht="12.75">
-      <c r="B509" s="100"/>
+      <c r="B509" s="74"/>
     </row>
     <row r="510" spans="2:2" ht="12.75">
-      <c r="B510" s="100"/>
+      <c r="B510" s="74"/>
     </row>
     <row r="511" spans="2:2" ht="12.75">
-      <c r="B511" s="100"/>
+      <c r="B511" s="74"/>
     </row>
     <row r="512" spans="2:2" ht="12.75">
-      <c r="B512" s="100"/>
+      <c r="B512" s="74"/>
     </row>
     <row r="513" spans="2:2" ht="12.75">
-      <c r="B513" s="100"/>
+      <c r="B513" s="74"/>
     </row>
     <row r="514" spans="2:2" ht="12.75">
-      <c r="B514" s="100"/>
+      <c r="B514" s="74"/>
     </row>
     <row r="515" spans="2:2" ht="12.75">
-      <c r="B515" s="100"/>
+      <c r="B515" s="74"/>
     </row>
     <row r="516" spans="2:2" ht="12.75">
-      <c r="B516" s="100"/>
+      <c r="B516" s="74"/>
     </row>
     <row r="517" spans="2:2" ht="12.75">
-      <c r="B517" s="100"/>
+      <c r="B517" s="74"/>
     </row>
     <row r="518" spans="2:2" ht="12.75">
-      <c r="B518" s="100"/>
+      <c r="B518" s="74"/>
     </row>
     <row r="519" spans="2:2" ht="12.75">
-      <c r="B519" s="100"/>
+      <c r="B519" s="74"/>
     </row>
     <row r="520" spans="2:2" ht="12.75">
-      <c r="B520" s="100"/>
+      <c r="B520" s="74"/>
     </row>
     <row r="521" spans="2:2" ht="12.75">
-      <c r="B521" s="100"/>
+      <c r="B521" s="74"/>
     </row>
     <row r="522" spans="2:2" ht="12.75">
-      <c r="B522" s="100"/>
+      <c r="B522" s="74"/>
     </row>
     <row r="523" spans="2:2" ht="12.75">
-      <c r="B523" s="100"/>
+      <c r="B523" s="74"/>
     </row>
     <row r="524" spans="2:2" ht="12.75">
-      <c r="B524" s="100"/>
+      <c r="B524" s="74"/>
     </row>
     <row r="525" spans="2:2" ht="12.75">
-      <c r="B525" s="100"/>
+      <c r="B525" s="74"/>
     </row>
     <row r="526" spans="2:2" ht="12.75">
-      <c r="B526" s="100"/>
+      <c r="B526" s="74"/>
     </row>
     <row r="527" spans="2:2" ht="12.75">
-      <c r="B527" s="100"/>
+      <c r="B527" s="74"/>
     </row>
     <row r="528" spans="2:2" ht="12.75">
-      <c r="B528" s="100"/>
+      <c r="B528" s="74"/>
     </row>
     <row r="529" spans="2:2" ht="12.75">
-      <c r="B529" s="100"/>
+      <c r="B529" s="74"/>
     </row>
     <row r="530" spans="2:2" ht="12.75">
-      <c r="B530" s="100"/>
+      <c r="B530" s="74"/>
     </row>
     <row r="531" spans="2:2" ht="12.75">
-      <c r="B531" s="100"/>
+      <c r="B531" s="74"/>
     </row>
     <row r="532" spans="2:2" ht="12.75">
-      <c r="B532" s="100"/>
+      <c r="B532" s="74"/>
     </row>
     <row r="533" spans="2:2" ht="12.75">
-      <c r="B533" s="100"/>
+      <c r="B533" s="74"/>
     </row>
     <row r="534" spans="2:2" ht="12.75">
-      <c r="B534" s="100"/>
+      <c r="B534" s="74"/>
     </row>
     <row r="535" spans="2:2" ht="12.75">
-      <c r="B535" s="100"/>
+      <c r="B535" s="74"/>
     </row>
     <row r="536" spans="2:2" ht="12.75">
-      <c r="B536" s="100"/>
+      <c r="B536" s="74"/>
     </row>
     <row r="537" spans="2:2" ht="12.75">
-      <c r="B537" s="100"/>
+      <c r="B537" s="74"/>
     </row>
     <row r="538" spans="2:2" ht="12.75">
-      <c r="B538" s="100"/>
+      <c r="B538" s="74"/>
     </row>
     <row r="539" spans="2:2" ht="12.75">
-      <c r="B539" s="100"/>
+      <c r="B539" s="74"/>
     </row>
     <row r="540" spans="2:2" ht="12.75">
-      <c r="B540" s="100"/>
+      <c r="B540" s="74"/>
     </row>
     <row r="541" spans="2:2" ht="12.75">
-      <c r="B541" s="100"/>
+      <c r="B541" s="74"/>
     </row>
     <row r="542" spans="2:2" ht="12.75">
-      <c r="B542" s="100"/>
+      <c r="B542" s="74"/>
     </row>
     <row r="543" spans="2:2" ht="12.75">
-      <c r="B543" s="100"/>
+      <c r="B543" s="74"/>
     </row>
     <row r="544" spans="2:2" ht="12.75">
-      <c r="B544" s="100"/>
+      <c r="B544" s="74"/>
     </row>
     <row r="545" spans="2:2" ht="12.75">
-      <c r="B545" s="100"/>
+      <c r="B545" s="74"/>
     </row>
     <row r="546" spans="2:2" ht="12.75">
-      <c r="B546" s="100"/>
+      <c r="B546" s="74"/>
     </row>
     <row r="547" spans="2:2" ht="12.75">
-      <c r="B547" s="100"/>
+      <c r="B547" s="74"/>
     </row>
     <row r="548" spans="2:2" ht="12.75">
-      <c r="B548" s="100"/>
+      <c r="B548" s="74"/>
     </row>
     <row r="549" spans="2:2" ht="12.75">
-      <c r="B549" s="100"/>
+      <c r="B549" s="74"/>
     </row>
     <row r="550" spans="2:2" ht="12.75">
-      <c r="B550" s="100"/>
+      <c r="B550" s="74"/>
     </row>
     <row r="551" spans="2:2" ht="12.75">
-      <c r="B551" s="100"/>
+      <c r="B551" s="74"/>
     </row>
     <row r="552" spans="2:2" ht="12.75">
-      <c r="B552" s="100"/>
+      <c r="B552" s="74"/>
     </row>
     <row r="553" spans="2:2" ht="12.75">
-      <c r="B553" s="100"/>
+      <c r="B553" s="74"/>
     </row>
     <row r="554" spans="2:2" ht="12.75">
-      <c r="B554" s="100"/>
+      <c r="B554" s="74"/>
     </row>
     <row r="555" spans="2:2" ht="12.75">
-      <c r="B555" s="100"/>
+      <c r="B555" s="74"/>
     </row>
     <row r="556" spans="2:2" ht="12.75">
-      <c r="B556" s="100"/>
+      <c r="B556" s="74"/>
     </row>
     <row r="557" spans="2:2" ht="12.75">
-      <c r="B557" s="100"/>
+      <c r="B557" s="74"/>
     </row>
     <row r="558" spans="2:2" ht="12.75">
-      <c r="B558" s="100"/>
+      <c r="B558" s="74"/>
     </row>
     <row r="559" spans="2:2" ht="12.75">
-      <c r="B559" s="100"/>
+      <c r="B559" s="74"/>
     </row>
     <row r="560" spans="2:2" ht="12.75">
-      <c r="B560" s="100"/>
+      <c r="B560" s="74"/>
     </row>
     <row r="561" spans="2:2" ht="12.75">
-      <c r="B561" s="100"/>
+      <c r="B561" s="74"/>
     </row>
     <row r="562" spans="2:2" ht="12.75">
-      <c r="B562" s="100"/>
+      <c r="B562" s="74"/>
     </row>
     <row r="563" spans="2:2" ht="12.75">
-      <c r="B563" s="100"/>
+      <c r="B563" s="74"/>
     </row>
     <row r="564" spans="2:2" ht="12.75">
-      <c r="B564" s="100"/>
+      <c r="B564" s="74"/>
     </row>
     <row r="565" spans="2:2" ht="12.75">
-      <c r="B565" s="100"/>
+      <c r="B565" s="74"/>
     </row>
     <row r="566" spans="2:2" ht="12.75">
-      <c r="B566" s="100"/>
+      <c r="B566" s="74"/>
     </row>
     <row r="567" spans="2:2" ht="12.75">
-      <c r="B567" s="100"/>
+      <c r="B567" s="74"/>
     </row>
     <row r="568" spans="2:2" ht="12.75">
-      <c r="B568" s="100"/>
+      <c r="B568" s="74"/>
     </row>
     <row r="569" spans="2:2" ht="12.75">
-      <c r="B569" s="100"/>
+      <c r="B569" s="74"/>
     </row>
     <row r="570" spans="2:2" ht="12.75">
-      <c r="B570" s="100"/>
+      <c r="B570" s="74"/>
     </row>
     <row r="571" spans="2:2" ht="12.75">
-      <c r="B571" s="100"/>
+      <c r="B571" s="74"/>
     </row>
     <row r="572" spans="2:2" ht="12.75">
-      <c r="B572" s="100"/>
+      <c r="B572" s="74"/>
     </row>
     <row r="573" spans="2:2" ht="12.75">
-      <c r="B573" s="100"/>
+      <c r="B573" s="74"/>
     </row>
     <row r="574" spans="2:2" ht="12.75">
-      <c r="B574" s="100"/>
+      <c r="B574" s="74"/>
     </row>
     <row r="575" spans="2:2" ht="12.75">
-      <c r="B575" s="100"/>
+      <c r="B575" s="74"/>
     </row>
     <row r="576" spans="2:2" ht="12.75">
-      <c r="B576" s="100"/>
+      <c r="B576" s="74"/>
     </row>
     <row r="577" spans="2:2" ht="12.75">
-      <c r="B577" s="100"/>
+      <c r="B577" s="74"/>
     </row>
     <row r="578" spans="2:2" ht="12.75">
-      <c r="B578" s="100"/>
+      <c r="B578" s="74"/>
     </row>
     <row r="579" spans="2:2" ht="12.75">
-      <c r="B579" s="100"/>
+      <c r="B579" s="74"/>
     </row>
     <row r="580" spans="2:2" ht="12.75">
-      <c r="B580" s="100"/>
+      <c r="B580" s="74"/>
     </row>
     <row r="581" spans="2:2" ht="12.75">
-      <c r="B581" s="100"/>
+      <c r="B581" s="74"/>
     </row>
     <row r="582" spans="2:2" ht="12.75">
-      <c r="B582" s="100"/>
+      <c r="B582" s="74"/>
     </row>
     <row r="583" spans="2:2" ht="12.75">
-      <c r="B583" s="100"/>
+      <c r="B583" s="74"/>
     </row>
     <row r="584" spans="2:2" ht="12.75">
-      <c r="B584" s="100"/>
+      <c r="B584" s="74"/>
     </row>
     <row r="585" spans="2:2" ht="12.75">
-      <c r="B585" s="100"/>
+      <c r="B585" s="74"/>
     </row>
     <row r="586" spans="2:2" ht="12.75">
-      <c r="B586" s="100"/>
+      <c r="B586" s="74"/>
     </row>
     <row r="587" spans="2:2" ht="12.75">
-      <c r="B587" s="100"/>
+      <c r="B587" s="74"/>
     </row>
     <row r="588" spans="2:2" ht="12.75">
-      <c r="B588" s="100"/>
+      <c r="B588" s="74"/>
     </row>
     <row r="589" spans="2:2" ht="12.75">
-      <c r="B589" s="100"/>
+      <c r="B589" s="74"/>
     </row>
     <row r="590" spans="2:2" ht="12.75">
-      <c r="B590" s="100"/>
+      <c r="B590" s="74"/>
     </row>
     <row r="591" spans="2:2" ht="12.75">
-      <c r="B591" s="100"/>
+      <c r="B591" s="74"/>
     </row>
     <row r="592" spans="2:2" ht="12.75">
-      <c r="B592" s="100"/>
+      <c r="B592" s="74"/>
     </row>
     <row r="593" spans="2:2" ht="12.75">
-      <c r="B593" s="100"/>
+      <c r="B593" s="74"/>
     </row>
     <row r="594" spans="2:2" ht="12.75">
-      <c r="B594" s="100"/>
+      <c r="B594" s="74"/>
     </row>
     <row r="595" spans="2:2" ht="12.75">
-      <c r="B595" s="100"/>
+      <c r="B595" s="74"/>
     </row>
     <row r="596" spans="2:2" ht="12.75">
-      <c r="B596" s="100"/>
+      <c r="B596" s="74"/>
     </row>
     <row r="597" spans="2:2" ht="12.75">
-      <c r="B597" s="100"/>
+      <c r="B597" s="74"/>
     </row>
     <row r="598" spans="2:2" ht="12.75">
-      <c r="B598" s="100"/>
+      <c r="B598" s="74"/>
     </row>
     <row r="599" spans="2:2" ht="12.75">
-      <c r="B599" s="100"/>
+      <c r="B599" s="74"/>
     </row>
     <row r="600" spans="2:2" ht="12.75">
-      <c r="B600" s="100"/>
+      <c r="B600" s="74"/>
     </row>
     <row r="601" spans="2:2" ht="12.75">
-      <c r="B601" s="100"/>
+      <c r="B601" s="74"/>
     </row>
     <row r="602" spans="2:2" ht="12.75">
-      <c r="B602" s="100"/>
+      <c r="B602" s="74"/>
     </row>
     <row r="603" spans="2:2" ht="12.75">
-      <c r="B603" s="100"/>
+      <c r="B603" s="74"/>
     </row>
     <row r="604" spans="2:2" ht="12.75">
-      <c r="B604" s="100"/>
+      <c r="B604" s="74"/>
     </row>
     <row r="605" spans="2:2" ht="12.75">
-      <c r="B605" s="100"/>
+      <c r="B605" s="74"/>
     </row>
     <row r="606" spans="2:2" ht="12.75">
-      <c r="B606" s="100"/>
+      <c r="B606" s="74"/>
     </row>
     <row r="607" spans="2:2" ht="12.75">
-      <c r="B607" s="100"/>
+      <c r="B607" s="74"/>
     </row>
     <row r="608" spans="2:2" ht="12.75">
-      <c r="B608" s="100"/>
+      <c r="B608" s="74"/>
     </row>
     <row r="609" spans="2:2" ht="12.75">
-      <c r="B609" s="100"/>
+      <c r="B609" s="74"/>
     </row>
     <row r="610" spans="2:2" ht="12.75">
-      <c r="B610" s="100"/>
+      <c r="B610" s="74"/>
     </row>
     <row r="611" spans="2:2" ht="12.75">
-      <c r="B611" s="100"/>
+      <c r="B611" s="74"/>
     </row>
     <row r="612" spans="2:2" ht="12.75">
-      <c r="B612" s="100"/>
+      <c r="B612" s="74"/>
     </row>
     <row r="613" spans="2:2" ht="12.75">
-      <c r="B613" s="100"/>
+      <c r="B613" s="74"/>
     </row>
     <row r="614" spans="2:2" ht="12.75">
-      <c r="B614" s="100"/>
+      <c r="B614" s="74"/>
     </row>
     <row r="615" spans="2:2" ht="12.75">
-      <c r="B615" s="100"/>
+      <c r="B615" s="74"/>
     </row>
     <row r="616" spans="2:2" ht="12.75">
-      <c r="B616" s="100"/>
+      <c r="B616" s="74"/>
     </row>
     <row r="617" spans="2:2" ht="12.75">
-      <c r="B617" s="100"/>
+      <c r="B617" s="74"/>
     </row>
     <row r="618" spans="2:2" ht="12.75">
-      <c r="B618" s="100"/>
+      <c r="B618" s="74"/>
     </row>
     <row r="619" spans="2:2" ht="12.75">
-      <c r="B619" s="100"/>
+      <c r="B619" s="74"/>
     </row>
     <row r="620" spans="2:2" ht="12.75">
-      <c r="B620" s="100"/>
+      <c r="B620" s="74"/>
     </row>
     <row r="621" spans="2:2" ht="12.75">
-      <c r="B621" s="100"/>
+      <c r="B621" s="74"/>
     </row>
     <row r="622" spans="2:2" ht="12.75">
-      <c r="B622" s="100"/>
+      <c r="B622" s="74"/>
     </row>
     <row r="623" spans="2:2" ht="12.75">
-      <c r="B623" s="100"/>
+      <c r="B623" s="74"/>
     </row>
     <row r="624" spans="2:2" ht="12.75">
-      <c r="B624" s="100"/>
+      <c r="B624" s="74"/>
     </row>
     <row r="625" spans="2:2" ht="12.75">
-      <c r="B625" s="100"/>
+      <c r="B625" s="74"/>
     </row>
     <row r="626" spans="2:2" ht="12.75">
-      <c r="B626" s="100"/>
+      <c r="B626" s="74"/>
     </row>
     <row r="627" spans="2:2" ht="12.75">
-      <c r="B627" s="100"/>
+      <c r="B627" s="74"/>
     </row>
     <row r="628" spans="2:2" ht="12.75">
-      <c r="B628" s="100"/>
+      <c r="B628" s="74"/>
     </row>
     <row r="629" spans="2:2" ht="12.75">
-      <c r="B629" s="100"/>
+      <c r="B629" s="74"/>
     </row>
     <row r="630" spans="2:2" ht="12.75">
-      <c r="B630" s="100"/>
+      <c r="B630" s="74"/>
     </row>
     <row r="631" spans="2:2" ht="12.75">
-      <c r="B631" s="100"/>
+      <c r="B631" s="74"/>
     </row>
     <row r="632" spans="2:2" ht="12.75">
-      <c r="B632" s="100"/>
+      <c r="B632" s="74"/>
     </row>
     <row r="633" spans="2:2" ht="12.75">
-      <c r="B633" s="100"/>
+      <c r="B633" s="74"/>
     </row>
     <row r="634" spans="2:2" ht="12.75">
-      <c r="B634" s="100"/>
+      <c r="B634" s="74"/>
     </row>
     <row r="635" spans="2:2" ht="12.75">
-      <c r="B635" s="100"/>
+      <c r="B635" s="74"/>
     </row>
     <row r="636" spans="2:2" ht="12.75">
-      <c r="B636" s="100"/>
+      <c r="B636" s="74"/>
     </row>
     <row r="637" spans="2:2" ht="12.75">
-      <c r="B637" s="100"/>
+      <c r="B637" s="74"/>
     </row>
     <row r="638" spans="2:2" ht="12.75">
-      <c r="B638" s="100"/>
+      <c r="B638" s="74"/>
     </row>
     <row r="639" spans="2:2" ht="12.75">
-      <c r="B639" s="100"/>
+      <c r="B639" s="74"/>
     </row>
     <row r="640" spans="2:2" ht="12.75">
-      <c r="B640" s="100"/>
+      <c r="B640" s="74"/>
     </row>
     <row r="641" spans="2:2" ht="12.75">
-      <c r="B641" s="100"/>
+      <c r="B641" s="74"/>
     </row>
     <row r="642" spans="2:2" ht="12.75">
-      <c r="B642" s="100"/>
+      <c r="B642" s="74"/>
     </row>
     <row r="643" spans="2:2" ht="12.75">
-      <c r="B643" s="100"/>
+      <c r="B643" s="74"/>
     </row>
     <row r="644" spans="2:2" ht="12.75">
-      <c r="B644" s="100"/>
+      <c r="B644" s="74"/>
     </row>
     <row r="645" spans="2:2" ht="12.75">
-      <c r="B645" s="100"/>
+      <c r="B645" s="74"/>
     </row>
     <row r="646" spans="2:2" ht="12.75">
-      <c r="B646" s="100"/>
+      <c r="B646" s="74"/>
     </row>
     <row r="647" spans="2:2" ht="12.75">
-      <c r="B647" s="100"/>
+      <c r="B647" s="74"/>
     </row>
     <row r="648" spans="2:2" ht="12.75">
-      <c r="B648" s="100"/>
+      <c r="B648" s="74"/>
     </row>
     <row r="649" spans="2:2" ht="12.75">
-      <c r="B649" s="100"/>
+      <c r="B649" s="74"/>
     </row>
     <row r="650" spans="2:2" ht="12.75">
-      <c r="B650" s="100"/>
+      <c r="B650" s="74"/>
     </row>
     <row r="651" spans="2:2" ht="12.75">
-      <c r="B651" s="100"/>
+      <c r="B651" s="74"/>
     </row>
     <row r="652" spans="2:2" ht="12.75">
-      <c r="B652" s="100"/>
+      <c r="B652" s="74"/>
     </row>
     <row r="653" spans="2:2" ht="12.75">
-      <c r="B653" s="100"/>
+      <c r="B653" s="74"/>
     </row>
     <row r="654" spans="2:2" ht="12.75">
-      <c r="B654" s="100"/>
+      <c r="B654" s="74"/>
     </row>
     <row r="655" spans="2:2" ht="12.75">
-      <c r="B655" s="100"/>
+      <c r="B655" s="74"/>
     </row>
     <row r="656" spans="2:2" ht="12.75">
-      <c r="B656" s="100"/>
+      <c r="B656" s="74"/>
     </row>
     <row r="657" spans="2:2" ht="12.75">
-      <c r="B657" s="100"/>
+      <c r="B657" s="74"/>
     </row>
     <row r="658" spans="2:2" ht="12.75">
-      <c r="B658" s="100"/>
+      <c r="B658" s="74"/>
     </row>
     <row r="659" spans="2:2" ht="12.75">
-      <c r="B659" s="100"/>
+      <c r="B659" s="74"/>
     </row>
     <row r="660" spans="2:2" ht="12.75">
-      <c r="B660" s="100"/>
+      <c r="B660" s="74"/>
     </row>
     <row r="661" spans="2:2" ht="12.75">
-      <c r="B661" s="100"/>
+      <c r="B661" s="74"/>
     </row>
     <row r="662" spans="2:2" ht="12.75">
-      <c r="B662" s="100"/>
+      <c r="B662" s="74"/>
     </row>
     <row r="663" spans="2:2" ht="12.75">
-      <c r="B663" s="100"/>
+      <c r="B663" s="74"/>
     </row>
     <row r="664" spans="2:2" ht="12.75">
-      <c r="B664" s="100"/>
+      <c r="B664" s="74"/>
     </row>
     <row r="665" spans="2:2" ht="12.75">
-      <c r="B665" s="100"/>
+      <c r="B665" s="74"/>
     </row>
     <row r="666" spans="2:2" ht="12.75">
-      <c r="B666" s="100"/>
+      <c r="B666" s="74"/>
     </row>
     <row r="667" spans="2:2" ht="12.75">
-      <c r="B667" s="100"/>
+      <c r="B667" s="74"/>
     </row>
     <row r="668" spans="2:2" ht="12.75">
-      <c r="B668" s="100"/>
+      <c r="B668" s="74"/>
     </row>
     <row r="669" spans="2:2" ht="12.75">
-      <c r="B669" s="100"/>
+      <c r="B669" s="74"/>
     </row>
     <row r="670" spans="2:2" ht="12.75">
-      <c r="B670" s="100"/>
+      <c r="B670" s="74"/>
     </row>
     <row r="671" spans="2:2" ht="12.75">
-      <c r="B671" s="100"/>
+      <c r="B671" s="74"/>
     </row>
     <row r="672" spans="2:2" ht="12.75">
-      <c r="B672" s="100"/>
+      <c r="B672" s="74"/>
     </row>
     <row r="673" spans="2:2" ht="12.75">
-      <c r="B673" s="100"/>
+      <c r="B673" s="74"/>
     </row>
     <row r="674" spans="2:2" ht="12.75">
-      <c r="B674" s="100"/>
+      <c r="B674" s="74"/>
     </row>
     <row r="675" spans="2:2" ht="12.75">
-      <c r="B675" s="100"/>
+      <c r="B675" s="74"/>
     </row>
     <row r="676" spans="2:2" ht="12.75">
-      <c r="B676" s="100"/>
+      <c r="B676" s="74"/>
     </row>
     <row r="677" spans="2:2" ht="12.75">
-      <c r="B677" s="100"/>
+      <c r="B677" s="74"/>
     </row>
     <row r="678" spans="2:2" ht="12.75">
-      <c r="B678" s="100"/>
+      <c r="B678" s="74"/>
     </row>
     <row r="679" spans="2:2" ht="12.75">
-      <c r="B679" s="100"/>
+      <c r="B679" s="74"/>
     </row>
     <row r="680" spans="2:2" ht="12.75">
-      <c r="B680" s="100"/>
+      <c r="B680" s="74"/>
     </row>
     <row r="681" spans="2:2" ht="12.75">
-      <c r="B681" s="100"/>
+      <c r="B681" s="74"/>
     </row>
     <row r="682" spans="2:2" ht="12.75">
-      <c r="B682" s="100"/>
+      <c r="B682" s="74"/>
     </row>
     <row r="683" spans="2:2" ht="12.75">
-      <c r="B683" s="100"/>
+      <c r="B683" s="74"/>
     </row>
     <row r="684" spans="2:2" ht="12.75">
-      <c r="B684" s="100"/>
+      <c r="B684" s="74"/>
     </row>
     <row r="685" spans="2:2" ht="12.75">
-      <c r="B685" s="100"/>
+      <c r="B685" s="74"/>
     </row>
     <row r="686" spans="2:2" ht="12.75">
-      <c r="B686" s="100"/>
+      <c r="B686" s="74"/>
     </row>
     <row r="687" spans="2:2" ht="12.75">
-      <c r="B687" s="100"/>
+      <c r="B687" s="74"/>
     </row>
     <row r="688" spans="2:2" ht="12.75">
-      <c r="B688" s="100"/>
+      <c r="B688" s="74"/>
     </row>
     <row r="689" spans="2:2" ht="12.75">
-      <c r="B689" s="100"/>
+      <c r="B689" s="74"/>
     </row>
     <row r="690" spans="2:2" ht="12.75">
-      <c r="B690" s="100"/>
+      <c r="B690" s="74"/>
     </row>
     <row r="691" spans="2:2" ht="12.75">
-      <c r="B691" s="100"/>
+      <c r="B691" s="74"/>
     </row>
     <row r="692" spans="2:2" ht="12.75">
-      <c r="B692" s="100"/>
+      <c r="B692" s="74"/>
     </row>
     <row r="693" spans="2:2" ht="12.75">
-      <c r="B693" s="100"/>
+      <c r="B693" s="74"/>
     </row>
     <row r="694" spans="2:2" ht="12.75">
-      <c r="B694" s="100"/>
+      <c r="B694" s="74"/>
     </row>
     <row r="695" spans="2:2" ht="12.75">
-      <c r="B695" s="100"/>
+      <c r="B695" s="74"/>
     </row>
     <row r="696" spans="2:2" ht="12.75">
-      <c r="B696" s="100"/>
+      <c r="B696" s="74"/>
     </row>
     <row r="697" spans="2:2" ht="12.75">
-      <c r="B697" s="100"/>
+      <c r="B697" s="74"/>
     </row>
     <row r="698" spans="2:2" ht="12.75">
-      <c r="B698" s="100"/>
+      <c r="B698" s="74"/>
     </row>
     <row r="699" spans="2:2" ht="12.75">
-      <c r="B699" s="100"/>
+      <c r="B699" s="74"/>
     </row>
     <row r="700" spans="2:2" ht="12.75">
-      <c r="B700" s="100"/>
+      <c r="B700" s="74"/>
     </row>
     <row r="701" spans="2:2" ht="12.75">
-      <c r="B701" s="100"/>
+      <c r="B701" s="74"/>
     </row>
     <row r="702" spans="2:2" ht="12.75">
-      <c r="B702" s="100"/>
+      <c r="B702" s="74"/>
     </row>
     <row r="703" spans="2:2" ht="12.75">
-      <c r="B703" s="100"/>
+      <c r="B703" s="74"/>
     </row>
     <row r="704" spans="2:2" ht="12.75">
-      <c r="B704" s="100"/>
+      <c r="B704" s="74"/>
     </row>
     <row r="705" spans="2:2" ht="12.75">
-      <c r="B705" s="100"/>
+      <c r="B705" s="74"/>
     </row>
     <row r="706" spans="2:2" ht="12.75">
-      <c r="B706" s="100"/>
+      <c r="B706" s="74"/>
     </row>
     <row r="707" spans="2:2" ht="12.75">
-      <c r="B707" s="100"/>
+      <c r="B707" s="74"/>
     </row>
     <row r="708" spans="2:2" ht="12.75">
-      <c r="B708" s="100"/>
+      <c r="B708" s="74"/>
     </row>
     <row r="709" spans="2:2" ht="12.75">
-      <c r="B709" s="100"/>
+      <c r="B709" s="74"/>
     </row>
     <row r="710" spans="2:2" ht="12.75">
-      <c r="B710" s="100"/>
+      <c r="B710" s="74"/>
     </row>
     <row r="711" spans="2:2" ht="12.75">
-      <c r="B711" s="100"/>
+      <c r="B711" s="74"/>
     </row>
     <row r="712" spans="2:2" ht="12.75">
-      <c r="B712" s="100"/>
+      <c r="B712" s="74"/>
     </row>
     <row r="713" spans="2:2" ht="12.75">
-      <c r="B713" s="100"/>
+      <c r="B713" s="74"/>
     </row>
     <row r="714" spans="2:2" ht="12.75">
-      <c r="B714" s="100"/>
+      <c r="B714" s="74"/>
     </row>
     <row r="715" spans="2:2" ht="12.75">
-      <c r="B715" s="100"/>
+      <c r="B715" s="74"/>
     </row>
     <row r="716" spans="2:2" ht="12.75">
-      <c r="B716" s="100"/>
+      <c r="B716" s="74"/>
     </row>
     <row r="717" spans="2:2" ht="12.75">
-      <c r="B717" s="100"/>
+      <c r="B717" s="74"/>
     </row>
     <row r="718" spans="2:2" ht="12.75">
-      <c r="B718" s="100"/>
+      <c r="B718" s="74"/>
     </row>
     <row r="719" spans="2:2" ht="12.75">
-      <c r="B719" s="100"/>
+      <c r="B719" s="74"/>
     </row>
     <row r="720" spans="2:2" ht="12.75">
-      <c r="B720" s="100"/>
+      <c r="B720" s="74"/>
     </row>
     <row r="721" spans="2:2" ht="12.75">
-      <c r="B721" s="100"/>
+      <c r="B721" s="74"/>
     </row>
     <row r="722" spans="2:2" ht="12.75">
-      <c r="B722" s="100"/>
+      <c r="B722" s="74"/>
     </row>
     <row r="723" spans="2:2" ht="12.75">
-      <c r="B723" s="100"/>
+      <c r="B723" s="74"/>
     </row>
     <row r="724" spans="2:2" ht="12.75">
-      <c r="B724" s="100"/>
+      <c r="B724" s="74"/>
     </row>
     <row r="725" spans="2:2" ht="12.75">
-      <c r="B725" s="100"/>
+      <c r="B725" s="74"/>
     </row>
     <row r="726" spans="2:2" ht="12.75">
-      <c r="B726" s="100"/>
+      <c r="B726" s="74"/>
     </row>
     <row r="727" spans="2:2" ht="12.75">
-      <c r="B727" s="100"/>
+      <c r="B727" s="74"/>
     </row>
     <row r="728" spans="2:2" ht="12.75">
-      <c r="B728" s="100"/>
+      <c r="B728" s="74"/>
     </row>
     <row r="729" spans="2:2" ht="12.75">
-      <c r="B729" s="100"/>
+      <c r="B729" s="74"/>
     </row>
     <row r="730" spans="2:2" ht="12.75">
-      <c r="B730" s="100"/>
+      <c r="B730" s="74"/>
     </row>
     <row r="731" spans="2:2" ht="12.75">
-      <c r="B731" s="100"/>
+      <c r="B731" s="74"/>
     </row>
     <row r="732" spans="2:2" ht="12.75">
-      <c r="B732" s="100"/>
+      <c r="B732" s="74"/>
     </row>
     <row r="733" spans="2:2" ht="12.75">
-      <c r="B733" s="100"/>
+      <c r="B733" s="74"/>
     </row>
     <row r="734" spans="2:2" ht="12.75">
-      <c r="B734" s="100"/>
+      <c r="B734" s="74"/>
     </row>
     <row r="735" spans="2:2" ht="12.75">
-      <c r="B735" s="100"/>
+      <c r="B735" s="74"/>
     </row>
     <row r="736" spans="2:2" ht="12.75">
-      <c r="B736" s="100"/>
+      <c r="B736" s="74"/>
     </row>
     <row r="737" spans="2:2" ht="12.75">
-      <c r="B737" s="100"/>
+      <c r="B737" s="74"/>
     </row>
     <row r="738" spans="2:2" ht="12.75">
-      <c r="B738" s="100"/>
+      <c r="B738" s="74"/>
     </row>
     <row r="739" spans="2:2" ht="12.75">
-      <c r="B739" s="100"/>
+      <c r="B739" s="74"/>
     </row>
     <row r="740" spans="2:2" ht="12.75">
-      <c r="B740" s="100"/>
+      <c r="B740" s="74"/>
     </row>
     <row r="741" spans="2:2" ht="12.75">
-      <c r="B741" s="100"/>
+      <c r="B741" s="74"/>
     </row>
     <row r="742" spans="2:2" ht="12.75">
-      <c r="B742" s="100"/>
+      <c r="B742" s="74"/>
     </row>
     <row r="743" spans="2:2" ht="12.75">
-      <c r="B743" s="100"/>
+      <c r="B743" s="74"/>
     </row>
     <row r="744" spans="2:2" ht="12.75">
-      <c r="B744" s="100"/>
+      <c r="B744" s="74"/>
     </row>
     <row r="745" spans="2:2" ht="12.75">
-      <c r="B745" s="100"/>
+      <c r="B745" s="74"/>
     </row>
     <row r="746" spans="2:2" ht="12.75">
-      <c r="B746" s="100"/>
+      <c r="B746" s="74"/>
     </row>
     <row r="747" spans="2:2" ht="12.75">
-      <c r="B747" s="100"/>
+      <c r="B747" s="74"/>
     </row>
     <row r="748" spans="2:2" ht="12.75">
-      <c r="B748" s="100"/>
+      <c r="B748" s="74"/>
     </row>
     <row r="749" spans="2:2" ht="12.75">
-      <c r="B749" s="100"/>
+      <c r="B749" s="74"/>
     </row>
     <row r="750" spans="2:2" ht="12.75">
-      <c r="B750" s="100"/>
+      <c r="B750" s="74"/>
     </row>
     <row r="751" spans="2:2" ht="12.75">
-      <c r="B751" s="100"/>
+      <c r="B751" s="74"/>
     </row>
     <row r="752" spans="2:2" ht="12.75">
-      <c r="B752" s="100"/>
+      <c r="B752" s="74"/>
     </row>
     <row r="753" spans="2:2" ht="12.75">
-      <c r="B753" s="100"/>
+      <c r="B753" s="74"/>
     </row>
     <row r="754" spans="2:2" ht="12.75">
-      <c r="B754" s="100"/>
+      <c r="B754" s="74"/>
     </row>
     <row r="755" spans="2:2" ht="12.75">
-      <c r="B755" s="100"/>
+      <c r="B755" s="74"/>
     </row>
     <row r="756" spans="2:2" ht="12.75">
-      <c r="B756" s="100"/>
+      <c r="B756" s="74"/>
     </row>
     <row r="757" spans="2:2" ht="12.75">
-      <c r="B757" s="100"/>
+      <c r="B757" s="74"/>
     </row>
     <row r="758" spans="2:2" ht="12.75">
-      <c r="B758" s="100"/>
+      <c r="B758" s="74"/>
     </row>
     <row r="759" spans="2:2" ht="12.75">
-      <c r="B759" s="100"/>
+      <c r="B759" s="74"/>
     </row>
     <row r="760" spans="2:2" ht="12.75">
-      <c r="B760" s="100"/>
+      <c r="B760" s="74"/>
     </row>
     <row r="761" spans="2:2" ht="12.75">
-      <c r="B761" s="100"/>
+      <c r="B761" s="74"/>
     </row>
     <row r="762" spans="2:2" ht="12.75">
-      <c r="B762" s="100"/>
+      <c r="B762" s="74"/>
     </row>
     <row r="763" spans="2:2" ht="12.75">
-      <c r="B763" s="100"/>
+      <c r="B763" s="74"/>
     </row>
     <row r="764" spans="2:2" ht="12.75">
-      <c r="B764" s="100"/>
+      <c r="B764" s="74"/>
     </row>
     <row r="765" spans="2:2" ht="12.75">
-      <c r="B765" s="100"/>
+      <c r="B765" s="74"/>
     </row>
     <row r="766" spans="2:2" ht="12.75">
-      <c r="B766" s="100"/>
+      <c r="B766" s="74"/>
     </row>
     <row r="767" spans="2:2" ht="12.75">
-      <c r="B767" s="100"/>
+      <c r="B767" s="74"/>
     </row>
     <row r="768" spans="2:2" ht="12.75">
-      <c r="B768" s="100"/>
+      <c r="B768" s="74"/>
     </row>
     <row r="769" spans="2:2" ht="12.75">
-      <c r="B769" s="100"/>
+      <c r="B769" s="74"/>
     </row>
     <row r="770" spans="2:2" ht="12.75">
-      <c r="B770" s="100"/>
+      <c r="B770" s="74"/>
     </row>
     <row r="771" spans="2:2" ht="12.75">
-      <c r="B771" s="100"/>
+      <c r="B771" s="74"/>
     </row>
     <row r="772" spans="2:2" ht="12.75">
-      <c r="B772" s="100"/>
+      <c r="B772" s="74"/>
     </row>
     <row r="773" spans="2:2" ht="12.75">
-      <c r="B773" s="100"/>
+      <c r="B773" s="74"/>
     </row>
     <row r="774" spans="2:2" ht="12.75">
-      <c r="B774" s="100"/>
+      <c r="B774" s="74"/>
     </row>
     <row r="775" spans="2:2" ht="12.75">
-      <c r="B775" s="100"/>
+      <c r="B775" s="74"/>
     </row>
     <row r="776" spans="2:2" ht="12.75">
-      <c r="B776" s="100"/>
+      <c r="B776" s="74"/>
     </row>
     <row r="777" spans="2:2" ht="12.75">
-      <c r="B777" s="100"/>
+      <c r="B777" s="74"/>
     </row>
     <row r="778" spans="2:2" ht="12.75">
-      <c r="B778" s="100"/>
+      <c r="B778" s="74"/>
     </row>
     <row r="779" spans="2:2" ht="12.75">
-      <c r="B779" s="100"/>
+      <c r="B779" s="74"/>
     </row>
     <row r="780" spans="2:2" ht="12.75">
-      <c r="B780" s="100"/>
+      <c r="B780" s="74"/>
     </row>
     <row r="781" spans="2:2" ht="12.75">
-      <c r="B781" s="100"/>
+      <c r="B781" s="74"/>
     </row>
     <row r="782" spans="2:2" ht="12.75">
-      <c r="B782" s="100"/>
+      <c r="B782" s="74"/>
     </row>
     <row r="783" spans="2:2" ht="12.75">
-      <c r="B783" s="100"/>
+      <c r="B783" s="74"/>
     </row>
     <row r="784" spans="2:2" ht="12.75">
-      <c r="B784" s="100"/>
+      <c r="B784" s="74"/>
     </row>
     <row r="785" spans="2:2" ht="12.75">
-      <c r="B785" s="100"/>
+      <c r="B785" s="74"/>
     </row>
     <row r="786" spans="2:2" ht="12.75">
-      <c r="B786" s="100"/>
+      <c r="B786" s="74"/>
     </row>
     <row r="787" spans="2:2" ht="12.75">
-      <c r="B787" s="100"/>
+      <c r="B787" s="74"/>
     </row>
     <row r="788" spans="2:2" ht="12.75">
-      <c r="B788" s="100"/>
+      <c r="B788" s="74"/>
     </row>
     <row r="789" spans="2:2" ht="12.75">
-      <c r="B789" s="100"/>
+      <c r="B789" s="74"/>
     </row>
     <row r="790" spans="2:2" ht="12.75">
-      <c r="B790" s="100"/>
+      <c r="B790" s="74"/>
     </row>
     <row r="791" spans="2:2" ht="12.75">
-      <c r="B791" s="100"/>
+      <c r="B791" s="74"/>
     </row>
     <row r="792" spans="2:2" ht="12.75">
-      <c r="B792" s="100"/>
+      <c r="B792" s="74"/>
     </row>
     <row r="793" spans="2:2" ht="12.75">
-      <c r="B793" s="100"/>
+      <c r="B793" s="74"/>
     </row>
     <row r="794" spans="2:2" ht="12.75">
-      <c r="B794" s="100"/>
+      <c r="B794" s="74"/>
     </row>
     <row r="795" spans="2:2" ht="12.75">
-      <c r="B795" s="100"/>
+      <c r="B795" s="74"/>
     </row>
     <row r="796" spans="2:2" ht="12.75">
-      <c r="B796" s="100"/>
+      <c r="B796" s="74"/>
     </row>
     <row r="797" spans="2:2" ht="12.75">
-      <c r="B797" s="100"/>
+      <c r="B797" s="74"/>
     </row>
     <row r="798" spans="2:2" ht="12.75">
-      <c r="B798" s="100"/>
+      <c r="B798" s="74"/>
     </row>
     <row r="799" spans="2:2" ht="12.75">
-      <c r="B799" s="100"/>
+      <c r="B799" s="74"/>
     </row>
     <row r="800" spans="2:2" ht="12.75">
-      <c r="B800" s="100"/>
+      <c r="B800" s="74"/>
     </row>
     <row r="801" spans="2:2" ht="12.75">
-      <c r="B801" s="100"/>
+      <c r="B801" s="74"/>
     </row>
     <row r="802" spans="2:2" ht="12.75">
-      <c r="B802" s="100"/>
+      <c r="B802" s="74"/>
     </row>
     <row r="803" spans="2:2" ht="12.75">
-      <c r="B803" s="100"/>
+      <c r="B803" s="74"/>
     </row>
     <row r="804" spans="2:2" ht="12.75">
-      <c r="B804" s="100"/>
+      <c r="B804" s="74"/>
     </row>
     <row r="805" spans="2:2" ht="12.75">
-      <c r="B805" s="100"/>
+      <c r="B805" s="74"/>
     </row>
     <row r="806" spans="2:2" ht="12.75">
-      <c r="B806" s="100"/>
+      <c r="B806" s="74"/>
     </row>
     <row r="807" spans="2:2" ht="12.75">
-      <c r="B807" s="100"/>
+      <c r="B807" s="74"/>
     </row>
     <row r="808" spans="2:2" ht="12.75">
-      <c r="B808" s="100"/>
+      <c r="B808" s="74"/>
     </row>
     <row r="809" spans="2:2" ht="12.75">
-      <c r="B809" s="100"/>
+      <c r="B809" s="74"/>
     </row>
     <row r="810" spans="2:2" ht="12.75">
-      <c r="B810" s="100"/>
+      <c r="B810" s="74"/>
     </row>
     <row r="811" spans="2:2" ht="12.75">
-      <c r="B811" s="100"/>
+      <c r="B811" s="74"/>
     </row>
     <row r="812" spans="2:2" ht="12.75">
-      <c r="B812" s="100"/>
+      <c r="B812" s="74"/>
     </row>
     <row r="813" spans="2:2" ht="12.75">
-      <c r="B813" s="100"/>
+      <c r="B813" s="74"/>
     </row>
     <row r="814" spans="2:2" ht="12.75">
-      <c r="B814" s="100"/>
+      <c r="B814" s="74"/>
     </row>
     <row r="815" spans="2:2" ht="12.75">
-      <c r="B815" s="100"/>
+      <c r="B815" s="74"/>
     </row>
     <row r="816" spans="2:2" ht="12.75">
-      <c r="B816" s="100"/>
+      <c r="B816" s="74"/>
     </row>
     <row r="817" spans="2:2" ht="12.75">
-      <c r="B817" s="100"/>
+      <c r="B817" s="74"/>
     </row>
     <row r="818" spans="2:2" ht="12.75">
-      <c r="B818" s="100"/>
+      <c r="B818" s="74"/>
     </row>
     <row r="819" spans="2:2" ht="12.75">
-      <c r="B819" s="100"/>
+      <c r="B819" s="74"/>
     </row>
     <row r="820" spans="2:2" ht="12.75">
-      <c r="B820" s="100"/>
+      <c r="B820" s="74"/>
     </row>
     <row r="821" spans="2:2" ht="12.75">
-      <c r="B821" s="100"/>
+      <c r="B821" s="74"/>
     </row>
     <row r="822" spans="2:2" ht="12.75">
-      <c r="B822" s="100"/>
+      <c r="B822" s="74"/>
     </row>
     <row r="823" spans="2:2" ht="12.75">
-      <c r="B823" s="100"/>
+      <c r="B823" s="74"/>
     </row>
     <row r="824" spans="2:2" ht="12.75">
-      <c r="B824" s="100"/>
+      <c r="B824" s="74"/>
     </row>
     <row r="825" spans="2:2" ht="12.75">
-      <c r="B825" s="100"/>
+      <c r="B825" s="74"/>
     </row>
     <row r="826" spans="2:2" ht="12.75">
-      <c r="B826" s="100"/>
+      <c r="B826" s="74"/>
     </row>
     <row r="827" spans="2:2" ht="12.75">
-      <c r="B827" s="100"/>
+      <c r="B827" s="74"/>
     </row>
     <row r="828" spans="2:2" ht="12.75">
-      <c r="B828" s="100"/>
+      <c r="B828" s="74"/>
     </row>
     <row r="829" spans="2:2" ht="12.75">
-      <c r="B829" s="100"/>
+      <c r="B829" s="74"/>
     </row>
     <row r="830" spans="2:2" ht="12.75">
-      <c r="B830" s="100"/>
+      <c r="B830" s="74"/>
     </row>
     <row r="831" spans="2:2" ht="12.75">
-      <c r="B831" s="100"/>
+      <c r="B831" s="74"/>
     </row>
     <row r="832" spans="2:2" ht="12.75">
-      <c r="B832" s="100"/>
+      <c r="B832" s="74"/>
     </row>
     <row r="833" spans="2:2" ht="12.75">
-      <c r="B833" s="100"/>
+      <c r="B833" s="74"/>
     </row>
     <row r="834" spans="2:2" ht="12.75">
-      <c r="B834" s="100"/>
+      <c r="B834" s="74"/>
     </row>
     <row r="835" spans="2:2" ht="12.75">
-      <c r="B835" s="100"/>
+      <c r="B835" s="74"/>
     </row>
     <row r="836" spans="2:2" ht="12.75">
-      <c r="B836" s="100"/>
+      <c r="B836" s="74"/>
     </row>
     <row r="837" spans="2:2" ht="12.75">
-      <c r="B837" s="100"/>
+      <c r="B837" s="74"/>
     </row>
     <row r="838" spans="2:2" ht="12.75">
-      <c r="B838" s="100"/>
+      <c r="B838" s="74"/>
     </row>
     <row r="839" spans="2:2" ht="12.75">
-      <c r="B839" s="100"/>
+      <c r="B839" s="74"/>
     </row>
     <row r="840" spans="2:2" ht="12.75">
-      <c r="B840" s="100"/>
+      <c r="B840" s="74"/>
     </row>
     <row r="841" spans="2:2" ht="12.75">
-      <c r="B841" s="100"/>
+      <c r="B841" s="74"/>
     </row>
     <row r="842" spans="2:2" ht="12.75">
-      <c r="B842" s="100"/>
+      <c r="B842" s="74"/>
     </row>
     <row r="843" spans="2:2" ht="12.75">
-      <c r="B843" s="100"/>
+      <c r="B843" s="74"/>
     </row>
     <row r="844" spans="2:2" ht="12.75">
-      <c r="B844" s="100"/>
+      <c r="B844" s="74"/>
     </row>
     <row r="845" spans="2:2" ht="12.75">
-      <c r="B845" s="100"/>
+      <c r="B845" s="74"/>
     </row>
     <row r="846" spans="2:2" ht="12.75">
-      <c r="B846" s="100"/>
+      <c r="B846" s="74"/>
     </row>
     <row r="847" spans="2:2" ht="12.75">
-      <c r="B847" s="100"/>
+      <c r="B847" s="74"/>
     </row>
     <row r="848" spans="2:2" ht="12.75">
-      <c r="B848" s="100"/>
+      <c r="B848" s="74"/>
     </row>
     <row r="849" spans="2:2" ht="12.75">
-      <c r="B849" s="100"/>
+      <c r="B849" s="74"/>
     </row>
     <row r="850" spans="2:2" ht="12.75">
-      <c r="B850" s="100"/>
+      <c r="B850" s="74"/>
     </row>
     <row r="851" spans="2:2" ht="12.75">
-      <c r="B851" s="100"/>
+      <c r="B851" s="74"/>
     </row>
     <row r="852" spans="2:2" ht="12.75">
-      <c r="B852" s="100"/>
+      <c r="B852" s="74"/>
     </row>
     <row r="853" spans="2:2" ht="12.75">
-      <c r="B853" s="100"/>
+      <c r="B853" s="74"/>
     </row>
     <row r="854" spans="2:2" ht="12.75">
-      <c r="B854" s="100"/>
+      <c r="B854" s="74"/>
     </row>
     <row r="855" spans="2:2" ht="12.75">
-      <c r="B855" s="100"/>
+      <c r="B855" s="74"/>
     </row>
     <row r="856" spans="2:2" ht="12.75">
-      <c r="B856" s="100"/>
+      <c r="B856" s="74"/>
     </row>
     <row r="857" spans="2:2" ht="12.75">
-      <c r="B857" s="100"/>
+      <c r="B857" s="74"/>
     </row>
     <row r="858" spans="2:2" ht="12.75">
-      <c r="B858" s="100"/>
+      <c r="B858" s="74"/>
     </row>
     <row r="859" spans="2:2" ht="12.75">
-      <c r="B859" s="100"/>
+      <c r="B859" s="74"/>
     </row>
     <row r="860" spans="2:2" ht="12.75">
-      <c r="B860" s="100"/>
+      <c r="B860" s="74"/>
     </row>
     <row r="861" spans="2:2" ht="12.75">
-      <c r="B861" s="100"/>
+      <c r="B861" s="74"/>
     </row>
     <row r="862" spans="2:2" ht="12.75">
-      <c r="B862" s="100"/>
+      <c r="B862" s="74"/>
     </row>
     <row r="863" spans="2:2" ht="12.75">
-      <c r="B863" s="100"/>
+      <c r="B863" s="74"/>
     </row>
     <row r="864" spans="2:2" ht="12.75">
-      <c r="B864" s="100"/>
+      <c r="B864" s="74"/>
     </row>
     <row r="865" spans="2:2" ht="12.75">
-      <c r="B865" s="100"/>
+      <c r="B865" s="74"/>
     </row>
     <row r="866" spans="2:2" ht="12.75">
-      <c r="B866" s="100"/>
+      <c r="B866" s="74"/>
     </row>
     <row r="867" spans="2:2" ht="12.75">
-      <c r="B867" s="100"/>
+      <c r="B867" s="74"/>
     </row>
     <row r="868" spans="2:2" ht="12.75">
-      <c r="B868" s="100"/>
+      <c r="B868" s="74"/>
     </row>
     <row r="869" spans="2:2" ht="12.75">
-      <c r="B869" s="100"/>
+      <c r="B869" s="74"/>
     </row>
     <row r="870" spans="2:2" ht="12.75">
-      <c r="B870" s="100"/>
+      <c r="B870" s="74"/>
     </row>
     <row r="871" spans="2:2" ht="12.75">
-      <c r="B871" s="100"/>
+      <c r="B871" s="74"/>
     </row>
     <row r="872" spans="2:2" ht="12.75">
-      <c r="B872" s="100"/>
+      <c r="B872" s="74"/>
     </row>
     <row r="873" spans="2:2" ht="12.75">
-      <c r="B873" s="100"/>
+      <c r="B873" s="74"/>
     </row>
     <row r="874" spans="2:2" ht="12.75">
-      <c r="B874" s="100"/>
+      <c r="B874" s="74"/>
     </row>
     <row r="875" spans="2:2" ht="12.75">
-      <c r="B875" s="100"/>
+      <c r="B875" s="74"/>
     </row>
     <row r="876" spans="2:2" ht="12.75">
-      <c r="B876" s="100"/>
+      <c r="B876" s="74"/>
     </row>
     <row r="877" spans="2:2" ht="12.75">
-      <c r="B877" s="100"/>
+      <c r="B877" s="74"/>
     </row>
     <row r="878" spans="2:2" ht="12.75">
-      <c r="B878" s="100"/>
+      <c r="B878" s="74"/>
     </row>
     <row r="879" spans="2:2" ht="12.75">
-      <c r="B879" s="100"/>
+      <c r="B879" s="74"/>
     </row>
     <row r="880" spans="2:2" ht="12.75">
-      <c r="B880" s="100"/>
+      <c r="B880" s="74"/>
     </row>
     <row r="881" spans="2:2" ht="12.75">
-      <c r="B881" s="100"/>
+      <c r="B881" s="74"/>
     </row>
     <row r="882" spans="2:2" ht="12.75">
-      <c r="B882" s="100"/>
+      <c r="B882" s="74"/>
     </row>
     <row r="883" spans="2:2" ht="12.75">
-      <c r="B883" s="100"/>
+      <c r="B883" s="74"/>
     </row>
     <row r="884" spans="2:2" ht="12.75">
-      <c r="B884" s="100"/>
+      <c r="B884" s="74"/>
     </row>
     <row r="885" spans="2:2" ht="12.75">
-      <c r="B885" s="100"/>
+      <c r="B885" s="74"/>
     </row>
     <row r="886" spans="2:2" ht="12.75">
-      <c r="B886" s="100"/>
+      <c r="B886" s="74"/>
     </row>
     <row r="887" spans="2:2" ht="12.75">
-      <c r="B887" s="100"/>
+      <c r="B887" s="74"/>
     </row>
     <row r="888" spans="2:2" ht="12.75">
-      <c r="B888" s="100"/>
+      <c r="B888" s="74"/>
     </row>
     <row r="889" spans="2:2" ht="12.75">
-      <c r="B889" s="100"/>
+      <c r="B889" s="74"/>
     </row>
     <row r="890" spans="2:2" ht="12.75">
-      <c r="B890" s="100"/>
+      <c r="B890" s="74"/>
     </row>
     <row r="891" spans="2:2" ht="12.75">
-      <c r="B891" s="100"/>
+      <c r="B891" s="74"/>
     </row>
     <row r="892" spans="2:2" ht="12.75">
-      <c r="B892" s="100"/>
+      <c r="B892" s="74"/>
     </row>
     <row r="893" spans="2:2" ht="12.75">
-      <c r="B893" s="100"/>
+      <c r="B893" s="74"/>
     </row>
     <row r="894" spans="2:2" ht="12.75">
-      <c r="B894" s="100"/>
+      <c r="B894" s="74"/>
     </row>
     <row r="895" spans="2:2" ht="12.75">
-      <c r="B895" s="100"/>
+      <c r="B895" s="74"/>
     </row>
     <row r="896" spans="2:2" ht="12.75">
-      <c r="B896" s="100"/>
+      <c r="B896" s="74"/>
     </row>
     <row r="897" spans="2:2" ht="12.75">
-      <c r="B897" s="100"/>
+      <c r="B897" s="74"/>
     </row>
     <row r="898" spans="2:2" ht="12.75">
-      <c r="B898" s="100"/>
+      <c r="B898" s="74"/>
     </row>
     <row r="899" spans="2:2" ht="12.75">
-      <c r="B899" s="100"/>
+      <c r="B899" s="74"/>
     </row>
     <row r="900" spans="2:2" ht="12.75">
-      <c r="B900" s="100"/>
+      <c r="B900" s="74"/>
     </row>
     <row r="901" spans="2:2" ht="12.75">
-      <c r="B901" s="100"/>
+      <c r="B901" s="74"/>
     </row>
     <row r="902" spans="2:2" ht="12.75">
-      <c r="B902" s="100"/>
+      <c r="B902" s="74"/>
     </row>
     <row r="903" spans="2:2" ht="12.75">
-      <c r="B903" s="100"/>
+      <c r="B903" s="74"/>
     </row>
     <row r="904" spans="2:2" ht="12.75">
-      <c r="B904" s="100"/>
+      <c r="B904" s="74"/>
     </row>
     <row r="905" spans="2:2" ht="12.75">
-      <c r="B905" s="100"/>
+      <c r="B905" s="74"/>
     </row>
     <row r="906" spans="2:2" ht="12.75">
-      <c r="B906" s="100"/>
+      <c r="B906" s="74"/>
     </row>
     <row r="907" spans="2:2" ht="12.75">
-      <c r="B907" s="100"/>
+      <c r="B907" s="74"/>
     </row>
     <row r="908" spans="2:2" ht="12.75">
-      <c r="B908" s="100"/>
+      <c r="B908" s="74"/>
     </row>
     <row r="909" spans="2:2" ht="12.75">
-      <c r="B909" s="100"/>
+      <c r="B909" s="74"/>
     </row>
     <row r="910" spans="2:2" ht="12.75">
-      <c r="B910" s="100"/>
+      <c r="B910" s="74"/>
     </row>
     <row r="911" spans="2:2" ht="12.75">
-      <c r="B911" s="100"/>
+      <c r="B911" s="74"/>
     </row>
     <row r="912" spans="2:2" ht="12.75">
-      <c r="B912" s="100"/>
+      <c r="B912" s="74"/>
     </row>
     <row r="913" spans="2:2" ht="12.75">
-      <c r="B913" s="100"/>
+      <c r="B913" s="74"/>
     </row>
     <row r="914" spans="2:2" ht="12.75">
-      <c r="B914" s="100"/>
+      <c r="B914" s="74"/>
     </row>
     <row r="915" spans="2:2" ht="12.75">
-      <c r="B915" s="100"/>
+      <c r="B915" s="74"/>
     </row>
     <row r="916" spans="2:2" ht="12.75">
-      <c r="B916" s="100"/>
+      <c r="B916" s="74"/>
     </row>
     <row r="917" spans="2:2" ht="12.75">
-      <c r="B917" s="100"/>
+      <c r="B917" s="74"/>
     </row>
     <row r="918" spans="2:2" ht="12.75">
-      <c r="B918" s="100"/>
+      <c r="B918" s="74"/>
     </row>
     <row r="919" spans="2:2" ht="12.75">
-      <c r="B919" s="100"/>
+      <c r="B919" s="74"/>
     </row>
     <row r="920" spans="2:2" ht="12.75">
-      <c r="B920" s="100"/>
+      <c r="B920" s="74"/>
     </row>
     <row r="921" spans="2:2" ht="12.75">
-      <c r="B921" s="100"/>
+      <c r="B921" s="74"/>
     </row>
     <row r="922" spans="2:2" ht="12.75">
-      <c r="B922" s="100"/>
+      <c r="B922" s="74"/>
     </row>
     <row r="923" spans="2:2" ht="12.75">
-      <c r="B923" s="100"/>
+      <c r="B923" s="74"/>
     </row>
     <row r="924" spans="2:2" ht="12.75">
-      <c r="B924" s="100"/>
+      <c r="B924" s="74"/>
     </row>
     <row r="925" spans="2:2" ht="12.75">
-      <c r="B925" s="100"/>
+      <c r="B925" s="74"/>
     </row>
     <row r="926" spans="2:2" ht="12.75">
-      <c r="B926" s="100"/>
+      <c r="B926" s="74"/>
     </row>
     <row r="927" spans="2:2" ht="12.75">
-      <c r="B927" s="100"/>
+      <c r="B927" s="74"/>
     </row>
     <row r="928" spans="2:2" ht="12.75">
-      <c r="B928" s="100"/>
+      <c r="B928" s="74"/>
     </row>
     <row r="929" spans="2:2" ht="12.75">
-      <c r="B929" s="100"/>
+      <c r="B929" s="74"/>
     </row>
     <row r="930" spans="2:2" ht="12.75">
-      <c r="B930" s="100"/>
+      <c r="B930" s="74"/>
     </row>
     <row r="931" spans="2:2" ht="12.75">
-      <c r="B931" s="100"/>
+      <c r="B931" s="74"/>
     </row>
     <row r="932" spans="2:2" ht="12.75">
-      <c r="B932" s="100"/>
+      <c r="B932" s="74"/>
     </row>
     <row r="933" spans="2:2" ht="12.75">
-      <c r="B933" s="100"/>
+      <c r="B933" s="74"/>
     </row>
     <row r="934" spans="2:2" ht="12.75">
-      <c r="B934" s="100"/>
+      <c r="B934" s="74"/>
     </row>
     <row r="935" spans="2:2" ht="12.75">
-      <c r="B935" s="100"/>
+      <c r="B935" s="74"/>
     </row>
     <row r="936" spans="2:2" ht="12.75">
-      <c r="B936" s="100"/>
+      <c r="B936" s="74"/>
     </row>
     <row r="937" spans="2:2" ht="12.75">
-      <c r="B937" s="100"/>
+      <c r="B937" s="74"/>
     </row>
     <row r="938" spans="2:2" ht="12.75">
-      <c r="B938" s="100"/>
+      <c r="B938" s="74"/>
     </row>
     <row r="939" spans="2:2" ht="12.75">
-      <c r="B939" s="100"/>
+      <c r="B939" s="74"/>
     </row>
     <row r="940" spans="2:2" ht="12.75">
-      <c r="B940" s="100"/>
+      <c r="B940" s="74"/>
     </row>
     <row r="941" spans="2:2" ht="12.75">
-      <c r="B941" s="100"/>
+      <c r="B941" s="74"/>
     </row>
     <row r="942" spans="2:2" ht="12.75">
-      <c r="B942" s="100"/>
+      <c r="B942" s="74"/>
     </row>
     <row r="943" spans="2:2" ht="12.75">
-      <c r="B943" s="100"/>
+      <c r="B943" s="74"/>
     </row>
     <row r="944" spans="2:2" ht="12.75">
-      <c r="B944" s="100"/>
+      <c r="B944" s="74"/>
     </row>
     <row r="945" spans="2:2" ht="12.75">
-      <c r="B945" s="100"/>
+      <c r="B945" s="74"/>
     </row>
     <row r="946" spans="2:2" ht="12.75">
-      <c r="B946" s="100"/>
+      <c r="B946" s="74"/>
     </row>
     <row r="947" spans="2:2" ht="12.75">
-      <c r="B947" s="100"/>
+      <c r="B947" s="74"/>
     </row>
     <row r="948" spans="2:2" ht="12.75">
-      <c r="B948" s="100"/>
+      <c r="B948" s="74"/>
     </row>
     <row r="949" spans="2:2" ht="12.75">
-      <c r="B949" s="100"/>
+      <c r="B949" s="74"/>
     </row>
     <row r="950" spans="2:2" ht="12.75">
-      <c r="B950" s="100"/>
+      <c r="B950" s="74"/>
     </row>
     <row r="951" spans="2:2" ht="12.75">
-      <c r="B951" s="100"/>
+      <c r="B951" s="74"/>
     </row>
     <row r="952" spans="2:2" ht="12.75">
-      <c r="B952" s="100"/>
+      <c r="B952" s="74"/>
     </row>
     <row r="953" spans="2:2" ht="12.75">
-      <c r="B953" s="100"/>
+      <c r="B953" s="74"/>
     </row>
     <row r="954" spans="2:2" ht="12.75">
-      <c r="B954" s="100"/>
+      <c r="B954" s="74"/>
     </row>
     <row r="955" spans="2:2" ht="12.75">
-      <c r="B955" s="100"/>
+      <c r="B955" s="74"/>
     </row>
     <row r="956" spans="2:2" ht="12.75">
-      <c r="B956" s="100"/>
+      <c r="B956" s="74"/>
     </row>
     <row r="957" spans="2:2" ht="12.75">
-      <c r="B957" s="100"/>
+      <c r="B957" s="74"/>
     </row>
     <row r="958" spans="2:2" ht="12.75">
-      <c r="B958" s="100"/>
+      <c r="B958" s="74"/>
     </row>
     <row r="959" spans="2:2" ht="12.75">
-      <c r="B959" s="100"/>
+      <c r="B959" s="74"/>
     </row>
     <row r="960" spans="2:2" ht="12.75">
-      <c r="B960" s="100"/>
+      <c r="B960" s="74"/>
     </row>
     <row r="961" spans="2:2" ht="12.75">
-      <c r="B961" s="100"/>
+      <c r="B961" s="74"/>
     </row>
     <row r="962" spans="2:2" ht="12.75">
-      <c r="B962" s="100"/>
+      <c r="B962" s="74"/>
     </row>
     <row r="963" spans="2:2" ht="12.75">
-      <c r="B963" s="100"/>
+      <c r="B963" s="74"/>
     </row>
     <row r="964" spans="2:2" ht="12.75">
-      <c r="B964" s="100"/>
+      <c r="B964" s="74"/>
     </row>
     <row r="965" spans="2:2" ht="12.75">
-      <c r="B965" s="100"/>
+      <c r="B965" s="74"/>
     </row>
     <row r="966" spans="2:2" ht="12.75">
-      <c r="B966" s="100"/>
+      <c r="B966" s="74"/>
     </row>
     <row r="967" spans="2:2" ht="12.75">
-      <c r="B967" s="100"/>
+      <c r="B967" s="74"/>
     </row>
     <row r="968" spans="2:2" ht="12.75">
-      <c r="B968" s="100"/>
+      <c r="B968" s="74"/>
     </row>
     <row r="969" spans="2:2" ht="12.75">
-      <c r="B969" s="100"/>
+      <c r="B969" s="74"/>
     </row>
     <row r="970" spans="2:2" ht="12.75">
-      <c r="B970" s="100"/>
+      <c r="B970" s="74"/>
     </row>
     <row r="971" spans="2:2" ht="12.75">
-      <c r="B971" s="100"/>
+      <c r="B971" s="74"/>
     </row>
     <row r="972" spans="2:2" ht="12.75">
-      <c r="B972" s="100"/>
+      <c r="B972" s="74"/>
     </row>
     <row r="973" spans="2:2" ht="12.75">
-      <c r="B973" s="100"/>
+      <c r="B973" s="74"/>
     </row>
     <row r="974" spans="2:2" ht="12.75">
-      <c r="B974" s="100"/>
+      <c r="B974" s="74"/>
     </row>
     <row r="975" spans="2:2" ht="12.75">
-      <c r="B975" s="100"/>
+      <c r="B975" s="74"/>
     </row>
     <row r="976" spans="2:2" ht="12.75">
-      <c r="B976" s="100"/>
+      <c r="B976" s="74"/>
     </row>
     <row r="977" spans="2:2" ht="12.75">
-      <c r="B977" s="100"/>
+      <c r="B977" s="74"/>
     </row>
     <row r="978" spans="2:2" ht="12.75">
-      <c r="B978" s="100"/>
+      <c r="B978" s="74"/>
     </row>
     <row r="979" spans="2:2" ht="12.75">
-      <c r="B979" s="100"/>
+      <c r="B979" s="74"/>
     </row>
     <row r="980" spans="2:2" ht="12.75">
-      <c r="B980" s="100"/>
+      <c r="B980" s="74"/>
     </row>
     <row r="981" spans="2:2" ht="12.75">
-      <c r="B981" s="100"/>
+      <c r="B981" s="74"/>
     </row>
     <row r="982" spans="2:2" ht="12.75">
-      <c r="B982" s="100"/>
+      <c r="B982" s="74"/>
     </row>
     <row r="983" spans="2:2" ht="12.75">
-      <c r="B983" s="100"/>
+      <c r="B983" s="74"/>
     </row>
     <row r="984" spans="2:2" ht="12.75">
-      <c r="B984" s="100"/>
+      <c r="B984" s="74"/>
     </row>
     <row r="985" spans="2:2" ht="12.75">
-      <c r="B985" s="100"/>
+      <c r="B985" s="74"/>
     </row>
     <row r="986" spans="2:2" ht="12.75">
-      <c r="B986" s="100"/>
+      <c r="B986" s="74"/>
     </row>
     <row r="987" spans="2:2" ht="12.75">
-      <c r="B987" s="100"/>
+      <c r="B987" s="74"/>
     </row>
     <row r="988" spans="2:2" ht="12.75">
-      <c r="B988" s="100"/>
+      <c r="B988" s="74"/>
     </row>
     <row r="989" spans="2:2" ht="12.75">
-      <c r="B989" s="100"/>
+      <c r="B989" s="74"/>
     </row>
     <row r="990" spans="2:2" ht="12.75">
-      <c r="B990" s="100"/>
+      <c r="B990" s="74"/>
     </row>
     <row r="991" spans="2:2" ht="12.75">
-      <c r="B991" s="100"/>
+      <c r="B991" s="74"/>
     </row>
     <row r="992" spans="2:2" ht="12.75">
-      <c r="B992" s="100"/>
+      <c r="B992" s="74"/>
     </row>
     <row r="993" spans="2:2" ht="12.75">
-      <c r="B993" s="100"/>
+      <c r="B993" s="74"/>
     </row>
     <row r="994" spans="2:2" ht="12.75">
-      <c r="B994" s="100"/>
+      <c r="B994" s="74"/>
     </row>
     <row r="995" spans="2:2" ht="12.75">
-      <c r="B995" s="100"/>
+      <c r="B995" s="74"/>
     </row>
     <row r="996" spans="2:2" ht="12.75">
-      <c r="B996" s="100"/>
+      <c r="B996" s="74"/>
     </row>
     <row r="997" spans="2:2" ht="12.75">
-      <c r="B997" s="100"/>
+      <c r="B997" s="74"/>
     </row>
     <row r="998" spans="2:2" ht="12.75">
-      <c r="B998" s="100"/>
+      <c r="B998" s="74"/>
     </row>
     <row r="999" spans="2:2" ht="12.75">
-      <c r="B999" s="100"/>
+      <c r="B999" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4370,13 +4371,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC1012"/>
+  <dimension ref="A1:AC1013"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4389,26 +4390,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="15">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="106"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
@@ -4503,28 +4504,28 @@
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:29" ht="15">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="55" t="s">
+      <c r="B7" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="49" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="4"/>
@@ -4532,25 +4533,25 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:29" ht="15">
-      <c r="A8" s="59" t="s">
+    <row r="8" spans="1:29" ht="15" hidden="1">
+      <c r="A8" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="59">
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="53">
         <f>SUM(D9:D16)</f>
         <v>56</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59">
+      <c r="E8" s="53"/>
+      <c r="F8" s="53">
         <f>SUM(F9:F16)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="61">
+      <c r="G8" s="55">
         <v>44284</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="55">
         <v>44290</v>
       </c>
       <c r="I8" s="20"/>
@@ -4575,189 +4576,189 @@
       <c r="AB8" s="21"/>
       <c r="AC8" s="21"/>
     </row>
-    <row r="9" spans="1:29" ht="15">
-      <c r="A9" s="62"/>
-      <c r="B9" s="78" t="s">
+    <row r="9" spans="1:29" ht="15" hidden="1">
+      <c r="A9" s="56"/>
+      <c r="B9" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="58">
         <v>10</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="66"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:29" ht="15">
-      <c r="A10" s="64"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="63" t="s">
+    <row r="10" spans="1:29" ht="15" hidden="1">
+      <c r="A10" s="58"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="58">
         <v>3</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="66"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="60"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:29" ht="15">
-      <c r="A11" s="64"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="63" t="s">
+    <row r="11" spans="1:29" ht="15" hidden="1">
+      <c r="A11" s="58"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="58">
         <v>6</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="15">
-      <c r="A12" s="64"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="63" t="s">
+    <row r="12" spans="1:29" ht="15" hidden="1">
+      <c r="A12" s="58"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="58">
         <v>6</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="60"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:29" ht="15">
-      <c r="A13" s="64"/>
-      <c r="B13" s="81" t="s">
+      <c r="A13" s="58"/>
+      <c r="B13" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="58">
         <v>12</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="66"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:29" ht="15">
-      <c r="A14" s="64"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="63" t="s">
+    <row r="14" spans="1:29" ht="15" hidden="1">
+      <c r="A14" s="58"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="58">
         <v>5</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="64"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:29" ht="15">
-      <c r="A15" s="64"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="63" t="s">
+    <row r="15" spans="1:29" ht="15" hidden="1">
+      <c r="A15" s="58"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="64">
+      <c r="D15" s="58">
         <v>10</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="64"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="60"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:29" ht="15">
-      <c r="A16" s="64"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="63" t="s">
+    <row r="16" spans="1:29" ht="15" hidden="1">
+      <c r="A16" s="58"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="58">
         <v>4</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="60"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:29" ht="15">
-      <c r="A17" s="59" t="s">
+    <row r="17" spans="1:29" ht="15" hidden="1">
+      <c r="A17" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="59">
+      <c r="B17" s="72"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="53">
         <f>SUM(D18:D25)</f>
         <v>63</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59">
+      <c r="E17" s="53"/>
+      <c r="F17" s="53">
         <f>SUM(F18:F25)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="61">
+      <c r="G17" s="55">
         <v>44291</v>
       </c>
-      <c r="H17" s="67">
+      <c r="H17" s="61">
         <v>44297</v>
       </c>
       <c r="I17" s="20"/>
@@ -4782,189 +4783,189 @@
       <c r="AB17" s="21"/>
       <c r="AC17" s="21"/>
     </row>
-    <row r="18" spans="1:29" ht="15">
-      <c r="A18" s="64"/>
-      <c r="B18" s="81" t="s">
+    <row r="18" spans="1:29" ht="15" hidden="1">
+      <c r="A18" s="58"/>
+      <c r="B18" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="58">
         <v>6</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="64"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:29" ht="15">
-      <c r="A19" s="64"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="63" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="64">
+      <c r="D19" s="58">
         <v>4</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="64"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:29" ht="15">
-      <c r="A20" s="62"/>
-      <c r="B20" s="78" t="s">
+    <row r="20" spans="1:29" ht="15" hidden="1">
+      <c r="A20" s="56"/>
+      <c r="B20" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="58">
         <v>15</v>
       </c>
-      <c r="E20" s="63" t="s">
+      <c r="E20" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="64"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:29" ht="15">
-      <c r="A21" s="64"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="63" t="s">
+    <row r="21" spans="1:29" ht="15" hidden="1">
+      <c r="A21" s="58"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="64">
+      <c r="D21" s="58">
         <v>5</v>
       </c>
-      <c r="E21" s="63" t="s">
+      <c r="E21" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="64"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:29" ht="15">
-      <c r="A22" s="64"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="69" t="s">
+    <row r="22" spans="1:29" ht="15" hidden="1">
+      <c r="A22" s="58"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="70">
+      <c r="D22" s="64">
         <v>10</v>
       </c>
-      <c r="E22" s="71" t="s">
+      <c r="E22" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="70"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:29" s="46" customFormat="1" ht="15">
-      <c r="A23" s="64"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="69" t="s">
+    <row r="23" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
+      <c r="A23" s="58"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="70">
+      <c r="D23" s="64">
         <v>3</v>
       </c>
-      <c r="E23" s="71" t="s">
+      <c r="E23" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="70"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:29" s="46" customFormat="1" ht="15">
-      <c r="A24" s="64"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="69" t="s">
+    <row r="24" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
+      <c r="A24" s="58"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="70">
+      <c r="D24" s="64">
         <v>10</v>
       </c>
-      <c r="E24" s="71" t="s">
+      <c r="E24" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="70"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:29" s="46" customFormat="1" ht="15">
-      <c r="A25" s="64"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="69" t="s">
+    <row r="25" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
+      <c r="A25" s="58"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="70">
+      <c r="D25" s="64">
         <v>10</v>
       </c>
-      <c r="E25" s="71" t="s">
+      <c r="E25" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:29" ht="15">
-      <c r="A26" s="59" t="s">
+    <row r="26" spans="1:29" ht="15" hidden="1">
+      <c r="A26" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="59">
+      <c r="B26" s="72"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="53">
         <f>SUM(D27:D39)</f>
         <v>79</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59">
+      <c r="E26" s="53"/>
+      <c r="F26" s="53">
         <f>SUM(F27:F39)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="61">
+      <c r="G26" s="55">
         <v>44298</v>
       </c>
-      <c r="H26" s="61">
+      <c r="H26" s="55">
         <v>44304</v>
       </c>
       <c r="I26" s="20"/>
@@ -4989,293 +4990,293 @@
       <c r="AB26" s="21"/>
       <c r="AC26" s="21"/>
     </row>
-    <row r="27" spans="1:29" ht="15">
-      <c r="A27" s="64"/>
-      <c r="B27" s="85" t="s">
+    <row r="27" spans="1:29" ht="15" hidden="1">
+      <c r="A27" s="58"/>
+      <c r="B27" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="64">
+      <c r="D27" s="58">
         <v>10</v>
       </c>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="64"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="65"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="59"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:29" ht="15">
-      <c r="A28" s="73"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="63" t="s">
+    <row r="28" spans="1:29" ht="15" hidden="1">
+      <c r="A28" s="67"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="70">
+      <c r="D28" s="64">
         <v>4</v>
       </c>
-      <c r="E28" s="71" t="s">
+      <c r="E28" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="70"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="65"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="59"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:29" ht="15">
-      <c r="A29" s="64"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="63" t="s">
+    <row r="29" spans="1:29" ht="15" hidden="1">
+      <c r="A29" s="58"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="64">
+      <c r="D29" s="58">
         <v>10</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="64"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="65"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="59"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:29" ht="15">
-      <c r="A30" s="74"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="63" t="s">
+    <row r="30" spans="1:29" ht="15" hidden="1">
+      <c r="A30" s="68"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="64">
+      <c r="D30" s="58">
         <v>6</v>
       </c>
-      <c r="E30" s="63" t="s">
+      <c r="E30" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="64"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="65"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="59"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:29" ht="15">
-      <c r="A31" s="74"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="63" t="s">
+    <row r="31" spans="1:29" ht="15" hidden="1">
+      <c r="A31" s="68"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="64">
+      <c r="D31" s="58">
         <v>7</v>
       </c>
-      <c r="E31" s="63" t="s">
+      <c r="E31" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="F31" s="64"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="65"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="59"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:29" ht="15">
-      <c r="A32" s="64"/>
-      <c r="B32" s="85" t="s">
+      <c r="A32" s="58"/>
+      <c r="B32" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="64">
+      <c r="D32" s="58">
         <v>8</v>
       </c>
-      <c r="E32" s="63" t="s">
+      <c r="E32" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="64"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="65"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="59"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:29" ht="15">
-      <c r="A33" s="64"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="63" t="s">
+    <row r="33" spans="1:29" ht="15" hidden="1">
+      <c r="A33" s="58"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="64">
+      <c r="D33" s="58">
         <v>3</v>
       </c>
-      <c r="E33" s="63" t="s">
+      <c r="E33" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="F33" s="64"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="65"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="59"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:29" s="46" customFormat="1" ht="15">
-      <c r="A34" s="64"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="63" t="s">
+    <row r="34" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
+      <c r="A34" s="58"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="64">
+      <c r="D34" s="58">
         <v>8</v>
       </c>
-      <c r="E34" s="63" t="s">
+      <c r="E34" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="F34" s="64"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="65"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="59"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:29" s="46" customFormat="1" ht="15">
-      <c r="A35" s="64"/>
-      <c r="B35" s="85" t="s">
+    <row r="35" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
+      <c r="A35" s="58"/>
+      <c r="B35" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="64">
+      <c r="D35" s="58">
         <v>6</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="65"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="59"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:29" s="46" customFormat="1" ht="15">
-      <c r="A36" s="64"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="63" t="s">
+      <c r="A36" s="58"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="64">
+      <c r="D36" s="58">
         <v>3</v>
       </c>
-      <c r="E36" s="63" t="s">
+      <c r="E36" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="F36" s="64"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="65"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="59"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:29" s="46" customFormat="1" ht="15">
-      <c r="A37" s="64"/>
-      <c r="B37" s="81" t="s">
+    <row r="37" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
+      <c r="A37" s="58"/>
+      <c r="B37" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="64">
+      <c r="D37" s="58">
         <v>5</v>
       </c>
-      <c r="E37" s="63" t="s">
+      <c r="E37" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="F37" s="64"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="65"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="59"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:29" s="46" customFormat="1" ht="15">
-      <c r="A38" s="64"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="63" t="s">
+    <row r="38" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
+      <c r="A38" s="58"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="64">
+      <c r="D38" s="58">
         <v>6</v>
       </c>
-      <c r="E38" s="63" t="s">
+      <c r="E38" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F38" s="64"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="65"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="59"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:29" s="46" customFormat="1" ht="15">
-      <c r="A39" s="64"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="63" t="s">
+    <row r="39" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
+      <c r="A39" s="58"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="64">
+      <c r="D39" s="58">
         <v>3</v>
       </c>
-      <c r="E39" s="63" t="s">
+      <c r="E39" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="64"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="65"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="59"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:29" ht="19.5" customHeight="1">
-      <c r="A40" s="59" t="s">
+    <row r="40" spans="1:29" ht="19.5" hidden="1" customHeight="1">
+      <c r="A40" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="59">
+      <c r="B40" s="72"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="53">
         <f>SUM(D41:D48)</f>
         <v>50</v>
       </c>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59">
+      <c r="E40" s="53"/>
+      <c r="F40" s="53">
         <f>SUM(F41:F48)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="61">
+      <c r="G40" s="55">
         <v>44305</v>
       </c>
-      <c r="H40" s="61">
+      <c r="H40" s="55">
         <v>44311</v>
       </c>
       <c r="I40" s="20"/>
@@ -5300,191 +5301,191 @@
       <c r="AB40" s="21"/>
       <c r="AC40" s="21"/>
     </row>
-    <row r="41" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A41" s="64"/>
-      <c r="B41" s="85" t="s">
+    <row r="41" spans="1:29" ht="17.25" hidden="1" customHeight="1">
+      <c r="A41" s="58"/>
+      <c r="B41" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="64">
+      <c r="D41" s="58">
         <v>7</v>
       </c>
-      <c r="E41" s="63" t="s">
+      <c r="E41" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="64"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:29" ht="15">
-      <c r="A42" s="73"/>
-      <c r="B42" s="87"/>
-      <c r="C42" s="63" t="s">
+    <row r="42" spans="1:29" ht="15" hidden="1">
+      <c r="A42" s="67"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="64">
+      <c r="D42" s="58">
         <v>3</v>
       </c>
-      <c r="E42" s="63" t="s">
+      <c r="E42" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="64"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:29" ht="15">
-      <c r="A43" s="64"/>
-      <c r="B43" s="85" t="s">
+    <row r="43" spans="1:29" ht="15" hidden="1">
+      <c r="A43" s="58"/>
+      <c r="B43" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="64">
+      <c r="D43" s="58">
         <v>6</v>
       </c>
-      <c r="E43" s="63" t="s">
+      <c r="E43" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="F43" s="64"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:29" ht="15">
-      <c r="A44" s="74"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="63" t="s">
+      <c r="A44" s="68"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="D44" s="64">
+      <c r="D44" s="58">
         <v>3</v>
       </c>
-      <c r="E44" s="63" t="s">
+      <c r="E44" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="64"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:29" ht="15">
-      <c r="A45" s="74"/>
-      <c r="B45" s="88" t="s">
+    <row r="45" spans="1:29" ht="15" hidden="1">
+      <c r="A45" s="68"/>
+      <c r="B45" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="63" t="s">
+      <c r="C45" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="64">
+      <c r="D45" s="58">
         <v>10</v>
       </c>
-      <c r="E45" s="63" t="s">
+      <c r="E45" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="64"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
     <row r="46" spans="1:29" s="46" customFormat="1" ht="15">
-      <c r="A46" s="74"/>
-      <c r="B46" s="89"/>
-      <c r="C46" s="63" t="s">
+      <c r="A46" s="68"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="64">
+      <c r="D46" s="58">
         <v>3</v>
       </c>
-      <c r="E46" s="63" t="s">
+      <c r="E46" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="F46" s="64"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:29" s="46" customFormat="1" ht="15">
-      <c r="A47" s="74"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="63" t="s">
+    <row r="47" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
+      <c r="A47" s="68"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="D47" s="64">
+      <c r="D47" s="58">
         <v>10</v>
       </c>
-      <c r="E47" s="63" t="s">
+      <c r="E47" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="F47" s="64"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:29" s="46" customFormat="1" ht="15">
-      <c r="A48" s="74"/>
-      <c r="B48" s="90"/>
-      <c r="C48" s="63" t="s">
+    <row r="48" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
+      <c r="A48" s="68"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="64">
+      <c r="D48" s="58">
         <v>8</v>
       </c>
-      <c r="E48" s="63" t="s">
+      <c r="E48" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F48" s="64"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:29" ht="15">
-      <c r="A49" s="59" t="s">
+    <row r="49" spans="1:29" ht="15" hidden="1">
+      <c r="A49" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="84"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="59">
-        <f>SUM(D50:D57)</f>
+      <c r="B49" s="72"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="53">
+        <f>SUM(D50:D58)</f>
+        <v>56</v>
+      </c>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53">
+        <f>SUM(F50:F58)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59">
-        <f>SUM(F50:F57)</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="61">
+      <c r="G49" s="55">
         <v>44312</v>
       </c>
-      <c r="H49" s="61">
+      <c r="H49" s="55">
         <v>44318</v>
       </c>
       <c r="I49" s="20"/>
@@ -5509,213 +5510,260 @@
       <c r="AB49" s="21"/>
       <c r="AC49" s="21"/>
     </row>
-    <row r="50" spans="1:29" ht="15">
-      <c r="A50" s="64"/>
-      <c r="B50" s="91" t="s">
+    <row r="50" spans="1:29" ht="15" hidden="1">
+      <c r="A50" s="58"/>
+      <c r="B50" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
+      <c r="C50" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="58">
+        <v>8</v>
+      </c>
+      <c r="E50" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" s="58"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:29" ht="15">
-      <c r="A51" s="64"/>
-      <c r="B51" s="92"/>
-      <c r="C51" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="66"/>
+    <row r="51" spans="1:29" ht="15" hidden="1">
+      <c r="A51" s="58"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="58">
+        <v>8</v>
+      </c>
+      <c r="E51" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="58"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
     <row r="52" spans="1:29" ht="15">
-      <c r="A52" s="74"/>
-      <c r="B52" s="93" t="s">
-        <v>122</v>
-      </c>
-      <c r="C52" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="66"/>
+      <c r="A52" s="68"/>
+      <c r="B52" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" s="58">
+        <v>15</v>
+      </c>
+      <c r="E52" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52" s="58"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:29" ht="15">
-      <c r="A53" s="74"/>
-      <c r="B53" s="94" t="s">
+    <row r="53" spans="1:29" s="47" customFormat="1" ht="15" hidden="1">
+      <c r="A53" s="68"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" s="58">
+        <v>3</v>
+      </c>
+      <c r="E53" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53" s="58"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+    </row>
+    <row r="54" spans="1:29" ht="15" hidden="1">
+      <c r="A54" s="68"/>
+      <c r="B54" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="58">
+        <v>5</v>
+      </c>
+      <c r="E54" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" s="58"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="1:29" ht="15">
+      <c r="A55" s="67"/>
+      <c r="B55" s="98"/>
+      <c r="C55" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" s="67">
+        <v>4</v>
+      </c>
+      <c r="E55" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="F55" s="67"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+    </row>
+    <row r="56" spans="1:29" ht="15" hidden="1">
+      <c r="A56" s="67"/>
+      <c r="B56" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="63" t="s">
+      <c r="C56" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="71">
+        <v>5</v>
+      </c>
+      <c r="E56" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="22"/>
+    </row>
+    <row r="57" spans="1:29" ht="15" hidden="1">
+      <c r="A57" s="67"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="71">
+        <v>3</v>
+      </c>
+      <c r="E57" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="22"/>
+    </row>
+    <row r="58" spans="1:29" ht="15" hidden="1">
+      <c r="A58" s="67"/>
+      <c r="B58" s="101"/>
+      <c r="C58" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="66"/>
-      <c r="H53" s="66"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-    </row>
-    <row r="54" spans="1:29" ht="15">
-      <c r="A54" s="73"/>
-      <c r="B54" s="95"/>
-      <c r="C54" s="75" t="s">
-        <v>129</v>
-      </c>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="76"/>
-    </row>
-    <row r="55" spans="1:29" ht="15">
-      <c r="A55" s="73"/>
-      <c r="B55" s="96" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="77"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="73"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="22"/>
-    </row>
-    <row r="56" spans="1:29" ht="15">
-      <c r="A56" s="73"/>
-      <c r="B56" s="97"/>
-      <c r="C56" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="D56" s="77"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="76"/>
-      <c r="I56" s="22"/>
-    </row>
-    <row r="57" spans="1:29" ht="15">
-      <c r="A57" s="73"/>
-      <c r="B57" s="98"/>
-      <c r="C57" s="75" t="s">
+      <c r="D58" s="71">
+        <v>5</v>
+      </c>
+      <c r="E58" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="22"/>
+    </row>
+    <row r="59" spans="1:29" ht="15" hidden="1">
+      <c r="A59" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="D57" s="77"/>
-      <c r="E57" s="73"/>
-      <c r="F57" s="73"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="22"/>
-    </row>
-    <row r="58" spans="1:29" ht="15">
-      <c r="A58" s="117" t="s">
-        <v>132</v>
-      </c>
-      <c r="B58" s="117"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="118">
+      <c r="B59" s="102"/>
+      <c r="C59" s="102"/>
+      <c r="D59" s="91">
         <f>SUM(D8,D17,D26,D40,D49)</f>
-        <v>248</v>
-      </c>
-      <c r="F58" s="46">
+        <v>304</v>
+      </c>
+      <c r="F59" s="46">
         <f>SUM(F8,F17,F26,F40,F49)</f>
         <v>0</v>
       </c>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-    </row>
-    <row r="59" spans="1:29" ht="15">
-      <c r="D59" s="1"/>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
     </row>
     <row r="60" spans="1:29" ht="15">
-      <c r="C60" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="D60" s="77">
-        <v>38</v>
-      </c>
+      <c r="D60" s="1"/>
       <c r="H60" s="22"/>
       <c r="I60" s="22"/>
     </row>
     <row r="61" spans="1:29" ht="15">
-      <c r="C61" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="D61" s="77">
-        <v>33</v>
+      <c r="C61" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="71">
+        <v>49</v>
       </c>
       <c r="H61" s="22"/>
       <c r="I61" s="22"/>
     </row>
     <row r="62" spans="1:29" ht="15">
-      <c r="C62" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="D62" s="77">
-        <v>40</v>
+      <c r="C62" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" s="71">
+        <v>52</v>
       </c>
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
     </row>
     <row r="63" spans="1:29" ht="15">
-      <c r="C63" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="D63" s="77">
+      <c r="C63" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" s="71">
         <v>48</v>
       </c>
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
     </row>
     <row r="64" spans="1:29" ht="15">
-      <c r="C64" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="D64" s="77">
-        <v>49</v>
+      <c r="C64" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64" s="71">
+        <v>53</v>
       </c>
       <c r="H64" s="22"/>
       <c r="I64" s="22"/>
     </row>
     <row r="65" spans="3:9" ht="15">
-      <c r="C65" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="D65" s="77">
-        <v>40</v>
+      <c r="C65" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" s="71">
+        <v>54</v>
       </c>
       <c r="H65" s="22"/>
       <c r="I65" s="22"/>
     </row>
     <row r="66" spans="3:9" ht="15">
-      <c r="D66" s="1"/>
+      <c r="C66" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" s="71">
+        <v>48</v>
+      </c>
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
     </row>
@@ -10449,26 +10497,38 @@
       <c r="H1012" s="22"/>
       <c r="I1012" s="22"/>
     </row>
+    <row r="1013" spans="4:9" ht="15">
+      <c r="D1013" s="1"/>
+      <c r="H1013" s="22"/>
+      <c r="I1013" s="22"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A7:H58"/>
-  <mergeCells count="17">
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A58:C58"/>
+  <autoFilter ref="A7:H59">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Trinh"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="18">
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B39"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="A59:C59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10492,20 +10552,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="118"/>
       <c r="C2" s="23"/>
       <c r="D2" s="4"/>
       <c r="E2" s="24" t="s">
@@ -10514,10 +10574,10 @@
       <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="53"/>
+      <c r="B3" s="118"/>
       <c r="C3" s="26"/>
       <c r="D3" s="4"/>
       <c r="E3" s="27" t="s">
@@ -10528,10 +10588,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="53"/>
+      <c r="B4" s="118"/>
       <c r="C4" s="29"/>
       <c r="D4" s="4"/>
       <c r="E4" s="27" t="s">
@@ -11019,7 +11079,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="54"/>
+      <c r="B1" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project estimation.xlsx
+++ b/Project estimation.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THUONG THUONG\Documents\GitHub\44K223.02\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" activeTab="1"/>
   </bookViews>
@@ -15,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'PROJECT PLAN'!$A$7:$H$58</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -425,9 +430,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -792,10 +796,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -825,10 +829,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -855,23 +859,10 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -889,22 +880,22 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -922,67 +913,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1007,10 +941,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1025,10 +959,10 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1037,12 +971,82 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1052,6 +1056,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1266,3101 +1273,3101 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7" style="99" customWidth="1"/>
-    <col min="2" max="2" width="92.5703125" style="116" customWidth="1"/>
-    <col min="3" max="16384" width="14.42578125" style="99"/>
+    <col min="1" max="1" width="7" style="73" customWidth="1"/>
+    <col min="2" max="2" width="92.5703125" style="90" customWidth="1"/>
+    <col min="3" max="16384" width="14.42578125" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12.75">
-      <c r="B1" s="100"/>
+      <c r="B1" s="74"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="103" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="103" t="s">
+      <c r="E2" s="77" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="104"/>
-      <c r="B3" s="105" t="s">
+      <c r="A3" s="78"/>
+      <c r="B3" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="107">
+      <c r="D3" s="81">
         <v>44284</v>
       </c>
-      <c r="E3" s="108">
+      <c r="E3" s="82">
         <v>44318</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="109">
+      <c r="A4" s="83">
         <v>1</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="108">
+      <c r="D4" s="82">
         <v>44284</v>
       </c>
-      <c r="E4" s="108">
+      <c r="E4" s="82">
         <v>44290</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A5" s="104">
+      <c r="A5" s="78">
         <v>2</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="113">
+      <c r="D5" s="87">
         <v>44291</v>
       </c>
-      <c r="E5" s="114">
+      <c r="E5" s="88">
         <v>44297</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A6" s="109">
+      <c r="A6" s="83">
         <v>3</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="108">
+      <c r="D6" s="82">
         <v>44298</v>
       </c>
-      <c r="E6" s="108">
+      <c r="E6" s="82">
         <v>44304</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A7" s="104">
+      <c r="A7" s="78">
         <v>4</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="113">
+      <c r="D7" s="87">
         <v>44305</v>
       </c>
-      <c r="E7" s="113">
+      <c r="E7" s="87">
         <v>44311</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="109">
+      <c r="A8" s="83">
         <v>5</v>
       </c>
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="111" t="s">
+      <c r="C8" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="108">
+      <c r="D8" s="82">
         <v>44312</v>
       </c>
-      <c r="E8" s="108">
+      <c r="E8" s="82">
         <v>44318</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75">
-      <c r="B9" s="100"/>
+      <c r="B9" s="74"/>
     </row>
     <row r="10" spans="1:5" ht="12.75">
-      <c r="B10" s="100"/>
+      <c r="B10" s="74"/>
     </row>
     <row r="11" spans="1:5" ht="12.75">
-      <c r="B11" s="100"/>
+      <c r="B11" s="74"/>
     </row>
     <row r="12" spans="1:5" ht="12.75">
-      <c r="B12" s="100"/>
+      <c r="B12" s="74"/>
     </row>
     <row r="13" spans="1:5" ht="12.75">
-      <c r="B13" s="100"/>
+      <c r="B13" s="74"/>
     </row>
     <row r="14" spans="1:5" ht="12.75">
-      <c r="B14" s="100"/>
+      <c r="B14" s="74"/>
     </row>
     <row r="15" spans="1:5" ht="12.75">
-      <c r="B15" s="100"/>
+      <c r="B15" s="74"/>
     </row>
     <row r="16" spans="1:5" ht="12.75">
-      <c r="B16" s="100"/>
+      <c r="B16" s="74"/>
     </row>
     <row r="17" spans="2:2" ht="12.75">
-      <c r="B17" s="100"/>
+      <c r="B17" s="74"/>
     </row>
     <row r="18" spans="2:2" ht="12.75">
-      <c r="B18" s="100"/>
+      <c r="B18" s="74"/>
     </row>
     <row r="19" spans="2:2" ht="12.75">
-      <c r="B19" s="100"/>
+      <c r="B19" s="74"/>
     </row>
     <row r="20" spans="2:2" ht="12.75">
-      <c r="B20" s="100"/>
+      <c r="B20" s="74"/>
     </row>
     <row r="21" spans="2:2" ht="12.75">
-      <c r="B21" s="100"/>
+      <c r="B21" s="74"/>
     </row>
     <row r="22" spans="2:2" ht="12.75">
-      <c r="B22" s="100"/>
+      <c r="B22" s="74"/>
     </row>
     <row r="23" spans="2:2" ht="12.75">
-      <c r="B23" s="100"/>
+      <c r="B23" s="74"/>
     </row>
     <row r="24" spans="2:2" ht="12.75">
-      <c r="B24" s="100"/>
+      <c r="B24" s="74"/>
     </row>
     <row r="25" spans="2:2" ht="12.75">
-      <c r="B25" s="100"/>
+      <c r="B25" s="74"/>
     </row>
     <row r="26" spans="2:2" ht="12.75">
-      <c r="B26" s="100"/>
+      <c r="B26" s="74"/>
     </row>
     <row r="27" spans="2:2" ht="12.75">
-      <c r="B27" s="100"/>
+      <c r="B27" s="74"/>
     </row>
     <row r="28" spans="2:2" ht="12.75">
-      <c r="B28" s="100"/>
+      <c r="B28" s="74"/>
     </row>
     <row r="29" spans="2:2" ht="12.75">
-      <c r="B29" s="100"/>
+      <c r="B29" s="74"/>
     </row>
     <row r="30" spans="2:2" ht="12.75">
-      <c r="B30" s="100"/>
+      <c r="B30" s="74"/>
     </row>
     <row r="31" spans="2:2" ht="12.75">
-      <c r="B31" s="100"/>
+      <c r="B31" s="74"/>
     </row>
     <row r="32" spans="2:2" ht="12.75">
-      <c r="B32" s="100"/>
+      <c r="B32" s="74"/>
     </row>
     <row r="33" spans="2:2" ht="12.75">
-      <c r="B33" s="100"/>
+      <c r="B33" s="74"/>
     </row>
     <row r="34" spans="2:2" ht="12.75">
-      <c r="B34" s="100"/>
+      <c r="B34" s="74"/>
     </row>
     <row r="35" spans="2:2" ht="12.75">
-      <c r="B35" s="100"/>
+      <c r="B35" s="74"/>
     </row>
     <row r="36" spans="2:2" ht="12.75">
-      <c r="B36" s="100"/>
+      <c r="B36" s="74"/>
     </row>
     <row r="37" spans="2:2" ht="12.75">
-      <c r="B37" s="100"/>
+      <c r="B37" s="74"/>
     </row>
     <row r="38" spans="2:2" ht="12.75">
-      <c r="B38" s="100"/>
+      <c r="B38" s="74"/>
     </row>
     <row r="39" spans="2:2" ht="12.75">
-      <c r="B39" s="100"/>
+      <c r="B39" s="74"/>
     </row>
     <row r="40" spans="2:2" ht="12.75">
-      <c r="B40" s="100"/>
+      <c r="B40" s="74"/>
     </row>
     <row r="41" spans="2:2" ht="12.75">
-      <c r="B41" s="100"/>
+      <c r="B41" s="74"/>
     </row>
     <row r="42" spans="2:2" ht="12.75">
-      <c r="B42" s="100"/>
+      <c r="B42" s="74"/>
     </row>
     <row r="43" spans="2:2" ht="12.75">
-      <c r="B43" s="100"/>
+      <c r="B43" s="74"/>
     </row>
     <row r="44" spans="2:2" ht="12.75">
-      <c r="B44" s="100"/>
+      <c r="B44" s="74"/>
     </row>
     <row r="45" spans="2:2" ht="12.75">
-      <c r="B45" s="100"/>
+      <c r="B45" s="74"/>
     </row>
     <row r="46" spans="2:2" ht="12.75">
-      <c r="B46" s="100"/>
+      <c r="B46" s="74"/>
     </row>
     <row r="47" spans="2:2" ht="12.75">
-      <c r="B47" s="100"/>
+      <c r="B47" s="74"/>
     </row>
     <row r="48" spans="2:2" ht="12.75">
-      <c r="B48" s="100"/>
+      <c r="B48" s="74"/>
     </row>
     <row r="49" spans="2:2" ht="12.75">
-      <c r="B49" s="100"/>
+      <c r="B49" s="74"/>
     </row>
     <row r="50" spans="2:2" ht="12.75">
-      <c r="B50" s="100"/>
+      <c r="B50" s="74"/>
     </row>
     <row r="51" spans="2:2" ht="12.75">
-      <c r="B51" s="100"/>
+      <c r="B51" s="74"/>
     </row>
     <row r="52" spans="2:2" ht="12.75">
-      <c r="B52" s="100"/>
+      <c r="B52" s="74"/>
     </row>
     <row r="53" spans="2:2" ht="12.75">
-      <c r="B53" s="100"/>
+      <c r="B53" s="74"/>
     </row>
     <row r="54" spans="2:2" ht="12.75">
-      <c r="B54" s="100"/>
+      <c r="B54" s="74"/>
     </row>
     <row r="55" spans="2:2" ht="12.75">
-      <c r="B55" s="100"/>
+      <c r="B55" s="74"/>
     </row>
     <row r="56" spans="2:2" ht="12.75">
-      <c r="B56" s="100"/>
+      <c r="B56" s="74"/>
     </row>
     <row r="57" spans="2:2" ht="12.75">
-      <c r="B57" s="100"/>
+      <c r="B57" s="74"/>
     </row>
     <row r="58" spans="2:2" ht="12.75">
-      <c r="B58" s="100"/>
+      <c r="B58" s="74"/>
     </row>
     <row r="59" spans="2:2" ht="12.75">
-      <c r="B59" s="100"/>
+      <c r="B59" s="74"/>
     </row>
     <row r="60" spans="2:2" ht="12.75">
-      <c r="B60" s="100"/>
+      <c r="B60" s="74"/>
     </row>
     <row r="61" spans="2:2" ht="12.75">
-      <c r="B61" s="100"/>
+      <c r="B61" s="74"/>
     </row>
     <row r="62" spans="2:2" ht="12.75">
-      <c r="B62" s="100"/>
+      <c r="B62" s="74"/>
     </row>
     <row r="63" spans="2:2" ht="12.75">
-      <c r="B63" s="100"/>
+      <c r="B63" s="74"/>
     </row>
     <row r="64" spans="2:2" ht="12.75">
-      <c r="B64" s="100"/>
+      <c r="B64" s="74"/>
     </row>
     <row r="65" spans="2:2" ht="12.75">
-      <c r="B65" s="100"/>
+      <c r="B65" s="74"/>
     </row>
     <row r="66" spans="2:2" ht="12.75">
-      <c r="B66" s="100"/>
+      <c r="B66" s="74"/>
     </row>
     <row r="67" spans="2:2" ht="12.75">
-      <c r="B67" s="100"/>
+      <c r="B67" s="74"/>
     </row>
     <row r="68" spans="2:2" ht="12.75">
-      <c r="B68" s="100"/>
+      <c r="B68" s="74"/>
     </row>
     <row r="69" spans="2:2" ht="12.75">
-      <c r="B69" s="100"/>
+      <c r="B69" s="74"/>
     </row>
     <row r="70" spans="2:2" ht="12.75">
-      <c r="B70" s="100"/>
+      <c r="B70" s="74"/>
     </row>
     <row r="71" spans="2:2" ht="12.75">
-      <c r="B71" s="100"/>
+      <c r="B71" s="74"/>
     </row>
     <row r="72" spans="2:2" ht="12.75">
-      <c r="B72" s="100"/>
+      <c r="B72" s="74"/>
     </row>
     <row r="73" spans="2:2" ht="12.75">
-      <c r="B73" s="100"/>
+      <c r="B73" s="74"/>
     </row>
     <row r="74" spans="2:2" ht="12.75">
-      <c r="B74" s="100"/>
+      <c r="B74" s="74"/>
     </row>
     <row r="75" spans="2:2" ht="12.75">
-      <c r="B75" s="100"/>
+      <c r="B75" s="74"/>
     </row>
     <row r="76" spans="2:2" ht="12.75">
-      <c r="B76" s="100"/>
+      <c r="B76" s="74"/>
     </row>
     <row r="77" spans="2:2" ht="12.75">
-      <c r="B77" s="100"/>
+      <c r="B77" s="74"/>
     </row>
     <row r="78" spans="2:2" ht="12.75">
-      <c r="B78" s="100"/>
+      <c r="B78" s="74"/>
     </row>
     <row r="79" spans="2:2" ht="12.75">
-      <c r="B79" s="100"/>
+      <c r="B79" s="74"/>
     </row>
     <row r="80" spans="2:2" ht="12.75">
-      <c r="B80" s="100"/>
+      <c r="B80" s="74"/>
     </row>
     <row r="81" spans="2:2" ht="12.75">
-      <c r="B81" s="100"/>
+      <c r="B81" s="74"/>
     </row>
     <row r="82" spans="2:2" ht="12.75">
-      <c r="B82" s="100"/>
+      <c r="B82" s="74"/>
     </row>
     <row r="83" spans="2:2" ht="12.75">
-      <c r="B83" s="100"/>
+      <c r="B83" s="74"/>
     </row>
     <row r="84" spans="2:2" ht="12.75">
-      <c r="B84" s="100"/>
+      <c r="B84" s="74"/>
     </row>
     <row r="85" spans="2:2" ht="12.75">
-      <c r="B85" s="100"/>
+      <c r="B85" s="74"/>
     </row>
     <row r="86" spans="2:2" ht="12.75">
-      <c r="B86" s="100"/>
+      <c r="B86" s="74"/>
     </row>
     <row r="87" spans="2:2" ht="12.75">
-      <c r="B87" s="100"/>
+      <c r="B87" s="74"/>
     </row>
     <row r="88" spans="2:2" ht="12.75">
-      <c r="B88" s="100"/>
+      <c r="B88" s="74"/>
     </row>
     <row r="89" spans="2:2" ht="12.75">
-      <c r="B89" s="100"/>
+      <c r="B89" s="74"/>
     </row>
     <row r="90" spans="2:2" ht="12.75">
-      <c r="B90" s="100"/>
+      <c r="B90" s="74"/>
     </row>
     <row r="91" spans="2:2" ht="12.75">
-      <c r="B91" s="100"/>
+      <c r="B91" s="74"/>
     </row>
     <row r="92" spans="2:2" ht="12.75">
-      <c r="B92" s="100"/>
+      <c r="B92" s="74"/>
     </row>
     <row r="93" spans="2:2" ht="12.75">
-      <c r="B93" s="100"/>
+      <c r="B93" s="74"/>
     </row>
     <row r="94" spans="2:2" ht="12.75">
-      <c r="B94" s="100"/>
+      <c r="B94" s="74"/>
     </row>
     <row r="95" spans="2:2" ht="12.75">
-      <c r="B95" s="100"/>
+      <c r="B95" s="74"/>
     </row>
     <row r="96" spans="2:2" ht="12.75">
-      <c r="B96" s="100"/>
+      <c r="B96" s="74"/>
     </row>
     <row r="97" spans="2:2" ht="12.75">
-      <c r="B97" s="100"/>
+      <c r="B97" s="74"/>
     </row>
     <row r="98" spans="2:2" ht="12.75">
-      <c r="B98" s="100"/>
+      <c r="B98" s="74"/>
     </row>
     <row r="99" spans="2:2" ht="12.75">
-      <c r="B99" s="100"/>
+      <c r="B99" s="74"/>
     </row>
     <row r="100" spans="2:2" ht="12.75">
-      <c r="B100" s="100"/>
+      <c r="B100" s="74"/>
     </row>
     <row r="101" spans="2:2" ht="12.75">
-      <c r="B101" s="100"/>
+      <c r="B101" s="74"/>
     </row>
     <row r="102" spans="2:2" ht="12.75">
-      <c r="B102" s="100"/>
+      <c r="B102" s="74"/>
     </row>
     <row r="103" spans="2:2" ht="12.75">
-      <c r="B103" s="100"/>
+      <c r="B103" s="74"/>
     </row>
     <row r="104" spans="2:2" ht="12.75">
-      <c r="B104" s="100"/>
+      <c r="B104" s="74"/>
     </row>
     <row r="105" spans="2:2" ht="12.75">
-      <c r="B105" s="100"/>
+      <c r="B105" s="74"/>
     </row>
     <row r="106" spans="2:2" ht="12.75">
-      <c r="B106" s="100"/>
+      <c r="B106" s="74"/>
     </row>
     <row r="107" spans="2:2" ht="12.75">
-      <c r="B107" s="100"/>
+      <c r="B107" s="74"/>
     </row>
     <row r="108" spans="2:2" ht="12.75">
-      <c r="B108" s="100"/>
+      <c r="B108" s="74"/>
     </row>
     <row r="109" spans="2:2" ht="12.75">
-      <c r="B109" s="100"/>
+      <c r="B109" s="74"/>
     </row>
     <row r="110" spans="2:2" ht="12.75">
-      <c r="B110" s="100"/>
+      <c r="B110" s="74"/>
     </row>
     <row r="111" spans="2:2" ht="12.75">
-      <c r="B111" s="100"/>
+      <c r="B111" s="74"/>
     </row>
     <row r="112" spans="2:2" ht="12.75">
-      <c r="B112" s="100"/>
+      <c r="B112" s="74"/>
     </row>
     <row r="113" spans="2:2" ht="12.75">
-      <c r="B113" s="100"/>
+      <c r="B113" s="74"/>
     </row>
     <row r="114" spans="2:2" ht="12.75">
-      <c r="B114" s="100"/>
+      <c r="B114" s="74"/>
     </row>
     <row r="115" spans="2:2" ht="12.75">
-      <c r="B115" s="100"/>
+      <c r="B115" s="74"/>
     </row>
     <row r="116" spans="2:2" ht="12.75">
-      <c r="B116" s="100"/>
+      <c r="B116" s="74"/>
     </row>
     <row r="117" spans="2:2" ht="12.75">
-      <c r="B117" s="100"/>
+      <c r="B117" s="74"/>
     </row>
     <row r="118" spans="2:2" ht="12.75">
-      <c r="B118" s="100"/>
+      <c r="B118" s="74"/>
     </row>
     <row r="119" spans="2:2" ht="12.75">
-      <c r="B119" s="100"/>
+      <c r="B119" s="74"/>
     </row>
     <row r="120" spans="2:2" ht="12.75">
-      <c r="B120" s="100"/>
+      <c r="B120" s="74"/>
     </row>
     <row r="121" spans="2:2" ht="12.75">
-      <c r="B121" s="100"/>
+      <c r="B121" s="74"/>
     </row>
     <row r="122" spans="2:2" ht="12.75">
-      <c r="B122" s="100"/>
+      <c r="B122" s="74"/>
     </row>
     <row r="123" spans="2:2" ht="12.75">
-      <c r="B123" s="100"/>
+      <c r="B123" s="74"/>
     </row>
     <row r="124" spans="2:2" ht="12.75">
-      <c r="B124" s="100"/>
+      <c r="B124" s="74"/>
     </row>
     <row r="125" spans="2:2" ht="12.75">
-      <c r="B125" s="100"/>
+      <c r="B125" s="74"/>
     </row>
     <row r="126" spans="2:2" ht="12.75">
-      <c r="B126" s="100"/>
+      <c r="B126" s="74"/>
     </row>
     <row r="127" spans="2:2" ht="12.75">
-      <c r="B127" s="100"/>
+      <c r="B127" s="74"/>
     </row>
     <row r="128" spans="2:2" ht="12.75">
-      <c r="B128" s="100"/>
+      <c r="B128" s="74"/>
     </row>
     <row r="129" spans="2:2" ht="12.75">
-      <c r="B129" s="100"/>
+      <c r="B129" s="74"/>
     </row>
     <row r="130" spans="2:2" ht="12.75">
-      <c r="B130" s="100"/>
+      <c r="B130" s="74"/>
     </row>
     <row r="131" spans="2:2" ht="12.75">
-      <c r="B131" s="100"/>
+      <c r="B131" s="74"/>
     </row>
     <row r="132" spans="2:2" ht="12.75">
-      <c r="B132" s="100"/>
+      <c r="B132" s="74"/>
     </row>
     <row r="133" spans="2:2" ht="12.75">
-      <c r="B133" s="100"/>
+      <c r="B133" s="74"/>
     </row>
     <row r="134" spans="2:2" ht="12.75">
-      <c r="B134" s="100"/>
+      <c r="B134" s="74"/>
     </row>
     <row r="135" spans="2:2" ht="12.75">
-      <c r="B135" s="100"/>
+      <c r="B135" s="74"/>
     </row>
     <row r="136" spans="2:2" ht="12.75">
-      <c r="B136" s="100"/>
+      <c r="B136" s="74"/>
     </row>
     <row r="137" spans="2:2" ht="12.75">
-      <c r="B137" s="100"/>
+      <c r="B137" s="74"/>
     </row>
     <row r="138" spans="2:2" ht="12.75">
-      <c r="B138" s="100"/>
+      <c r="B138" s="74"/>
     </row>
     <row r="139" spans="2:2" ht="12.75">
-      <c r="B139" s="100"/>
+      <c r="B139" s="74"/>
     </row>
     <row r="140" spans="2:2" ht="12.75">
-      <c r="B140" s="100"/>
+      <c r="B140" s="74"/>
     </row>
     <row r="141" spans="2:2" ht="12.75">
-      <c r="B141" s="100"/>
+      <c r="B141" s="74"/>
     </row>
     <row r="142" spans="2:2" ht="12.75">
-      <c r="B142" s="100"/>
+      <c r="B142" s="74"/>
     </row>
     <row r="143" spans="2:2" ht="12.75">
-      <c r="B143" s="100"/>
+      <c r="B143" s="74"/>
     </row>
     <row r="144" spans="2:2" ht="12.75">
-      <c r="B144" s="100"/>
+      <c r="B144" s="74"/>
     </row>
     <row r="145" spans="2:2" ht="12.75">
-      <c r="B145" s="100"/>
+      <c r="B145" s="74"/>
     </row>
     <row r="146" spans="2:2" ht="12.75">
-      <c r="B146" s="100"/>
+      <c r="B146" s="74"/>
     </row>
     <row r="147" spans="2:2" ht="12.75">
-      <c r="B147" s="100"/>
+      <c r="B147" s="74"/>
     </row>
     <row r="148" spans="2:2" ht="12.75">
-      <c r="B148" s="100"/>
+      <c r="B148" s="74"/>
     </row>
     <row r="149" spans="2:2" ht="12.75">
-      <c r="B149" s="100"/>
+      <c r="B149" s="74"/>
     </row>
     <row r="150" spans="2:2" ht="12.75">
-      <c r="B150" s="100"/>
+      <c r="B150" s="74"/>
     </row>
     <row r="151" spans="2:2" ht="12.75">
-      <c r="B151" s="100"/>
+      <c r="B151" s="74"/>
     </row>
     <row r="152" spans="2:2" ht="12.75">
-      <c r="B152" s="100"/>
+      <c r="B152" s="74"/>
     </row>
     <row r="153" spans="2:2" ht="12.75">
-      <c r="B153" s="100"/>
+      <c r="B153" s="74"/>
     </row>
     <row r="154" spans="2:2" ht="12.75">
-      <c r="B154" s="100"/>
+      <c r="B154" s="74"/>
     </row>
     <row r="155" spans="2:2" ht="12.75">
-      <c r="B155" s="100"/>
+      <c r="B155" s="74"/>
     </row>
     <row r="156" spans="2:2" ht="12.75">
-      <c r="B156" s="100"/>
+      <c r="B156" s="74"/>
     </row>
     <row r="157" spans="2:2" ht="12.75">
-      <c r="B157" s="100"/>
+      <c r="B157" s="74"/>
     </row>
     <row r="158" spans="2:2" ht="12.75">
-      <c r="B158" s="100"/>
+      <c r="B158" s="74"/>
     </row>
     <row r="159" spans="2:2" ht="12.75">
-      <c r="B159" s="100"/>
+      <c r="B159" s="74"/>
     </row>
     <row r="160" spans="2:2" ht="12.75">
-      <c r="B160" s="100"/>
+      <c r="B160" s="74"/>
     </row>
     <row r="161" spans="2:2" ht="12.75">
-      <c r="B161" s="100"/>
+      <c r="B161" s="74"/>
     </row>
     <row r="162" spans="2:2" ht="12.75">
-      <c r="B162" s="100"/>
+      <c r="B162" s="74"/>
     </row>
     <row r="163" spans="2:2" ht="12.75">
-      <c r="B163" s="100"/>
+      <c r="B163" s="74"/>
     </row>
     <row r="164" spans="2:2" ht="12.75">
-      <c r="B164" s="100"/>
+      <c r="B164" s="74"/>
     </row>
     <row r="165" spans="2:2" ht="12.75">
-      <c r="B165" s="100"/>
+      <c r="B165" s="74"/>
     </row>
     <row r="166" spans="2:2" ht="12.75">
-      <c r="B166" s="100"/>
+      <c r="B166" s="74"/>
     </row>
     <row r="167" spans="2:2" ht="12.75">
-      <c r="B167" s="100"/>
+      <c r="B167" s="74"/>
     </row>
     <row r="168" spans="2:2" ht="12.75">
-      <c r="B168" s="100"/>
+      <c r="B168" s="74"/>
     </row>
     <row r="169" spans="2:2" ht="12.75">
-      <c r="B169" s="100"/>
+      <c r="B169" s="74"/>
     </row>
     <row r="170" spans="2:2" ht="12.75">
-      <c r="B170" s="100"/>
+      <c r="B170" s="74"/>
     </row>
     <row r="171" spans="2:2" ht="12.75">
-      <c r="B171" s="100"/>
+      <c r="B171" s="74"/>
     </row>
     <row r="172" spans="2:2" ht="12.75">
-      <c r="B172" s="100"/>
+      <c r="B172" s="74"/>
     </row>
     <row r="173" spans="2:2" ht="12.75">
-      <c r="B173" s="100"/>
+      <c r="B173" s="74"/>
     </row>
     <row r="174" spans="2:2" ht="12.75">
-      <c r="B174" s="100"/>
+      <c r="B174" s="74"/>
     </row>
     <row r="175" spans="2:2" ht="12.75">
-      <c r="B175" s="100"/>
+      <c r="B175" s="74"/>
     </row>
     <row r="176" spans="2:2" ht="12.75">
-      <c r="B176" s="100"/>
+      <c r="B176" s="74"/>
     </row>
     <row r="177" spans="2:2" ht="12.75">
-      <c r="B177" s="100"/>
+      <c r="B177" s="74"/>
     </row>
     <row r="178" spans="2:2" ht="12.75">
-      <c r="B178" s="100"/>
+      <c r="B178" s="74"/>
     </row>
     <row r="179" spans="2:2" ht="12.75">
-      <c r="B179" s="100"/>
+      <c r="B179" s="74"/>
     </row>
     <row r="180" spans="2:2" ht="12.75">
-      <c r="B180" s="100"/>
+      <c r="B180" s="74"/>
     </row>
     <row r="181" spans="2:2" ht="12.75">
-      <c r="B181" s="100"/>
+      <c r="B181" s="74"/>
     </row>
     <row r="182" spans="2:2" ht="12.75">
-      <c r="B182" s="100"/>
+      <c r="B182" s="74"/>
     </row>
     <row r="183" spans="2:2" ht="12.75">
-      <c r="B183" s="100"/>
+      <c r="B183" s="74"/>
     </row>
     <row r="184" spans="2:2" ht="12.75">
-      <c r="B184" s="100"/>
+      <c r="B184" s="74"/>
     </row>
     <row r="185" spans="2:2" ht="12.75">
-      <c r="B185" s="100"/>
+      <c r="B185" s="74"/>
     </row>
     <row r="186" spans="2:2" ht="12.75">
-      <c r="B186" s="100"/>
+      <c r="B186" s="74"/>
     </row>
     <row r="187" spans="2:2" ht="12.75">
-      <c r="B187" s="100"/>
+      <c r="B187" s="74"/>
     </row>
     <row r="188" spans="2:2" ht="12.75">
-      <c r="B188" s="100"/>
+      <c r="B188" s="74"/>
     </row>
     <row r="189" spans="2:2" ht="12.75">
-      <c r="B189" s="100"/>
+      <c r="B189" s="74"/>
     </row>
     <row r="190" spans="2:2" ht="12.75">
-      <c r="B190" s="100"/>
+      <c r="B190" s="74"/>
     </row>
     <row r="191" spans="2:2" ht="12.75">
-      <c r="B191" s="100"/>
+      <c r="B191" s="74"/>
     </row>
     <row r="192" spans="2:2" ht="12.75">
-      <c r="B192" s="100"/>
+      <c r="B192" s="74"/>
     </row>
     <row r="193" spans="2:2" ht="12.75">
-      <c r="B193" s="100"/>
+      <c r="B193" s="74"/>
     </row>
     <row r="194" spans="2:2" ht="12.75">
-      <c r="B194" s="100"/>
+      <c r="B194" s="74"/>
     </row>
     <row r="195" spans="2:2" ht="12.75">
-      <c r="B195" s="100"/>
+      <c r="B195" s="74"/>
     </row>
     <row r="196" spans="2:2" ht="12.75">
-      <c r="B196" s="100"/>
+      <c r="B196" s="74"/>
     </row>
     <row r="197" spans="2:2" ht="12.75">
-      <c r="B197" s="100"/>
+      <c r="B197" s="74"/>
     </row>
     <row r="198" spans="2:2" ht="12.75">
-      <c r="B198" s="100"/>
+      <c r="B198" s="74"/>
     </row>
     <row r="199" spans="2:2" ht="12.75">
-      <c r="B199" s="100"/>
+      <c r="B199" s="74"/>
     </row>
     <row r="200" spans="2:2" ht="12.75">
-      <c r="B200" s="100"/>
+      <c r="B200" s="74"/>
     </row>
     <row r="201" spans="2:2" ht="12.75">
-      <c r="B201" s="100"/>
+      <c r="B201" s="74"/>
     </row>
     <row r="202" spans="2:2" ht="12.75">
-      <c r="B202" s="100"/>
+      <c r="B202" s="74"/>
     </row>
     <row r="203" spans="2:2" ht="12.75">
-      <c r="B203" s="100"/>
+      <c r="B203" s="74"/>
     </row>
     <row r="204" spans="2:2" ht="12.75">
-      <c r="B204" s="100"/>
+      <c r="B204" s="74"/>
     </row>
     <row r="205" spans="2:2" ht="12.75">
-      <c r="B205" s="100"/>
+      <c r="B205" s="74"/>
     </row>
     <row r="206" spans="2:2" ht="12.75">
-      <c r="B206" s="100"/>
+      <c r="B206" s="74"/>
     </row>
     <row r="207" spans="2:2" ht="12.75">
-      <c r="B207" s="100"/>
+      <c r="B207" s="74"/>
     </row>
     <row r="208" spans="2:2" ht="12.75">
-      <c r="B208" s="100"/>
+      <c r="B208" s="74"/>
     </row>
     <row r="209" spans="2:2" ht="12.75">
-      <c r="B209" s="100"/>
+      <c r="B209" s="74"/>
     </row>
     <row r="210" spans="2:2" ht="12.75">
-      <c r="B210" s="100"/>
+      <c r="B210" s="74"/>
     </row>
     <row r="211" spans="2:2" ht="12.75">
-      <c r="B211" s="100"/>
+      <c r="B211" s="74"/>
     </row>
     <row r="212" spans="2:2" ht="12.75">
-      <c r="B212" s="100"/>
+      <c r="B212" s="74"/>
     </row>
     <row r="213" spans="2:2" ht="12.75">
-      <c r="B213" s="100"/>
+      <c r="B213" s="74"/>
     </row>
     <row r="214" spans="2:2" ht="12.75">
-      <c r="B214" s="100"/>
+      <c r="B214" s="74"/>
     </row>
     <row r="215" spans="2:2" ht="12.75">
-      <c r="B215" s="100"/>
+      <c r="B215" s="74"/>
     </row>
     <row r="216" spans="2:2" ht="12.75">
-      <c r="B216" s="100"/>
+      <c r="B216" s="74"/>
     </row>
     <row r="217" spans="2:2" ht="12.75">
-      <c r="B217" s="100"/>
+      <c r="B217" s="74"/>
     </row>
     <row r="218" spans="2:2" ht="12.75">
-      <c r="B218" s="100"/>
+      <c r="B218" s="74"/>
     </row>
     <row r="219" spans="2:2" ht="12.75">
-      <c r="B219" s="100"/>
+      <c r="B219" s="74"/>
     </row>
     <row r="220" spans="2:2" ht="12.75">
-      <c r="B220" s="100"/>
+      <c r="B220" s="74"/>
     </row>
     <row r="221" spans="2:2" ht="12.75">
-      <c r="B221" s="100"/>
+      <c r="B221" s="74"/>
     </row>
     <row r="222" spans="2:2" ht="12.75">
-      <c r="B222" s="100"/>
+      <c r="B222" s="74"/>
     </row>
     <row r="223" spans="2:2" ht="12.75">
-      <c r="B223" s="100"/>
+      <c r="B223" s="74"/>
     </row>
     <row r="224" spans="2:2" ht="12.75">
-      <c r="B224" s="100"/>
+      <c r="B224" s="74"/>
     </row>
     <row r="225" spans="2:2" ht="12.75">
-      <c r="B225" s="100"/>
+      <c r="B225" s="74"/>
     </row>
     <row r="226" spans="2:2" ht="12.75">
-      <c r="B226" s="100"/>
+      <c r="B226" s="74"/>
     </row>
     <row r="227" spans="2:2" ht="12.75">
-      <c r="B227" s="100"/>
+      <c r="B227" s="74"/>
     </row>
     <row r="228" spans="2:2" ht="12.75">
-      <c r="B228" s="100"/>
+      <c r="B228" s="74"/>
     </row>
     <row r="229" spans="2:2" ht="12.75">
-      <c r="B229" s="100"/>
+      <c r="B229" s="74"/>
     </row>
     <row r="230" spans="2:2" ht="12.75">
-      <c r="B230" s="100"/>
+      <c r="B230" s="74"/>
     </row>
     <row r="231" spans="2:2" ht="12.75">
-      <c r="B231" s="100"/>
+      <c r="B231" s="74"/>
     </row>
     <row r="232" spans="2:2" ht="12.75">
-      <c r="B232" s="100"/>
+      <c r="B232" s="74"/>
     </row>
     <row r="233" spans="2:2" ht="12.75">
-      <c r="B233" s="100"/>
+      <c r="B233" s="74"/>
     </row>
     <row r="234" spans="2:2" ht="12.75">
-      <c r="B234" s="100"/>
+      <c r="B234" s="74"/>
     </row>
     <row r="235" spans="2:2" ht="12.75">
-      <c r="B235" s="100"/>
+      <c r="B235" s="74"/>
     </row>
     <row r="236" spans="2:2" ht="12.75">
-      <c r="B236" s="100"/>
+      <c r="B236" s="74"/>
     </row>
     <row r="237" spans="2:2" ht="12.75">
-      <c r="B237" s="100"/>
+      <c r="B237" s="74"/>
     </row>
     <row r="238" spans="2:2" ht="12.75">
-      <c r="B238" s="100"/>
+      <c r="B238" s="74"/>
     </row>
     <row r="239" spans="2:2" ht="12.75">
-      <c r="B239" s="100"/>
+      <c r="B239" s="74"/>
     </row>
     <row r="240" spans="2:2" ht="12.75">
-      <c r="B240" s="100"/>
+      <c r="B240" s="74"/>
     </row>
     <row r="241" spans="2:2" ht="12.75">
-      <c r="B241" s="100"/>
+      <c r="B241" s="74"/>
     </row>
     <row r="242" spans="2:2" ht="12.75">
-      <c r="B242" s="100"/>
+      <c r="B242" s="74"/>
     </row>
     <row r="243" spans="2:2" ht="12.75">
-      <c r="B243" s="100"/>
+      <c r="B243" s="74"/>
     </row>
     <row r="244" spans="2:2" ht="12.75">
-      <c r="B244" s="100"/>
+      <c r="B244" s="74"/>
     </row>
     <row r="245" spans="2:2" ht="12.75">
-      <c r="B245" s="100"/>
+      <c r="B245" s="74"/>
     </row>
     <row r="246" spans="2:2" ht="12.75">
-      <c r="B246" s="100"/>
+      <c r="B246" s="74"/>
     </row>
     <row r="247" spans="2:2" ht="12.75">
-      <c r="B247" s="100"/>
+      <c r="B247" s="74"/>
     </row>
     <row r="248" spans="2:2" ht="12.75">
-      <c r="B248" s="100"/>
+      <c r="B248" s="74"/>
     </row>
     <row r="249" spans="2:2" ht="12.75">
-      <c r="B249" s="100"/>
+      <c r="B249" s="74"/>
     </row>
     <row r="250" spans="2:2" ht="12.75">
-      <c r="B250" s="100"/>
+      <c r="B250" s="74"/>
     </row>
     <row r="251" spans="2:2" ht="12.75">
-      <c r="B251" s="100"/>
+      <c r="B251" s="74"/>
     </row>
     <row r="252" spans="2:2" ht="12.75">
-      <c r="B252" s="100"/>
+      <c r="B252" s="74"/>
     </row>
     <row r="253" spans="2:2" ht="12.75">
-      <c r="B253" s="100"/>
+      <c r="B253" s="74"/>
     </row>
     <row r="254" spans="2:2" ht="12.75">
-      <c r="B254" s="100"/>
+      <c r="B254" s="74"/>
     </row>
     <row r="255" spans="2:2" ht="12.75">
-      <c r="B255" s="100"/>
+      <c r="B255" s="74"/>
     </row>
     <row r="256" spans="2:2" ht="12.75">
-      <c r="B256" s="100"/>
+      <c r="B256" s="74"/>
     </row>
     <row r="257" spans="2:2" ht="12.75">
-      <c r="B257" s="100"/>
+      <c r="B257" s="74"/>
     </row>
     <row r="258" spans="2:2" ht="12.75">
-      <c r="B258" s="100"/>
+      <c r="B258" s="74"/>
     </row>
     <row r="259" spans="2:2" ht="12.75">
-      <c r="B259" s="100"/>
+      <c r="B259" s="74"/>
     </row>
     <row r="260" spans="2:2" ht="12.75">
-      <c r="B260" s="100"/>
+      <c r="B260" s="74"/>
     </row>
     <row r="261" spans="2:2" ht="12.75">
-      <c r="B261" s="100"/>
+      <c r="B261" s="74"/>
     </row>
     <row r="262" spans="2:2" ht="12.75">
-      <c r="B262" s="100"/>
+      <c r="B262" s="74"/>
     </row>
     <row r="263" spans="2:2" ht="12.75">
-      <c r="B263" s="100"/>
+      <c r="B263" s="74"/>
     </row>
     <row r="264" spans="2:2" ht="12.75">
-      <c r="B264" s="100"/>
+      <c r="B264" s="74"/>
     </row>
     <row r="265" spans="2:2" ht="12.75">
-      <c r="B265" s="100"/>
+      <c r="B265" s="74"/>
     </row>
     <row r="266" spans="2:2" ht="12.75">
-      <c r="B266" s="100"/>
+      <c r="B266" s="74"/>
     </row>
     <row r="267" spans="2:2" ht="12.75">
-      <c r="B267" s="100"/>
+      <c r="B267" s="74"/>
     </row>
     <row r="268" spans="2:2" ht="12.75">
-      <c r="B268" s="100"/>
+      <c r="B268" s="74"/>
     </row>
     <row r="269" spans="2:2" ht="12.75">
-      <c r="B269" s="100"/>
+      <c r="B269" s="74"/>
     </row>
     <row r="270" spans="2:2" ht="12.75">
-      <c r="B270" s="100"/>
+      <c r="B270" s="74"/>
     </row>
     <row r="271" spans="2:2" ht="12.75">
-      <c r="B271" s="100"/>
+      <c r="B271" s="74"/>
     </row>
     <row r="272" spans="2:2" ht="12.75">
-      <c r="B272" s="100"/>
+      <c r="B272" s="74"/>
     </row>
     <row r="273" spans="2:2" ht="12.75">
-      <c r="B273" s="100"/>
+      <c r="B273" s="74"/>
     </row>
     <row r="274" spans="2:2" ht="12.75">
-      <c r="B274" s="100"/>
+      <c r="B274" s="74"/>
     </row>
     <row r="275" spans="2:2" ht="12.75">
-      <c r="B275" s="100"/>
+      <c r="B275" s="74"/>
     </row>
     <row r="276" spans="2:2" ht="12.75">
-      <c r="B276" s="100"/>
+      <c r="B276" s="74"/>
     </row>
     <row r="277" spans="2:2" ht="12.75">
-      <c r="B277" s="100"/>
+      <c r="B277" s="74"/>
     </row>
     <row r="278" spans="2:2" ht="12.75">
-      <c r="B278" s="100"/>
+      <c r="B278" s="74"/>
     </row>
     <row r="279" spans="2:2" ht="12.75">
-      <c r="B279" s="100"/>
+      <c r="B279" s="74"/>
     </row>
     <row r="280" spans="2:2" ht="12.75">
-      <c r="B280" s="100"/>
+      <c r="B280" s="74"/>
     </row>
     <row r="281" spans="2:2" ht="12.75">
-      <c r="B281" s="100"/>
+      <c r="B281" s="74"/>
     </row>
     <row r="282" spans="2:2" ht="12.75">
-      <c r="B282" s="100"/>
+      <c r="B282" s="74"/>
     </row>
     <row r="283" spans="2:2" ht="12.75">
-      <c r="B283" s="100"/>
+      <c r="B283" s="74"/>
     </row>
     <row r="284" spans="2:2" ht="12.75">
-      <c r="B284" s="100"/>
+      <c r="B284" s="74"/>
     </row>
     <row r="285" spans="2:2" ht="12.75">
-      <c r="B285" s="100"/>
+      <c r="B285" s="74"/>
     </row>
     <row r="286" spans="2:2" ht="12.75">
-      <c r="B286" s="100"/>
+      <c r="B286" s="74"/>
     </row>
     <row r="287" spans="2:2" ht="12.75">
-      <c r="B287" s="100"/>
+      <c r="B287" s="74"/>
     </row>
     <row r="288" spans="2:2" ht="12.75">
-      <c r="B288" s="100"/>
+      <c r="B288" s="74"/>
     </row>
     <row r="289" spans="2:2" ht="12.75">
-      <c r="B289" s="100"/>
+      <c r="B289" s="74"/>
     </row>
     <row r="290" spans="2:2" ht="12.75">
-      <c r="B290" s="100"/>
+      <c r="B290" s="74"/>
     </row>
     <row r="291" spans="2:2" ht="12.75">
-      <c r="B291" s="100"/>
+      <c r="B291" s="74"/>
     </row>
     <row r="292" spans="2:2" ht="12.75">
-      <c r="B292" s="100"/>
+      <c r="B292" s="74"/>
     </row>
     <row r="293" spans="2:2" ht="12.75">
-      <c r="B293" s="100"/>
+      <c r="B293" s="74"/>
     </row>
     <row r="294" spans="2:2" ht="12.75">
-      <c r="B294" s="100"/>
+      <c r="B294" s="74"/>
     </row>
     <row r="295" spans="2:2" ht="12.75">
-      <c r="B295" s="100"/>
+      <c r="B295" s="74"/>
     </row>
     <row r="296" spans="2:2" ht="12.75">
-      <c r="B296" s="100"/>
+      <c r="B296" s="74"/>
     </row>
     <row r="297" spans="2:2" ht="12.75">
-      <c r="B297" s="100"/>
+      <c r="B297" s="74"/>
     </row>
     <row r="298" spans="2:2" ht="12.75">
-      <c r="B298" s="100"/>
+      <c r="B298" s="74"/>
     </row>
     <row r="299" spans="2:2" ht="12.75">
-      <c r="B299" s="100"/>
+      <c r="B299" s="74"/>
     </row>
     <row r="300" spans="2:2" ht="12.75">
-      <c r="B300" s="100"/>
+      <c r="B300" s="74"/>
     </row>
     <row r="301" spans="2:2" ht="12.75">
-      <c r="B301" s="100"/>
+      <c r="B301" s="74"/>
     </row>
     <row r="302" spans="2:2" ht="12.75">
-      <c r="B302" s="100"/>
+      <c r="B302" s="74"/>
     </row>
     <row r="303" spans="2:2" ht="12.75">
-      <c r="B303" s="100"/>
+      <c r="B303" s="74"/>
     </row>
     <row r="304" spans="2:2" ht="12.75">
-      <c r="B304" s="100"/>
+      <c r="B304" s="74"/>
     </row>
     <row r="305" spans="2:2" ht="12.75">
-      <c r="B305" s="100"/>
+      <c r="B305" s="74"/>
     </row>
     <row r="306" spans="2:2" ht="12.75">
-      <c r="B306" s="100"/>
+      <c r="B306" s="74"/>
     </row>
     <row r="307" spans="2:2" ht="12.75">
-      <c r="B307" s="100"/>
+      <c r="B307" s="74"/>
     </row>
     <row r="308" spans="2:2" ht="12.75">
-      <c r="B308" s="100"/>
+      <c r="B308" s="74"/>
     </row>
     <row r="309" spans="2:2" ht="12.75">
-      <c r="B309" s="100"/>
+      <c r="B309" s="74"/>
     </row>
     <row r="310" spans="2:2" ht="12.75">
-      <c r="B310" s="100"/>
+      <c r="B310" s="74"/>
     </row>
     <row r="311" spans="2:2" ht="12.75">
-      <c r="B311" s="100"/>
+      <c r="B311" s="74"/>
     </row>
     <row r="312" spans="2:2" ht="12.75">
-      <c r="B312" s="100"/>
+      <c r="B312" s="74"/>
     </row>
     <row r="313" spans="2:2" ht="12.75">
-      <c r="B313" s="100"/>
+      <c r="B313" s="74"/>
     </row>
     <row r="314" spans="2:2" ht="12.75">
-      <c r="B314" s="100"/>
+      <c r="B314" s="74"/>
     </row>
     <row r="315" spans="2:2" ht="12.75">
-      <c r="B315" s="100"/>
+      <c r="B315" s="74"/>
     </row>
     <row r="316" spans="2:2" ht="12.75">
-      <c r="B316" s="100"/>
+      <c r="B316" s="74"/>
     </row>
     <row r="317" spans="2:2" ht="12.75">
-      <c r="B317" s="100"/>
+      <c r="B317" s="74"/>
     </row>
     <row r="318" spans="2:2" ht="12.75">
-      <c r="B318" s="100"/>
+      <c r="B318" s="74"/>
     </row>
     <row r="319" spans="2:2" ht="12.75">
-      <c r="B319" s="100"/>
+      <c r="B319" s="74"/>
     </row>
     <row r="320" spans="2:2" ht="12.75">
-      <c r="B320" s="100"/>
+      <c r="B320" s="74"/>
     </row>
     <row r="321" spans="2:2" ht="12.75">
-      <c r="B321" s="100"/>
+      <c r="B321" s="74"/>
     </row>
     <row r="322" spans="2:2" ht="12.75">
-      <c r="B322" s="100"/>
+      <c r="B322" s="74"/>
     </row>
     <row r="323" spans="2:2" ht="12.75">
-      <c r="B323" s="100"/>
+      <c r="B323" s="74"/>
     </row>
     <row r="324" spans="2:2" ht="12.75">
-      <c r="B324" s="100"/>
+      <c r="B324" s="74"/>
     </row>
     <row r="325" spans="2:2" ht="12.75">
-      <c r="B325" s="100"/>
+      <c r="B325" s="74"/>
     </row>
     <row r="326" spans="2:2" ht="12.75">
-      <c r="B326" s="100"/>
+      <c r="B326" s="74"/>
     </row>
     <row r="327" spans="2:2" ht="12.75">
-      <c r="B327" s="100"/>
+      <c r="B327" s="74"/>
     </row>
     <row r="328" spans="2:2" ht="12.75">
-      <c r="B328" s="100"/>
+      <c r="B328" s="74"/>
     </row>
     <row r="329" spans="2:2" ht="12.75">
-      <c r="B329" s="100"/>
+      <c r="B329" s="74"/>
     </row>
     <row r="330" spans="2:2" ht="12.75">
-      <c r="B330" s="100"/>
+      <c r="B330" s="74"/>
     </row>
     <row r="331" spans="2:2" ht="12.75">
-      <c r="B331" s="100"/>
+      <c r="B331" s="74"/>
     </row>
     <row r="332" spans="2:2" ht="12.75">
-      <c r="B332" s="100"/>
+      <c r="B332" s="74"/>
     </row>
     <row r="333" spans="2:2" ht="12.75">
-      <c r="B333" s="100"/>
+      <c r="B333" s="74"/>
     </row>
     <row r="334" spans="2:2" ht="12.75">
-      <c r="B334" s="100"/>
+      <c r="B334" s="74"/>
     </row>
     <row r="335" spans="2:2" ht="12.75">
-      <c r="B335" s="100"/>
+      <c r="B335" s="74"/>
     </row>
     <row r="336" spans="2:2" ht="12.75">
-      <c r="B336" s="100"/>
+      <c r="B336" s="74"/>
     </row>
     <row r="337" spans="2:2" ht="12.75">
-      <c r="B337" s="100"/>
+      <c r="B337" s="74"/>
     </row>
     <row r="338" spans="2:2" ht="12.75">
-      <c r="B338" s="100"/>
+      <c r="B338" s="74"/>
     </row>
     <row r="339" spans="2:2" ht="12.75">
-      <c r="B339" s="100"/>
+      <c r="B339" s="74"/>
     </row>
     <row r="340" spans="2:2" ht="12.75">
-      <c r="B340" s="100"/>
+      <c r="B340" s="74"/>
     </row>
     <row r="341" spans="2:2" ht="12.75">
-      <c r="B341" s="100"/>
+      <c r="B341" s="74"/>
     </row>
     <row r="342" spans="2:2" ht="12.75">
-      <c r="B342" s="100"/>
+      <c r="B342" s="74"/>
     </row>
     <row r="343" spans="2:2" ht="12.75">
-      <c r="B343" s="100"/>
+      <c r="B343" s="74"/>
     </row>
     <row r="344" spans="2:2" ht="12.75">
-      <c r="B344" s="100"/>
+      <c r="B344" s="74"/>
     </row>
     <row r="345" spans="2:2" ht="12.75">
-      <c r="B345" s="100"/>
+      <c r="B345" s="74"/>
     </row>
     <row r="346" spans="2:2" ht="12.75">
-      <c r="B346" s="100"/>
+      <c r="B346" s="74"/>
     </row>
     <row r="347" spans="2:2" ht="12.75">
-      <c r="B347" s="100"/>
+      <c r="B347" s="74"/>
     </row>
     <row r="348" spans="2:2" ht="12.75">
-      <c r="B348" s="100"/>
+      <c r="B348" s="74"/>
     </row>
     <row r="349" spans="2:2" ht="12.75">
-      <c r="B349" s="100"/>
+      <c r="B349" s="74"/>
     </row>
     <row r="350" spans="2:2" ht="12.75">
-      <c r="B350" s="100"/>
+      <c r="B350" s="74"/>
     </row>
     <row r="351" spans="2:2" ht="12.75">
-      <c r="B351" s="100"/>
+      <c r="B351" s="74"/>
     </row>
     <row r="352" spans="2:2" ht="12.75">
-      <c r="B352" s="100"/>
+      <c r="B352" s="74"/>
     </row>
     <row r="353" spans="2:2" ht="12.75">
-      <c r="B353" s="100"/>
+      <c r="B353" s="74"/>
     </row>
     <row r="354" spans="2:2" ht="12.75">
-      <c r="B354" s="100"/>
+      <c r="B354" s="74"/>
     </row>
     <row r="355" spans="2:2" ht="12.75">
-      <c r="B355" s="100"/>
+      <c r="B355" s="74"/>
     </row>
     <row r="356" spans="2:2" ht="12.75">
-      <c r="B356" s="100"/>
+      <c r="B356" s="74"/>
     </row>
     <row r="357" spans="2:2" ht="12.75">
-      <c r="B357" s="100"/>
+      <c r="B357" s="74"/>
     </row>
     <row r="358" spans="2:2" ht="12.75">
-      <c r="B358" s="100"/>
+      <c r="B358" s="74"/>
     </row>
     <row r="359" spans="2:2" ht="12.75">
-      <c r="B359" s="100"/>
+      <c r="B359" s="74"/>
     </row>
     <row r="360" spans="2:2" ht="12.75">
-      <c r="B360" s="100"/>
+      <c r="B360" s="74"/>
     </row>
     <row r="361" spans="2:2" ht="12.75">
-      <c r="B361" s="100"/>
+      <c r="B361" s="74"/>
     </row>
     <row r="362" spans="2:2" ht="12.75">
-      <c r="B362" s="100"/>
+      <c r="B362" s="74"/>
     </row>
     <row r="363" spans="2:2" ht="12.75">
-      <c r="B363" s="100"/>
+      <c r="B363" s="74"/>
     </row>
     <row r="364" spans="2:2" ht="12.75">
-      <c r="B364" s="100"/>
+      <c r="B364" s="74"/>
     </row>
     <row r="365" spans="2:2" ht="12.75">
-      <c r="B365" s="100"/>
+      <c r="B365" s="74"/>
     </row>
     <row r="366" spans="2:2" ht="12.75">
-      <c r="B366" s="100"/>
+      <c r="B366" s="74"/>
     </row>
     <row r="367" spans="2:2" ht="12.75">
-      <c r="B367" s="100"/>
+      <c r="B367" s="74"/>
     </row>
     <row r="368" spans="2:2" ht="12.75">
-      <c r="B368" s="100"/>
+      <c r="B368" s="74"/>
     </row>
     <row r="369" spans="2:2" ht="12.75">
-      <c r="B369" s="100"/>
+      <c r="B369" s="74"/>
     </row>
     <row r="370" spans="2:2" ht="12.75">
-      <c r="B370" s="100"/>
+      <c r="B370" s="74"/>
     </row>
     <row r="371" spans="2:2" ht="12.75">
-      <c r="B371" s="100"/>
+      <c r="B371" s="74"/>
     </row>
     <row r="372" spans="2:2" ht="12.75">
-      <c r="B372" s="100"/>
+      <c r="B372" s="74"/>
     </row>
     <row r="373" spans="2:2" ht="12.75">
-      <c r="B373" s="100"/>
+      <c r="B373" s="74"/>
     </row>
     <row r="374" spans="2:2" ht="12.75">
-      <c r="B374" s="100"/>
+      <c r="B374" s="74"/>
     </row>
     <row r="375" spans="2:2" ht="12.75">
-      <c r="B375" s="100"/>
+      <c r="B375" s="74"/>
     </row>
     <row r="376" spans="2:2" ht="12.75">
-      <c r="B376" s="100"/>
+      <c r="B376" s="74"/>
     </row>
     <row r="377" spans="2:2" ht="12.75">
-      <c r="B377" s="100"/>
+      <c r="B377" s="74"/>
     </row>
     <row r="378" spans="2:2" ht="12.75">
-      <c r="B378" s="100"/>
+      <c r="B378" s="74"/>
     </row>
     <row r="379" spans="2:2" ht="12.75">
-      <c r="B379" s="100"/>
+      <c r="B379" s="74"/>
     </row>
     <row r="380" spans="2:2" ht="12.75">
-      <c r="B380" s="100"/>
+      <c r="B380" s="74"/>
     </row>
     <row r="381" spans="2:2" ht="12.75">
-      <c r="B381" s="100"/>
+      <c r="B381" s="74"/>
     </row>
     <row r="382" spans="2:2" ht="12.75">
-      <c r="B382" s="100"/>
+      <c r="B382" s="74"/>
     </row>
     <row r="383" spans="2:2" ht="12.75">
-      <c r="B383" s="100"/>
+      <c r="B383" s="74"/>
     </row>
     <row r="384" spans="2:2" ht="12.75">
-      <c r="B384" s="100"/>
+      <c r="B384" s="74"/>
     </row>
     <row r="385" spans="2:2" ht="12.75">
-      <c r="B385" s="100"/>
+      <c r="B385" s="74"/>
     </row>
     <row r="386" spans="2:2" ht="12.75">
-      <c r="B386" s="100"/>
+      <c r="B386" s="74"/>
     </row>
     <row r="387" spans="2:2" ht="12.75">
-      <c r="B387" s="100"/>
+      <c r="B387" s="74"/>
     </row>
     <row r="388" spans="2:2" ht="12.75">
-      <c r="B388" s="100"/>
+      <c r="B388" s="74"/>
     </row>
     <row r="389" spans="2:2" ht="12.75">
-      <c r="B389" s="100"/>
+      <c r="B389" s="74"/>
     </row>
     <row r="390" spans="2:2" ht="12.75">
-      <c r="B390" s="100"/>
+      <c r="B390" s="74"/>
     </row>
     <row r="391" spans="2:2" ht="12.75">
-      <c r="B391" s="100"/>
+      <c r="B391" s="74"/>
     </row>
     <row r="392" spans="2:2" ht="12.75">
-      <c r="B392" s="100"/>
+      <c r="B392" s="74"/>
     </row>
     <row r="393" spans="2:2" ht="12.75">
-      <c r="B393" s="100"/>
+      <c r="B393" s="74"/>
     </row>
     <row r="394" spans="2:2" ht="12.75">
-      <c r="B394" s="100"/>
+      <c r="B394" s="74"/>
     </row>
     <row r="395" spans="2:2" ht="12.75">
-      <c r="B395" s="100"/>
+      <c r="B395" s="74"/>
     </row>
     <row r="396" spans="2:2" ht="12.75">
-      <c r="B396" s="100"/>
+      <c r="B396" s="74"/>
     </row>
     <row r="397" spans="2:2" ht="12.75">
-      <c r="B397" s="100"/>
+      <c r="B397" s="74"/>
     </row>
     <row r="398" spans="2:2" ht="12.75">
-      <c r="B398" s="100"/>
+      <c r="B398" s="74"/>
     </row>
     <row r="399" spans="2:2" ht="12.75">
-      <c r="B399" s="100"/>
+      <c r="B399" s="74"/>
     </row>
     <row r="400" spans="2:2" ht="12.75">
-      <c r="B400" s="100"/>
+      <c r="B400" s="74"/>
     </row>
     <row r="401" spans="2:2" ht="12.75">
-      <c r="B401" s="100"/>
+      <c r="B401" s="74"/>
     </row>
     <row r="402" spans="2:2" ht="12.75">
-      <c r="B402" s="100"/>
+      <c r="B402" s="74"/>
     </row>
     <row r="403" spans="2:2" ht="12.75">
-      <c r="B403" s="100"/>
+      <c r="B403" s="74"/>
     </row>
     <row r="404" spans="2:2" ht="12.75">
-      <c r="B404" s="100"/>
+      <c r="B404" s="74"/>
     </row>
     <row r="405" spans="2:2" ht="12.75">
-      <c r="B405" s="100"/>
+      <c r="B405" s="74"/>
     </row>
     <row r="406" spans="2:2" ht="12.75">
-      <c r="B406" s="100"/>
+      <c r="B406" s="74"/>
     </row>
     <row r="407" spans="2:2" ht="12.75">
-      <c r="B407" s="100"/>
+      <c r="B407" s="74"/>
     </row>
     <row r="408" spans="2:2" ht="12.75">
-      <c r="B408" s="100"/>
+      <c r="B408" s="74"/>
     </row>
     <row r="409" spans="2:2" ht="12.75">
-      <c r="B409" s="100"/>
+      <c r="B409" s="74"/>
     </row>
     <row r="410" spans="2:2" ht="12.75">
-      <c r="B410" s="100"/>
+      <c r="B410" s="74"/>
     </row>
     <row r="411" spans="2:2" ht="12.75">
-      <c r="B411" s="100"/>
+      <c r="B411" s="74"/>
     </row>
     <row r="412" spans="2:2" ht="12.75">
-      <c r="B412" s="100"/>
+      <c r="B412" s="74"/>
     </row>
     <row r="413" spans="2:2" ht="12.75">
-      <c r="B413" s="100"/>
+      <c r="B413" s="74"/>
     </row>
     <row r="414" spans="2:2" ht="12.75">
-      <c r="B414" s="100"/>
+      <c r="B414" s="74"/>
     </row>
     <row r="415" spans="2:2" ht="12.75">
-      <c r="B415" s="100"/>
+      <c r="B415" s="74"/>
     </row>
     <row r="416" spans="2:2" ht="12.75">
-      <c r="B416" s="100"/>
+      <c r="B416" s="74"/>
     </row>
     <row r="417" spans="2:2" ht="12.75">
-      <c r="B417" s="100"/>
+      <c r="B417" s="74"/>
     </row>
     <row r="418" spans="2:2" ht="12.75">
-      <c r="B418" s="100"/>
+      <c r="B418" s="74"/>
     </row>
     <row r="419" spans="2:2" ht="12.75">
-      <c r="B419" s="100"/>
+      <c r="B419" s="74"/>
     </row>
     <row r="420" spans="2:2" ht="12.75">
-      <c r="B420" s="100"/>
+      <c r="B420" s="74"/>
     </row>
     <row r="421" spans="2:2" ht="12.75">
-      <c r="B421" s="100"/>
+      <c r="B421" s="74"/>
     </row>
     <row r="422" spans="2:2" ht="12.75">
-      <c r="B422" s="100"/>
+      <c r="B422" s="74"/>
     </row>
     <row r="423" spans="2:2" ht="12.75">
-      <c r="B423" s="100"/>
+      <c r="B423" s="74"/>
     </row>
     <row r="424" spans="2:2" ht="12.75">
-      <c r="B424" s="100"/>
+      <c r="B424" s="74"/>
     </row>
     <row r="425" spans="2:2" ht="12.75">
-      <c r="B425" s="100"/>
+      <c r="B425" s="74"/>
     </row>
     <row r="426" spans="2:2" ht="12.75">
-      <c r="B426" s="100"/>
+      <c r="B426" s="74"/>
     </row>
     <row r="427" spans="2:2" ht="12.75">
-      <c r="B427" s="100"/>
+      <c r="B427" s="74"/>
     </row>
     <row r="428" spans="2:2" ht="12.75">
-      <c r="B428" s="100"/>
+      <c r="B428" s="74"/>
     </row>
     <row r="429" spans="2:2" ht="12.75">
-      <c r="B429" s="100"/>
+      <c r="B429" s="74"/>
     </row>
     <row r="430" spans="2:2" ht="12.75">
-      <c r="B430" s="100"/>
+      <c r="B430" s="74"/>
     </row>
     <row r="431" spans="2:2" ht="12.75">
-      <c r="B431" s="100"/>
+      <c r="B431" s="74"/>
     </row>
     <row r="432" spans="2:2" ht="12.75">
-      <c r="B432" s="100"/>
+      <c r="B432" s="74"/>
     </row>
     <row r="433" spans="2:2" ht="12.75">
-      <c r="B433" s="100"/>
+      <c r="B433" s="74"/>
     </row>
     <row r="434" spans="2:2" ht="12.75">
-      <c r="B434" s="100"/>
+      <c r="B434" s="74"/>
     </row>
     <row r="435" spans="2:2" ht="12.75">
-      <c r="B435" s="100"/>
+      <c r="B435" s="74"/>
     </row>
     <row r="436" spans="2:2" ht="12.75">
-      <c r="B436" s="100"/>
+      <c r="B436" s="74"/>
     </row>
     <row r="437" spans="2:2" ht="12.75">
-      <c r="B437" s="100"/>
+      <c r="B437" s="74"/>
     </row>
     <row r="438" spans="2:2" ht="12.75">
-      <c r="B438" s="100"/>
+      <c r="B438" s="74"/>
     </row>
     <row r="439" spans="2:2" ht="12.75">
-      <c r="B439" s="100"/>
+      <c r="B439" s="74"/>
     </row>
     <row r="440" spans="2:2" ht="12.75">
-      <c r="B440" s="100"/>
+      <c r="B440" s="74"/>
     </row>
     <row r="441" spans="2:2" ht="12.75">
-      <c r="B441" s="100"/>
+      <c r="B441" s="74"/>
     </row>
     <row r="442" spans="2:2" ht="12.75">
-      <c r="B442" s="100"/>
+      <c r="B442" s="74"/>
     </row>
     <row r="443" spans="2:2" ht="12.75">
-      <c r="B443" s="100"/>
+      <c r="B443" s="74"/>
     </row>
     <row r="444" spans="2:2" ht="12.75">
-      <c r="B444" s="100"/>
+      <c r="B444" s="74"/>
     </row>
     <row r="445" spans="2:2" ht="12.75">
-      <c r="B445" s="100"/>
+      <c r="B445" s="74"/>
     </row>
     <row r="446" spans="2:2" ht="12.75">
-      <c r="B446" s="100"/>
+      <c r="B446" s="74"/>
     </row>
     <row r="447" spans="2:2" ht="12.75">
-      <c r="B447" s="100"/>
+      <c r="B447" s="74"/>
     </row>
     <row r="448" spans="2:2" ht="12.75">
-      <c r="B448" s="100"/>
+      <c r="B448" s="74"/>
     </row>
     <row r="449" spans="2:2" ht="12.75">
-      <c r="B449" s="100"/>
+      <c r="B449" s="74"/>
     </row>
     <row r="450" spans="2:2" ht="12.75">
-      <c r="B450" s="100"/>
+      <c r="B450" s="74"/>
     </row>
     <row r="451" spans="2:2" ht="12.75">
-      <c r="B451" s="100"/>
+      <c r="B451" s="74"/>
     </row>
     <row r="452" spans="2:2" ht="12.75">
-      <c r="B452" s="100"/>
+      <c r="B452" s="74"/>
     </row>
     <row r="453" spans="2:2" ht="12.75">
-      <c r="B453" s="100"/>
+      <c r="B453" s="74"/>
     </row>
     <row r="454" spans="2:2" ht="12.75">
-      <c r="B454" s="100"/>
+      <c r="B454" s="74"/>
     </row>
     <row r="455" spans="2:2" ht="12.75">
-      <c r="B455" s="100"/>
+      <c r="B455" s="74"/>
     </row>
     <row r="456" spans="2:2" ht="12.75">
-      <c r="B456" s="100"/>
+      <c r="B456" s="74"/>
     </row>
     <row r="457" spans="2:2" ht="12.75">
-      <c r="B457" s="100"/>
+      <c r="B457" s="74"/>
     </row>
     <row r="458" spans="2:2" ht="12.75">
-      <c r="B458" s="100"/>
+      <c r="B458" s="74"/>
     </row>
     <row r="459" spans="2:2" ht="12.75">
-      <c r="B459" s="100"/>
+      <c r="B459" s="74"/>
     </row>
     <row r="460" spans="2:2" ht="12.75">
-      <c r="B460" s="100"/>
+      <c r="B460" s="74"/>
     </row>
     <row r="461" spans="2:2" ht="12.75">
-      <c r="B461" s="100"/>
+      <c r="B461" s="74"/>
     </row>
     <row r="462" spans="2:2" ht="12.75">
-      <c r="B462" s="100"/>
+      <c r="B462" s="74"/>
     </row>
     <row r="463" spans="2:2" ht="12.75">
-      <c r="B463" s="100"/>
+      <c r="B463" s="74"/>
     </row>
     <row r="464" spans="2:2" ht="12.75">
-      <c r="B464" s="100"/>
+      <c r="B464" s="74"/>
     </row>
     <row r="465" spans="2:2" ht="12.75">
-      <c r="B465" s="100"/>
+      <c r="B465" s="74"/>
     </row>
     <row r="466" spans="2:2" ht="12.75">
-      <c r="B466" s="100"/>
+      <c r="B466" s="74"/>
     </row>
     <row r="467" spans="2:2" ht="12.75">
-      <c r="B467" s="100"/>
+      <c r="B467" s="74"/>
     </row>
     <row r="468" spans="2:2" ht="12.75">
-      <c r="B468" s="100"/>
+      <c r="B468" s="74"/>
     </row>
     <row r="469" spans="2:2" ht="12.75">
-      <c r="B469" s="100"/>
+      <c r="B469" s="74"/>
     </row>
     <row r="470" spans="2:2" ht="12.75">
-      <c r="B470" s="100"/>
+      <c r="B470" s="74"/>
     </row>
     <row r="471" spans="2:2" ht="12.75">
-      <c r="B471" s="100"/>
+      <c r="B471" s="74"/>
     </row>
     <row r="472" spans="2:2" ht="12.75">
-      <c r="B472" s="100"/>
+      <c r="B472" s="74"/>
     </row>
     <row r="473" spans="2:2" ht="12.75">
-      <c r="B473" s="100"/>
+      <c r="B473" s="74"/>
     </row>
     <row r="474" spans="2:2" ht="12.75">
-      <c r="B474" s="100"/>
+      <c r="B474" s="74"/>
     </row>
     <row r="475" spans="2:2" ht="12.75">
-      <c r="B475" s="100"/>
+      <c r="B475" s="74"/>
     </row>
     <row r="476" spans="2:2" ht="12.75">
-      <c r="B476" s="100"/>
+      <c r="B476" s="74"/>
     </row>
     <row r="477" spans="2:2" ht="12.75">
-      <c r="B477" s="100"/>
+      <c r="B477" s="74"/>
     </row>
     <row r="478" spans="2:2" ht="12.75">
-      <c r="B478" s="100"/>
+      <c r="B478" s="74"/>
     </row>
     <row r="479" spans="2:2" ht="12.75">
-      <c r="B479" s="100"/>
+      <c r="B479" s="74"/>
     </row>
     <row r="480" spans="2:2" ht="12.75">
-      <c r="B480" s="100"/>
+      <c r="B480" s="74"/>
     </row>
     <row r="481" spans="2:2" ht="12.75">
-      <c r="B481" s="100"/>
+      <c r="B481" s="74"/>
     </row>
     <row r="482" spans="2:2" ht="12.75">
-      <c r="B482" s="100"/>
+      <c r="B482" s="74"/>
     </row>
     <row r="483" spans="2:2" ht="12.75">
-      <c r="B483" s="100"/>
+      <c r="B483" s="74"/>
     </row>
     <row r="484" spans="2:2" ht="12.75">
-      <c r="B484" s="100"/>
+      <c r="B484" s="74"/>
     </row>
     <row r="485" spans="2:2" ht="12.75">
-      <c r="B485" s="100"/>
+      <c r="B485" s="74"/>
     </row>
     <row r="486" spans="2:2" ht="12.75">
-      <c r="B486" s="100"/>
+      <c r="B486" s="74"/>
     </row>
     <row r="487" spans="2:2" ht="12.75">
-      <c r="B487" s="100"/>
+      <c r="B487" s="74"/>
     </row>
     <row r="488" spans="2:2" ht="12.75">
-      <c r="B488" s="100"/>
+      <c r="B488" s="74"/>
     </row>
     <row r="489" spans="2:2" ht="12.75">
-      <c r="B489" s="100"/>
+      <c r="B489" s="74"/>
     </row>
     <row r="490" spans="2:2" ht="12.75">
-      <c r="B490" s="100"/>
+      <c r="B490" s="74"/>
     </row>
     <row r="491" spans="2:2" ht="12.75">
-      <c r="B491" s="100"/>
+      <c r="B491" s="74"/>
     </row>
     <row r="492" spans="2:2" ht="12.75">
-      <c r="B492" s="100"/>
+      <c r="B492" s="74"/>
     </row>
     <row r="493" spans="2:2" ht="12.75">
-      <c r="B493" s="100"/>
+      <c r="B493" s="74"/>
     </row>
     <row r="494" spans="2:2" ht="12.75">
-      <c r="B494" s="100"/>
+      <c r="B494" s="74"/>
     </row>
     <row r="495" spans="2:2" ht="12.75">
-      <c r="B495" s="100"/>
+      <c r="B495" s="74"/>
     </row>
     <row r="496" spans="2:2" ht="12.75">
-      <c r="B496" s="100"/>
+      <c r="B496" s="74"/>
     </row>
     <row r="497" spans="2:2" ht="12.75">
-      <c r="B497" s="100"/>
+      <c r="B497" s="74"/>
     </row>
     <row r="498" spans="2:2" ht="12.75">
-      <c r="B498" s="100"/>
+      <c r="B498" s="74"/>
     </row>
     <row r="499" spans="2:2" ht="12.75">
-      <c r="B499" s="100"/>
+      <c r="B499" s="74"/>
     </row>
     <row r="500" spans="2:2" ht="12.75">
-      <c r="B500" s="100"/>
+      <c r="B500" s="74"/>
     </row>
     <row r="501" spans="2:2" ht="12.75">
-      <c r="B501" s="100"/>
+      <c r="B501" s="74"/>
     </row>
     <row r="502" spans="2:2" ht="12.75">
-      <c r="B502" s="100"/>
+      <c r="B502" s="74"/>
     </row>
     <row r="503" spans="2:2" ht="12.75">
-      <c r="B503" s="100"/>
+      <c r="B503" s="74"/>
     </row>
     <row r="504" spans="2:2" ht="12.75">
-      <c r="B504" s="100"/>
+      <c r="B504" s="74"/>
     </row>
     <row r="505" spans="2:2" ht="12.75">
-      <c r="B505" s="100"/>
+      <c r="B505" s="74"/>
     </row>
     <row r="506" spans="2:2" ht="12.75">
-      <c r="B506" s="100"/>
+      <c r="B506" s="74"/>
     </row>
     <row r="507" spans="2:2" ht="12.75">
-      <c r="B507" s="100"/>
+      <c r="B507" s="74"/>
     </row>
     <row r="508" spans="2:2" ht="12.75">
-      <c r="B508" s="100"/>
+      <c r="B508" s="74"/>
     </row>
     <row r="509" spans="2:2" ht="12.75">
-      <c r="B509" s="100"/>
+      <c r="B509" s="74"/>
     </row>
     <row r="510" spans="2:2" ht="12.75">
-      <c r="B510" s="100"/>
+      <c r="B510" s="74"/>
     </row>
     <row r="511" spans="2:2" ht="12.75">
-      <c r="B511" s="100"/>
+      <c r="B511" s="74"/>
     </row>
     <row r="512" spans="2:2" ht="12.75">
-      <c r="B512" s="100"/>
+      <c r="B512" s="74"/>
     </row>
     <row r="513" spans="2:2" ht="12.75">
-      <c r="B513" s="100"/>
+      <c r="B513" s="74"/>
     </row>
     <row r="514" spans="2:2" ht="12.75">
-      <c r="B514" s="100"/>
+      <c r="B514" s="74"/>
     </row>
     <row r="515" spans="2:2" ht="12.75">
-      <c r="B515" s="100"/>
+      <c r="B515" s="74"/>
     </row>
     <row r="516" spans="2:2" ht="12.75">
-      <c r="B516" s="100"/>
+      <c r="B516" s="74"/>
     </row>
     <row r="517" spans="2:2" ht="12.75">
-      <c r="B517" s="100"/>
+      <c r="B517" s="74"/>
     </row>
     <row r="518" spans="2:2" ht="12.75">
-      <c r="B518" s="100"/>
+      <c r="B518" s="74"/>
     </row>
     <row r="519" spans="2:2" ht="12.75">
-      <c r="B519" s="100"/>
+      <c r="B519" s="74"/>
     </row>
     <row r="520" spans="2:2" ht="12.75">
-      <c r="B520" s="100"/>
+      <c r="B520" s="74"/>
     </row>
     <row r="521" spans="2:2" ht="12.75">
-      <c r="B521" s="100"/>
+      <c r="B521" s="74"/>
     </row>
     <row r="522" spans="2:2" ht="12.75">
-      <c r="B522" s="100"/>
+      <c r="B522" s="74"/>
     </row>
     <row r="523" spans="2:2" ht="12.75">
-      <c r="B523" s="100"/>
+      <c r="B523" s="74"/>
     </row>
     <row r="524" spans="2:2" ht="12.75">
-      <c r="B524" s="100"/>
+      <c r="B524" s="74"/>
     </row>
     <row r="525" spans="2:2" ht="12.75">
-      <c r="B525" s="100"/>
+      <c r="B525" s="74"/>
     </row>
     <row r="526" spans="2:2" ht="12.75">
-      <c r="B526" s="100"/>
+      <c r="B526" s="74"/>
     </row>
     <row r="527" spans="2:2" ht="12.75">
-      <c r="B527" s="100"/>
+      <c r="B527" s="74"/>
     </row>
     <row r="528" spans="2:2" ht="12.75">
-      <c r="B528" s="100"/>
+      <c r="B528" s="74"/>
     </row>
     <row r="529" spans="2:2" ht="12.75">
-      <c r="B529" s="100"/>
+      <c r="B529" s="74"/>
     </row>
     <row r="530" spans="2:2" ht="12.75">
-      <c r="B530" s="100"/>
+      <c r="B530" s="74"/>
     </row>
     <row r="531" spans="2:2" ht="12.75">
-      <c r="B531" s="100"/>
+      <c r="B531" s="74"/>
     </row>
     <row r="532" spans="2:2" ht="12.75">
-      <c r="B532" s="100"/>
+      <c r="B532" s="74"/>
     </row>
     <row r="533" spans="2:2" ht="12.75">
-      <c r="B533" s="100"/>
+      <c r="B533" s="74"/>
     </row>
     <row r="534" spans="2:2" ht="12.75">
-      <c r="B534" s="100"/>
+      <c r="B534" s="74"/>
     </row>
     <row r="535" spans="2:2" ht="12.75">
-      <c r="B535" s="100"/>
+      <c r="B535" s="74"/>
     </row>
     <row r="536" spans="2:2" ht="12.75">
-      <c r="B536" s="100"/>
+      <c r="B536" s="74"/>
     </row>
     <row r="537" spans="2:2" ht="12.75">
-      <c r="B537" s="100"/>
+      <c r="B537" s="74"/>
     </row>
     <row r="538" spans="2:2" ht="12.75">
-      <c r="B538" s="100"/>
+      <c r="B538" s="74"/>
     </row>
     <row r="539" spans="2:2" ht="12.75">
-      <c r="B539" s="100"/>
+      <c r="B539" s="74"/>
     </row>
     <row r="540" spans="2:2" ht="12.75">
-      <c r="B540" s="100"/>
+      <c r="B540" s="74"/>
     </row>
     <row r="541" spans="2:2" ht="12.75">
-      <c r="B541" s="100"/>
+      <c r="B541" s="74"/>
     </row>
     <row r="542" spans="2:2" ht="12.75">
-      <c r="B542" s="100"/>
+      <c r="B542" s="74"/>
     </row>
     <row r="543" spans="2:2" ht="12.75">
-      <c r="B543" s="100"/>
+      <c r="B543" s="74"/>
     </row>
     <row r="544" spans="2:2" ht="12.75">
-      <c r="B544" s="100"/>
+      <c r="B544" s="74"/>
     </row>
     <row r="545" spans="2:2" ht="12.75">
-      <c r="B545" s="100"/>
+      <c r="B545" s="74"/>
     </row>
     <row r="546" spans="2:2" ht="12.75">
-      <c r="B546" s="100"/>
+      <c r="B546" s="74"/>
     </row>
     <row r="547" spans="2:2" ht="12.75">
-      <c r="B547" s="100"/>
+      <c r="B547" s="74"/>
     </row>
     <row r="548" spans="2:2" ht="12.75">
-      <c r="B548" s="100"/>
+      <c r="B548" s="74"/>
     </row>
     <row r="549" spans="2:2" ht="12.75">
-      <c r="B549" s="100"/>
+      <c r="B549" s="74"/>
     </row>
     <row r="550" spans="2:2" ht="12.75">
-      <c r="B550" s="100"/>
+      <c r="B550" s="74"/>
     </row>
     <row r="551" spans="2:2" ht="12.75">
-      <c r="B551" s="100"/>
+      <c r="B551" s="74"/>
     </row>
     <row r="552" spans="2:2" ht="12.75">
-      <c r="B552" s="100"/>
+      <c r="B552" s="74"/>
     </row>
     <row r="553" spans="2:2" ht="12.75">
-      <c r="B553" s="100"/>
+      <c r="B553" s="74"/>
     </row>
     <row r="554" spans="2:2" ht="12.75">
-      <c r="B554" s="100"/>
+      <c r="B554" s="74"/>
     </row>
     <row r="555" spans="2:2" ht="12.75">
-      <c r="B555" s="100"/>
+      <c r="B555" s="74"/>
     </row>
     <row r="556" spans="2:2" ht="12.75">
-      <c r="B556" s="100"/>
+      <c r="B556" s="74"/>
     </row>
     <row r="557" spans="2:2" ht="12.75">
-      <c r="B557" s="100"/>
+      <c r="B557" s="74"/>
     </row>
     <row r="558" spans="2:2" ht="12.75">
-      <c r="B558" s="100"/>
+      <c r="B558" s="74"/>
     </row>
     <row r="559" spans="2:2" ht="12.75">
-      <c r="B559" s="100"/>
+      <c r="B559" s="74"/>
     </row>
     <row r="560" spans="2:2" ht="12.75">
-      <c r="B560" s="100"/>
+      <c r="B560" s="74"/>
     </row>
     <row r="561" spans="2:2" ht="12.75">
-      <c r="B561" s="100"/>
+      <c r="B561" s="74"/>
     </row>
     <row r="562" spans="2:2" ht="12.75">
-      <c r="B562" s="100"/>
+      <c r="B562" s="74"/>
     </row>
     <row r="563" spans="2:2" ht="12.75">
-      <c r="B563" s="100"/>
+      <c r="B563" s="74"/>
     </row>
     <row r="564" spans="2:2" ht="12.75">
-      <c r="B564" s="100"/>
+      <c r="B564" s="74"/>
     </row>
     <row r="565" spans="2:2" ht="12.75">
-      <c r="B565" s="100"/>
+      <c r="B565" s="74"/>
     </row>
     <row r="566" spans="2:2" ht="12.75">
-      <c r="B566" s="100"/>
+      <c r="B566" s="74"/>
     </row>
     <row r="567" spans="2:2" ht="12.75">
-      <c r="B567" s="100"/>
+      <c r="B567" s="74"/>
     </row>
     <row r="568" spans="2:2" ht="12.75">
-      <c r="B568" s="100"/>
+      <c r="B568" s="74"/>
     </row>
     <row r="569" spans="2:2" ht="12.75">
-      <c r="B569" s="100"/>
+      <c r="B569" s="74"/>
     </row>
     <row r="570" spans="2:2" ht="12.75">
-      <c r="B570" s="100"/>
+      <c r="B570" s="74"/>
     </row>
     <row r="571" spans="2:2" ht="12.75">
-      <c r="B571" s="100"/>
+      <c r="B571" s="74"/>
     </row>
     <row r="572" spans="2:2" ht="12.75">
-      <c r="B572" s="100"/>
+      <c r="B572" s="74"/>
     </row>
     <row r="573" spans="2:2" ht="12.75">
-      <c r="B573" s="100"/>
+      <c r="B573" s="74"/>
     </row>
     <row r="574" spans="2:2" ht="12.75">
-      <c r="B574" s="100"/>
+      <c r="B574" s="74"/>
     </row>
     <row r="575" spans="2:2" ht="12.75">
-      <c r="B575" s="100"/>
+      <c r="B575" s="74"/>
     </row>
     <row r="576" spans="2:2" ht="12.75">
-      <c r="B576" s="100"/>
+      <c r="B576" s="74"/>
     </row>
     <row r="577" spans="2:2" ht="12.75">
-      <c r="B577" s="100"/>
+      <c r="B577" s="74"/>
     </row>
     <row r="578" spans="2:2" ht="12.75">
-      <c r="B578" s="100"/>
+      <c r="B578" s="74"/>
     </row>
     <row r="579" spans="2:2" ht="12.75">
-      <c r="B579" s="100"/>
+      <c r="B579" s="74"/>
     </row>
     <row r="580" spans="2:2" ht="12.75">
-      <c r="B580" s="100"/>
+      <c r="B580" s="74"/>
     </row>
     <row r="581" spans="2:2" ht="12.75">
-      <c r="B581" s="100"/>
+      <c r="B581" s="74"/>
     </row>
     <row r="582" spans="2:2" ht="12.75">
-      <c r="B582" s="100"/>
+      <c r="B582" s="74"/>
     </row>
     <row r="583" spans="2:2" ht="12.75">
-      <c r="B583" s="100"/>
+      <c r="B583" s="74"/>
     </row>
     <row r="584" spans="2:2" ht="12.75">
-      <c r="B584" s="100"/>
+      <c r="B584" s="74"/>
     </row>
     <row r="585" spans="2:2" ht="12.75">
-      <c r="B585" s="100"/>
+      <c r="B585" s="74"/>
     </row>
     <row r="586" spans="2:2" ht="12.75">
-      <c r="B586" s="100"/>
+      <c r="B586" s="74"/>
     </row>
     <row r="587" spans="2:2" ht="12.75">
-      <c r="B587" s="100"/>
+      <c r="B587" s="74"/>
     </row>
     <row r="588" spans="2:2" ht="12.75">
-      <c r="B588" s="100"/>
+      <c r="B588" s="74"/>
     </row>
     <row r="589" spans="2:2" ht="12.75">
-      <c r="B589" s="100"/>
+      <c r="B589" s="74"/>
     </row>
     <row r="590" spans="2:2" ht="12.75">
-      <c r="B590" s="100"/>
+      <c r="B590" s="74"/>
     </row>
     <row r="591" spans="2:2" ht="12.75">
-      <c r="B591" s="100"/>
+      <c r="B591" s="74"/>
     </row>
     <row r="592" spans="2:2" ht="12.75">
-      <c r="B592" s="100"/>
+      <c r="B592" s="74"/>
     </row>
     <row r="593" spans="2:2" ht="12.75">
-      <c r="B593" s="100"/>
+      <c r="B593" s="74"/>
     </row>
     <row r="594" spans="2:2" ht="12.75">
-      <c r="B594" s="100"/>
+      <c r="B594" s="74"/>
     </row>
     <row r="595" spans="2:2" ht="12.75">
-      <c r="B595" s="100"/>
+      <c r="B595" s="74"/>
     </row>
     <row r="596" spans="2:2" ht="12.75">
-      <c r="B596" s="100"/>
+      <c r="B596" s="74"/>
     </row>
     <row r="597" spans="2:2" ht="12.75">
-      <c r="B597" s="100"/>
+      <c r="B597" s="74"/>
     </row>
     <row r="598" spans="2:2" ht="12.75">
-      <c r="B598" s="100"/>
+      <c r="B598" s="74"/>
     </row>
     <row r="599" spans="2:2" ht="12.75">
-      <c r="B599" s="100"/>
+      <c r="B599" s="74"/>
     </row>
     <row r="600" spans="2:2" ht="12.75">
-      <c r="B600" s="100"/>
+      <c r="B600" s="74"/>
     </row>
     <row r="601" spans="2:2" ht="12.75">
-      <c r="B601" s="100"/>
+      <c r="B601" s="74"/>
     </row>
     <row r="602" spans="2:2" ht="12.75">
-      <c r="B602" s="100"/>
+      <c r="B602" s="74"/>
     </row>
     <row r="603" spans="2:2" ht="12.75">
-      <c r="B603" s="100"/>
+      <c r="B603" s="74"/>
     </row>
     <row r="604" spans="2:2" ht="12.75">
-      <c r="B604" s="100"/>
+      <c r="B604" s="74"/>
     </row>
     <row r="605" spans="2:2" ht="12.75">
-      <c r="B605" s="100"/>
+      <c r="B605" s="74"/>
     </row>
     <row r="606" spans="2:2" ht="12.75">
-      <c r="B606" s="100"/>
+      <c r="B606" s="74"/>
     </row>
     <row r="607" spans="2:2" ht="12.75">
-      <c r="B607" s="100"/>
+      <c r="B607" s="74"/>
     </row>
     <row r="608" spans="2:2" ht="12.75">
-      <c r="B608" s="100"/>
+      <c r="B608" s="74"/>
     </row>
     <row r="609" spans="2:2" ht="12.75">
-      <c r="B609" s="100"/>
+      <c r="B609" s="74"/>
     </row>
     <row r="610" spans="2:2" ht="12.75">
-      <c r="B610" s="100"/>
+      <c r="B610" s="74"/>
     </row>
     <row r="611" spans="2:2" ht="12.75">
-      <c r="B611" s="100"/>
+      <c r="B611" s="74"/>
     </row>
     <row r="612" spans="2:2" ht="12.75">
-      <c r="B612" s="100"/>
+      <c r="B612" s="74"/>
     </row>
     <row r="613" spans="2:2" ht="12.75">
-      <c r="B613" s="100"/>
+      <c r="B613" s="74"/>
     </row>
     <row r="614" spans="2:2" ht="12.75">
-      <c r="B614" s="100"/>
+      <c r="B614" s="74"/>
     </row>
     <row r="615" spans="2:2" ht="12.75">
-      <c r="B615" s="100"/>
+      <c r="B615" s="74"/>
     </row>
     <row r="616" spans="2:2" ht="12.75">
-      <c r="B616" s="100"/>
+      <c r="B616" s="74"/>
     </row>
     <row r="617" spans="2:2" ht="12.75">
-      <c r="B617" s="100"/>
+      <c r="B617" s="74"/>
     </row>
     <row r="618" spans="2:2" ht="12.75">
-      <c r="B618" s="100"/>
+      <c r="B618" s="74"/>
     </row>
     <row r="619" spans="2:2" ht="12.75">
-      <c r="B619" s="100"/>
+      <c r="B619" s="74"/>
     </row>
     <row r="620" spans="2:2" ht="12.75">
-      <c r="B620" s="100"/>
+      <c r="B620" s="74"/>
     </row>
     <row r="621" spans="2:2" ht="12.75">
-      <c r="B621" s="100"/>
+      <c r="B621" s="74"/>
     </row>
     <row r="622" spans="2:2" ht="12.75">
-      <c r="B622" s="100"/>
+      <c r="B622" s="74"/>
     </row>
     <row r="623" spans="2:2" ht="12.75">
-      <c r="B623" s="100"/>
+      <c r="B623" s="74"/>
     </row>
     <row r="624" spans="2:2" ht="12.75">
-      <c r="B624" s="100"/>
+      <c r="B624" s="74"/>
     </row>
     <row r="625" spans="2:2" ht="12.75">
-      <c r="B625" s="100"/>
+      <c r="B625" s="74"/>
     </row>
     <row r="626" spans="2:2" ht="12.75">
-      <c r="B626" s="100"/>
+      <c r="B626" s="74"/>
     </row>
     <row r="627" spans="2:2" ht="12.75">
-      <c r="B627" s="100"/>
+      <c r="B627" s="74"/>
     </row>
     <row r="628" spans="2:2" ht="12.75">
-      <c r="B628" s="100"/>
+      <c r="B628" s="74"/>
     </row>
     <row r="629" spans="2:2" ht="12.75">
-      <c r="B629" s="100"/>
+      <c r="B629" s="74"/>
     </row>
     <row r="630" spans="2:2" ht="12.75">
-      <c r="B630" s="100"/>
+      <c r="B630" s="74"/>
     </row>
     <row r="631" spans="2:2" ht="12.75">
-      <c r="B631" s="100"/>
+      <c r="B631" s="74"/>
     </row>
     <row r="632" spans="2:2" ht="12.75">
-      <c r="B632" s="100"/>
+      <c r="B632" s="74"/>
     </row>
     <row r="633" spans="2:2" ht="12.75">
-      <c r="B633" s="100"/>
+      <c r="B633" s="74"/>
     </row>
     <row r="634" spans="2:2" ht="12.75">
-      <c r="B634" s="100"/>
+      <c r="B634" s="74"/>
     </row>
     <row r="635" spans="2:2" ht="12.75">
-      <c r="B635" s="100"/>
+      <c r="B635" s="74"/>
     </row>
     <row r="636" spans="2:2" ht="12.75">
-      <c r="B636" s="100"/>
+      <c r="B636" s="74"/>
     </row>
     <row r="637" spans="2:2" ht="12.75">
-      <c r="B637" s="100"/>
+      <c r="B637" s="74"/>
     </row>
     <row r="638" spans="2:2" ht="12.75">
-      <c r="B638" s="100"/>
+      <c r="B638" s="74"/>
     </row>
     <row r="639" spans="2:2" ht="12.75">
-      <c r="B639" s="100"/>
+      <c r="B639" s="74"/>
     </row>
     <row r="640" spans="2:2" ht="12.75">
-      <c r="B640" s="100"/>
+      <c r="B640" s="74"/>
     </row>
     <row r="641" spans="2:2" ht="12.75">
-      <c r="B641" s="100"/>
+      <c r="B641" s="74"/>
     </row>
     <row r="642" spans="2:2" ht="12.75">
-      <c r="B642" s="100"/>
+      <c r="B642" s="74"/>
     </row>
     <row r="643" spans="2:2" ht="12.75">
-      <c r="B643" s="100"/>
+      <c r="B643" s="74"/>
     </row>
     <row r="644" spans="2:2" ht="12.75">
-      <c r="B644" s="100"/>
+      <c r="B644" s="74"/>
     </row>
     <row r="645" spans="2:2" ht="12.75">
-      <c r="B645" s="100"/>
+      <c r="B645" s="74"/>
     </row>
     <row r="646" spans="2:2" ht="12.75">
-      <c r="B646" s="100"/>
+      <c r="B646" s="74"/>
     </row>
     <row r="647" spans="2:2" ht="12.75">
-      <c r="B647" s="100"/>
+      <c r="B647" s="74"/>
     </row>
     <row r="648" spans="2:2" ht="12.75">
-      <c r="B648" s="100"/>
+      <c r="B648" s="74"/>
     </row>
     <row r="649" spans="2:2" ht="12.75">
-      <c r="B649" s="100"/>
+      <c r="B649" s="74"/>
     </row>
     <row r="650" spans="2:2" ht="12.75">
-      <c r="B650" s="100"/>
+      <c r="B650" s="74"/>
     </row>
     <row r="651" spans="2:2" ht="12.75">
-      <c r="B651" s="100"/>
+      <c r="B651" s="74"/>
     </row>
     <row r="652" spans="2:2" ht="12.75">
-      <c r="B652" s="100"/>
+      <c r="B652" s="74"/>
     </row>
     <row r="653" spans="2:2" ht="12.75">
-      <c r="B653" s="100"/>
+      <c r="B653" s="74"/>
     </row>
     <row r="654" spans="2:2" ht="12.75">
-      <c r="B654" s="100"/>
+      <c r="B654" s="74"/>
     </row>
     <row r="655" spans="2:2" ht="12.75">
-      <c r="B655" s="100"/>
+      <c r="B655" s="74"/>
     </row>
     <row r="656" spans="2:2" ht="12.75">
-      <c r="B656" s="100"/>
+      <c r="B656" s="74"/>
     </row>
     <row r="657" spans="2:2" ht="12.75">
-      <c r="B657" s="100"/>
+      <c r="B657" s="74"/>
     </row>
     <row r="658" spans="2:2" ht="12.75">
-      <c r="B658" s="100"/>
+      <c r="B658" s="74"/>
     </row>
     <row r="659" spans="2:2" ht="12.75">
-      <c r="B659" s="100"/>
+      <c r="B659" s="74"/>
     </row>
     <row r="660" spans="2:2" ht="12.75">
-      <c r="B660" s="100"/>
+      <c r="B660" s="74"/>
     </row>
     <row r="661" spans="2:2" ht="12.75">
-      <c r="B661" s="100"/>
+      <c r="B661" s="74"/>
     </row>
     <row r="662" spans="2:2" ht="12.75">
-      <c r="B662" s="100"/>
+      <c r="B662" s="74"/>
     </row>
     <row r="663" spans="2:2" ht="12.75">
-      <c r="B663" s="100"/>
+      <c r="B663" s="74"/>
     </row>
     <row r="664" spans="2:2" ht="12.75">
-      <c r="B664" s="100"/>
+      <c r="B664" s="74"/>
     </row>
     <row r="665" spans="2:2" ht="12.75">
-      <c r="B665" s="100"/>
+      <c r="B665" s="74"/>
     </row>
     <row r="666" spans="2:2" ht="12.75">
-      <c r="B666" s="100"/>
+      <c r="B666" s="74"/>
     </row>
     <row r="667" spans="2:2" ht="12.75">
-      <c r="B667" s="100"/>
+      <c r="B667" s="74"/>
     </row>
     <row r="668" spans="2:2" ht="12.75">
-      <c r="B668" s="100"/>
+      <c r="B668" s="74"/>
     </row>
     <row r="669" spans="2:2" ht="12.75">
-      <c r="B669" s="100"/>
+      <c r="B669" s="74"/>
     </row>
     <row r="670" spans="2:2" ht="12.75">
-      <c r="B670" s="100"/>
+      <c r="B670" s="74"/>
     </row>
     <row r="671" spans="2:2" ht="12.75">
-      <c r="B671" s="100"/>
+      <c r="B671" s="74"/>
     </row>
     <row r="672" spans="2:2" ht="12.75">
-      <c r="B672" s="100"/>
+      <c r="B672" s="74"/>
     </row>
     <row r="673" spans="2:2" ht="12.75">
-      <c r="B673" s="100"/>
+      <c r="B673" s="74"/>
     </row>
     <row r="674" spans="2:2" ht="12.75">
-      <c r="B674" s="100"/>
+      <c r="B674" s="74"/>
     </row>
     <row r="675" spans="2:2" ht="12.75">
-      <c r="B675" s="100"/>
+      <c r="B675" s="74"/>
     </row>
     <row r="676" spans="2:2" ht="12.75">
-      <c r="B676" s="100"/>
+      <c r="B676" s="74"/>
     </row>
     <row r="677" spans="2:2" ht="12.75">
-      <c r="B677" s="100"/>
+      <c r="B677" s="74"/>
     </row>
     <row r="678" spans="2:2" ht="12.75">
-      <c r="B678" s="100"/>
+      <c r="B678" s="74"/>
     </row>
     <row r="679" spans="2:2" ht="12.75">
-      <c r="B679" s="100"/>
+      <c r="B679" s="74"/>
     </row>
     <row r="680" spans="2:2" ht="12.75">
-      <c r="B680" s="100"/>
+      <c r="B680" s="74"/>
     </row>
     <row r="681" spans="2:2" ht="12.75">
-      <c r="B681" s="100"/>
+      <c r="B681" s="74"/>
     </row>
     <row r="682" spans="2:2" ht="12.75">
-      <c r="B682" s="100"/>
+      <c r="B682" s="74"/>
     </row>
     <row r="683" spans="2:2" ht="12.75">
-      <c r="B683" s="100"/>
+      <c r="B683" s="74"/>
     </row>
     <row r="684" spans="2:2" ht="12.75">
-      <c r="B684" s="100"/>
+      <c r="B684" s="74"/>
     </row>
     <row r="685" spans="2:2" ht="12.75">
-      <c r="B685" s="100"/>
+      <c r="B685" s="74"/>
     </row>
     <row r="686" spans="2:2" ht="12.75">
-      <c r="B686" s="100"/>
+      <c r="B686" s="74"/>
     </row>
     <row r="687" spans="2:2" ht="12.75">
-      <c r="B687" s="100"/>
+      <c r="B687" s="74"/>
     </row>
     <row r="688" spans="2:2" ht="12.75">
-      <c r="B688" s="100"/>
+      <c r="B688" s="74"/>
     </row>
     <row r="689" spans="2:2" ht="12.75">
-      <c r="B689" s="100"/>
+      <c r="B689" s="74"/>
     </row>
     <row r="690" spans="2:2" ht="12.75">
-      <c r="B690" s="100"/>
+      <c r="B690" s="74"/>
     </row>
     <row r="691" spans="2:2" ht="12.75">
-      <c r="B691" s="100"/>
+      <c r="B691" s="74"/>
     </row>
     <row r="692" spans="2:2" ht="12.75">
-      <c r="B692" s="100"/>
+      <c r="B692" s="74"/>
     </row>
     <row r="693" spans="2:2" ht="12.75">
-      <c r="B693" s="100"/>
+      <c r="B693" s="74"/>
     </row>
     <row r="694" spans="2:2" ht="12.75">
-      <c r="B694" s="100"/>
+      <c r="B694" s="74"/>
     </row>
     <row r="695" spans="2:2" ht="12.75">
-      <c r="B695" s="100"/>
+      <c r="B695" s="74"/>
     </row>
     <row r="696" spans="2:2" ht="12.75">
-      <c r="B696" s="100"/>
+      <c r="B696" s="74"/>
     </row>
     <row r="697" spans="2:2" ht="12.75">
-      <c r="B697" s="100"/>
+      <c r="B697" s="74"/>
     </row>
     <row r="698" spans="2:2" ht="12.75">
-      <c r="B698" s="100"/>
+      <c r="B698" s="74"/>
     </row>
     <row r="699" spans="2:2" ht="12.75">
-      <c r="B699" s="100"/>
+      <c r="B699" s="74"/>
     </row>
     <row r="700" spans="2:2" ht="12.75">
-      <c r="B700" s="100"/>
+      <c r="B700" s="74"/>
     </row>
     <row r="701" spans="2:2" ht="12.75">
-      <c r="B701" s="100"/>
+      <c r="B701" s="74"/>
     </row>
     <row r="702" spans="2:2" ht="12.75">
-      <c r="B702" s="100"/>
+      <c r="B702" s="74"/>
     </row>
     <row r="703" spans="2:2" ht="12.75">
-      <c r="B703" s="100"/>
+      <c r="B703" s="74"/>
     </row>
     <row r="704" spans="2:2" ht="12.75">
-      <c r="B704" s="100"/>
+      <c r="B704" s="74"/>
     </row>
     <row r="705" spans="2:2" ht="12.75">
-      <c r="B705" s="100"/>
+      <c r="B705" s="74"/>
     </row>
     <row r="706" spans="2:2" ht="12.75">
-      <c r="B706" s="100"/>
+      <c r="B706" s="74"/>
     </row>
     <row r="707" spans="2:2" ht="12.75">
-      <c r="B707" s="100"/>
+      <c r="B707" s="74"/>
     </row>
     <row r="708" spans="2:2" ht="12.75">
-      <c r="B708" s="100"/>
+      <c r="B708" s="74"/>
     </row>
     <row r="709" spans="2:2" ht="12.75">
-      <c r="B709" s="100"/>
+      <c r="B709" s="74"/>
     </row>
     <row r="710" spans="2:2" ht="12.75">
-      <c r="B710" s="100"/>
+      <c r="B710" s="74"/>
     </row>
     <row r="711" spans="2:2" ht="12.75">
-      <c r="B711" s="100"/>
+      <c r="B711" s="74"/>
     </row>
     <row r="712" spans="2:2" ht="12.75">
-      <c r="B712" s="100"/>
+      <c r="B712" s="74"/>
     </row>
     <row r="713" spans="2:2" ht="12.75">
-      <c r="B713" s="100"/>
+      <c r="B713" s="74"/>
     </row>
     <row r="714" spans="2:2" ht="12.75">
-      <c r="B714" s="100"/>
+      <c r="B714" s="74"/>
     </row>
     <row r="715" spans="2:2" ht="12.75">
-      <c r="B715" s="100"/>
+      <c r="B715" s="74"/>
     </row>
     <row r="716" spans="2:2" ht="12.75">
-      <c r="B716" s="100"/>
+      <c r="B716" s="74"/>
     </row>
     <row r="717" spans="2:2" ht="12.75">
-      <c r="B717" s="100"/>
+      <c r="B717" s="74"/>
     </row>
     <row r="718" spans="2:2" ht="12.75">
-      <c r="B718" s="100"/>
+      <c r="B718" s="74"/>
     </row>
     <row r="719" spans="2:2" ht="12.75">
-      <c r="B719" s="100"/>
+      <c r="B719" s="74"/>
     </row>
     <row r="720" spans="2:2" ht="12.75">
-      <c r="B720" s="100"/>
+      <c r="B720" s="74"/>
     </row>
     <row r="721" spans="2:2" ht="12.75">
-      <c r="B721" s="100"/>
+      <c r="B721" s="74"/>
     </row>
     <row r="722" spans="2:2" ht="12.75">
-      <c r="B722" s="100"/>
+      <c r="B722" s="74"/>
     </row>
     <row r="723" spans="2:2" ht="12.75">
-      <c r="B723" s="100"/>
+      <c r="B723" s="74"/>
     </row>
     <row r="724" spans="2:2" ht="12.75">
-      <c r="B724" s="100"/>
+      <c r="B724" s="74"/>
     </row>
     <row r="725" spans="2:2" ht="12.75">
-      <c r="B725" s="100"/>
+      <c r="B725" s="74"/>
     </row>
     <row r="726" spans="2:2" ht="12.75">
-      <c r="B726" s="100"/>
+      <c r="B726" s="74"/>
     </row>
     <row r="727" spans="2:2" ht="12.75">
-      <c r="B727" s="100"/>
+      <c r="B727" s="74"/>
     </row>
     <row r="728" spans="2:2" ht="12.75">
-      <c r="B728" s="100"/>
+      <c r="B728" s="74"/>
     </row>
     <row r="729" spans="2:2" ht="12.75">
-      <c r="B729" s="100"/>
+      <c r="B729" s="74"/>
     </row>
     <row r="730" spans="2:2" ht="12.75">
-      <c r="B730" s="100"/>
+      <c r="B730" s="74"/>
     </row>
     <row r="731" spans="2:2" ht="12.75">
-      <c r="B731" s="100"/>
+      <c r="B731" s="74"/>
     </row>
     <row r="732" spans="2:2" ht="12.75">
-      <c r="B732" s="100"/>
+      <c r="B732" s="74"/>
     </row>
     <row r="733" spans="2:2" ht="12.75">
-      <c r="B733" s="100"/>
+      <c r="B733" s="74"/>
     </row>
     <row r="734" spans="2:2" ht="12.75">
-      <c r="B734" s="100"/>
+      <c r="B734" s="74"/>
     </row>
     <row r="735" spans="2:2" ht="12.75">
-      <c r="B735" s="100"/>
+      <c r="B735" s="74"/>
     </row>
     <row r="736" spans="2:2" ht="12.75">
-      <c r="B736" s="100"/>
+      <c r="B736" s="74"/>
     </row>
     <row r="737" spans="2:2" ht="12.75">
-      <c r="B737" s="100"/>
+      <c r="B737" s="74"/>
     </row>
     <row r="738" spans="2:2" ht="12.75">
-      <c r="B738" s="100"/>
+      <c r="B738" s="74"/>
     </row>
     <row r="739" spans="2:2" ht="12.75">
-      <c r="B739" s="100"/>
+      <c r="B739" s="74"/>
     </row>
     <row r="740" spans="2:2" ht="12.75">
-      <c r="B740" s="100"/>
+      <c r="B740" s="74"/>
     </row>
     <row r="741" spans="2:2" ht="12.75">
-      <c r="B741" s="100"/>
+      <c r="B741" s="74"/>
     </row>
     <row r="742" spans="2:2" ht="12.75">
-      <c r="B742" s="100"/>
+      <c r="B742" s="74"/>
     </row>
     <row r="743" spans="2:2" ht="12.75">
-      <c r="B743" s="100"/>
+      <c r="B743" s="74"/>
     </row>
     <row r="744" spans="2:2" ht="12.75">
-      <c r="B744" s="100"/>
+      <c r="B744" s="74"/>
     </row>
     <row r="745" spans="2:2" ht="12.75">
-      <c r="B745" s="100"/>
+      <c r="B745" s="74"/>
     </row>
     <row r="746" spans="2:2" ht="12.75">
-      <c r="B746" s="100"/>
+      <c r="B746" s="74"/>
     </row>
     <row r="747" spans="2:2" ht="12.75">
-      <c r="B747" s="100"/>
+      <c r="B747" s="74"/>
     </row>
     <row r="748" spans="2:2" ht="12.75">
-      <c r="B748" s="100"/>
+      <c r="B748" s="74"/>
     </row>
     <row r="749" spans="2:2" ht="12.75">
-      <c r="B749" s="100"/>
+      <c r="B749" s="74"/>
     </row>
     <row r="750" spans="2:2" ht="12.75">
-      <c r="B750" s="100"/>
+      <c r="B750" s="74"/>
     </row>
     <row r="751" spans="2:2" ht="12.75">
-      <c r="B751" s="100"/>
+      <c r="B751" s="74"/>
     </row>
     <row r="752" spans="2:2" ht="12.75">
-      <c r="B752" s="100"/>
+      <c r="B752" s="74"/>
     </row>
     <row r="753" spans="2:2" ht="12.75">
-      <c r="B753" s="100"/>
+      <c r="B753" s="74"/>
     </row>
     <row r="754" spans="2:2" ht="12.75">
-      <c r="B754" s="100"/>
+      <c r="B754" s="74"/>
     </row>
     <row r="755" spans="2:2" ht="12.75">
-      <c r="B755" s="100"/>
+      <c r="B755" s="74"/>
     </row>
     <row r="756" spans="2:2" ht="12.75">
-      <c r="B756" s="100"/>
+      <c r="B756" s="74"/>
     </row>
     <row r="757" spans="2:2" ht="12.75">
-      <c r="B757" s="100"/>
+      <c r="B757" s="74"/>
     </row>
     <row r="758" spans="2:2" ht="12.75">
-      <c r="B758" s="100"/>
+      <c r="B758" s="74"/>
     </row>
     <row r="759" spans="2:2" ht="12.75">
-      <c r="B759" s="100"/>
+      <c r="B759" s="74"/>
     </row>
     <row r="760" spans="2:2" ht="12.75">
-      <c r="B760" s="100"/>
+      <c r="B760" s="74"/>
     </row>
     <row r="761" spans="2:2" ht="12.75">
-      <c r="B761" s="100"/>
+      <c r="B761" s="74"/>
     </row>
     <row r="762" spans="2:2" ht="12.75">
-      <c r="B762" s="100"/>
+      <c r="B762" s="74"/>
     </row>
     <row r="763" spans="2:2" ht="12.75">
-      <c r="B763" s="100"/>
+      <c r="B763" s="74"/>
     </row>
     <row r="764" spans="2:2" ht="12.75">
-      <c r="B764" s="100"/>
+      <c r="B764" s="74"/>
     </row>
     <row r="765" spans="2:2" ht="12.75">
-      <c r="B765" s="100"/>
+      <c r="B765" s="74"/>
     </row>
     <row r="766" spans="2:2" ht="12.75">
-      <c r="B766" s="100"/>
+      <c r="B766" s="74"/>
     </row>
     <row r="767" spans="2:2" ht="12.75">
-      <c r="B767" s="100"/>
+      <c r="B767" s="74"/>
     </row>
     <row r="768" spans="2:2" ht="12.75">
-      <c r="B768" s="100"/>
+      <c r="B768" s="74"/>
     </row>
     <row r="769" spans="2:2" ht="12.75">
-      <c r="B769" s="100"/>
+      <c r="B769" s="74"/>
     </row>
     <row r="770" spans="2:2" ht="12.75">
-      <c r="B770" s="100"/>
+      <c r="B770" s="74"/>
     </row>
     <row r="771" spans="2:2" ht="12.75">
-      <c r="B771" s="100"/>
+      <c r="B771" s="74"/>
     </row>
     <row r="772" spans="2:2" ht="12.75">
-      <c r="B772" s="100"/>
+      <c r="B772" s="74"/>
     </row>
     <row r="773" spans="2:2" ht="12.75">
-      <c r="B773" s="100"/>
+      <c r="B773" s="74"/>
     </row>
     <row r="774" spans="2:2" ht="12.75">
-      <c r="B774" s="100"/>
+      <c r="B774" s="74"/>
     </row>
     <row r="775" spans="2:2" ht="12.75">
-      <c r="B775" s="100"/>
+      <c r="B775" s="74"/>
     </row>
     <row r="776" spans="2:2" ht="12.75">
-      <c r="B776" s="100"/>
+      <c r="B776" s="74"/>
     </row>
     <row r="777" spans="2:2" ht="12.75">
-      <c r="B777" s="100"/>
+      <c r="B777" s="74"/>
     </row>
     <row r="778" spans="2:2" ht="12.75">
-      <c r="B778" s="100"/>
+      <c r="B778" s="74"/>
     </row>
     <row r="779" spans="2:2" ht="12.75">
-      <c r="B779" s="100"/>
+      <c r="B779" s="74"/>
     </row>
     <row r="780" spans="2:2" ht="12.75">
-      <c r="B780" s="100"/>
+      <c r="B780" s="74"/>
     </row>
     <row r="781" spans="2:2" ht="12.75">
-      <c r="B781" s="100"/>
+      <c r="B781" s="74"/>
     </row>
     <row r="782" spans="2:2" ht="12.75">
-      <c r="B782" s="100"/>
+      <c r="B782" s="74"/>
     </row>
     <row r="783" spans="2:2" ht="12.75">
-      <c r="B783" s="100"/>
+      <c r="B783" s="74"/>
     </row>
     <row r="784" spans="2:2" ht="12.75">
-      <c r="B784" s="100"/>
+      <c r="B784" s="74"/>
     </row>
     <row r="785" spans="2:2" ht="12.75">
-      <c r="B785" s="100"/>
+      <c r="B785" s="74"/>
     </row>
     <row r="786" spans="2:2" ht="12.75">
-      <c r="B786" s="100"/>
+      <c r="B786" s="74"/>
     </row>
     <row r="787" spans="2:2" ht="12.75">
-      <c r="B787" s="100"/>
+      <c r="B787" s="74"/>
     </row>
     <row r="788" spans="2:2" ht="12.75">
-      <c r="B788" s="100"/>
+      <c r="B788" s="74"/>
     </row>
     <row r="789" spans="2:2" ht="12.75">
-      <c r="B789" s="100"/>
+      <c r="B789" s="74"/>
     </row>
     <row r="790" spans="2:2" ht="12.75">
-      <c r="B790" s="100"/>
+      <c r="B790" s="74"/>
     </row>
     <row r="791" spans="2:2" ht="12.75">
-      <c r="B791" s="100"/>
+      <c r="B791" s="74"/>
     </row>
     <row r="792" spans="2:2" ht="12.75">
-      <c r="B792" s="100"/>
+      <c r="B792" s="74"/>
     </row>
     <row r="793" spans="2:2" ht="12.75">
-      <c r="B793" s="100"/>
+      <c r="B793" s="74"/>
     </row>
     <row r="794" spans="2:2" ht="12.75">
-      <c r="B794" s="100"/>
+      <c r="B794" s="74"/>
     </row>
     <row r="795" spans="2:2" ht="12.75">
-      <c r="B795" s="100"/>
+      <c r="B795" s="74"/>
     </row>
     <row r="796" spans="2:2" ht="12.75">
-      <c r="B796" s="100"/>
+      <c r="B796" s="74"/>
     </row>
     <row r="797" spans="2:2" ht="12.75">
-      <c r="B797" s="100"/>
+      <c r="B797" s="74"/>
     </row>
     <row r="798" spans="2:2" ht="12.75">
-      <c r="B798" s="100"/>
+      <c r="B798" s="74"/>
     </row>
     <row r="799" spans="2:2" ht="12.75">
-      <c r="B799" s="100"/>
+      <c r="B799" s="74"/>
     </row>
     <row r="800" spans="2:2" ht="12.75">
-      <c r="B800" s="100"/>
+      <c r="B800" s="74"/>
     </row>
     <row r="801" spans="2:2" ht="12.75">
-      <c r="B801" s="100"/>
+      <c r="B801" s="74"/>
     </row>
     <row r="802" spans="2:2" ht="12.75">
-      <c r="B802" s="100"/>
+      <c r="B802" s="74"/>
     </row>
     <row r="803" spans="2:2" ht="12.75">
-      <c r="B803" s="100"/>
+      <c r="B803" s="74"/>
     </row>
     <row r="804" spans="2:2" ht="12.75">
-      <c r="B804" s="100"/>
+      <c r="B804" s="74"/>
     </row>
     <row r="805" spans="2:2" ht="12.75">
-      <c r="B805" s="100"/>
+      <c r="B805" s="74"/>
     </row>
     <row r="806" spans="2:2" ht="12.75">
-      <c r="B806" s="100"/>
+      <c r="B806" s="74"/>
     </row>
     <row r="807" spans="2:2" ht="12.75">
-      <c r="B807" s="100"/>
+      <c r="B807" s="74"/>
     </row>
     <row r="808" spans="2:2" ht="12.75">
-      <c r="B808" s="100"/>
+      <c r="B808" s="74"/>
     </row>
     <row r="809" spans="2:2" ht="12.75">
-      <c r="B809" s="100"/>
+      <c r="B809" s="74"/>
     </row>
     <row r="810" spans="2:2" ht="12.75">
-      <c r="B810" s="100"/>
+      <c r="B810" s="74"/>
     </row>
     <row r="811" spans="2:2" ht="12.75">
-      <c r="B811" s="100"/>
+      <c r="B811" s="74"/>
     </row>
     <row r="812" spans="2:2" ht="12.75">
-      <c r="B812" s="100"/>
+      <c r="B812" s="74"/>
     </row>
     <row r="813" spans="2:2" ht="12.75">
-      <c r="B813" s="100"/>
+      <c r="B813" s="74"/>
     </row>
     <row r="814" spans="2:2" ht="12.75">
-      <c r="B814" s="100"/>
+      <c r="B814" s="74"/>
     </row>
     <row r="815" spans="2:2" ht="12.75">
-      <c r="B815" s="100"/>
+      <c r="B815" s="74"/>
     </row>
     <row r="816" spans="2:2" ht="12.75">
-      <c r="B816" s="100"/>
+      <c r="B816" s="74"/>
     </row>
     <row r="817" spans="2:2" ht="12.75">
-      <c r="B817" s="100"/>
+      <c r="B817" s="74"/>
     </row>
     <row r="818" spans="2:2" ht="12.75">
-      <c r="B818" s="100"/>
+      <c r="B818" s="74"/>
     </row>
     <row r="819" spans="2:2" ht="12.75">
-      <c r="B819" s="100"/>
+      <c r="B819" s="74"/>
     </row>
     <row r="820" spans="2:2" ht="12.75">
-      <c r="B820" s="100"/>
+      <c r="B820" s="74"/>
     </row>
     <row r="821" spans="2:2" ht="12.75">
-      <c r="B821" s="100"/>
+      <c r="B821" s="74"/>
     </row>
     <row r="822" spans="2:2" ht="12.75">
-      <c r="B822" s="100"/>
+      <c r="B822" s="74"/>
     </row>
     <row r="823" spans="2:2" ht="12.75">
-      <c r="B823" s="100"/>
+      <c r="B823" s="74"/>
     </row>
     <row r="824" spans="2:2" ht="12.75">
-      <c r="B824" s="100"/>
+      <c r="B824" s="74"/>
     </row>
     <row r="825" spans="2:2" ht="12.75">
-      <c r="B825" s="100"/>
+      <c r="B825" s="74"/>
     </row>
     <row r="826" spans="2:2" ht="12.75">
-      <c r="B826" s="100"/>
+      <c r="B826" s="74"/>
     </row>
     <row r="827" spans="2:2" ht="12.75">
-      <c r="B827" s="100"/>
+      <c r="B827" s="74"/>
     </row>
     <row r="828" spans="2:2" ht="12.75">
-      <c r="B828" s="100"/>
+      <c r="B828" s="74"/>
     </row>
     <row r="829" spans="2:2" ht="12.75">
-      <c r="B829" s="100"/>
+      <c r="B829" s="74"/>
     </row>
     <row r="830" spans="2:2" ht="12.75">
-      <c r="B830" s="100"/>
+      <c r="B830" s="74"/>
     </row>
     <row r="831" spans="2:2" ht="12.75">
-      <c r="B831" s="100"/>
+      <c r="B831" s="74"/>
     </row>
     <row r="832" spans="2:2" ht="12.75">
-      <c r="B832" s="100"/>
+      <c r="B832" s="74"/>
     </row>
     <row r="833" spans="2:2" ht="12.75">
-      <c r="B833" s="100"/>
+      <c r="B833" s="74"/>
     </row>
     <row r="834" spans="2:2" ht="12.75">
-      <c r="B834" s="100"/>
+      <c r="B834" s="74"/>
     </row>
     <row r="835" spans="2:2" ht="12.75">
-      <c r="B835" s="100"/>
+      <c r="B835" s="74"/>
     </row>
     <row r="836" spans="2:2" ht="12.75">
-      <c r="B836" s="100"/>
+      <c r="B836" s="74"/>
     </row>
     <row r="837" spans="2:2" ht="12.75">
-      <c r="B837" s="100"/>
+      <c r="B837" s="74"/>
     </row>
     <row r="838" spans="2:2" ht="12.75">
-      <c r="B838" s="100"/>
+      <c r="B838" s="74"/>
     </row>
     <row r="839" spans="2:2" ht="12.75">
-      <c r="B839" s="100"/>
+      <c r="B839" s="74"/>
     </row>
     <row r="840" spans="2:2" ht="12.75">
-      <c r="B840" s="100"/>
+      <c r="B840" s="74"/>
     </row>
     <row r="841" spans="2:2" ht="12.75">
-      <c r="B841" s="100"/>
+      <c r="B841" s="74"/>
     </row>
     <row r="842" spans="2:2" ht="12.75">
-      <c r="B842" s="100"/>
+      <c r="B842" s="74"/>
     </row>
     <row r="843" spans="2:2" ht="12.75">
-      <c r="B843" s="100"/>
+      <c r="B843" s="74"/>
     </row>
     <row r="844" spans="2:2" ht="12.75">
-      <c r="B844" s="100"/>
+      <c r="B844" s="74"/>
     </row>
     <row r="845" spans="2:2" ht="12.75">
-      <c r="B845" s="100"/>
+      <c r="B845" s="74"/>
     </row>
     <row r="846" spans="2:2" ht="12.75">
-      <c r="B846" s="100"/>
+      <c r="B846" s="74"/>
     </row>
     <row r="847" spans="2:2" ht="12.75">
-      <c r="B847" s="100"/>
+      <c r="B847" s="74"/>
     </row>
     <row r="848" spans="2:2" ht="12.75">
-      <c r="B848" s="100"/>
+      <c r="B848" s="74"/>
     </row>
     <row r="849" spans="2:2" ht="12.75">
-      <c r="B849" s="100"/>
+      <c r="B849" s="74"/>
     </row>
     <row r="850" spans="2:2" ht="12.75">
-      <c r="B850" s="100"/>
+      <c r="B850" s="74"/>
     </row>
     <row r="851" spans="2:2" ht="12.75">
-      <c r="B851" s="100"/>
+      <c r="B851" s="74"/>
     </row>
     <row r="852" spans="2:2" ht="12.75">
-      <c r="B852" s="100"/>
+      <c r="B852" s="74"/>
     </row>
     <row r="853" spans="2:2" ht="12.75">
-      <c r="B853" s="100"/>
+      <c r="B853" s="74"/>
     </row>
     <row r="854" spans="2:2" ht="12.75">
-      <c r="B854" s="100"/>
+      <c r="B854" s="74"/>
     </row>
     <row r="855" spans="2:2" ht="12.75">
-      <c r="B855" s="100"/>
+      <c r="B855" s="74"/>
     </row>
     <row r="856" spans="2:2" ht="12.75">
-      <c r="B856" s="100"/>
+      <c r="B856" s="74"/>
     </row>
     <row r="857" spans="2:2" ht="12.75">
-      <c r="B857" s="100"/>
+      <c r="B857" s="74"/>
     </row>
     <row r="858" spans="2:2" ht="12.75">
-      <c r="B858" s="100"/>
+      <c r="B858" s="74"/>
     </row>
     <row r="859" spans="2:2" ht="12.75">
-      <c r="B859" s="100"/>
+      <c r="B859" s="74"/>
     </row>
     <row r="860" spans="2:2" ht="12.75">
-      <c r="B860" s="100"/>
+      <c r="B860" s="74"/>
     </row>
     <row r="861" spans="2:2" ht="12.75">
-      <c r="B861" s="100"/>
+      <c r="B861" s="74"/>
     </row>
     <row r="862" spans="2:2" ht="12.75">
-      <c r="B862" s="100"/>
+      <c r="B862" s="74"/>
     </row>
     <row r="863" spans="2:2" ht="12.75">
-      <c r="B863" s="100"/>
+      <c r="B863" s="74"/>
     </row>
     <row r="864" spans="2:2" ht="12.75">
-      <c r="B864" s="100"/>
+      <c r="B864" s="74"/>
     </row>
     <row r="865" spans="2:2" ht="12.75">
-      <c r="B865" s="100"/>
+      <c r="B865" s="74"/>
     </row>
     <row r="866" spans="2:2" ht="12.75">
-      <c r="B866" s="100"/>
+      <c r="B866" s="74"/>
     </row>
     <row r="867" spans="2:2" ht="12.75">
-      <c r="B867" s="100"/>
+      <c r="B867" s="74"/>
     </row>
     <row r="868" spans="2:2" ht="12.75">
-      <c r="B868" s="100"/>
+      <c r="B868" s="74"/>
     </row>
     <row r="869" spans="2:2" ht="12.75">
-      <c r="B869" s="100"/>
+      <c r="B869" s="74"/>
     </row>
     <row r="870" spans="2:2" ht="12.75">
-      <c r="B870" s="100"/>
+      <c r="B870" s="74"/>
     </row>
     <row r="871" spans="2:2" ht="12.75">
-      <c r="B871" s="100"/>
+      <c r="B871" s="74"/>
     </row>
     <row r="872" spans="2:2" ht="12.75">
-      <c r="B872" s="100"/>
+      <c r="B872" s="74"/>
     </row>
     <row r="873" spans="2:2" ht="12.75">
-      <c r="B873" s="100"/>
+      <c r="B873" s="74"/>
     </row>
     <row r="874" spans="2:2" ht="12.75">
-      <c r="B874" s="100"/>
+      <c r="B874" s="74"/>
     </row>
     <row r="875" spans="2:2" ht="12.75">
-      <c r="B875" s="100"/>
+      <c r="B875" s="74"/>
     </row>
     <row r="876" spans="2:2" ht="12.75">
-      <c r="B876" s="100"/>
+      <c r="B876" s="74"/>
     </row>
     <row r="877" spans="2:2" ht="12.75">
-      <c r="B877" s="100"/>
+      <c r="B877" s="74"/>
     </row>
     <row r="878" spans="2:2" ht="12.75">
-      <c r="B878" s="100"/>
+      <c r="B878" s="74"/>
     </row>
     <row r="879" spans="2:2" ht="12.75">
-      <c r="B879" s="100"/>
+      <c r="B879" s="74"/>
     </row>
     <row r="880" spans="2:2" ht="12.75">
-      <c r="B880" s="100"/>
+      <c r="B880" s="74"/>
     </row>
     <row r="881" spans="2:2" ht="12.75">
-      <c r="B881" s="100"/>
+      <c r="B881" s="74"/>
     </row>
     <row r="882" spans="2:2" ht="12.75">
-      <c r="B882" s="100"/>
+      <c r="B882" s="74"/>
     </row>
     <row r="883" spans="2:2" ht="12.75">
-      <c r="B883" s="100"/>
+      <c r="B883" s="74"/>
     </row>
     <row r="884" spans="2:2" ht="12.75">
-      <c r="B884" s="100"/>
+      <c r="B884" s="74"/>
     </row>
     <row r="885" spans="2:2" ht="12.75">
-      <c r="B885" s="100"/>
+      <c r="B885" s="74"/>
     </row>
     <row r="886" spans="2:2" ht="12.75">
-      <c r="B886" s="100"/>
+      <c r="B886" s="74"/>
     </row>
     <row r="887" spans="2:2" ht="12.75">
-      <c r="B887" s="100"/>
+      <c r="B887" s="74"/>
     </row>
     <row r="888" spans="2:2" ht="12.75">
-      <c r="B888" s="100"/>
+      <c r="B888" s="74"/>
     </row>
     <row r="889" spans="2:2" ht="12.75">
-      <c r="B889" s="100"/>
+      <c r="B889" s="74"/>
     </row>
     <row r="890" spans="2:2" ht="12.75">
-      <c r="B890" s="100"/>
+      <c r="B890" s="74"/>
     </row>
     <row r="891" spans="2:2" ht="12.75">
-      <c r="B891" s="100"/>
+      <c r="B891" s="74"/>
     </row>
     <row r="892" spans="2:2" ht="12.75">
-      <c r="B892" s="100"/>
+      <c r="B892" s="74"/>
     </row>
     <row r="893" spans="2:2" ht="12.75">
-      <c r="B893" s="100"/>
+      <c r="B893" s="74"/>
     </row>
     <row r="894" spans="2:2" ht="12.75">
-      <c r="B894" s="100"/>
+      <c r="B894" s="74"/>
     </row>
     <row r="895" spans="2:2" ht="12.75">
-      <c r="B895" s="100"/>
+      <c r="B895" s="74"/>
     </row>
     <row r="896" spans="2:2" ht="12.75">
-      <c r="B896" s="100"/>
+      <c r="B896" s="74"/>
     </row>
     <row r="897" spans="2:2" ht="12.75">
-      <c r="B897" s="100"/>
+      <c r="B897" s="74"/>
     </row>
     <row r="898" spans="2:2" ht="12.75">
-      <c r="B898" s="100"/>
+      <c r="B898" s="74"/>
     </row>
     <row r="899" spans="2:2" ht="12.75">
-      <c r="B899" s="100"/>
+      <c r="B899" s="74"/>
     </row>
     <row r="900" spans="2:2" ht="12.75">
-      <c r="B900" s="100"/>
+      <c r="B900" s="74"/>
     </row>
     <row r="901" spans="2:2" ht="12.75">
-      <c r="B901" s="100"/>
+      <c r="B901" s="74"/>
     </row>
     <row r="902" spans="2:2" ht="12.75">
-      <c r="B902" s="100"/>
+      <c r="B902" s="74"/>
     </row>
     <row r="903" spans="2:2" ht="12.75">
-      <c r="B903" s="100"/>
+      <c r="B903" s="74"/>
     </row>
     <row r="904" spans="2:2" ht="12.75">
-      <c r="B904" s="100"/>
+      <c r="B904" s="74"/>
     </row>
     <row r="905" spans="2:2" ht="12.75">
-      <c r="B905" s="100"/>
+      <c r="B905" s="74"/>
     </row>
     <row r="906" spans="2:2" ht="12.75">
-      <c r="B906" s="100"/>
+      <c r="B906" s="74"/>
     </row>
     <row r="907" spans="2:2" ht="12.75">
-      <c r="B907" s="100"/>
+      <c r="B907" s="74"/>
     </row>
     <row r="908" spans="2:2" ht="12.75">
-      <c r="B908" s="100"/>
+      <c r="B908" s="74"/>
     </row>
     <row r="909" spans="2:2" ht="12.75">
-      <c r="B909" s="100"/>
+      <c r="B909" s="74"/>
     </row>
     <row r="910" spans="2:2" ht="12.75">
-      <c r="B910" s="100"/>
+      <c r="B910" s="74"/>
     </row>
     <row r="911" spans="2:2" ht="12.75">
-      <c r="B911" s="100"/>
+      <c r="B911" s="74"/>
     </row>
     <row r="912" spans="2:2" ht="12.75">
-      <c r="B912" s="100"/>
+      <c r="B912" s="74"/>
     </row>
     <row r="913" spans="2:2" ht="12.75">
-      <c r="B913" s="100"/>
+      <c r="B913" s="74"/>
     </row>
     <row r="914" spans="2:2" ht="12.75">
-      <c r="B914" s="100"/>
+      <c r="B914" s="74"/>
     </row>
     <row r="915" spans="2:2" ht="12.75">
-      <c r="B915" s="100"/>
+      <c r="B915" s="74"/>
     </row>
     <row r="916" spans="2:2" ht="12.75">
-      <c r="B916" s="100"/>
+      <c r="B916" s="74"/>
     </row>
     <row r="917" spans="2:2" ht="12.75">
-      <c r="B917" s="100"/>
+      <c r="B917" s="74"/>
     </row>
     <row r="918" spans="2:2" ht="12.75">
-      <c r="B918" s="100"/>
+      <c r="B918" s="74"/>
     </row>
     <row r="919" spans="2:2" ht="12.75">
-      <c r="B919" s="100"/>
+      <c r="B919" s="74"/>
     </row>
     <row r="920" spans="2:2" ht="12.75">
-      <c r="B920" s="100"/>
+      <c r="B920" s="74"/>
     </row>
     <row r="921" spans="2:2" ht="12.75">
-      <c r="B921" s="100"/>
+      <c r="B921" s="74"/>
     </row>
     <row r="922" spans="2:2" ht="12.75">
-      <c r="B922" s="100"/>
+      <c r="B922" s="74"/>
     </row>
     <row r="923" spans="2:2" ht="12.75">
-      <c r="B923" s="100"/>
+      <c r="B923" s="74"/>
     </row>
     <row r="924" spans="2:2" ht="12.75">
-      <c r="B924" s="100"/>
+      <c r="B924" s="74"/>
     </row>
     <row r="925" spans="2:2" ht="12.75">
-      <c r="B925" s="100"/>
+      <c r="B925" s="74"/>
     </row>
     <row r="926" spans="2:2" ht="12.75">
-      <c r="B926" s="100"/>
+      <c r="B926" s="74"/>
     </row>
     <row r="927" spans="2:2" ht="12.75">
-      <c r="B927" s="100"/>
+      <c r="B927" s="74"/>
     </row>
     <row r="928" spans="2:2" ht="12.75">
-      <c r="B928" s="100"/>
+      <c r="B928" s="74"/>
     </row>
     <row r="929" spans="2:2" ht="12.75">
-      <c r="B929" s="100"/>
+      <c r="B929" s="74"/>
     </row>
     <row r="930" spans="2:2" ht="12.75">
-      <c r="B930" s="100"/>
+      <c r="B930" s="74"/>
     </row>
     <row r="931" spans="2:2" ht="12.75">
-      <c r="B931" s="100"/>
+      <c r="B931" s="74"/>
     </row>
     <row r="932" spans="2:2" ht="12.75">
-      <c r="B932" s="100"/>
+      <c r="B932" s="74"/>
     </row>
     <row r="933" spans="2:2" ht="12.75">
-      <c r="B933" s="100"/>
+      <c r="B933" s="74"/>
     </row>
     <row r="934" spans="2:2" ht="12.75">
-      <c r="B934" s="100"/>
+      <c r="B934" s="74"/>
     </row>
     <row r="935" spans="2:2" ht="12.75">
-      <c r="B935" s="100"/>
+      <c r="B935" s="74"/>
     </row>
     <row r="936" spans="2:2" ht="12.75">
-      <c r="B936" s="100"/>
+      <c r="B936" s="74"/>
     </row>
     <row r="937" spans="2:2" ht="12.75">
-      <c r="B937" s="100"/>
+      <c r="B937" s="74"/>
     </row>
     <row r="938" spans="2:2" ht="12.75">
-      <c r="B938" s="100"/>
+      <c r="B938" s="74"/>
     </row>
     <row r="939" spans="2:2" ht="12.75">
-      <c r="B939" s="100"/>
+      <c r="B939" s="74"/>
     </row>
     <row r="940" spans="2:2" ht="12.75">
-      <c r="B940" s="100"/>
+      <c r="B940" s="74"/>
     </row>
     <row r="941" spans="2:2" ht="12.75">
-      <c r="B941" s="100"/>
+      <c r="B941" s="74"/>
     </row>
     <row r="942" spans="2:2" ht="12.75">
-      <c r="B942" s="100"/>
+      <c r="B942" s="74"/>
     </row>
     <row r="943" spans="2:2" ht="12.75">
-      <c r="B943" s="100"/>
+      <c r="B943" s="74"/>
     </row>
     <row r="944" spans="2:2" ht="12.75">
-      <c r="B944" s="100"/>
+      <c r="B944" s="74"/>
     </row>
     <row r="945" spans="2:2" ht="12.75">
-      <c r="B945" s="100"/>
+      <c r="B945" s="74"/>
     </row>
     <row r="946" spans="2:2" ht="12.75">
-      <c r="B946" s="100"/>
+      <c r="B946" s="74"/>
     </row>
     <row r="947" spans="2:2" ht="12.75">
-      <c r="B947" s="100"/>
+      <c r="B947" s="74"/>
     </row>
     <row r="948" spans="2:2" ht="12.75">
-      <c r="B948" s="100"/>
+      <c r="B948" s="74"/>
     </row>
     <row r="949" spans="2:2" ht="12.75">
-      <c r="B949" s="100"/>
+      <c r="B949" s="74"/>
     </row>
     <row r="950" spans="2:2" ht="12.75">
-      <c r="B950" s="100"/>
+      <c r="B950" s="74"/>
     </row>
     <row r="951" spans="2:2" ht="12.75">
-      <c r="B951" s="100"/>
+      <c r="B951" s="74"/>
     </row>
     <row r="952" spans="2:2" ht="12.75">
-      <c r="B952" s="100"/>
+      <c r="B952" s="74"/>
     </row>
     <row r="953" spans="2:2" ht="12.75">
-      <c r="B953" s="100"/>
+      <c r="B953" s="74"/>
     </row>
     <row r="954" spans="2:2" ht="12.75">
-      <c r="B954" s="100"/>
+      <c r="B954" s="74"/>
     </row>
     <row r="955" spans="2:2" ht="12.75">
-      <c r="B955" s="100"/>
+      <c r="B955" s="74"/>
     </row>
     <row r="956" spans="2:2" ht="12.75">
-      <c r="B956" s="100"/>
+      <c r="B956" s="74"/>
     </row>
     <row r="957" spans="2:2" ht="12.75">
-      <c r="B957" s="100"/>
+      <c r="B957" s="74"/>
     </row>
     <row r="958" spans="2:2" ht="12.75">
-      <c r="B958" s="100"/>
+      <c r="B958" s="74"/>
     </row>
     <row r="959" spans="2:2" ht="12.75">
-      <c r="B959" s="100"/>
+      <c r="B959" s="74"/>
     </row>
     <row r="960" spans="2:2" ht="12.75">
-      <c r="B960" s="100"/>
+      <c r="B960" s="74"/>
     </row>
     <row r="961" spans="2:2" ht="12.75">
-      <c r="B961" s="100"/>
+      <c r="B961" s="74"/>
     </row>
     <row r="962" spans="2:2" ht="12.75">
-      <c r="B962" s="100"/>
+      <c r="B962" s="74"/>
     </row>
     <row r="963" spans="2:2" ht="12.75">
-      <c r="B963" s="100"/>
+      <c r="B963" s="74"/>
     </row>
     <row r="964" spans="2:2" ht="12.75">
-      <c r="B964" s="100"/>
+      <c r="B964" s="74"/>
     </row>
     <row r="965" spans="2:2" ht="12.75">
-      <c r="B965" s="100"/>
+      <c r="B965" s="74"/>
     </row>
     <row r="966" spans="2:2" ht="12.75">
-      <c r="B966" s="100"/>
+      <c r="B966" s="74"/>
     </row>
     <row r="967" spans="2:2" ht="12.75">
-      <c r="B967" s="100"/>
+      <c r="B967" s="74"/>
     </row>
     <row r="968" spans="2:2" ht="12.75">
-      <c r="B968" s="100"/>
+      <c r="B968" s="74"/>
     </row>
     <row r="969" spans="2:2" ht="12.75">
-      <c r="B969" s="100"/>
+      <c r="B969" s="74"/>
     </row>
     <row r="970" spans="2:2" ht="12.75">
-      <c r="B970" s="100"/>
+      <c r="B970" s="74"/>
     </row>
     <row r="971" spans="2:2" ht="12.75">
-      <c r="B971" s="100"/>
+      <c r="B971" s="74"/>
     </row>
     <row r="972" spans="2:2" ht="12.75">
-      <c r="B972" s="100"/>
+      <c r="B972" s="74"/>
     </row>
     <row r="973" spans="2:2" ht="12.75">
-      <c r="B973" s="100"/>
+      <c r="B973" s="74"/>
     </row>
     <row r="974" spans="2:2" ht="12.75">
-      <c r="B974" s="100"/>
+      <c r="B974" s="74"/>
     </row>
     <row r="975" spans="2:2" ht="12.75">
-      <c r="B975" s="100"/>
+      <c r="B975" s="74"/>
     </row>
     <row r="976" spans="2:2" ht="12.75">
-      <c r="B976" s="100"/>
+      <c r="B976" s="74"/>
     </row>
     <row r="977" spans="2:2" ht="12.75">
-      <c r="B977" s="100"/>
+      <c r="B977" s="74"/>
     </row>
     <row r="978" spans="2:2" ht="12.75">
-      <c r="B978" s="100"/>
+      <c r="B978" s="74"/>
     </row>
     <row r="979" spans="2:2" ht="12.75">
-      <c r="B979" s="100"/>
+      <c r="B979" s="74"/>
     </row>
     <row r="980" spans="2:2" ht="12.75">
-      <c r="B980" s="100"/>
+      <c r="B980" s="74"/>
     </row>
     <row r="981" spans="2:2" ht="12.75">
-      <c r="B981" s="100"/>
+      <c r="B981" s="74"/>
     </row>
     <row r="982" spans="2:2" ht="12.75">
-      <c r="B982" s="100"/>
+      <c r="B982" s="74"/>
     </row>
     <row r="983" spans="2:2" ht="12.75">
-      <c r="B983" s="100"/>
+      <c r="B983" s="74"/>
     </row>
     <row r="984" spans="2:2" ht="12.75">
-      <c r="B984" s="100"/>
+      <c r="B984" s="74"/>
     </row>
     <row r="985" spans="2:2" ht="12.75">
-      <c r="B985" s="100"/>
+      <c r="B985" s="74"/>
     </row>
     <row r="986" spans="2:2" ht="12.75">
-      <c r="B986" s="100"/>
+      <c r="B986" s="74"/>
     </row>
     <row r="987" spans="2:2" ht="12.75">
-      <c r="B987" s="100"/>
+      <c r="B987" s="74"/>
     </row>
     <row r="988" spans="2:2" ht="12.75">
-      <c r="B988" s="100"/>
+      <c r="B988" s="74"/>
     </row>
     <row r="989" spans="2:2" ht="12.75">
-      <c r="B989" s="100"/>
+      <c r="B989" s="74"/>
     </row>
     <row r="990" spans="2:2" ht="12.75">
-      <c r="B990" s="100"/>
+      <c r="B990" s="74"/>
     </row>
     <row r="991" spans="2:2" ht="12.75">
-      <c r="B991" s="100"/>
+      <c r="B991" s="74"/>
     </row>
     <row r="992" spans="2:2" ht="12.75">
-      <c r="B992" s="100"/>
+      <c r="B992" s="74"/>
     </row>
     <row r="993" spans="2:2" ht="12.75">
-      <c r="B993" s="100"/>
+      <c r="B993" s="74"/>
     </row>
     <row r="994" spans="2:2" ht="12.75">
-      <c r="B994" s="100"/>
+      <c r="B994" s="74"/>
     </row>
     <row r="995" spans="2:2" ht="12.75">
-      <c r="B995" s="100"/>
+      <c r="B995" s="74"/>
     </row>
     <row r="996" spans="2:2" ht="12.75">
-      <c r="B996" s="100"/>
+      <c r="B996" s="74"/>
     </row>
     <row r="997" spans="2:2" ht="12.75">
-      <c r="B997" s="100"/>
+      <c r="B997" s="74"/>
     </row>
     <row r="998" spans="2:2" ht="12.75">
-      <c r="B998" s="100"/>
+      <c r="B998" s="74"/>
     </row>
     <row r="999" spans="2:2" ht="12.75">
-      <c r="B999" s="100"/>
+      <c r="B999" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4375,8 +4382,8 @@
   </sheetPr>
   <dimension ref="A1:AC1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4389,26 +4396,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="15">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="106"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
@@ -4503,28 +4510,28 @@
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:29" ht="15">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="4"/>
@@ -4533,24 +4540,24 @@
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:29" ht="15">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="59">
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="52">
         <f>SUM(D9:D16)</f>
         <v>56</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59">
+      <c r="E8" s="52"/>
+      <c r="F8" s="52">
         <f>SUM(F9:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="61">
+        <v>6</v>
+      </c>
+      <c r="G8" s="54">
         <v>44284</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="54">
         <v>44290</v>
       </c>
       <c r="I8" s="20"/>
@@ -4576,188 +4583,190 @@
       <c r="AC8" s="21"/>
     </row>
     <row r="9" spans="1:29" ht="15">
-      <c r="A9" s="62"/>
-      <c r="B9" s="78" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="57">
         <v>10</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="66"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="59"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:29" ht="15">
-      <c r="A10" s="64"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="63" t="s">
+      <c r="A10" s="57"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="57">
         <v>3</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="66"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="59"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:29" ht="15">
-      <c r="A11" s="64"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="63" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="57">
         <v>6</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:29" ht="15">
-      <c r="A12" s="64"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="63" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="57">
         <v>6</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66"/>
+      <c r="F12" s="57">
+        <v>6</v>
+      </c>
+      <c r="G12" s="58"/>
+      <c r="H12" s="59"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:29" ht="15">
-      <c r="A13" s="64"/>
-      <c r="B13" s="81" t="s">
+      <c r="A13" s="57"/>
+      <c r="B13" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="57">
         <v>12</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="66"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="59"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:29" ht="15">
-      <c r="A14" s="64"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="63" t="s">
+      <c r="A14" s="57"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="57">
         <v>5</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="64"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="59"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:29" ht="15">
-      <c r="A15" s="64"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="63" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="64">
+      <c r="D15" s="57">
         <v>10</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="64"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="59"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:29" ht="15">
-      <c r="A16" s="64"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="63" t="s">
+      <c r="A16" s="57"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="57">
         <v>4</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="59"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:29" ht="15">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="59">
+      <c r="B17" s="71"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="52">
         <f>SUM(D18:D25)</f>
         <v>63</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59">
+      <c r="E17" s="52"/>
+      <c r="F17" s="52">
         <f>SUM(F18:F25)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="61">
+        <v>10</v>
+      </c>
+      <c r="G17" s="54">
         <v>44291</v>
       </c>
-      <c r="H17" s="67">
+      <c r="H17" s="60">
         <v>44297</v>
       </c>
       <c r="I17" s="20"/>
@@ -4783,188 +4792,190 @@
       <c r="AC17" s="21"/>
     </row>
     <row r="18" spans="1:29" ht="15">
-      <c r="A18" s="64"/>
-      <c r="B18" s="81" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="57">
         <v>6</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="64"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:29" ht="15">
-      <c r="A19" s="64"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="63" t="s">
+      <c r="A19" s="57"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="64">
+      <c r="D19" s="57">
         <v>4</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="64"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:29" ht="15">
-      <c r="A20" s="62"/>
-      <c r="B20" s="78" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="57">
         <v>15</v>
       </c>
-      <c r="E20" s="63" t="s">
+      <c r="E20" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="64"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:29" ht="15">
-      <c r="A21" s="64"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="63" t="s">
+      <c r="A21" s="57"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="64">
+      <c r="D21" s="57">
         <v>5</v>
       </c>
-      <c r="E21" s="63" t="s">
+      <c r="E21" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="64"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:29" ht="15">
-      <c r="A22" s="64"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="69" t="s">
+      <c r="A22" s="57"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="70">
+      <c r="D22" s="63">
         <v>10</v>
       </c>
-      <c r="E22" s="71" t="s">
+      <c r="E22" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="70"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
+      <c r="F22" s="63">
+        <v>10</v>
+      </c>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:29" s="46" customFormat="1" ht="15">
-      <c r="A23" s="64"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="69" t="s">
+      <c r="A23" s="57"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="70">
+      <c r="D23" s="63">
         <v>3</v>
       </c>
-      <c r="E23" s="71" t="s">
+      <c r="E23" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="70"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:29" s="46" customFormat="1" ht="15">
-      <c r="A24" s="64"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="69" t="s">
+      <c r="A24" s="57"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="70">
+      <c r="D24" s="63">
         <v>10</v>
       </c>
-      <c r="E24" s="71" t="s">
+      <c r="E24" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="70"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:29" s="46" customFormat="1" ht="15">
-      <c r="A25" s="64"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="69" t="s">
+      <c r="A25" s="57"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="70">
+      <c r="D25" s="63">
         <v>10</v>
       </c>
-      <c r="E25" s="71" t="s">
+      <c r="E25" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:29" ht="15">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="59">
+      <c r="B26" s="71"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="52">
         <f>SUM(D27:D39)</f>
         <v>79</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59">
+      <c r="E26" s="52"/>
+      <c r="F26" s="52">
         <f>SUM(F27:F39)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="61">
+        <v>17</v>
+      </c>
+      <c r="G26" s="54">
         <v>44298</v>
       </c>
-      <c r="H26" s="61">
+      <c r="H26" s="54">
         <v>44304</v>
       </c>
       <c r="I26" s="20"/>
@@ -4990,292 +5001,296 @@
       <c r="AC26" s="21"/>
     </row>
     <row r="27" spans="1:29" ht="15">
-      <c r="A27" s="64"/>
-      <c r="B27" s="85" t="s">
+      <c r="A27" s="57"/>
+      <c r="B27" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="64">
+      <c r="D27" s="57">
         <v>10</v>
       </c>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="64"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="65"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="58"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:29" ht="15">
-      <c r="A28" s="73"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="63" t="s">
+      <c r="A28" s="66"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="70">
+      <c r="D28" s="63">
         <v>4</v>
       </c>
-      <c r="E28" s="71" t="s">
+      <c r="E28" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="70"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="65"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="58"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:29" ht="15">
-      <c r="A29" s="64"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="63" t="s">
+      <c r="A29" s="57"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="64">
+      <c r="D29" s="57">
         <v>10</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="64"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="65"/>
+      <c r="F29" s="57">
+        <v>10</v>
+      </c>
+      <c r="G29" s="59"/>
+      <c r="H29" s="58"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="1:29" ht="15">
-      <c r="A30" s="74"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="63" t="s">
+      <c r="A30" s="67"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="64">
+      <c r="D30" s="57">
         <v>6</v>
       </c>
-      <c r="E30" s="63" t="s">
+      <c r="E30" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="64"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="65"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="58"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
     <row r="31" spans="1:29" ht="15">
-      <c r="A31" s="74"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="63" t="s">
+      <c r="A31" s="67"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="64">
+      <c r="D31" s="57">
         <v>7</v>
       </c>
-      <c r="E31" s="63" t="s">
+      <c r="E31" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="F31" s="64"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="65"/>
+      <c r="F31" s="57">
+        <v>7</v>
+      </c>
+      <c r="G31" s="59"/>
+      <c r="H31" s="58"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:29" ht="15">
-      <c r="A32" s="64"/>
-      <c r="B32" s="85" t="s">
+      <c r="A32" s="57"/>
+      <c r="B32" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="64">
+      <c r="D32" s="57">
         <v>8</v>
       </c>
-      <c r="E32" s="63" t="s">
+      <c r="E32" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="64"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="65"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="58"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:29" ht="15">
-      <c r="A33" s="64"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="63" t="s">
+      <c r="A33" s="57"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="64">
+      <c r="D33" s="57">
         <v>3</v>
       </c>
-      <c r="E33" s="63" t="s">
+      <c r="E33" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="F33" s="64"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="65"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="58"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:29" s="46" customFormat="1" ht="15">
-      <c r="A34" s="64"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="63" t="s">
+      <c r="A34" s="57"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="64">
+      <c r="D34" s="57">
         <v>8</v>
       </c>
-      <c r="E34" s="63" t="s">
+      <c r="E34" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="F34" s="64"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="65"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="58"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:29" s="46" customFormat="1" ht="15">
-      <c r="A35" s="64"/>
-      <c r="B35" s="85" t="s">
+      <c r="A35" s="57"/>
+      <c r="B35" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="64">
+      <c r="D35" s="57">
         <v>6</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="65"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="58"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:29" s="46" customFormat="1" ht="15">
-      <c r="A36" s="64"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="63" t="s">
+      <c r="A36" s="57"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="64">
+      <c r="D36" s="57">
         <v>3</v>
       </c>
-      <c r="E36" s="63" t="s">
+      <c r="E36" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="F36" s="64"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="65"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="58"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:29" s="46" customFormat="1" ht="15">
-      <c r="A37" s="64"/>
-      <c r="B37" s="81" t="s">
+      <c r="A37" s="57"/>
+      <c r="B37" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="64">
+      <c r="D37" s="57">
         <v>5</v>
       </c>
-      <c r="E37" s="63" t="s">
+      <c r="E37" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="F37" s="64"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="65"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="58"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:29" s="46" customFormat="1" ht="15">
-      <c r="A38" s="64"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="63" t="s">
+      <c r="A38" s="57"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="64">
+      <c r="D38" s="57">
         <v>6</v>
       </c>
-      <c r="E38" s="63" t="s">
+      <c r="E38" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="F38" s="64"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="65"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="58"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
     <row r="39" spans="1:29" s="46" customFormat="1" ht="15">
-      <c r="A39" s="64"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="63" t="s">
+      <c r="A39" s="57"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="64">
+      <c r="D39" s="57">
         <v>3</v>
       </c>
-      <c r="E39" s="63" t="s">
+      <c r="E39" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="64"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="65"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="58"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:29" ht="19.5" customHeight="1">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="59">
+      <c r="B40" s="71"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="52">
         <f>SUM(D41:D48)</f>
         <v>50</v>
       </c>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59">
+      <c r="E40" s="52"/>
+      <c r="F40" s="52">
         <f>SUM(F41:F48)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="61">
+      <c r="G40" s="54">
         <v>44305</v>
       </c>
-      <c r="H40" s="61">
+      <c r="H40" s="54">
         <v>44311</v>
       </c>
       <c r="I40" s="20"/>
@@ -5301,190 +5316,190 @@
       <c r="AC40" s="21"/>
     </row>
     <row r="41" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A41" s="64"/>
-      <c r="B41" s="85" t="s">
+      <c r="A41" s="57"/>
+      <c r="B41" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="64">
+      <c r="D41" s="57">
         <v>7</v>
       </c>
-      <c r="E41" s="63" t="s">
+      <c r="E41" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="64"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
     <row r="42" spans="1:29" ht="15">
-      <c r="A42" s="73"/>
-      <c r="B42" s="87"/>
-      <c r="C42" s="63" t="s">
+      <c r="A42" s="66"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="64">
+      <c r="D42" s="57">
         <v>3</v>
       </c>
-      <c r="E42" s="63" t="s">
+      <c r="E42" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="64"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
     <row r="43" spans="1:29" ht="15">
-      <c r="A43" s="64"/>
-      <c r="B43" s="85" t="s">
+      <c r="A43" s="57"/>
+      <c r="B43" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="64">
+      <c r="D43" s="57">
         <v>6</v>
       </c>
-      <c r="E43" s="63" t="s">
+      <c r="E43" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="F43" s="64"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:29" ht="15">
-      <c r="A44" s="74"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="63" t="s">
+      <c r="A44" s="67"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="D44" s="64">
+      <c r="D44" s="57">
         <v>3</v>
       </c>
-      <c r="E44" s="63" t="s">
+      <c r="E44" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="64"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
     <row r="45" spans="1:29" ht="15">
-      <c r="A45" s="74"/>
-      <c r="B45" s="88" t="s">
+      <c r="A45" s="67"/>
+      <c r="B45" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="63" t="s">
+      <c r="C45" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="64">
+      <c r="D45" s="57">
         <v>10</v>
       </c>
-      <c r="E45" s="63" t="s">
+      <c r="E45" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="64"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
     <row r="46" spans="1:29" s="46" customFormat="1" ht="15">
-      <c r="A46" s="74"/>
-      <c r="B46" s="89"/>
-      <c r="C46" s="63" t="s">
+      <c r="A46" s="67"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="64">
+      <c r="D46" s="57">
         <v>3</v>
       </c>
-      <c r="E46" s="63" t="s">
+      <c r="E46" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="F46" s="64"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:29" s="46" customFormat="1" ht="15">
-      <c r="A47" s="74"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="63" t="s">
+      <c r="A47" s="67"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="D47" s="64">
+      <c r="D47" s="57">
         <v>10</v>
       </c>
-      <c r="E47" s="63" t="s">
+      <c r="E47" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="F47" s="64"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
     <row r="48" spans="1:29" s="46" customFormat="1" ht="15">
-      <c r="A48" s="74"/>
-      <c r="B48" s="90"/>
-      <c r="C48" s="63" t="s">
+      <c r="A48" s="67"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="64">
+      <c r="D48" s="57">
         <v>8</v>
       </c>
-      <c r="E48" s="63" t="s">
+      <c r="E48" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="F48" s="64"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
     <row r="49" spans="1:29" ht="15">
-      <c r="A49" s="59" t="s">
+      <c r="A49" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="84"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="59">
+      <c r="B49" s="71"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="52">
         <f>SUM(D50:D57)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59">
+      <c r="E49" s="52"/>
+      <c r="F49" s="52">
         <f>SUM(F50:F57)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="61">
+      <c r="G49" s="54">
         <v>44312</v>
       </c>
-      <c r="H49" s="61">
+      <c r="H49" s="54">
         <v>44318</v>
       </c>
       <c r="I49" s="20"/>
@@ -5510,141 +5525,141 @@
       <c r="AC49" s="21"/>
     </row>
     <row r="50" spans="1:29" ht="15">
-      <c r="A50" s="64"/>
-      <c r="B50" s="91" t="s">
+      <c r="A50" s="57"/>
+      <c r="B50" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="63" t="s">
+      <c r="C50" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
     <row r="51" spans="1:29" ht="15">
-      <c r="A51" s="64"/>
-      <c r="B51" s="92"/>
-      <c r="C51" s="63" t="s">
+      <c r="A51" s="57"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="66"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
     <row r="52" spans="1:29" ht="15">
-      <c r="A52" s="74"/>
-      <c r="B52" s="93" t="s">
+      <c r="A52" s="67"/>
+      <c r="B52" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="63" t="s">
+      <c r="C52" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="66"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
     <row r="53" spans="1:29" ht="15">
-      <c r="A53" s="74"/>
-      <c r="B53" s="94" t="s">
+      <c r="A53" s="67"/>
+      <c r="B53" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="63" t="s">
+      <c r="C53" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="66"/>
-      <c r="H53" s="66"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
     <row r="54" spans="1:29" ht="15">
-      <c r="A54" s="73"/>
-      <c r="B54" s="95"/>
-      <c r="C54" s="75" t="s">
+      <c r="A54" s="66"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="76"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="69"/>
     </row>
     <row r="55" spans="1:29" ht="15">
-      <c r="A55" s="73"/>
-      <c r="B55" s="96" t="s">
+      <c r="A55" s="66"/>
+      <c r="B55" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="75" t="s">
+      <c r="C55" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="77"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="73"/>
-      <c r="H55" s="76"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="69"/>
       <c r="I55" s="22"/>
     </row>
     <row r="56" spans="1:29" ht="15">
-      <c r="A56" s="73"/>
-      <c r="B56" s="97"/>
-      <c r="C56" s="75" t="s">
+      <c r="A56" s="66"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="77"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="76"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="69"/>
       <c r="I56" s="22"/>
     </row>
     <row r="57" spans="1:29" ht="15">
-      <c r="A57" s="73"/>
-      <c r="B57" s="98"/>
-      <c r="C57" s="75" t="s">
+      <c r="A57" s="66"/>
+      <c r="B57" s="101"/>
+      <c r="C57" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="D57" s="77"/>
-      <c r="E57" s="73"/>
-      <c r="F57" s="73"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="76"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="69"/>
       <c r="I57" s="22"/>
     </row>
     <row r="58" spans="1:29" ht="15">
-      <c r="A58" s="117" t="s">
+      <c r="A58" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="117"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="118">
+      <c r="B58" s="102"/>
+      <c r="C58" s="102"/>
+      <c r="D58" s="91">
         <f>SUM(D8,D17,D26,D40,D49)</f>
         <v>248</v>
       </c>
       <c r="F58" s="46">
         <f>SUM(F8,F17,F26,F40,F49)</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H58" s="22"/>
       <c r="I58" s="22"/>
@@ -5655,60 +5670,60 @@
       <c r="I59" s="22"/>
     </row>
     <row r="60" spans="1:29" ht="15">
-      <c r="C60" s="75" t="s">
+      <c r="C60" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="D60" s="77">
+      <c r="D60" s="70">
         <v>38</v>
       </c>
       <c r="H60" s="22"/>
       <c r="I60" s="22"/>
     </row>
     <row r="61" spans="1:29" ht="15">
-      <c r="C61" s="75" t="s">
+      <c r="C61" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D61" s="77">
+      <c r="D61" s="70">
         <v>33</v>
       </c>
       <c r="H61" s="22"/>
       <c r="I61" s="22"/>
     </row>
     <row r="62" spans="1:29" ht="15">
-      <c r="C62" s="75" t="s">
+      <c r="C62" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="D62" s="77">
+      <c r="D62" s="70">
         <v>40</v>
       </c>
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
     </row>
     <row r="63" spans="1:29" ht="15">
-      <c r="C63" s="75" t="s">
+      <c r="C63" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="D63" s="77">
+      <c r="D63" s="70">
         <v>48</v>
       </c>
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
     </row>
     <row r="64" spans="1:29" ht="15">
-      <c r="C64" s="75" t="s">
+      <c r="C64" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="D64" s="77">
+      <c r="D64" s="70">
         <v>49</v>
       </c>
       <c r="H64" s="22"/>
       <c r="I64" s="22"/>
     </row>
     <row r="65" spans="3:9" ht="15">
-      <c r="C65" s="75" t="s">
+      <c r="C65" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="D65" s="77">
+      <c r="D65" s="70">
         <v>40</v>
       </c>
       <c r="H65" s="22"/>
@@ -10452,23 +10467,23 @@
   </sheetData>
   <autoFilter ref="A7:H58"/>
   <mergeCells count="17">
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B55:B57"/>
     <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10492,20 +10507,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="118"/>
       <c r="C2" s="23"/>
       <c r="D2" s="4"/>
       <c r="E2" s="24" t="s">
@@ -10514,10 +10529,10 @@
       <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="53"/>
+      <c r="B3" s="118"/>
       <c r="C3" s="26"/>
       <c r="D3" s="4"/>
       <c r="E3" s="27" t="s">
@@ -10528,10 +10543,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="53"/>
+      <c r="B4" s="118"/>
       <c r="C4" s="29"/>
       <c r="D4" s="4"/>
       <c r="E4" s="27" t="s">
@@ -11019,7 +11034,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="54"/>
+      <c r="B1" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project estimation.xlsx
+++ b/Project estimation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="135">
   <si>
     <t>STT</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t>Test tài khoản cá nhân</t>
+  </si>
+  <si>
+    <t>Thống kê effort từng thành viên</t>
   </si>
 </sst>
 </file>
@@ -442,21 +445,25 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -467,12 +474,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -754,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -971,6 +980,46 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -986,12 +1035,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1003,39 +1046,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4371,13 +4381,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC1013"/>
+  <dimension ref="A1:AC1014"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4390,26 +4400,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="15">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="106"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
@@ -4533,7 +4543,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:29" ht="15" hidden="1">
+    <row r="8" spans="1:29" ht="15">
       <c r="A8" s="53" t="s">
         <v>18</v>
       </c>
@@ -4546,7 +4556,7 @@
       <c r="E8" s="53"/>
       <c r="F8" s="53">
         <f>SUM(F9:F16)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G8" s="55">
         <v>44284</v>
@@ -4576,9 +4586,9 @@
       <c r="AB8" s="21"/>
       <c r="AC8" s="21"/>
     </row>
-    <row r="9" spans="1:29" ht="15" hidden="1">
+    <row r="9" spans="1:29" ht="15">
       <c r="A9" s="56"/>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="97" t="s">
         <v>87</v>
       </c>
       <c r="C9" s="57" t="s">
@@ -4598,9 +4608,9 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:29" ht="15" hidden="1">
+    <row r="10" spans="1:29" ht="15">
       <c r="A10" s="58"/>
-      <c r="B10" s="108"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="57" t="s">
         <v>26</v>
       </c>
@@ -4610,7 +4620,9 @@
       <c r="E10" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="58"/>
+      <c r="F10" s="58">
+        <v>3</v>
+      </c>
       <c r="G10" s="59"/>
       <c r="H10" s="60"/>
       <c r="I10" s="4"/>
@@ -4618,9 +4630,9 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:29" ht="15" hidden="1">
+    <row r="11" spans="1:29" ht="15">
       <c r="A11" s="58"/>
-      <c r="B11" s="108"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="57" t="s">
         <v>20</v>
       </c>
@@ -4638,9 +4650,9 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="15" hidden="1">
+    <row r="12" spans="1:29" ht="15">
       <c r="A12" s="58"/>
-      <c r="B12" s="109"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="57" t="s">
         <v>21</v>
       </c>
@@ -4660,7 +4672,7 @@
     </row>
     <row r="13" spans="1:29" ht="15">
       <c r="A13" s="58"/>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="101" t="s">
         <v>88</v>
       </c>
       <c r="C13" s="57" t="s">
@@ -4680,9 +4692,9 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:29" ht="15" hidden="1">
+    <row r="14" spans="1:29" ht="15">
       <c r="A14" s="58"/>
-      <c r="B14" s="111"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="57" t="s">
         <v>19</v>
       </c>
@@ -4700,9 +4712,9 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:29" ht="15" hidden="1">
+    <row r="15" spans="1:29" ht="15">
       <c r="A15" s="58"/>
-      <c r="B15" s="111"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="57" t="s">
         <v>89</v>
       </c>
@@ -4720,9 +4732,9 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:29" ht="15" hidden="1">
+    <row r="16" spans="1:29" ht="15">
       <c r="A16" s="58"/>
-      <c r="B16" s="112"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="57" t="s">
         <v>25</v>
       </c>
@@ -4732,7 +4744,9 @@
       <c r="E16" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="58"/>
+      <c r="F16" s="58">
+        <v>3</v>
+      </c>
       <c r="G16" s="59"/>
       <c r="H16" s="60"/>
       <c r="I16" s="4"/>
@@ -4740,7 +4754,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:29" ht="15" hidden="1">
+    <row r="17" spans="1:29" ht="15">
       <c r="A17" s="53" t="s">
         <v>27</v>
       </c>
@@ -4753,7 +4767,7 @@
       <c r="E17" s="53"/>
       <c r="F17" s="53">
         <f>SUM(F18:F25)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G17" s="55">
         <v>44291</v>
@@ -4783,9 +4797,9 @@
       <c r="AB17" s="21"/>
       <c r="AC17" s="21"/>
     </row>
-    <row r="18" spans="1:29" ht="15" hidden="1">
+    <row r="18" spans="1:29" ht="15">
       <c r="A18" s="58"/>
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="101" t="s">
         <v>96</v>
       </c>
       <c r="C18" s="57" t="s">
@@ -4797,7 +4811,9 @@
       <c r="E18" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="58"/>
+      <c r="F18" s="58">
+        <v>5</v>
+      </c>
       <c r="G18" s="62"/>
       <c r="H18" s="62"/>
       <c r="I18" s="4"/>
@@ -4807,7 +4823,7 @@
     </row>
     <row r="19" spans="1:29" ht="15">
       <c r="A19" s="58"/>
-      <c r="B19" s="112"/>
+      <c r="B19" s="103"/>
       <c r="C19" s="57" t="s">
         <v>98</v>
       </c>
@@ -4825,9 +4841,9 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:29" ht="15" hidden="1">
+    <row r="20" spans="1:29" ht="15">
       <c r="A20" s="56"/>
-      <c r="B20" s="107" t="s">
+      <c r="B20" s="97" t="s">
         <v>97</v>
       </c>
       <c r="C20" s="57" t="s">
@@ -4847,9 +4863,9 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:29" ht="15" hidden="1">
+    <row r="21" spans="1:29" ht="15">
       <c r="A21" s="58"/>
-      <c r="B21" s="108"/>
+      <c r="B21" s="98"/>
       <c r="C21" s="57" t="s">
         <v>29</v>
       </c>
@@ -4867,9 +4883,9 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:29" ht="15" hidden="1">
+    <row r="22" spans="1:29" ht="15">
       <c r="A22" s="58"/>
-      <c r="B22" s="108"/>
+      <c r="B22" s="98"/>
       <c r="C22" s="63" t="s">
         <v>30</v>
       </c>
@@ -4887,9 +4903,9 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
+    <row r="23" spans="1:29" s="46" customFormat="1" ht="15">
       <c r="A23" s="58"/>
-      <c r="B23" s="108"/>
+      <c r="B23" s="98"/>
       <c r="C23" s="63" t="s">
         <v>99</v>
       </c>
@@ -4899,7 +4915,9 @@
       <c r="E23" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="64"/>
+      <c r="F23" s="64">
+        <v>3</v>
+      </c>
       <c r="G23" s="62"/>
       <c r="H23" s="62"/>
       <c r="I23" s="5"/>
@@ -4907,9 +4925,9 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
+    <row r="24" spans="1:29" s="46" customFormat="1" ht="15">
       <c r="A24" s="58"/>
-      <c r="B24" s="108"/>
+      <c r="B24" s="98"/>
       <c r="C24" s="63" t="s">
         <v>100</v>
       </c>
@@ -4927,9 +4945,9 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
+    <row r="25" spans="1:29" s="46" customFormat="1" ht="15">
       <c r="A25" s="58"/>
-      <c r="B25" s="109"/>
+      <c r="B25" s="99"/>
       <c r="C25" s="63" t="s">
         <v>101</v>
       </c>
@@ -4947,7 +4965,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:29" ht="15" hidden="1">
+    <row r="26" spans="1:29" ht="15">
       <c r="A26" s="53" t="s">
         <v>32</v>
       </c>
@@ -4960,7 +4978,7 @@
       <c r="E26" s="53"/>
       <c r="F26" s="53">
         <f>SUM(F27:F39)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G26" s="55">
         <v>44298</v>
@@ -4990,9 +5008,9 @@
       <c r="AB26" s="21"/>
       <c r="AC26" s="21"/>
     </row>
-    <row r="27" spans="1:29" ht="15" hidden="1">
+    <row r="27" spans="1:29" ht="15">
       <c r="A27" s="58"/>
-      <c r="B27" s="113" t="s">
+      <c r="B27" s="93" t="s">
         <v>102</v>
       </c>
       <c r="C27" s="57" t="s">
@@ -5012,9 +5030,9 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:29" ht="15" hidden="1">
+    <row r="28" spans="1:29" ht="15">
       <c r="A28" s="67"/>
-      <c r="B28" s="114"/>
+      <c r="B28" s="100"/>
       <c r="C28" s="57" t="s">
         <v>105</v>
       </c>
@@ -5024,7 +5042,9 @@
       <c r="E28" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="64"/>
+      <c r="F28" s="64">
+        <v>4</v>
+      </c>
       <c r="G28" s="60"/>
       <c r="H28" s="59"/>
       <c r="I28" s="4"/>
@@ -5032,9 +5052,9 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:29" ht="15" hidden="1">
+    <row r="29" spans="1:29" ht="15">
       <c r="A29" s="58"/>
-      <c r="B29" s="114"/>
+      <c r="B29" s="100"/>
       <c r="C29" s="57" t="s">
         <v>106</v>
       </c>
@@ -5052,9 +5072,9 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:29" ht="15" hidden="1">
+    <row r="30" spans="1:29" ht="15">
       <c r="A30" s="68"/>
-      <c r="B30" s="114"/>
+      <c r="B30" s="100"/>
       <c r="C30" s="57" t="s">
         <v>107</v>
       </c>
@@ -5064,7 +5084,9 @@
       <c r="E30" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="58"/>
+      <c r="F30" s="58">
+        <v>5</v>
+      </c>
       <c r="G30" s="60"/>
       <c r="H30" s="59"/>
       <c r="I30" s="4"/>
@@ -5072,9 +5094,9 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:29" ht="15" hidden="1">
+    <row r="31" spans="1:29" ht="15">
       <c r="A31" s="68"/>
-      <c r="B31" s="115"/>
+      <c r="B31" s="94"/>
       <c r="C31" s="57" t="s">
         <v>108</v>
       </c>
@@ -5094,7 +5116,7 @@
     </row>
     <row r="32" spans="1:29" ht="15">
       <c r="A32" s="58"/>
-      <c r="B32" s="113" t="s">
+      <c r="B32" s="93" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="57" t="s">
@@ -5114,9 +5136,9 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:29" ht="15" hidden="1">
+    <row r="33" spans="1:29" ht="15">
       <c r="A33" s="58"/>
-      <c r="B33" s="114"/>
+      <c r="B33" s="100"/>
       <c r="C33" s="57" t="s">
         <v>109</v>
       </c>
@@ -5126,7 +5148,9 @@
       <c r="E33" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="F33" s="58"/>
+      <c r="F33" s="58">
+        <v>3</v>
+      </c>
       <c r="G33" s="60"/>
       <c r="H33" s="59"/>
       <c r="I33" s="4"/>
@@ -5134,9 +5158,9 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
+    <row r="34" spans="1:29" s="46" customFormat="1" ht="15">
       <c r="A34" s="58"/>
-      <c r="B34" s="115"/>
+      <c r="B34" s="94"/>
       <c r="C34" s="57" t="s">
         <v>110</v>
       </c>
@@ -5154,9 +5178,9 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
+    <row r="35" spans="1:29" s="46" customFormat="1" ht="15">
       <c r="A35" s="58"/>
-      <c r="B35" s="113" t="s">
+      <c r="B35" s="93" t="s">
         <v>103</v>
       </c>
       <c r="C35" s="57" t="s">
@@ -5178,7 +5202,7 @@
     </row>
     <row r="36" spans="1:29" s="46" customFormat="1" ht="15">
       <c r="A36" s="58"/>
-      <c r="B36" s="115"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="57" t="s">
         <v>37</v>
       </c>
@@ -5196,9 +5220,9 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
+    <row r="37" spans="1:29" s="46" customFormat="1" ht="15">
       <c r="A37" s="58"/>
-      <c r="B37" s="110" t="s">
+      <c r="B37" s="101" t="s">
         <v>104</v>
       </c>
       <c r="C37" s="57" t="s">
@@ -5218,9 +5242,9 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
+    <row r="38" spans="1:29" s="46" customFormat="1" ht="15">
       <c r="A38" s="58"/>
-      <c r="B38" s="111"/>
+      <c r="B38" s="102"/>
       <c r="C38" s="57" t="s">
         <v>112</v>
       </c>
@@ -5238,9 +5262,9 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
+    <row r="39" spans="1:29" s="46" customFormat="1" ht="15">
       <c r="A39" s="58"/>
-      <c r="B39" s="112"/>
+      <c r="B39" s="103"/>
       <c r="C39" s="57" t="s">
         <v>36</v>
       </c>
@@ -5258,7 +5282,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:29" ht="19.5" hidden="1" customHeight="1">
+    <row r="40" spans="1:29" ht="19.5" customHeight="1">
       <c r="A40" s="53" t="s">
         <v>39</v>
       </c>
@@ -5271,7 +5295,7 @@
       <c r="E40" s="53"/>
       <c r="F40" s="53">
         <f>SUM(F41:F48)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G40" s="55">
         <v>44305</v>
@@ -5301,9 +5325,9 @@
       <c r="AB40" s="21"/>
       <c r="AC40" s="21"/>
     </row>
-    <row r="41" spans="1:29" ht="17.25" hidden="1" customHeight="1">
+    <row r="41" spans="1:29" ht="17.25" customHeight="1">
       <c r="A41" s="58"/>
-      <c r="B41" s="113" t="s">
+      <c r="B41" s="93" t="s">
         <v>113</v>
       </c>
       <c r="C41" s="57" t="s">
@@ -5323,9 +5347,9 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:29" ht="15" hidden="1">
+    <row r="42" spans="1:29" ht="15">
       <c r="A42" s="67"/>
-      <c r="B42" s="115"/>
+      <c r="B42" s="94"/>
       <c r="C42" s="57" t="s">
         <v>116</v>
       </c>
@@ -5335,7 +5359,9 @@
       <c r="E42" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="58"/>
+      <c r="F42" s="58">
+        <v>2</v>
+      </c>
       <c r="G42" s="62"/>
       <c r="H42" s="62"/>
       <c r="I42" s="4"/>
@@ -5343,9 +5369,9 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:29" ht="15" hidden="1">
+    <row r="43" spans="1:29" ht="15">
       <c r="A43" s="58"/>
-      <c r="B43" s="113" t="s">
+      <c r="B43" s="93" t="s">
         <v>114</v>
       </c>
       <c r="C43" s="57" t="s">
@@ -5357,7 +5383,9 @@
       <c r="E43" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="F43" s="58"/>
+      <c r="F43" s="58">
+        <v>5</v>
+      </c>
       <c r="G43" s="62"/>
       <c r="H43" s="62"/>
       <c r="I43" s="4"/>
@@ -5367,7 +5395,7 @@
     </row>
     <row r="44" spans="1:29" ht="15">
       <c r="A44" s="68"/>
-      <c r="B44" s="115"/>
+      <c r="B44" s="94"/>
       <c r="C44" s="57" t="s">
         <v>117</v>
       </c>
@@ -5385,9 +5413,9 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:29" ht="15" hidden="1">
+    <row r="45" spans="1:29" ht="15">
       <c r="A45" s="68"/>
-      <c r="B45" s="92" t="s">
+      <c r="B45" s="108" t="s">
         <v>115</v>
       </c>
       <c r="C45" s="57" t="s">
@@ -5409,7 +5437,7 @@
     </row>
     <row r="46" spans="1:29" s="46" customFormat="1" ht="15">
       <c r="A46" s="68"/>
-      <c r="B46" s="93"/>
+      <c r="B46" s="109"/>
       <c r="C46" s="57" t="s">
         <v>118</v>
       </c>
@@ -5427,9 +5455,9 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
+    <row r="47" spans="1:29" s="46" customFormat="1" ht="15">
       <c r="A47" s="68"/>
-      <c r="B47" s="93"/>
+      <c r="B47" s="109"/>
       <c r="C47" s="57" t="s">
         <v>119</v>
       </c>
@@ -5447,9 +5475,9 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
+    <row r="48" spans="1:29" s="46" customFormat="1" ht="15">
       <c r="A48" s="68"/>
-      <c r="B48" s="94"/>
+      <c r="B48" s="110"/>
       <c r="C48" s="57" t="s">
         <v>120</v>
       </c>
@@ -5467,7 +5495,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:29" ht="15" hidden="1">
+    <row r="49" spans="1:29" ht="15">
       <c r="A49" s="53" t="s">
         <v>45</v>
       </c>
@@ -5475,12 +5503,12 @@
       <c r="C49" s="54"/>
       <c r="D49" s="53">
         <f>SUM(D50:D58)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E49" s="53"/>
       <c r="F49" s="53">
         <f>SUM(F50:F58)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G49" s="55">
         <v>44312</v>
@@ -5510,9 +5538,9 @@
       <c r="AB49" s="21"/>
       <c r="AC49" s="21"/>
     </row>
-    <row r="50" spans="1:29" ht="15" hidden="1">
+    <row r="50" spans="1:29" ht="15">
       <c r="A50" s="58"/>
-      <c r="B50" s="95" t="s">
+      <c r="B50" s="111" t="s">
         <v>121</v>
       </c>
       <c r="C50" s="57" t="s">
@@ -5532,9 +5560,9 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:29" ht="15" hidden="1">
+    <row r="51" spans="1:29" ht="15">
       <c r="A51" s="58"/>
-      <c r="B51" s="96"/>
+      <c r="B51" s="112"/>
       <c r="C51" s="57" t="s">
         <v>125</v>
       </c>
@@ -5544,7 +5572,9 @@
       <c r="E51" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="F51" s="58"/>
+      <c r="F51" s="58">
+        <v>8</v>
+      </c>
       <c r="G51" s="60"/>
       <c r="H51" s="60"/>
       <c r="I51" s="4"/>
@@ -5554,7 +5584,7 @@
     </row>
     <row r="52" spans="1:29" ht="15">
       <c r="A52" s="68"/>
-      <c r="B52" s="97" t="s">
+      <c r="B52" s="95" t="s">
         <v>131</v>
       </c>
       <c r="C52" s="57" t="s">
@@ -5574,9 +5604,9 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:29" s="47" customFormat="1" ht="15" hidden="1">
+    <row r="53" spans="1:29" s="47" customFormat="1" ht="15">
       <c r="A53" s="68"/>
-      <c r="B53" s="98"/>
+      <c r="B53" s="96"/>
       <c r="C53" s="57" t="s">
         <v>133</v>
       </c>
@@ -5586,7 +5616,9 @@
       <c r="E53" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="F53" s="58"/>
+      <c r="F53" s="58">
+        <v>3</v>
+      </c>
       <c r="G53" s="60"/>
       <c r="H53" s="60"/>
       <c r="I53" s="5"/>
@@ -5594,9 +5626,9 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:29" ht="15" hidden="1">
+    <row r="54" spans="1:29" ht="15">
       <c r="A54" s="68"/>
-      <c r="B54" s="97" t="s">
+      <c r="B54" s="95" t="s">
         <v>122</v>
       </c>
       <c r="C54" s="57" t="s">
@@ -5618,7 +5650,7 @@
     </row>
     <row r="55" spans="1:29" ht="15">
       <c r="A55" s="67"/>
-      <c r="B55" s="98"/>
+      <c r="B55" s="96"/>
       <c r="C55" s="69" t="s">
         <v>127</v>
       </c>
@@ -5632,16 +5664,16 @@
       <c r="G55" s="70"/>
       <c r="H55" s="70"/>
     </row>
-    <row r="56" spans="1:29" ht="15" hidden="1">
+    <row r="56" spans="1:29" ht="15">
       <c r="A56" s="67"/>
-      <c r="B56" s="99" t="s">
+      <c r="B56" s="113" t="s">
         <v>123</v>
       </c>
       <c r="C56" s="69" t="s">
         <v>47</v>
       </c>
       <c r="D56" s="71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E56" s="67" t="s">
         <v>95</v>
@@ -5651,9 +5683,9 @@
       <c r="H56" s="70"/>
       <c r="I56" s="22"/>
     </row>
-    <row r="57" spans="1:29" ht="15" hidden="1">
+    <row r="57" spans="1:29" ht="15">
       <c r="A57" s="67"/>
-      <c r="B57" s="100"/>
+      <c r="B57" s="114"/>
       <c r="C57" s="69" t="s">
         <v>74</v>
       </c>
@@ -5668,9 +5700,9 @@
       <c r="H57" s="70"/>
       <c r="I57" s="22"/>
     </row>
-    <row r="58" spans="1:29" ht="15" hidden="1">
+    <row r="58" spans="1:29" ht="15">
       <c r="A58" s="67"/>
-      <c r="B58" s="101"/>
+      <c r="B58" s="115"/>
       <c r="C58" s="69" t="s">
         <v>128</v>
       </c>
@@ -5685,19 +5717,19 @@
       <c r="H58" s="70"/>
       <c r="I58" s="22"/>
     </row>
-    <row r="59" spans="1:29" ht="15" hidden="1">
-      <c r="A59" s="102" t="s">
+    <row r="59" spans="1:29" ht="15">
+      <c r="A59" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="102"/>
-      <c r="C59" s="102"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="116"/>
       <c r="D59" s="91">
         <f>SUM(D8,D17,D26,D40,D49)</f>
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F59" s="46">
         <f>SUM(F8,F17,F26,F40,F49)</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
@@ -5707,68 +5739,84 @@
       <c r="H60" s="22"/>
       <c r="I60" s="22"/>
     </row>
-    <row r="61" spans="1:29" ht="15">
-      <c r="C61" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="71">
-        <v>49</v>
+    <row r="61" spans="1:29" s="92" customFormat="1" ht="15">
+      <c r="C61" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="52" t="s">
+        <v>54</v>
       </c>
       <c r="H61" s="22"/>
       <c r="I61" s="22"/>
     </row>
     <row r="62" spans="1:29" ht="15">
       <c r="C62" s="69" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D62" s="71">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="E62" s="67">
+        <v>44</v>
       </c>
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
     </row>
     <row r="63" spans="1:29" ht="15">
       <c r="C63" s="69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D63" s="71">
-        <v>48</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E63" s="67"/>
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
     </row>
     <row r="64" spans="1:29" ht="15">
       <c r="C64" s="69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D64" s="71">
-        <v>53</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E64" s="67"/>
       <c r="H64" s="22"/>
       <c r="I64" s="22"/>
     </row>
     <row r="65" spans="3:9" ht="15">
       <c r="C65" s="69" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D65" s="71">
         <v>54</v>
       </c>
+      <c r="E65" s="67"/>
       <c r="H65" s="22"/>
       <c r="I65" s="22"/>
     </row>
     <row r="66" spans="3:9" ht="15">
       <c r="C66" s="69" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D66" s="71">
-        <v>48</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E66" s="67"/>
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
     </row>
     <row r="67" spans="3:9" ht="15">
-      <c r="D67" s="1"/>
+      <c r="C67" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" s="71">
+        <v>48</v>
+      </c>
+      <c r="E67" s="67"/>
       <c r="H67" s="22"/>
       <c r="I67" s="22"/>
     </row>
@@ -10502,15 +10550,22 @@
       <c r="H1013" s="22"/>
       <c r="I1013" s="22"/>
     </row>
+    <row r="1014" spans="4:9" ht="15">
+      <c r="D1014" s="1"/>
+      <c r="H1014" s="22"/>
+      <c r="I1014" s="22"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A7:H59">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Trinh"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A7:H59"/>
   <mergeCells count="18">
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B52:B53"/>
@@ -10519,16 +10574,8 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="A59:C59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10552,20 +10599,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="118"/>
+      <c r="B2" s="119"/>
       <c r="C2" s="23"/>
       <c r="D2" s="4"/>
       <c r="E2" s="24" t="s">
@@ -10574,10 +10621,10 @@
       <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="118"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="26"/>
       <c r="D3" s="4"/>
       <c r="E3" s="27" t="s">
@@ -10588,10 +10635,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="118"/>
+      <c r="B4" s="119"/>
       <c r="C4" s="29"/>
       <c r="D4" s="4"/>
       <c r="E4" s="27" t="s">

--- a/Project estimation.xlsx
+++ b/Project estimation.xlsx
@@ -986,18 +986,30 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1005,9 +1017,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1019,12 +1028,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1039,18 +1051,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4394,8 +4394,8 @@
   </sheetPr>
   <dimension ref="A1:AC1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4408,26 +4408,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="15">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="107"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="102"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
@@ -4596,7 +4596,7 @@
     </row>
     <row r="9" spans="1:29" ht="15">
       <c r="A9" s="56"/>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="103" t="s">
         <v>87</v>
       </c>
       <c r="C9" s="57" t="s">
@@ -4620,7 +4620,7 @@
     </row>
     <row r="10" spans="1:29" ht="15" hidden="1">
       <c r="A10" s="58"/>
-      <c r="B10" s="98"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="57" t="s">
         <v>26</v>
       </c>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="11" spans="1:29" ht="15" hidden="1">
       <c r="A11" s="58"/>
-      <c r="B11" s="98"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="57" t="s">
         <v>20</v>
       </c>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="12" spans="1:29" ht="15" hidden="1">
       <c r="A12" s="58"/>
-      <c r="B12" s="99"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="57" t="s">
         <v>21</v>
       </c>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="13" spans="1:29" ht="15" hidden="1">
       <c r="A13" s="58"/>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="106" t="s">
         <v>88</v>
       </c>
       <c r="C13" s="57" t="s">
@@ -4706,7 +4706,7 @@
     </row>
     <row r="14" spans="1:29" ht="15" hidden="1">
       <c r="A14" s="58"/>
-      <c r="B14" s="102"/>
+      <c r="B14" s="107"/>
       <c r="C14" s="57" t="s">
         <v>19</v>
       </c>
@@ -4726,7 +4726,7 @@
     </row>
     <row r="15" spans="1:29" ht="15" hidden="1">
       <c r="A15" s="58"/>
-      <c r="B15" s="102"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="57" t="s">
         <v>89</v>
       </c>
@@ -4748,7 +4748,7 @@
     </row>
     <row r="16" spans="1:29" ht="15" hidden="1">
       <c r="A16" s="58"/>
-      <c r="B16" s="103"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="57" t="s">
         <v>25</v>
       </c>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="18" spans="1:29" ht="15" hidden="1">
       <c r="A18" s="58"/>
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="106" t="s">
         <v>96</v>
       </c>
       <c r="C18" s="57" t="s">
@@ -4837,7 +4837,7 @@
     </row>
     <row r="19" spans="1:29" ht="15" hidden="1">
       <c r="A19" s="58"/>
-      <c r="B19" s="103"/>
+      <c r="B19" s="108"/>
       <c r="C19" s="57" t="s">
         <v>98</v>
       </c>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="20" spans="1:29" ht="15" hidden="1">
       <c r="A20" s="56"/>
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="103" t="s">
         <v>97</v>
       </c>
       <c r="C20" s="57" t="s">
@@ -4883,7 +4883,7 @@
     </row>
     <row r="21" spans="1:29" ht="15" hidden="1">
       <c r="A21" s="58"/>
-      <c r="B21" s="98"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="57" t="s">
         <v>29</v>
       </c>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="22" spans="1:29" ht="15" hidden="1">
       <c r="A22" s="58"/>
-      <c r="B22" s="98"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="63" t="s">
         <v>30</v>
       </c>
@@ -4923,7 +4923,7 @@
     </row>
     <row r="23" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A23" s="58"/>
-      <c r="B23" s="98"/>
+      <c r="B23" s="104"/>
       <c r="C23" s="63" t="s">
         <v>99</v>
       </c>
@@ -4945,7 +4945,7 @@
     </row>
     <row r="24" spans="1:29" s="46" customFormat="1" ht="15">
       <c r="A24" s="58"/>
-      <c r="B24" s="98"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="63" t="s">
         <v>100</v>
       </c>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="25" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A25" s="58"/>
-      <c r="B25" s="99"/>
+      <c r="B25" s="105"/>
       <c r="C25" s="63" t="s">
         <v>101</v>
       </c>
@@ -5030,7 +5030,7 @@
     </row>
     <row r="27" spans="1:29" ht="15">
       <c r="A27" s="58"/>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="109" t="s">
         <v>102</v>
       </c>
       <c r="C27" s="57" t="s">
@@ -5054,7 +5054,7 @@
     </row>
     <row r="28" spans="1:29" ht="15" hidden="1">
       <c r="A28" s="67"/>
-      <c r="B28" s="100"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="57" t="s">
         <v>105</v>
       </c>
@@ -5076,7 +5076,7 @@
     </row>
     <row r="29" spans="1:29" ht="15" hidden="1">
       <c r="A29" s="58"/>
-      <c r="B29" s="100"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="57" t="s">
         <v>106</v>
       </c>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="30" spans="1:29" ht="15" hidden="1">
       <c r="A30" s="68"/>
-      <c r="B30" s="100"/>
+      <c r="B30" s="111"/>
       <c r="C30" s="57" t="s">
         <v>107</v>
       </c>
@@ -5118,7 +5118,7 @@
     </row>
     <row r="31" spans="1:29" ht="15" hidden="1">
       <c r="A31" s="68"/>
-      <c r="B31" s="94"/>
+      <c r="B31" s="110"/>
       <c r="C31" s="57" t="s">
         <v>108</v>
       </c>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="32" spans="1:29" ht="15" hidden="1">
       <c r="A32" s="58"/>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="109" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="57" t="s">
@@ -5162,7 +5162,7 @@
     </row>
     <row r="33" spans="1:29" ht="15" hidden="1">
       <c r="A33" s="58"/>
-      <c r="B33" s="100"/>
+      <c r="B33" s="111"/>
       <c r="C33" s="57" t="s">
         <v>109</v>
       </c>
@@ -5184,7 +5184,7 @@
     </row>
     <row r="34" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A34" s="58"/>
-      <c r="B34" s="94"/>
+      <c r="B34" s="110"/>
       <c r="C34" s="57" t="s">
         <v>110</v>
       </c>
@@ -5206,7 +5206,7 @@
     </row>
     <row r="35" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A35" s="58"/>
-      <c r="B35" s="93" t="s">
+      <c r="B35" s="109" t="s">
         <v>103</v>
       </c>
       <c r="C35" s="57" t="s">
@@ -5228,7 +5228,7 @@
     </row>
     <row r="36" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A36" s="58"/>
-      <c r="B36" s="94"/>
+      <c r="B36" s="110"/>
       <c r="C36" s="57" t="s">
         <v>37</v>
       </c>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="37" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A37" s="58"/>
-      <c r="B37" s="101" t="s">
+      <c r="B37" s="106" t="s">
         <v>104</v>
       </c>
       <c r="C37" s="57" t="s">
@@ -5274,7 +5274,7 @@
     </row>
     <row r="38" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A38" s="58"/>
-      <c r="B38" s="102"/>
+      <c r="B38" s="107"/>
       <c r="C38" s="57" t="s">
         <v>112</v>
       </c>
@@ -5294,7 +5294,7 @@
     </row>
     <row r="39" spans="1:29" s="46" customFormat="1" ht="15">
       <c r="A39" s="58"/>
-      <c r="B39" s="103"/>
+      <c r="B39" s="108"/>
       <c r="C39" s="57" t="s">
         <v>36</v>
       </c>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="41" spans="1:29" ht="17.25" customHeight="1">
       <c r="A41" s="58"/>
-      <c r="B41" s="93" t="s">
+      <c r="B41" s="109" t="s">
         <v>113</v>
       </c>
       <c r="C41" s="57" t="s">
@@ -5383,7 +5383,7 @@
     </row>
     <row r="42" spans="1:29" ht="15" hidden="1">
       <c r="A42" s="67"/>
-      <c r="B42" s="94"/>
+      <c r="B42" s="110"/>
       <c r="C42" s="57" t="s">
         <v>116</v>
       </c>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="43" spans="1:29" ht="15" hidden="1">
       <c r="A43" s="58"/>
-      <c r="B43" s="93" t="s">
+      <c r="B43" s="109" t="s">
         <v>114</v>
       </c>
       <c r="C43" s="57" t="s">
@@ -5429,7 +5429,7 @@
     </row>
     <row r="44" spans="1:29" ht="15" hidden="1">
       <c r="A44" s="68"/>
-      <c r="B44" s="94"/>
+      <c r="B44" s="110"/>
       <c r="C44" s="57" t="s">
         <v>117</v>
       </c>
@@ -5451,7 +5451,7 @@
     </row>
     <row r="45" spans="1:29" ht="15" hidden="1">
       <c r="A45" s="68"/>
-      <c r="B45" s="108" t="s">
+      <c r="B45" s="112" t="s">
         <v>115</v>
       </c>
       <c r="C45" s="57" t="s">
@@ -5473,7 +5473,7 @@
     </row>
     <row r="46" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A46" s="68"/>
-      <c r="B46" s="109"/>
+      <c r="B46" s="113"/>
       <c r="C46" s="57" t="s">
         <v>118</v>
       </c>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="47" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A47" s="68"/>
-      <c r="B47" s="109"/>
+      <c r="B47" s="113"/>
       <c r="C47" s="57" t="s">
         <v>119</v>
       </c>
@@ -5517,7 +5517,7 @@
     </row>
     <row r="48" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A48" s="68"/>
-      <c r="B48" s="110"/>
+      <c r="B48" s="114"/>
       <c r="C48" s="57" t="s">
         <v>120</v>
       </c>
@@ -5580,7 +5580,7 @@
     </row>
     <row r="50" spans="1:29" ht="15">
       <c r="A50" s="58"/>
-      <c r="B50" s="111" t="s">
+      <c r="B50" s="115" t="s">
         <v>121</v>
       </c>
       <c r="C50" s="57" t="s">
@@ -5604,7 +5604,7 @@
     </row>
     <row r="51" spans="1:29" ht="15" hidden="1">
       <c r="A51" s="58"/>
-      <c r="B51" s="112"/>
+      <c r="B51" s="116"/>
       <c r="C51" s="57" t="s">
         <v>125</v>
       </c>
@@ -5626,7 +5626,7 @@
     </row>
     <row r="52" spans="1:29" ht="15" hidden="1">
       <c r="A52" s="68"/>
-      <c r="B52" s="95" t="s">
+      <c r="B52" s="93" t="s">
         <v>131</v>
       </c>
       <c r="C52" s="57" t="s">
@@ -5650,7 +5650,7 @@
     </row>
     <row r="53" spans="1:29" s="47" customFormat="1" ht="15" hidden="1">
       <c r="A53" s="68"/>
-      <c r="B53" s="96"/>
+      <c r="B53" s="94"/>
       <c r="C53" s="57" t="s">
         <v>133</v>
       </c>
@@ -5672,7 +5672,7 @@
     </row>
     <row r="54" spans="1:29" ht="15" hidden="1">
       <c r="A54" s="68"/>
-      <c r="B54" s="95" t="s">
+      <c r="B54" s="93" t="s">
         <v>122</v>
       </c>
       <c r="C54" s="57" t="s">
@@ -5694,7 +5694,7 @@
     </row>
     <row r="55" spans="1:29" ht="15" hidden="1">
       <c r="A55" s="67"/>
-      <c r="B55" s="96"/>
+      <c r="B55" s="94"/>
       <c r="C55" s="69" t="s">
         <v>127</v>
       </c>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="56" spans="1:29" ht="15" hidden="1">
       <c r="A56" s="67"/>
-      <c r="B56" s="113" t="s">
+      <c r="B56" s="95" t="s">
         <v>123</v>
       </c>
       <c r="C56" s="69" t="s">
@@ -5733,7 +5733,7 @@
     </row>
     <row r="57" spans="1:29" ht="15" hidden="1">
       <c r="A57" s="67"/>
-      <c r="B57" s="114"/>
+      <c r="B57" s="96"/>
       <c r="C57" s="69" t="s">
         <v>74</v>
       </c>
@@ -5750,7 +5750,7 @@
     </row>
     <row r="58" spans="1:29" ht="15" hidden="1">
       <c r="A58" s="67"/>
-      <c r="B58" s="115"/>
+      <c r="B58" s="97"/>
       <c r="C58" s="69" t="s">
         <v>128</v>
       </c>
@@ -5766,11 +5766,11 @@
       <c r="I58" s="22"/>
     </row>
     <row r="59" spans="1:29" ht="15" hidden="1">
-      <c r="A59" s="116" t="s">
+      <c r="A59" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="116"/>
-      <c r="C59" s="116"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="98"/>
       <c r="D59" s="91">
         <f>SUM(D8,D17,D26,D40,D49)</f>
         <v>305</v>
@@ -5858,10 +5858,7 @@
       <c r="D66" s="71">
         <v>54</v>
       </c>
-      <c r="E66" s="67">
-        <f>F9+F27+F24+F39+F41+F50</f>
-        <v>46</v>
-      </c>
+      <c r="E66" s="67"/>
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
     </row>
@@ -5872,7 +5869,9 @@
       <c r="D67" s="71">
         <v>48</v>
       </c>
-      <c r="E67" s="67"/>
+      <c r="E67" s="67">
+        <v>46</v>
+      </c>
       <c r="H67" s="22"/>
       <c r="I67" s="22"/>
     </row>
@@ -10620,6 +10619,8 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="18">
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B50:B51"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="B56:B58"/>
     <mergeCell ref="A59:C59"/>
@@ -10636,8 +10637,6 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B50:B51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10664,11 +10663,11 @@
       <c r="A1" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="118" t="s">

--- a/Project estimation.xlsx
+++ b/Project estimation.xlsx
@@ -986,6 +986,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1036,21 +1051,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4394,8 +4394,8 @@
   </sheetPr>
   <dimension ref="A1:AC1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4408,26 +4408,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="15">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="102"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
@@ -4564,7 +4564,7 @@
       <c r="E8" s="53"/>
       <c r="F8" s="53">
         <f>SUM(F9:F16)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G8" s="55">
         <v>44284</v>
@@ -4594,9 +4594,9 @@
       <c r="AB8" s="21"/>
       <c r="AC8" s="21"/>
     </row>
-    <row r="9" spans="1:29" ht="15">
+    <row r="9" spans="1:29" ht="15" hidden="1">
       <c r="A9" s="56"/>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="108" t="s">
         <v>87</v>
       </c>
       <c r="C9" s="57" t="s">
@@ -4620,7 +4620,7 @@
     </row>
     <row r="10" spans="1:29" ht="15" hidden="1">
       <c r="A10" s="58"/>
-      <c r="B10" s="104"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="57" t="s">
         <v>26</v>
       </c>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="11" spans="1:29" ht="15" hidden="1">
       <c r="A11" s="58"/>
-      <c r="B11" s="104"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="57" t="s">
         <v>20</v>
       </c>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="12" spans="1:29" ht="15" hidden="1">
       <c r="A12" s="58"/>
-      <c r="B12" s="105"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="57" t="s">
         <v>21</v>
       </c>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="13" spans="1:29" ht="15" hidden="1">
       <c r="A13" s="58"/>
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="111" t="s">
         <v>88</v>
       </c>
       <c r="C13" s="57" t="s">
@@ -4704,9 +4704,9 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:29" ht="15" hidden="1">
+    <row r="14" spans="1:29" ht="15">
       <c r="A14" s="58"/>
-      <c r="B14" s="107"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="57" t="s">
         <v>19</v>
       </c>
@@ -4716,7 +4716,9 @@
       <c r="E14" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="58"/>
+      <c r="F14" s="58">
+        <v>4</v>
+      </c>
       <c r="G14" s="59"/>
       <c r="H14" s="60"/>
       <c r="I14" s="4"/>
@@ -4726,7 +4728,7 @@
     </row>
     <row r="15" spans="1:29" ht="15" hidden="1">
       <c r="A15" s="58"/>
-      <c r="B15" s="107"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="57" t="s">
         <v>89</v>
       </c>
@@ -4748,7 +4750,7 @@
     </row>
     <row r="16" spans="1:29" ht="15" hidden="1">
       <c r="A16" s="58"/>
-      <c r="B16" s="108"/>
+      <c r="B16" s="113"/>
       <c r="C16" s="57" t="s">
         <v>25</v>
       </c>
@@ -4781,7 +4783,7 @@
       <c r="E17" s="53"/>
       <c r="F17" s="53">
         <f>SUM(F18:F25)</f>
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G17" s="55">
         <v>44291</v>
@@ -4813,7 +4815,7 @@
     </row>
     <row r="18" spans="1:29" ht="15" hidden="1">
       <c r="A18" s="58"/>
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="111" t="s">
         <v>96</v>
       </c>
       <c r="C18" s="57" t="s">
@@ -4837,7 +4839,7 @@
     </row>
     <row r="19" spans="1:29" ht="15" hidden="1">
       <c r="A19" s="58"/>
-      <c r="B19" s="108"/>
+      <c r="B19" s="113"/>
       <c r="C19" s="57" t="s">
         <v>98</v>
       </c>
@@ -4859,7 +4861,7 @@
     </row>
     <row r="20" spans="1:29" ht="15" hidden="1">
       <c r="A20" s="56"/>
-      <c r="B20" s="103" t="s">
+      <c r="B20" s="108" t="s">
         <v>97</v>
       </c>
       <c r="C20" s="57" t="s">
@@ -4881,9 +4883,9 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:29" ht="15" hidden="1">
+    <row r="21" spans="1:29" ht="15">
       <c r="A21" s="58"/>
-      <c r="B21" s="104"/>
+      <c r="B21" s="109"/>
       <c r="C21" s="57" t="s">
         <v>29</v>
       </c>
@@ -4893,7 +4895,9 @@
       <c r="E21" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="58"/>
+      <c r="F21" s="58">
+        <v>5</v>
+      </c>
       <c r="G21" s="62"/>
       <c r="H21" s="62"/>
       <c r="I21" s="4"/>
@@ -4903,7 +4907,7 @@
     </row>
     <row r="22" spans="1:29" ht="15" hidden="1">
       <c r="A22" s="58"/>
-      <c r="B22" s="104"/>
+      <c r="B22" s="109"/>
       <c r="C22" s="63" t="s">
         <v>30</v>
       </c>
@@ -4923,7 +4927,7 @@
     </row>
     <row r="23" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A23" s="58"/>
-      <c r="B23" s="104"/>
+      <c r="B23" s="109"/>
       <c r="C23" s="63" t="s">
         <v>99</v>
       </c>
@@ -4943,9 +4947,9 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:29" s="46" customFormat="1" ht="15">
+    <row r="24" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A24" s="58"/>
-      <c r="B24" s="104"/>
+      <c r="B24" s="109"/>
       <c r="C24" s="63" t="s">
         <v>100</v>
       </c>
@@ -4965,9 +4969,9 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
+    <row r="25" spans="1:29" s="46" customFormat="1" ht="15">
       <c r="A25" s="58"/>
-      <c r="B25" s="105"/>
+      <c r="B25" s="110"/>
       <c r="C25" s="63" t="s">
         <v>101</v>
       </c>
@@ -4977,7 +4981,9 @@
       <c r="E25" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="64"/>
+      <c r="F25" s="64">
+        <v>11</v>
+      </c>
       <c r="G25" s="62"/>
       <c r="H25" s="62"/>
       <c r="I25" s="5"/>
@@ -4998,7 +5004,7 @@
       <c r="E26" s="53"/>
       <c r="F26" s="53">
         <f>SUM(F27:F39)</f>
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G26" s="55">
         <v>44298</v>
@@ -5028,9 +5034,9 @@
       <c r="AB26" s="21"/>
       <c r="AC26" s="21"/>
     </row>
-    <row r="27" spans="1:29" ht="15">
+    <row r="27" spans="1:29" ht="15" hidden="1">
       <c r="A27" s="58"/>
-      <c r="B27" s="109" t="s">
+      <c r="B27" s="114" t="s">
         <v>102</v>
       </c>
       <c r="C27" s="57" t="s">
@@ -5054,7 +5060,7 @@
     </row>
     <row r="28" spans="1:29" ht="15" hidden="1">
       <c r="A28" s="67"/>
-      <c r="B28" s="111"/>
+      <c r="B28" s="116"/>
       <c r="C28" s="57" t="s">
         <v>105</v>
       </c>
@@ -5076,7 +5082,7 @@
     </row>
     <row r="29" spans="1:29" ht="15" hidden="1">
       <c r="A29" s="58"/>
-      <c r="B29" s="111"/>
+      <c r="B29" s="116"/>
       <c r="C29" s="57" t="s">
         <v>106</v>
       </c>
@@ -5096,7 +5102,7 @@
     </row>
     <row r="30" spans="1:29" ht="15" hidden="1">
       <c r="A30" s="68"/>
-      <c r="B30" s="111"/>
+      <c r="B30" s="116"/>
       <c r="C30" s="57" t="s">
         <v>107</v>
       </c>
@@ -5118,7 +5124,7 @@
     </row>
     <row r="31" spans="1:29" ht="15" hidden="1">
       <c r="A31" s="68"/>
-      <c r="B31" s="110"/>
+      <c r="B31" s="115"/>
       <c r="C31" s="57" t="s">
         <v>108</v>
       </c>
@@ -5138,7 +5144,7 @@
     </row>
     <row r="32" spans="1:29" ht="15" hidden="1">
       <c r="A32" s="58"/>
-      <c r="B32" s="109" t="s">
+      <c r="B32" s="114" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="57" t="s">
@@ -5162,7 +5168,7 @@
     </row>
     <row r="33" spans="1:29" ht="15" hidden="1">
       <c r="A33" s="58"/>
-      <c r="B33" s="111"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="57" t="s">
         <v>109</v>
       </c>
@@ -5184,7 +5190,7 @@
     </row>
     <row r="34" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A34" s="58"/>
-      <c r="B34" s="110"/>
+      <c r="B34" s="115"/>
       <c r="C34" s="57" t="s">
         <v>110</v>
       </c>
@@ -5204,9 +5210,9 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
+    <row r="35" spans="1:29" s="46" customFormat="1" ht="15">
       <c r="A35" s="58"/>
-      <c r="B35" s="109" t="s">
+      <c r="B35" s="114" t="s">
         <v>103</v>
       </c>
       <c r="C35" s="57" t="s">
@@ -5218,7 +5224,9 @@
       <c r="E35" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F35" s="58"/>
+      <c r="F35" s="58">
+        <v>6</v>
+      </c>
       <c r="G35" s="60"/>
       <c r="H35" s="59"/>
       <c r="I35" s="5"/>
@@ -5228,7 +5236,7 @@
     </row>
     <row r="36" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A36" s="58"/>
-      <c r="B36" s="110"/>
+      <c r="B36" s="115"/>
       <c r="C36" s="57" t="s">
         <v>37</v>
       </c>
@@ -5250,7 +5258,7 @@
     </row>
     <row r="37" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A37" s="58"/>
-      <c r="B37" s="106" t="s">
+      <c r="B37" s="111" t="s">
         <v>104</v>
       </c>
       <c r="C37" s="57" t="s">
@@ -5272,9 +5280,9 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
+    <row r="38" spans="1:29" s="46" customFormat="1" ht="15">
       <c r="A38" s="58"/>
-      <c r="B38" s="107"/>
+      <c r="B38" s="112"/>
       <c r="C38" s="57" t="s">
         <v>112</v>
       </c>
@@ -5284,7 +5292,9 @@
       <c r="E38" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F38" s="58"/>
+      <c r="F38" s="58">
+        <v>5</v>
+      </c>
       <c r="G38" s="60"/>
       <c r="H38" s="59"/>
       <c r="I38" s="5"/>
@@ -5292,9 +5302,9 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:29" s="46" customFormat="1" ht="15">
+    <row r="39" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A39" s="58"/>
-      <c r="B39" s="108"/>
+      <c r="B39" s="113"/>
       <c r="C39" s="57" t="s">
         <v>36</v>
       </c>
@@ -5327,7 +5337,7 @@
       <c r="E40" s="53"/>
       <c r="F40" s="53">
         <f>SUM(F41:F48)</f>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G40" s="55">
         <v>44305</v>
@@ -5357,9 +5367,9 @@
       <c r="AB40" s="21"/>
       <c r="AC40" s="21"/>
     </row>
-    <row r="41" spans="1:29" ht="17.25" customHeight="1">
+    <row r="41" spans="1:29" ht="17.25" hidden="1" customHeight="1">
       <c r="A41" s="58"/>
-      <c r="B41" s="109" t="s">
+      <c r="B41" s="114" t="s">
         <v>113</v>
       </c>
       <c r="C41" s="57" t="s">
@@ -5383,7 +5393,7 @@
     </row>
     <row r="42" spans="1:29" ht="15" hidden="1">
       <c r="A42" s="67"/>
-      <c r="B42" s="110"/>
+      <c r="B42" s="115"/>
       <c r="C42" s="57" t="s">
         <v>116</v>
       </c>
@@ -5405,7 +5415,7 @@
     </row>
     <row r="43" spans="1:29" ht="15" hidden="1">
       <c r="A43" s="58"/>
-      <c r="B43" s="109" t="s">
+      <c r="B43" s="114" t="s">
         <v>114</v>
       </c>
       <c r="C43" s="57" t="s">
@@ -5429,7 +5439,7 @@
     </row>
     <row r="44" spans="1:29" ht="15" hidden="1">
       <c r="A44" s="68"/>
-      <c r="B44" s="110"/>
+      <c r="B44" s="115"/>
       <c r="C44" s="57" t="s">
         <v>117</v>
       </c>
@@ -5451,7 +5461,7 @@
     </row>
     <row r="45" spans="1:29" ht="15" hidden="1">
       <c r="A45" s="68"/>
-      <c r="B45" s="112" t="s">
+      <c r="B45" s="93" t="s">
         <v>115</v>
       </c>
       <c r="C45" s="57" t="s">
@@ -5473,7 +5483,7 @@
     </row>
     <row r="46" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A46" s="68"/>
-      <c r="B46" s="113"/>
+      <c r="B46" s="94"/>
       <c r="C46" s="57" t="s">
         <v>118</v>
       </c>
@@ -5495,7 +5505,7 @@
     </row>
     <row r="47" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A47" s="68"/>
-      <c r="B47" s="113"/>
+      <c r="B47" s="94"/>
       <c r="C47" s="57" t="s">
         <v>119</v>
       </c>
@@ -5515,9 +5525,9 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
+    <row r="48" spans="1:29" s="46" customFormat="1" ht="15">
       <c r="A48" s="68"/>
-      <c r="B48" s="114"/>
+      <c r="B48" s="95"/>
       <c r="C48" s="57" t="s">
         <v>120</v>
       </c>
@@ -5527,7 +5537,9 @@
       <c r="E48" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F48" s="58"/>
+      <c r="F48" s="58">
+        <v>8</v>
+      </c>
       <c r="G48" s="62"/>
       <c r="H48" s="62"/>
       <c r="I48" s="5"/>
@@ -5548,7 +5560,7 @@
       <c r="E49" s="53"/>
       <c r="F49" s="53">
         <f>SUM(F50:F58)</f>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G49" s="55">
         <v>44312</v>
@@ -5578,9 +5590,9 @@
       <c r="AB49" s="21"/>
       <c r="AC49" s="21"/>
     </row>
-    <row r="50" spans="1:29" ht="15">
+    <row r="50" spans="1:29" ht="15" hidden="1">
       <c r="A50" s="58"/>
-      <c r="B50" s="115" t="s">
+      <c r="B50" s="96" t="s">
         <v>121</v>
       </c>
       <c r="C50" s="57" t="s">
@@ -5604,7 +5616,7 @@
     </row>
     <row r="51" spans="1:29" ht="15" hidden="1">
       <c r="A51" s="58"/>
-      <c r="B51" s="116"/>
+      <c r="B51" s="97"/>
       <c r="C51" s="57" t="s">
         <v>125</v>
       </c>
@@ -5626,7 +5638,7 @@
     </row>
     <row r="52" spans="1:29" ht="15" hidden="1">
       <c r="A52" s="68"/>
-      <c r="B52" s="93" t="s">
+      <c r="B52" s="98" t="s">
         <v>131</v>
       </c>
       <c r="C52" s="57" t="s">
@@ -5650,7 +5662,7 @@
     </row>
     <row r="53" spans="1:29" s="47" customFormat="1" ht="15" hidden="1">
       <c r="A53" s="68"/>
-      <c r="B53" s="94"/>
+      <c r="B53" s="99"/>
       <c r="C53" s="57" t="s">
         <v>133</v>
       </c>
@@ -5670,9 +5682,9 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:29" ht="15" hidden="1">
+    <row r="54" spans="1:29" ht="15">
       <c r="A54" s="68"/>
-      <c r="B54" s="93" t="s">
+      <c r="B54" s="98" t="s">
         <v>122</v>
       </c>
       <c r="C54" s="57" t="s">
@@ -5684,7 +5696,9 @@
       <c r="E54" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="F54" s="58"/>
+      <c r="F54" s="58">
+        <v>5</v>
+      </c>
       <c r="G54" s="60"/>
       <c r="H54" s="60"/>
       <c r="I54" s="4"/>
@@ -5694,7 +5708,7 @@
     </row>
     <row r="55" spans="1:29" ht="15" hidden="1">
       <c r="A55" s="67"/>
-      <c r="B55" s="94"/>
+      <c r="B55" s="99"/>
       <c r="C55" s="69" t="s">
         <v>127</v>
       </c>
@@ -5712,7 +5726,7 @@
     </row>
     <row r="56" spans="1:29" ht="15" hidden="1">
       <c r="A56" s="67"/>
-      <c r="B56" s="95" t="s">
+      <c r="B56" s="100" t="s">
         <v>123</v>
       </c>
       <c r="C56" s="69" t="s">
@@ -5731,9 +5745,9 @@
       <c r="H56" s="70"/>
       <c r="I56" s="22"/>
     </row>
-    <row r="57" spans="1:29" ht="15" hidden="1">
+    <row r="57" spans="1:29" ht="15">
       <c r="A57" s="67"/>
-      <c r="B57" s="96"/>
+      <c r="B57" s="101"/>
       <c r="C57" s="69" t="s">
         <v>74</v>
       </c>
@@ -5743,14 +5757,16 @@
       <c r="E57" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="F57" s="67"/>
+      <c r="F57" s="67">
+        <v>2</v>
+      </c>
       <c r="G57" s="67"/>
       <c r="H57" s="70"/>
       <c r="I57" s="22"/>
     </row>
     <row r="58" spans="1:29" ht="15" hidden="1">
       <c r="A58" s="67"/>
-      <c r="B58" s="97"/>
+      <c r="B58" s="102"/>
       <c r="C58" s="69" t="s">
         <v>128</v>
       </c>
@@ -5766,18 +5782,18 @@
       <c r="I58" s="22"/>
     </row>
     <row r="59" spans="1:29" ht="15" hidden="1">
-      <c r="A59" s="98" t="s">
+      <c r="A59" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="98"/>
-      <c r="C59" s="98"/>
+      <c r="B59" s="103"/>
+      <c r="C59" s="103"/>
       <c r="D59" s="91">
         <f>SUM(D8,D17,D26,D40,D49)</f>
         <v>305</v>
       </c>
       <c r="F59" s="46">
         <f>SUM(F8,F17,F26,F40,F49)</f>
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
@@ -5834,7 +5850,10 @@
       <c r="D64" s="71">
         <v>48</v>
       </c>
-      <c r="E64" s="67"/>
+      <c r="E64" s="67">
+        <f>F14+F21+F25+F35+F38+F48+F54+F57</f>
+        <v>46</v>
+      </c>
       <c r="H64" s="22"/>
       <c r="I64" s="22"/>
     </row>
@@ -10614,21 +10633,11 @@
   <autoFilter ref="A7:H59">
     <filterColumn colId="4">
       <filters>
-        <filter val="Diệu Thương"/>
+        <filter val="Thanh"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="18">
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B52:B53"/>
@@ -10637,6 +10646,16 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="A59:C59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10663,11 +10682,11 @@
       <c r="A1" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="118" t="s">

--- a/Project estimation.xlsx
+++ b/Project estimation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\44K223.02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THUONG THUONG\Documents\GitHub\44K223.02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'PROJECT PLAN'!$A$7:$H$59</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -435,10 +435,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -809,10 +808,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -842,10 +841,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -872,7 +871,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -894,22 +893,22 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -952,10 +951,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -970,10 +969,10 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -986,6 +985,45 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1001,12 +1039,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1018,39 +1050,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4395,7 +4394,7 @@
   <dimension ref="A1:AC1014"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4564,7 +4563,7 @@
       <c r="E8" s="53"/>
       <c r="F8" s="53">
         <f>SUM(F9:F16)</f>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G8" s="55">
         <v>44284</v>
@@ -4596,7 +4595,7 @@
     </row>
     <row r="9" spans="1:29" ht="15" hidden="1">
       <c r="A9" s="56"/>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="97" t="s">
         <v>87</v>
       </c>
       <c r="C9" s="57" t="s">
@@ -4620,7 +4619,7 @@
     </row>
     <row r="10" spans="1:29" ht="15" hidden="1">
       <c r="A10" s="58"/>
-      <c r="B10" s="109"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="57" t="s">
         <v>26</v>
       </c>
@@ -4640,9 +4639,9 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:29" ht="15" hidden="1">
+    <row r="11" spans="1:29" ht="15">
       <c r="A11" s="58"/>
-      <c r="B11" s="109"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="57" t="s">
         <v>20</v>
       </c>
@@ -4652,7 +4651,9 @@
       <c r="E11" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="58"/>
+      <c r="F11" s="58">
+        <v>6</v>
+      </c>
       <c r="G11" s="59"/>
       <c r="H11" s="60"/>
       <c r="I11" s="4"/>
@@ -4660,9 +4661,9 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="15" hidden="1">
+    <row r="12" spans="1:29" ht="15">
       <c r="A12" s="58"/>
-      <c r="B12" s="110"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="57" t="s">
         <v>21</v>
       </c>
@@ -4672,7 +4673,9 @@
       <c r="E12" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="58"/>
+      <c r="F12" s="58">
+        <v>6</v>
+      </c>
       <c r="G12" s="59"/>
       <c r="H12" s="60"/>
       <c r="I12" s="4"/>
@@ -4682,7 +4685,7 @@
     </row>
     <row r="13" spans="1:29" ht="15" hidden="1">
       <c r="A13" s="58"/>
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="101" t="s">
         <v>88</v>
       </c>
       <c r="C13" s="57" t="s">
@@ -4704,9 +4707,9 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:29" ht="15">
+    <row r="14" spans="1:29" ht="15" hidden="1">
       <c r="A14" s="58"/>
-      <c r="B14" s="112"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="57" t="s">
         <v>19</v>
       </c>
@@ -4728,7 +4731,7 @@
     </row>
     <row r="15" spans="1:29" ht="15" hidden="1">
       <c r="A15" s="58"/>
-      <c r="B15" s="112"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="57" t="s">
         <v>89</v>
       </c>
@@ -4750,7 +4753,7 @@
     </row>
     <row r="16" spans="1:29" ht="15" hidden="1">
       <c r="A16" s="58"/>
-      <c r="B16" s="113"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="57" t="s">
         <v>25</v>
       </c>
@@ -4783,7 +4786,7 @@
       <c r="E17" s="53"/>
       <c r="F17" s="53">
         <f>SUM(F18:F25)</f>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G17" s="55">
         <v>44291</v>
@@ -4815,7 +4818,7 @@
     </row>
     <row r="18" spans="1:29" ht="15" hidden="1">
       <c r="A18" s="58"/>
-      <c r="B18" s="111" t="s">
+      <c r="B18" s="101" t="s">
         <v>96</v>
       </c>
       <c r="C18" s="57" t="s">
@@ -4839,7 +4842,7 @@
     </row>
     <row r="19" spans="1:29" ht="15" hidden="1">
       <c r="A19" s="58"/>
-      <c r="B19" s="113"/>
+      <c r="B19" s="103"/>
       <c r="C19" s="57" t="s">
         <v>98</v>
       </c>
@@ -4861,7 +4864,7 @@
     </row>
     <row r="20" spans="1:29" ht="15" hidden="1">
       <c r="A20" s="56"/>
-      <c r="B20" s="108" t="s">
+      <c r="B20" s="97" t="s">
         <v>97</v>
       </c>
       <c r="C20" s="57" t="s">
@@ -4883,9 +4886,9 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:29" ht="15">
+    <row r="21" spans="1:29" ht="15" hidden="1">
       <c r="A21" s="58"/>
-      <c r="B21" s="109"/>
+      <c r="B21" s="98"/>
       <c r="C21" s="57" t="s">
         <v>29</v>
       </c>
@@ -4905,9 +4908,9 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:29" ht="15" hidden="1">
+    <row r="22" spans="1:29" ht="15">
       <c r="A22" s="58"/>
-      <c r="B22" s="109"/>
+      <c r="B22" s="98"/>
       <c r="C22" s="63" t="s">
         <v>30</v>
       </c>
@@ -4917,7 +4920,9 @@
       <c r="E22" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="64"/>
+      <c r="F22" s="64">
+        <v>9</v>
+      </c>
       <c r="G22" s="62"/>
       <c r="H22" s="62"/>
       <c r="I22" s="4"/>
@@ -4927,7 +4932,7 @@
     </row>
     <row r="23" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A23" s="58"/>
-      <c r="B23" s="109"/>
+      <c r="B23" s="98"/>
       <c r="C23" s="63" t="s">
         <v>99</v>
       </c>
@@ -4949,7 +4954,7 @@
     </row>
     <row r="24" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A24" s="58"/>
-      <c r="B24" s="109"/>
+      <c r="B24" s="98"/>
       <c r="C24" s="63" t="s">
         <v>100</v>
       </c>
@@ -4969,9 +4974,9 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:29" s="46" customFormat="1" ht="15">
+    <row r="25" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A25" s="58"/>
-      <c r="B25" s="110"/>
+      <c r="B25" s="99"/>
       <c r="C25" s="63" t="s">
         <v>101</v>
       </c>
@@ -5004,7 +5009,7 @@
       <c r="E26" s="53"/>
       <c r="F26" s="53">
         <f>SUM(F27:F39)</f>
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="G26" s="55">
         <v>44298</v>
@@ -5036,7 +5041,7 @@
     </row>
     <row r="27" spans="1:29" ht="15" hidden="1">
       <c r="A27" s="58"/>
-      <c r="B27" s="114" t="s">
+      <c r="B27" s="93" t="s">
         <v>102</v>
       </c>
       <c r="C27" s="57" t="s">
@@ -5060,7 +5065,7 @@
     </row>
     <row r="28" spans="1:29" ht="15" hidden="1">
       <c r="A28" s="67"/>
-      <c r="B28" s="116"/>
+      <c r="B28" s="100"/>
       <c r="C28" s="57" t="s">
         <v>105</v>
       </c>
@@ -5080,9 +5085,9 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:29" ht="15" hidden="1">
+    <row r="29" spans="1:29" ht="15">
       <c r="A29" s="58"/>
-      <c r="B29" s="116"/>
+      <c r="B29" s="100"/>
       <c r="C29" s="57" t="s">
         <v>106</v>
       </c>
@@ -5092,7 +5097,9 @@
       <c r="E29" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="58"/>
+      <c r="F29" s="58">
+        <v>8</v>
+      </c>
       <c r="G29" s="60"/>
       <c r="H29" s="59"/>
       <c r="I29" s="4"/>
@@ -5102,7 +5109,7 @@
     </row>
     <row r="30" spans="1:29" ht="15" hidden="1">
       <c r="A30" s="68"/>
-      <c r="B30" s="116"/>
+      <c r="B30" s="100"/>
       <c r="C30" s="57" t="s">
         <v>107</v>
       </c>
@@ -5122,9 +5129,9 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:29" ht="15" hidden="1">
+    <row r="31" spans="1:29" ht="15">
       <c r="A31" s="68"/>
-      <c r="B31" s="115"/>
+      <c r="B31" s="94"/>
       <c r="C31" s="57" t="s">
         <v>108</v>
       </c>
@@ -5134,7 +5141,9 @@
       <c r="E31" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="F31" s="58"/>
+      <c r="F31" s="58">
+        <v>6</v>
+      </c>
       <c r="G31" s="60"/>
       <c r="H31" s="59"/>
       <c r="I31" s="4"/>
@@ -5144,7 +5153,7 @@
     </row>
     <row r="32" spans="1:29" ht="15" hidden="1">
       <c r="A32" s="58"/>
-      <c r="B32" s="114" t="s">
+      <c r="B32" s="93" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="57" t="s">
@@ -5168,7 +5177,7 @@
     </row>
     <row r="33" spans="1:29" ht="15" hidden="1">
       <c r="A33" s="58"/>
-      <c r="B33" s="116"/>
+      <c r="B33" s="100"/>
       <c r="C33" s="57" t="s">
         <v>109</v>
       </c>
@@ -5190,7 +5199,7 @@
     </row>
     <row r="34" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A34" s="58"/>
-      <c r="B34" s="115"/>
+      <c r="B34" s="94"/>
       <c r="C34" s="57" t="s">
         <v>110</v>
       </c>
@@ -5210,9 +5219,9 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:29" s="46" customFormat="1" ht="15">
+    <row r="35" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A35" s="58"/>
-      <c r="B35" s="114" t="s">
+      <c r="B35" s="93" t="s">
         <v>103</v>
       </c>
       <c r="C35" s="57" t="s">
@@ -5236,7 +5245,7 @@
     </row>
     <row r="36" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A36" s="58"/>
-      <c r="B36" s="115"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="57" t="s">
         <v>37</v>
       </c>
@@ -5258,7 +5267,7 @@
     </row>
     <row r="37" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A37" s="58"/>
-      <c r="B37" s="111" t="s">
+      <c r="B37" s="101" t="s">
         <v>104</v>
       </c>
       <c r="C37" s="57" t="s">
@@ -5280,9 +5289,9 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:29" s="46" customFormat="1" ht="15">
+    <row r="38" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A38" s="58"/>
-      <c r="B38" s="112"/>
+      <c r="B38" s="102"/>
       <c r="C38" s="57" t="s">
         <v>112</v>
       </c>
@@ -5304,7 +5313,7 @@
     </row>
     <row r="39" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A39" s="58"/>
-      <c r="B39" s="113"/>
+      <c r="B39" s="103"/>
       <c r="C39" s="57" t="s">
         <v>36</v>
       </c>
@@ -5337,7 +5346,7 @@
       <c r="E40" s="53"/>
       <c r="F40" s="53">
         <f>SUM(F41:F48)</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G40" s="55">
         <v>44305</v>
@@ -5369,7 +5378,7 @@
     </row>
     <row r="41" spans="1:29" ht="17.25" hidden="1" customHeight="1">
       <c r="A41" s="58"/>
-      <c r="B41" s="114" t="s">
+      <c r="B41" s="93" t="s">
         <v>113</v>
       </c>
       <c r="C41" s="57" t="s">
@@ -5393,7 +5402,7 @@
     </row>
     <row r="42" spans="1:29" ht="15" hidden="1">
       <c r="A42" s="67"/>
-      <c r="B42" s="115"/>
+      <c r="B42" s="94"/>
       <c r="C42" s="57" t="s">
         <v>116</v>
       </c>
@@ -5415,7 +5424,7 @@
     </row>
     <row r="43" spans="1:29" ht="15" hidden="1">
       <c r="A43" s="58"/>
-      <c r="B43" s="114" t="s">
+      <c r="B43" s="93" t="s">
         <v>114</v>
       </c>
       <c r="C43" s="57" t="s">
@@ -5439,7 +5448,7 @@
     </row>
     <row r="44" spans="1:29" ht="15" hidden="1">
       <c r="A44" s="68"/>
-      <c r="B44" s="115"/>
+      <c r="B44" s="94"/>
       <c r="C44" s="57" t="s">
         <v>117</v>
       </c>
@@ -5459,9 +5468,9 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:29" ht="15" hidden="1">
+    <row r="45" spans="1:29" ht="15">
       <c r="A45" s="68"/>
-      <c r="B45" s="93" t="s">
+      <c r="B45" s="108" t="s">
         <v>115</v>
       </c>
       <c r="C45" s="57" t="s">
@@ -5473,7 +5482,9 @@
       <c r="E45" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="58"/>
+      <c r="F45" s="58">
+        <v>10</v>
+      </c>
       <c r="G45" s="62"/>
       <c r="H45" s="62"/>
       <c r="I45" s="4"/>
@@ -5483,7 +5494,7 @@
     </row>
     <row r="46" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A46" s="68"/>
-      <c r="B46" s="94"/>
+      <c r="B46" s="109"/>
       <c r="C46" s="57" t="s">
         <v>118</v>
       </c>
@@ -5505,7 +5516,7 @@
     </row>
     <row r="47" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A47" s="68"/>
-      <c r="B47" s="94"/>
+      <c r="B47" s="109"/>
       <c r="C47" s="57" t="s">
         <v>119</v>
       </c>
@@ -5525,9 +5536,9 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:29" s="46" customFormat="1" ht="15">
+    <row r="48" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A48" s="68"/>
-      <c r="B48" s="95"/>
+      <c r="B48" s="110"/>
       <c r="C48" s="57" t="s">
         <v>120</v>
       </c>
@@ -5560,7 +5571,7 @@
       <c r="E49" s="53"/>
       <c r="F49" s="53">
         <f>SUM(F50:F58)</f>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G49" s="55">
         <v>44312</v>
@@ -5592,7 +5603,7 @@
     </row>
     <row r="50" spans="1:29" ht="15" hidden="1">
       <c r="A50" s="58"/>
-      <c r="B50" s="96" t="s">
+      <c r="B50" s="111" t="s">
         <v>121</v>
       </c>
       <c r="C50" s="57" t="s">
@@ -5616,7 +5627,7 @@
     </row>
     <row r="51" spans="1:29" ht="15" hidden="1">
       <c r="A51" s="58"/>
-      <c r="B51" s="97"/>
+      <c r="B51" s="112"/>
       <c r="C51" s="57" t="s">
         <v>125</v>
       </c>
@@ -5638,7 +5649,7 @@
     </row>
     <row r="52" spans="1:29" ht="15" hidden="1">
       <c r="A52" s="68"/>
-      <c r="B52" s="98" t="s">
+      <c r="B52" s="95" t="s">
         <v>131</v>
       </c>
       <c r="C52" s="57" t="s">
@@ -5662,7 +5673,7 @@
     </row>
     <row r="53" spans="1:29" s="47" customFormat="1" ht="15" hidden="1">
       <c r="A53" s="68"/>
-      <c r="B53" s="99"/>
+      <c r="B53" s="96"/>
       <c r="C53" s="57" t="s">
         <v>133</v>
       </c>
@@ -5682,9 +5693,9 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:29" ht="15">
+    <row r="54" spans="1:29" ht="15" hidden="1">
       <c r="A54" s="68"/>
-      <c r="B54" s="98" t="s">
+      <c r="B54" s="95" t="s">
         <v>122</v>
       </c>
       <c r="C54" s="57" t="s">
@@ -5708,7 +5719,7 @@
     </row>
     <row r="55" spans="1:29" ht="15" hidden="1">
       <c r="A55" s="67"/>
-      <c r="B55" s="99"/>
+      <c r="B55" s="96"/>
       <c r="C55" s="69" t="s">
         <v>127</v>
       </c>
@@ -5726,7 +5737,7 @@
     </row>
     <row r="56" spans="1:29" ht="15" hidden="1">
       <c r="A56" s="67"/>
-      <c r="B56" s="100" t="s">
+      <c r="B56" s="113" t="s">
         <v>123</v>
       </c>
       <c r="C56" s="69" t="s">
@@ -5745,9 +5756,9 @@
       <c r="H56" s="70"/>
       <c r="I56" s="22"/>
     </row>
-    <row r="57" spans="1:29" ht="15">
+    <row r="57" spans="1:29" ht="15" hidden="1">
       <c r="A57" s="67"/>
-      <c r="B57" s="101"/>
+      <c r="B57" s="114"/>
       <c r="C57" s="69" t="s">
         <v>74</v>
       </c>
@@ -5764,9 +5775,9 @@
       <c r="H57" s="70"/>
       <c r="I57" s="22"/>
     </row>
-    <row r="58" spans="1:29" ht="15" hidden="1">
+    <row r="58" spans="1:29" ht="15">
       <c r="A58" s="67"/>
-      <c r="B58" s="102"/>
+      <c r="B58" s="115"/>
       <c r="C58" s="69" t="s">
         <v>128</v>
       </c>
@@ -5776,24 +5787,26 @@
       <c r="E58" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="F58" s="67"/>
+      <c r="F58" s="67">
+        <v>5</v>
+      </c>
       <c r="G58" s="67"/>
       <c r="H58" s="70"/>
       <c r="I58" s="22"/>
     </row>
     <row r="59" spans="1:29" ht="15" hidden="1">
-      <c r="A59" s="103" t="s">
+      <c r="A59" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="103"/>
-      <c r="C59" s="103"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="116"/>
       <c r="D59" s="91">
         <f>SUM(D8,D17,D26,D40,D49)</f>
         <v>305</v>
       </c>
       <c r="F59" s="46">
         <f>SUM(F8,F17,F26,F40,F49)</f>
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
@@ -5877,7 +5890,10 @@
       <c r="D66" s="71">
         <v>54</v>
       </c>
-      <c r="E66" s="67"/>
+      <c r="E66" s="67">
+        <f>F11+F12+F22+F29+F31+F45+F58</f>
+        <v>50</v>
+      </c>
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
     </row>
@@ -10633,11 +10649,19 @@
   <autoFilter ref="A7:H59">
     <filterColumn colId="4">
       <filters>
-        <filter val="Thanh"/>
+        <filter val="Hoài Thương"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="18">
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B52:B53"/>
@@ -10646,16 +10670,8 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="A59:C59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Project estimation.xlsx
+++ b/Project estimation.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THUONG THUONG\Documents\GitHub\44K223.02\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
@@ -20,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'PROJECT PLAN'!$A$7:$H$59</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -985,18 +980,30 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1004,9 +1011,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1018,12 +1022,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1038,18 +1045,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4393,8 +4388,8 @@
   </sheetPr>
   <dimension ref="A1:AC1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4407,26 +4402,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="15">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="107"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="102"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
@@ -4595,7 +4590,7 @@
     </row>
     <row r="9" spans="1:29" ht="15" hidden="1">
       <c r="A9" s="56"/>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="103" t="s">
         <v>87</v>
       </c>
       <c r="C9" s="57" t="s">
@@ -4617,9 +4612,9 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:29" ht="15" hidden="1">
+    <row r="10" spans="1:29" ht="15">
       <c r="A10" s="58"/>
-      <c r="B10" s="98"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="57" t="s">
         <v>26</v>
       </c>
@@ -4639,9 +4634,9 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:29" ht="15">
+    <row r="11" spans="1:29" ht="15" hidden="1">
       <c r="A11" s="58"/>
-      <c r="B11" s="98"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="57" t="s">
         <v>20</v>
       </c>
@@ -4661,9 +4656,9 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="15">
+    <row r="12" spans="1:29" ht="15" hidden="1">
       <c r="A12" s="58"/>
-      <c r="B12" s="99"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="57" t="s">
         <v>21</v>
       </c>
@@ -4685,7 +4680,7 @@
     </row>
     <row r="13" spans="1:29" ht="15" hidden="1">
       <c r="A13" s="58"/>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="106" t="s">
         <v>88</v>
       </c>
       <c r="C13" s="57" t="s">
@@ -4709,7 +4704,7 @@
     </row>
     <row r="14" spans="1:29" ht="15" hidden="1">
       <c r="A14" s="58"/>
-      <c r="B14" s="102"/>
+      <c r="B14" s="107"/>
       <c r="C14" s="57" t="s">
         <v>19</v>
       </c>
@@ -4731,7 +4726,7 @@
     </row>
     <row r="15" spans="1:29" ht="15" hidden="1">
       <c r="A15" s="58"/>
-      <c r="B15" s="102"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="57" t="s">
         <v>89</v>
       </c>
@@ -4751,9 +4746,9 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:29" ht="15" hidden="1">
+    <row r="16" spans="1:29" ht="15">
       <c r="A16" s="58"/>
-      <c r="B16" s="103"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="57" t="s">
         <v>25</v>
       </c>
@@ -4786,7 +4781,7 @@
       <c r="E17" s="53"/>
       <c r="F17" s="53">
         <f>SUM(F18:F25)</f>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G17" s="55">
         <v>44291</v>
@@ -4816,9 +4811,9 @@
       <c r="AB17" s="21"/>
       <c r="AC17" s="21"/>
     </row>
-    <row r="18" spans="1:29" ht="15" hidden="1">
+    <row r="18" spans="1:29" ht="15">
       <c r="A18" s="58"/>
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="106" t="s">
         <v>96</v>
       </c>
       <c r="C18" s="57" t="s">
@@ -4831,7 +4826,7 @@
         <v>91</v>
       </c>
       <c r="F18" s="58">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G18" s="62"/>
       <c r="H18" s="62"/>
@@ -4842,7 +4837,7 @@
     </row>
     <row r="19" spans="1:29" ht="15" hidden="1">
       <c r="A19" s="58"/>
-      <c r="B19" s="103"/>
+      <c r="B19" s="108"/>
       <c r="C19" s="57" t="s">
         <v>98</v>
       </c>
@@ -4864,7 +4859,7 @@
     </row>
     <row r="20" spans="1:29" ht="15" hidden="1">
       <c r="A20" s="56"/>
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="103" t="s">
         <v>97</v>
       </c>
       <c r="C20" s="57" t="s">
@@ -4888,7 +4883,7 @@
     </row>
     <row r="21" spans="1:29" ht="15" hidden="1">
       <c r="A21" s="58"/>
-      <c r="B21" s="98"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="57" t="s">
         <v>29</v>
       </c>
@@ -4908,9 +4903,9 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:29" ht="15">
+    <row r="22" spans="1:29" ht="15" hidden="1">
       <c r="A22" s="58"/>
-      <c r="B22" s="98"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="63" t="s">
         <v>30</v>
       </c>
@@ -4930,9 +4925,9 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
+    <row r="23" spans="1:29" s="46" customFormat="1" ht="15">
       <c r="A23" s="58"/>
-      <c r="B23" s="98"/>
+      <c r="B23" s="104"/>
       <c r="C23" s="63" t="s">
         <v>99</v>
       </c>
@@ -4954,7 +4949,7 @@
     </row>
     <row r="24" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A24" s="58"/>
-      <c r="B24" s="98"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="63" t="s">
         <v>100</v>
       </c>
@@ -4976,7 +4971,7 @@
     </row>
     <row r="25" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A25" s="58"/>
-      <c r="B25" s="99"/>
+      <c r="B25" s="105"/>
       <c r="C25" s="63" t="s">
         <v>101</v>
       </c>
@@ -5009,7 +5004,7 @@
       <c r="E26" s="53"/>
       <c r="F26" s="53">
         <f>SUM(F27:F39)</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G26" s="55">
         <v>44298</v>
@@ -5041,7 +5036,7 @@
     </row>
     <row r="27" spans="1:29" ht="15" hidden="1">
       <c r="A27" s="58"/>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="109" t="s">
         <v>102</v>
       </c>
       <c r="C27" s="57" t="s">
@@ -5063,9 +5058,9 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:29" ht="15" hidden="1">
+    <row r="28" spans="1:29" ht="15">
       <c r="A28" s="67"/>
-      <c r="B28" s="100"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="57" t="s">
         <v>105</v>
       </c>
@@ -5085,9 +5080,9 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:29" ht="15">
+    <row r="29" spans="1:29" ht="15" hidden="1">
       <c r="A29" s="58"/>
-      <c r="B29" s="100"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="57" t="s">
         <v>106</v>
       </c>
@@ -5107,9 +5102,9 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:29" ht="15" hidden="1">
+    <row r="30" spans="1:29" ht="15">
       <c r="A30" s="68"/>
-      <c r="B30" s="100"/>
+      <c r="B30" s="111"/>
       <c r="C30" s="57" t="s">
         <v>107</v>
       </c>
@@ -5120,7 +5115,7 @@
         <v>91</v>
       </c>
       <c r="F30" s="58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G30" s="60"/>
       <c r="H30" s="59"/>
@@ -5129,9 +5124,9 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:29" ht="15">
+    <row r="31" spans="1:29" ht="15" hidden="1">
       <c r="A31" s="68"/>
-      <c r="B31" s="94"/>
+      <c r="B31" s="110"/>
       <c r="C31" s="57" t="s">
         <v>108</v>
       </c>
@@ -5153,7 +5148,7 @@
     </row>
     <row r="32" spans="1:29" ht="15" hidden="1">
       <c r="A32" s="58"/>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="109" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="57" t="s">
@@ -5175,9 +5170,9 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:29" ht="15" hidden="1">
+    <row r="33" spans="1:29" ht="15">
       <c r="A33" s="58"/>
-      <c r="B33" s="100"/>
+      <c r="B33" s="111"/>
       <c r="C33" s="57" t="s">
         <v>109</v>
       </c>
@@ -5199,7 +5194,7 @@
     </row>
     <row r="34" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A34" s="58"/>
-      <c r="B34" s="94"/>
+      <c r="B34" s="110"/>
       <c r="C34" s="57" t="s">
         <v>110</v>
       </c>
@@ -5221,7 +5216,7 @@
     </row>
     <row r="35" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A35" s="58"/>
-      <c r="B35" s="93" t="s">
+      <c r="B35" s="109" t="s">
         <v>103</v>
       </c>
       <c r="C35" s="57" t="s">
@@ -5245,7 +5240,7 @@
     </row>
     <row r="36" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A36" s="58"/>
-      <c r="B36" s="94"/>
+      <c r="B36" s="110"/>
       <c r="C36" s="57" t="s">
         <v>37</v>
       </c>
@@ -5267,7 +5262,7 @@
     </row>
     <row r="37" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A37" s="58"/>
-      <c r="B37" s="101" t="s">
+      <c r="B37" s="106" t="s">
         <v>104</v>
       </c>
       <c r="C37" s="57" t="s">
@@ -5291,7 +5286,7 @@
     </row>
     <row r="38" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A38" s="58"/>
-      <c r="B38" s="102"/>
+      <c r="B38" s="107"/>
       <c r="C38" s="57" t="s">
         <v>112</v>
       </c>
@@ -5313,7 +5308,7 @@
     </row>
     <row r="39" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A39" s="58"/>
-      <c r="B39" s="103"/>
+      <c r="B39" s="108"/>
       <c r="C39" s="57" t="s">
         <v>36</v>
       </c>
@@ -5346,7 +5341,7 @@
       <c r="E40" s="53"/>
       <c r="F40" s="53">
         <f>SUM(F41:F48)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G40" s="55">
         <v>44305</v>
@@ -5378,7 +5373,7 @@
     </row>
     <row r="41" spans="1:29" ht="17.25" hidden="1" customHeight="1">
       <c r="A41" s="58"/>
-      <c r="B41" s="93" t="s">
+      <c r="B41" s="109" t="s">
         <v>113</v>
       </c>
       <c r="C41" s="57" t="s">
@@ -5400,9 +5395,9 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:29" ht="15" hidden="1">
+    <row r="42" spans="1:29" ht="15">
       <c r="A42" s="67"/>
-      <c r="B42" s="94"/>
+      <c r="B42" s="110"/>
       <c r="C42" s="57" t="s">
         <v>116</v>
       </c>
@@ -5422,9 +5417,9 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:29" ht="15" hidden="1">
+    <row r="43" spans="1:29" ht="15">
       <c r="A43" s="58"/>
-      <c r="B43" s="93" t="s">
+      <c r="B43" s="109" t="s">
         <v>114</v>
       </c>
       <c r="C43" s="57" t="s">
@@ -5437,7 +5432,7 @@
         <v>91</v>
       </c>
       <c r="F43" s="58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G43" s="62"/>
       <c r="H43" s="62"/>
@@ -5448,7 +5443,7 @@
     </row>
     <row r="44" spans="1:29" ht="15" hidden="1">
       <c r="A44" s="68"/>
-      <c r="B44" s="94"/>
+      <c r="B44" s="110"/>
       <c r="C44" s="57" t="s">
         <v>117</v>
       </c>
@@ -5468,9 +5463,9 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:29" ht="15">
+    <row r="45" spans="1:29" ht="15" hidden="1">
       <c r="A45" s="68"/>
-      <c r="B45" s="108" t="s">
+      <c r="B45" s="112" t="s">
         <v>115</v>
       </c>
       <c r="C45" s="57" t="s">
@@ -5494,7 +5489,7 @@
     </row>
     <row r="46" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A46" s="68"/>
-      <c r="B46" s="109"/>
+      <c r="B46" s="113"/>
       <c r="C46" s="57" t="s">
         <v>118</v>
       </c>
@@ -5516,7 +5511,7 @@
     </row>
     <row r="47" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A47" s="68"/>
-      <c r="B47" s="109"/>
+      <c r="B47" s="113"/>
       <c r="C47" s="57" t="s">
         <v>119</v>
       </c>
@@ -5538,7 +5533,7 @@
     </row>
     <row r="48" spans="1:29" s="46" customFormat="1" ht="15" hidden="1">
       <c r="A48" s="68"/>
-      <c r="B48" s="110"/>
+      <c r="B48" s="114"/>
       <c r="C48" s="57" t="s">
         <v>120</v>
       </c>
@@ -5603,7 +5598,7 @@
     </row>
     <row r="50" spans="1:29" ht="15" hidden="1">
       <c r="A50" s="58"/>
-      <c r="B50" s="111" t="s">
+      <c r="B50" s="115" t="s">
         <v>121</v>
       </c>
       <c r="C50" s="57" t="s">
@@ -5625,9 +5620,9 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:29" ht="15" hidden="1">
+    <row r="51" spans="1:29" ht="15">
       <c r="A51" s="58"/>
-      <c r="B51" s="112"/>
+      <c r="B51" s="116"/>
       <c r="C51" s="57" t="s">
         <v>125</v>
       </c>
@@ -5649,7 +5644,7 @@
     </row>
     <row r="52" spans="1:29" ht="15" hidden="1">
       <c r="A52" s="68"/>
-      <c r="B52" s="95" t="s">
+      <c r="B52" s="93" t="s">
         <v>131</v>
       </c>
       <c r="C52" s="57" t="s">
@@ -5671,9 +5666,9 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:29" s="47" customFormat="1" ht="15" hidden="1">
+    <row r="53" spans="1:29" s="47" customFormat="1" ht="15">
       <c r="A53" s="68"/>
-      <c r="B53" s="96"/>
+      <c r="B53" s="94"/>
       <c r="C53" s="57" t="s">
         <v>133</v>
       </c>
@@ -5695,7 +5690,7 @@
     </row>
     <row r="54" spans="1:29" ht="15" hidden="1">
       <c r="A54" s="68"/>
-      <c r="B54" s="95" t="s">
+      <c r="B54" s="93" t="s">
         <v>122</v>
       </c>
       <c r="C54" s="57" t="s">
@@ -5719,7 +5714,7 @@
     </row>
     <row r="55" spans="1:29" ht="15" hidden="1">
       <c r="A55" s="67"/>
-      <c r="B55" s="96"/>
+      <c r="B55" s="94"/>
       <c r="C55" s="69" t="s">
         <v>127</v>
       </c>
@@ -5737,7 +5732,7 @@
     </row>
     <row r="56" spans="1:29" ht="15" hidden="1">
       <c r="A56" s="67"/>
-      <c r="B56" s="113" t="s">
+      <c r="B56" s="95" t="s">
         <v>123</v>
       </c>
       <c r="C56" s="69" t="s">
@@ -5758,7 +5753,7 @@
     </row>
     <row r="57" spans="1:29" ht="15" hidden="1">
       <c r="A57" s="67"/>
-      <c r="B57" s="114"/>
+      <c r="B57" s="96"/>
       <c r="C57" s="69" t="s">
         <v>74</v>
       </c>
@@ -5775,9 +5770,9 @@
       <c r="H57" s="70"/>
       <c r="I57" s="22"/>
     </row>
-    <row r="58" spans="1:29" ht="15">
+    <row r="58" spans="1:29" ht="15" hidden="1">
       <c r="A58" s="67"/>
-      <c r="B58" s="115"/>
+      <c r="B58" s="97"/>
       <c r="C58" s="69" t="s">
         <v>128</v>
       </c>
@@ -5795,18 +5790,18 @@
       <c r="I58" s="22"/>
     </row>
     <row r="59" spans="1:29" ht="15" hidden="1">
-      <c r="A59" s="116" t="s">
+      <c r="A59" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="116"/>
-      <c r="C59" s="116"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="98"/>
       <c r="D59" s="91">
         <f>SUM(D8,D17,D26,D40,D49)</f>
         <v>305</v>
       </c>
       <c r="F59" s="46">
         <f>SUM(F8,F17,F26,F40,F49)</f>
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
@@ -5837,7 +5832,7 @@
         <v>49</v>
       </c>
       <c r="E62" s="67">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
@@ -10649,11 +10644,13 @@
   <autoFilter ref="A7:H59">
     <filterColumn colId="4">
       <filters>
-        <filter val="Hoài Thương"/>
+        <filter val="Hương"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="18">
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B50:B51"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="B56:B58"/>
     <mergeCell ref="A59:C59"/>
@@ -10670,8 +10667,6 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B50:B51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10698,11 +10693,11 @@
       <c r="A1" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="118" t="s">
